--- a/Excel_files_for_MISSAR/Prospective_scenarios/2014_q4_start/Historical_graphs_ages_16_69/Economic_scenarios_representation_nov_2020.xlsx
+++ b/Excel_files_for_MISSAR/Prospective_scenarios/2014_q4_start/Historical_graphs_ages_16_69/Economic_scenarios_representation_nov_2020.xlsx
@@ -841,7 +841,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -21052,11 +21052,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="74846718"/>
-        <c:axId val="3920625"/>
+        <c:axId val="68638324"/>
+        <c:axId val="71095290"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74846718"/>
+        <c:axId val="68638324"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21088,14 +21088,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3920625"/>
+        <c:crossAx val="71095290"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3920625"/>
+        <c:axId val="71095290"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -21138,7 +21138,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74846718"/>
+        <c:crossAx val="68638324"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21202,7 +21202,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -31139,7 +31139,7 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.1523</c:v>
+                  <c:v>0.1423</c:v>
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>0.1475</c:v>
@@ -40109,7 +40109,7 @@
                   <c:v>0.5237</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.49</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>0.47</c:v>
@@ -41450,11 +41450,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="20189086"/>
-        <c:axId val="61333473"/>
+        <c:axId val="35159912"/>
+        <c:axId val="39037296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="20189086"/>
+        <c:axId val="35159912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41486,14 +41486,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61333473"/>
+        <c:crossAx val="39037296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61333473"/>
+        <c:axId val="39037296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -41537,7 +41537,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20189086"/>
+        <c:crossAx val="35159912"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -41605,14 +41605,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>604440</xdr:colOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>385920</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>59760</xdr:colOff>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>474480</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
@@ -41622,7 +41622,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="39165840" y="0"/>
+        <a:off x="40846680" y="0"/>
         <a:ext cx="22879800" cy="10789920"/>
       </xdr:xfrm>
       <a:graphic>
@@ -41635,16 +41635,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>424440</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>628560</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>459360</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>30240</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -41652,7 +41652,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="28856520" y="13223880"/>
+        <a:off x="29693520" y="12911400"/>
         <a:ext cx="22826160" cy="10803240"/>
       </xdr:xfrm>
       <a:graphic>
@@ -41799,8 +41799,8 @@
   </sheetPr>
   <dimension ref="A1:BL284"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S159" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG194" activeCellId="0" sqref="AG194"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD147" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AR192" activeCellId="0" sqref="AR192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -54831,7 +54831,7 @@
       </c>
       <c r="BG175" s="1" t="n">
         <f aca="false">(AR190-AM185)/(ROW(AR190)-ROW(AM185))</f>
-        <v>-0.00996506827999998</v>
+        <v>-0.01196506828</v>
       </c>
       <c r="BH175" s="0" t="n">
         <f aca="false">(AS190-AN185)/(ROW(AS190)-ROW(AN185))</f>
@@ -54839,7 +54839,7 @@
       </c>
       <c r="BI175" s="1" t="n">
         <f aca="false">(AT190-AO185)/(ROW(AT190)-ROW(AO185))</f>
-        <v>0.01545988058</v>
+        <v>0.01745988058</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55670,7 +55670,7 @@
       </c>
       <c r="BG183" s="5" t="n">
         <f aca="false">AR190+$AB$175</f>
-        <v>0.128989816675</v>
+        <v>0.118989816675</v>
       </c>
       <c r="BH183" s="1" t="n">
         <f aca="false">AS190+$AC$175</f>
@@ -55678,7 +55678,7 @@
       </c>
       <c r="BI183" s="1" t="n">
         <f aca="false">AT190+$AD$175</f>
-        <v>0.520810658925</v>
+        <v>0.530810658925</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56300,13 +56300,13 @@
       </c>
       <c r="AR190" s="5" t="n">
         <f aca="false">1-(AP190+AQ190+AT190+AS190)</f>
-        <v>0.1523</v>
+        <v>0.1423</v>
       </c>
       <c r="AS190" s="5" t="n">
         <v>0.065</v>
       </c>
       <c r="AT190" s="5" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="AU190" s="8"/>
       <c r="AV190" s="8"/>

--- a/Excel_files_for_MISSAR/Prospective_scenarios/2014_q4_start/Historical_graphs_ages_16_69/Economic_scenarios_representation_nov_2020.xlsx
+++ b/Excel_files_for_MISSAR/Prospective_scenarios/2014_q4_start/Historical_graphs_ages_16_69/Economic_scenarios_representation_nov_2020.xlsx
@@ -841,7 +841,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -852,10 +852,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0524891434325634"/>
-          <c:y val="0.0202849230974544"/>
-          <c:w val="0.917348480080559"/>
-          <c:h val="0.62549627998532"/>
+          <c:x val="0.0524843207217969"/>
+          <c:y val="0.0202855998932337"/>
+          <c:w val="0.917336015970072"/>
+          <c:h val="0.625483784865875"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -866,7 +866,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$6</c:f>
+              <c:f>Sheet1!$F$6:$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2051,7 +2051,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$6</c:f>
+              <c:f>Sheet1!$P$6:$P$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3140,7 +3140,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$6</c:f>
+              <c:f>Sheet1!$K$6:$K$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4244,7 +4244,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$6</c:f>
+              <c:f>Sheet1!$T$6:$T$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5333,7 +5333,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$6</c:f>
+              <c:f>Sheet1!$G$6:$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6521,7 +6521,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$6</c:f>
+              <c:f>Sheet1!$L$6:$L$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7625,7 +7625,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$6</c:f>
+              <c:f>Sheet1!$H$6:$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8810,7 +8810,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$6</c:f>
+              <c:f>Sheet1!$Q$6:$Q$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9899,7 +9899,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$6</c:f>
+              <c:f>Sheet1!$M$6:$M$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11003,7 +11003,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$6</c:f>
+              <c:f>Sheet1!$U$6:$U$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12092,7 +12092,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$6</c:f>
+              <c:f>Sheet1!$I$6:$I$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13277,7 +13277,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$6</c:f>
+              <c:f>Sheet1!$R$6:$R$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14370,7 +14370,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$6</c:f>
+              <c:f>Sheet1!$N$6:$N$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15478,7 +15478,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$6</c:f>
+              <c:f>Sheet1!$V$6:$V$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16567,7 +16567,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$6</c:f>
+              <c:f>Sheet1!$J$6:$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17767,7 +17767,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$6</c:f>
+              <c:f>Sheet1!$S$6:$S$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18856,7 +18856,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$6</c:f>
+              <c:f>Sheet1!$O$6:$O$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19960,7 +19960,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$6</c:f>
+              <c:f>Sheet1!$W$6:$W$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -21052,11 +21052,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="68638324"/>
-        <c:axId val="71095290"/>
+        <c:axId val="13657991"/>
+        <c:axId val="14739751"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68638324"/>
+        <c:axId val="13657991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21088,14 +21088,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71095290"/>
+        <c:crossAx val="14739751"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71095290"/>
+        <c:axId val="14739751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -21138,7 +21138,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68638324"/>
+        <c:crossAx val="13657991"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21202,7 +21202,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -21213,10 +21213,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0465090605138234"/>
-          <c:y val="0.0268243918693769"/>
-          <c:w val="0.940795180342864"/>
-          <c:h val="0.590936354548484"/>
+          <c:x val="0.0465094295032377"/>
+          <c:y val="0.0268252857476091"/>
+          <c:w val="0.940776102471995"/>
+          <c:h val="0.590922723183045"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -21227,7 +21227,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AK$6</c:f>
+              <c:f>Sheet1!$AK$6:$AK$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22415,7 +22415,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AU$6</c:f>
+              <c:f>Sheet1!$AU$6:$AU$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23507,7 +23507,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$6</c:f>
+              <c:f>Sheet1!$AP$6:$AP$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -24614,7 +24614,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AY$6</c:f>
+              <c:f>Sheet1!$AY$6:$AY$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -25706,7 +25706,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AL$6</c:f>
+              <c:f>Sheet1!$AL$6:$AL$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -26894,7 +26894,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AQ$6</c:f>
+              <c:f>Sheet1!$AQ$6:$AQ$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -28001,7 +28001,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AM$6</c:f>
+              <c:f>Sheet1!$AM$6:$AM$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -29186,7 +29186,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AV$6</c:f>
+              <c:f>Sheet1!$AV$6:$AV$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -30278,7 +30278,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AR$6</c:f>
+              <c:f>Sheet1!$AR$6:$AR$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -31385,7 +31385,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AZ$6</c:f>
+              <c:f>Sheet1!$AZ$6:$AZ$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -32477,7 +32477,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AN$6</c:f>
+              <c:f>Sheet1!$AN$6:$AN$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -33662,7 +33662,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AW$6</c:f>
+              <c:f>Sheet1!$AW$6:$AW$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -34754,7 +34754,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AS$6</c:f>
+              <c:f>Sheet1!$AS$6:$AS$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -35861,7 +35861,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BA$6</c:f>
+              <c:f>Sheet1!$BA$6:$BA$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -36953,7 +36953,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AO$6</c:f>
+              <c:f>Sheet1!$AO$6:$AO$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -38156,7 +38156,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AX$6</c:f>
+              <c:f>Sheet1!$AX$6:$AX$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -39248,7 +39248,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AT$6</c:f>
+              <c:f>Sheet1!$AT$6:$AT$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -40355,7 +40355,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BB$6</c:f>
+              <c:f>Sheet1!$BB$6:$BB$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -41450,11 +41450,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="35159912"/>
-        <c:axId val="39037296"/>
+        <c:axId val="38577016"/>
+        <c:axId val="34069276"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35159912"/>
+        <c:axId val="38577016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41486,14 +41486,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39037296"/>
+        <c:crossAx val="34069276"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39037296"/>
+        <c:axId val="34069276"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -41537,7 +41537,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35159912"/>
+        <c:crossAx val="38577016"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -41612,9 +41612,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>474480</xdr:colOff>
+      <xdr:colOff>474120</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -41622,8 +41622,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="40846680" y="0"/>
-        <a:ext cx="22879800" cy="10789920"/>
+        <a:off x="40886640" y="0"/>
+        <a:ext cx="22902480" cy="10789560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -41642,9 +41642,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>83</xdr:col>
-      <xdr:colOff>30240</xdr:colOff>
+      <xdr:colOff>29880</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -41652,8 +41652,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="29693520" y="12911400"/>
-        <a:ext cx="22826160" cy="10803240"/>
+        <a:off x="29722320" y="12911400"/>
+        <a:ext cx="22849200" cy="10802880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -41672,9 +41672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>299880</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -41685,8 +41685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15136920" y="27656280"/>
-          <a:ext cx="300240" cy="300240"/>
+          <a:off x="15151680" y="27656280"/>
+          <a:ext cx="299880" cy="299880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41714,9 +41714,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>617760</xdr:colOff>
+      <xdr:colOff>617400</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -41727,8 +41727,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15454440" y="27656280"/>
-          <a:ext cx="300240" cy="300240"/>
+          <a:off x="15469200" y="27656280"/>
+          <a:ext cx="299880" cy="299880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41756,9 +41756,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>262440</xdr:colOff>
+      <xdr:colOff>262080</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -41769,8 +41769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15782760" y="27656280"/>
-          <a:ext cx="249840" cy="300240"/>
+          <a:off x="15797880" y="27656280"/>
+          <a:ext cx="249480" cy="299880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41799,11 +41799,11 @@
   </sheetPr>
   <dimension ref="A1:BL284"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD147" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AR192" activeCellId="0" sqref="AR192"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P160" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W194" activeCellId="0" sqref="W194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.16"/>
   </cols>

--- a/Excel_files_for_MISSAR/Prospective_scenarios/2014_q4_start/Historical_graphs_ages_16_69/Economic_scenarios_representation_nov_2020.xlsx
+++ b/Excel_files_for_MISSAR/Prospective_scenarios/2014_q4_start/Historical_graphs_ages_16_69/Economic_scenarios_representation_nov_2020.xlsx
@@ -841,7 +841,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -852,10 +852,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0524795075531547"/>
-          <c:y val="0.0202862767341764"/>
-          <c:w val="0.917323576520838"/>
-          <c:h val="0.625471288912615"/>
+          <c:x val="0.0524855817452357"/>
+          <c:y val="0.020286953620287"/>
+          <c:w val="0.91731444332999"/>
+          <c:h val="0.625458792125459"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -21049,11 +21049,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="83059576"/>
-        <c:axId val="54848466"/>
+        <c:axId val="74108156"/>
+        <c:axId val="91190568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83059576"/>
+        <c:axId val="74108156"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21085,14 +21085,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54848466"/>
+        <c:crossAx val="91190568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54848466"/>
+        <c:axId val="91190568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -21135,7 +21135,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83059576"/>
+        <c:crossAx val="74108156"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21199,7 +21199,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -21210,10 +21210,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0465090657265173"/>
-          <c:y val="0.0268261796854172"/>
-          <c:w val="0.940757995467137"/>
-          <c:h val="0.590909090909091"/>
+          <c:x val="0.0465090709180869"/>
+          <c:y val="0.0268270736828073"/>
+          <c:w val="0.940736668499175"/>
+          <c:h val="0.59089545772653"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -23273,229 +23273,229 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="262"/>
                 <c:pt idx="187">
-                  <c:v>0.2741333841</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.274587929554545</c:v>
+                  <c:v>0.280454545454545</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.275042475009091</c:v>
+                  <c:v>0.280909090909091</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.275497020463636</c:v>
+                  <c:v>0.281363636363636</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.275951565918182</c:v>
+                  <c:v>0.281818181818182</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.276406111372727</c:v>
+                  <c:v>0.282272727272727</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.276860656827273</c:v>
+                  <c:v>0.282727272727273</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.277315202281818</c:v>
+                  <c:v>0.283181818181818</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.277769747736363</c:v>
+                  <c:v>0.283636363636363</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.278224293190909</c:v>
+                  <c:v>0.284090909090909</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.278678838645454</c:v>
+                  <c:v>0.284545454545454</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.2791333841</c:v>
+                  <c:v>0.285</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.279587929554545</c:v>
+                  <c:v>0.285454545454545</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.280042475009091</c:v>
+                  <c:v>0.285909090909091</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.280497020463636</c:v>
+                  <c:v>0.286363636363636</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.280951565918181</c:v>
+                  <c:v>0.286818181818181</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.281406111372727</c:v>
+                  <c:v>0.287272727272727</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.281860656827272</c:v>
+                  <c:v>0.287727272727272</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.282315202281818</c:v>
+                  <c:v>0.288181818181818</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.282769747736363</c:v>
+                  <c:v>0.288636363636363</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.283224293190909</c:v>
+                  <c:v>0.289090909090909</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.283678838645454</c:v>
+                  <c:v>0.289545454545454</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.284133384099999</c:v>
+                  <c:v>0.289999999999999</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.284587929554545</c:v>
+                  <c:v>0.290454545454545</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.28504247500909</c:v>
+                  <c:v>0.29090909090909</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.285497020463636</c:v>
+                  <c:v>0.291363636363636</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.285951565918181</c:v>
+                  <c:v>0.291818181818181</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.286406111372727</c:v>
+                  <c:v>0.292272727272727</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.286860656827272</c:v>
+                  <c:v>0.292727272727272</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.287315202281817</c:v>
+                  <c:v>0.293181818181817</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.287769747736363</c:v>
+                  <c:v>0.293636363636363</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.288224293190908</c:v>
+                  <c:v>0.294090909090908</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.288678838645454</c:v>
+                  <c:v>0.294545454545454</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.289133384099999</c:v>
+                  <c:v>0.294999999999999</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.289587929554545</c:v>
+                  <c:v>0.295454545454545</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.29004247500909</c:v>
+                  <c:v>0.29590909090909</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.290497020463635</c:v>
+                  <c:v>0.296363636363635</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.290951565918181</c:v>
+                  <c:v>0.296818181818181</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.291406111372726</c:v>
+                  <c:v>0.297272727272726</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.291860656827272</c:v>
+                  <c:v>0.297727272727272</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.292315202281817</c:v>
+                  <c:v>0.298181818181817</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.292769747736363</c:v>
+                  <c:v>0.298636363636363</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.293224293190908</c:v>
+                  <c:v>0.299090909090908</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.293678838645453</c:v>
+                  <c:v>0.299545454545453</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.294133384099999</c:v>
+                  <c:v>0.299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.294587929554544</c:v>
+                  <c:v>0.300454545454544</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.29504247500909</c:v>
+                  <c:v>0.30090909090909</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.295497020463635</c:v>
+                  <c:v>0.301363636363635</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.295951565918181</c:v>
+                  <c:v>0.301818181818181</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.296406111372726</c:v>
+                  <c:v>0.302272727272726</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.296860656827271</c:v>
+                  <c:v>0.302727272727271</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.297315202281817</c:v>
+                  <c:v>0.303181818181817</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.297769747736362</c:v>
+                  <c:v>0.303636363636362</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.298224293190908</c:v>
+                  <c:v>0.304090909090908</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.298678838645453</c:v>
+                  <c:v>0.304545454545453</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.299133384099999</c:v>
+                  <c:v>0.304999999999999</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.299587929554544</c:v>
+                  <c:v>0.305454545454544</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.300042475009089</c:v>
+                  <c:v>0.305909090909089</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.300497020463635</c:v>
+                  <c:v>0.306363636363635</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.30095156591818</c:v>
+                  <c:v>0.30681818181818</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.301406111372726</c:v>
+                  <c:v>0.307272727272726</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.301860656827271</c:v>
+                  <c:v>0.307727272727271</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.302315202281817</c:v>
+                  <c:v>0.308181818181817</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.302769747736362</c:v>
+                  <c:v>0.308636363636362</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.303224293190907</c:v>
+                  <c:v>0.309090909090908</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.303678838645453</c:v>
+                  <c:v>0.309545454545453</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.304133384099998</c:v>
+                  <c:v>0.309999999999998</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.304587929554544</c:v>
+                  <c:v>0.310454545454544</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.305042475009089</c:v>
+                  <c:v>0.310909090909089</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.305497020463635</c:v>
+                  <c:v>0.311363636363635</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.30595156591818</c:v>
+                  <c:v>0.31181818181818</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.306406111372725</c:v>
+                  <c:v>0.312272727272726</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.306860656827271</c:v>
+                  <c:v>0.312727272727271</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.307315202281816</c:v>
+                  <c:v>0.313181818181816</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0.307769747736362</c:v>
+                  <c:v>0.313636363636362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24374,232 +24374,232 @@
                   <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.27</c:v>
+                  <c:v>0.2741333841</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.2741333841</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.275497020463636</c:v>
+                  <c:v>0.281363636363636</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.276860656827273</c:v>
+                  <c:v>0.282727272727273</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.278224293190909</c:v>
+                  <c:v>0.284090909090909</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.279587929554545</c:v>
+                  <c:v>0.285454545454545</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.280951565918182</c:v>
+                  <c:v>0.286818181818182</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.282315202281818</c:v>
+                  <c:v>0.288181818181818</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.283678838645454</c:v>
+                  <c:v>0.289545454545454</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.285042475009091</c:v>
+                  <c:v>0.290909090909091</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.286406111372727</c:v>
+                  <c:v>0.292272727272727</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.287769747736363</c:v>
+                  <c:v>0.293636363636363</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.2891333841</c:v>
+                  <c:v>0.295</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.290497020463636</c:v>
+                  <c:v>0.296363636363636</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.291860656827272</c:v>
+                  <c:v>0.297727272727272</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.293224293190909</c:v>
+                  <c:v>0.299090909090909</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.294587929554545</c:v>
+                  <c:v>0.300454545454545</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.295951565918181</c:v>
+                  <c:v>0.301818181818182</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.297315202281818</c:v>
+                  <c:v>0.303181818181818</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.298678838645454</c:v>
+                  <c:v>0.304545454545454</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.300042475009091</c:v>
+                  <c:v>0.305909090909091</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.301406111372727</c:v>
+                  <c:v>0.307272727272727</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.302769747736363</c:v>
+                  <c:v>0.308636363636363</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.3041333841</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.305497020463636</c:v>
+                  <c:v>0.311363636363636</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.306860656827272</c:v>
+                  <c:v>0.312727272727272</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.308224293190909</c:v>
+                  <c:v>0.314090909090909</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.309587929554545</c:v>
+                  <c:v>0.315454545454545</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.310951565918181</c:v>
+                  <c:v>0.316818181818181</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.312315202281818</c:v>
+                  <c:v>0.318181818181818</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.313678838645454</c:v>
+                  <c:v>0.319545454545454</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.31504247500909</c:v>
+                  <c:v>0.32090909090909</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.316406111372727</c:v>
+                  <c:v>0.322272727272727</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.317769747736363</c:v>
+                  <c:v>0.323636363636363</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.319133384099999</c:v>
+                  <c:v>0.324999999999999</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.320497020463636</c:v>
+                  <c:v>0.326363636363636</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.321860656827272</c:v>
+                  <c:v>0.327727272727272</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.323224293190908</c:v>
+                  <c:v>0.329090909090908</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.324587929554545</c:v>
+                  <c:v>0.330454545454545</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.325951565918181</c:v>
+                  <c:v>0.331818181818181</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.327315202281817</c:v>
+                  <c:v>0.333181818181817</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.328678838645454</c:v>
+                  <c:v>0.334545454545454</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.33004247500909</c:v>
+                  <c:v>0.33590909090909</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.331406111372726</c:v>
+                  <c:v>0.337272727272726</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.332769747736363</c:v>
+                  <c:v>0.338636363636363</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.334133384099999</c:v>
+                  <c:v>0.339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.335497020463635</c:v>
+                  <c:v>0.341363636363636</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.336860656827272</c:v>
+                  <c:v>0.342727272727272</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.338224293190908</c:v>
+                  <c:v>0.344090909090908</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.339587929554545</c:v>
+                  <c:v>0.345454545454545</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.340951565918181</c:v>
+                  <c:v>0.346818181818181</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.342315202281817</c:v>
+                  <c:v>0.348181818181817</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.343678838645454</c:v>
+                  <c:v>0.349545454545454</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.34504247500909</c:v>
+                  <c:v>0.35090909090909</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.346406111372726</c:v>
+                  <c:v>0.352272727272726</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.347769747736363</c:v>
+                  <c:v>0.353636363636363</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.349133384099999</c:v>
+                  <c:v>0.354999999999999</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.350497020463635</c:v>
+                  <c:v>0.356363636363635</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.351860656827272</c:v>
+                  <c:v>0.357727272727272</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.353224293190908</c:v>
+                  <c:v>0.359090909090908</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.354587929554544</c:v>
+                  <c:v>0.360454545454544</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.355951565918181</c:v>
+                  <c:v>0.361818181818181</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.357315202281817</c:v>
+                  <c:v>0.363181818181817</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.358678838645453</c:v>
+                  <c:v>0.364545454545453</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.36004247500909</c:v>
+                  <c:v>0.36590909090909</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.361406111372726</c:v>
+                  <c:v>0.367272727272726</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.362769747736362</c:v>
+                  <c:v>0.368636363636362</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.364133384099999</c:v>
+                  <c:v>0.369999999999999</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.365497020463635</c:v>
+                  <c:v>0.371363636363635</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.366860656827271</c:v>
+                  <c:v>0.372727272727271</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.368224293190908</c:v>
+                  <c:v>0.374090909090908</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.369587929554544</c:v>
+                  <c:v>0.375454545454544</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.37095156591818</c:v>
+                  <c:v>0.37681818181818</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.372315202281817</c:v>
+                  <c:v>0.378181818181817</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.373678838645453</c:v>
+                  <c:v>0.379545454545453</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0.375042475009089</c:v>
+                  <c:v>0.38090909090909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25469,229 +25469,229 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="262"/>
                 <c:pt idx="187">
-                  <c:v>0.2741333841</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.276406111372727</c:v>
+                  <c:v>0.282272727272727</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.278678838645454</c:v>
+                  <c:v>0.284545454545455</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.280951565918182</c:v>
+                  <c:v>0.286818181818182</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.283224293190909</c:v>
+                  <c:v>0.289090909090909</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.285497020463636</c:v>
+                  <c:v>0.291363636363636</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.287769747736364</c:v>
+                  <c:v>0.293636363636364</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.290042475009091</c:v>
+                  <c:v>0.295909090909091</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.292315202281818</c:v>
+                  <c:v>0.298181818181818</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.294587929554545</c:v>
+                  <c:v>0.300454545454545</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.296860656827273</c:v>
+                  <c:v>0.302727272727273</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.2991333841</c:v>
+                  <c:v>0.305</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.301406111372727</c:v>
+                  <c:v>0.307272727272727</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.303678838645454</c:v>
+                  <c:v>0.309545454545454</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.305951565918182</c:v>
+                  <c:v>0.311818181818182</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.308224293190909</c:v>
+                  <c:v>0.314090909090909</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.310497020463636</c:v>
+                  <c:v>0.316363636363636</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.312769747736363</c:v>
+                  <c:v>0.318636363636363</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.315042475009091</c:v>
+                  <c:v>0.320909090909091</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.317315202281818</c:v>
+                  <c:v>0.323181818181818</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.319587929554545</c:v>
+                  <c:v>0.325454545454545</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.321860656827272</c:v>
+                  <c:v>0.327727272727272</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.3241333841</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.326406111372727</c:v>
+                  <c:v>0.332272727272727</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.328678838645454</c:v>
+                  <c:v>0.334545454545454</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.330951565918181</c:v>
+                  <c:v>0.336818181818181</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.333224293190909</c:v>
+                  <c:v>0.339090909090909</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.335497020463636</c:v>
+                  <c:v>0.341363636363636</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.337769747736363</c:v>
+                  <c:v>0.343636363636363</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.34004247500909</c:v>
+                  <c:v>0.345909090909091</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.342315202281818</c:v>
+                  <c:v>0.348181818181818</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.344587929554545</c:v>
+                  <c:v>0.350454545454545</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.346860656827272</c:v>
+                  <c:v>0.352727272727272</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.3491333841</c:v>
+                  <c:v>0.355</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.351406111372727</c:v>
+                  <c:v>0.357272727272727</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.353678838645454</c:v>
+                  <c:v>0.359545454545454</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.355951565918181</c:v>
+                  <c:v>0.361818181818181</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.358224293190909</c:v>
+                  <c:v>0.364090909090909</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.360497020463636</c:v>
+                  <c:v>0.366363636363636</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.362769747736363</c:v>
+                  <c:v>0.368636363636363</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.36504247500909</c:v>
+                  <c:v>0.37090909090909</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.367315202281818</c:v>
+                  <c:v>0.373181818181818</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.369587929554545</c:v>
+                  <c:v>0.375454545454545</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.371860656827272</c:v>
+                  <c:v>0.377727272727272</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.374133384099999</c:v>
+                  <c:v>0.379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.376406111372727</c:v>
+                  <c:v>0.382272727272727</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.378678838645454</c:v>
+                  <c:v>0.384545454545454</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.380951565918181</c:v>
+                  <c:v>0.386818181818181</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.383224293190908</c:v>
+                  <c:v>0.389090909090908</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.385497020463636</c:v>
+                  <c:v>0.391363636363636</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.387769747736363</c:v>
+                  <c:v>0.393636363636363</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.39004247500909</c:v>
+                  <c:v>0.39590909090909</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.392315202281817</c:v>
+                  <c:v>0.398181818181818</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.394587929554545</c:v>
+                  <c:v>0.400454545454545</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.396860656827272</c:v>
+                  <c:v>0.402727272727272</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.399133384099999</c:v>
+                  <c:v>0.404999999999999</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.401406111372727</c:v>
+                  <c:v>0.407272727272727</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.403678838645454</c:v>
+                  <c:v>0.409545454545454</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.405951565918181</c:v>
+                  <c:v>0.411818181818181</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.408224293190908</c:v>
+                  <c:v>0.414090909090908</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.410497020463636</c:v>
+                  <c:v>0.416363636363636</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.412769747736363</c:v>
+                  <c:v>0.418636363636363</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.41504247500909</c:v>
+                  <c:v>0.42090909090909</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.417315202281817</c:v>
+                  <c:v>0.423181818181817</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.419587929554545</c:v>
+                  <c:v>0.425454545454545</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.421860656827272</c:v>
+                  <c:v>0.427727272727272</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.424133384099999</c:v>
+                  <c:v>0.429999999999999</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.426406111372726</c:v>
+                  <c:v>0.432272727272726</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.428678838645454</c:v>
+                  <c:v>0.434545454545454</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.430951565918181</c:v>
+                  <c:v>0.436818181818181</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.433224293190908</c:v>
+                  <c:v>0.439090909090908</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.435497020463635</c:v>
+                  <c:v>0.441363636363635</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.437769747736363</c:v>
+                  <c:v>0.443636363636363</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.44004247500909</c:v>
+                  <c:v>0.44590909090909</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0.442315202281817</c:v>
+                  <c:v>0.448181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30044,229 +30044,229 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="262"/>
                 <c:pt idx="187">
-                  <c:v>0.2023900322</c:v>
+                  <c:v>0.1965234163</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.202454967264935</c:v>
+                  <c:v>0.196588351364935</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.20251990232987</c:v>
+                  <c:v>0.19665328642987</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.202584837394805</c:v>
+                  <c:v>0.196718221494805</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.20264977245974</c:v>
+                  <c:v>0.19678315655974</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.202714707524675</c:v>
+                  <c:v>0.196848091624675</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.20277964258961</c:v>
+                  <c:v>0.19691302668961</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.202844577654546</c:v>
+                  <c:v>0.196977961754546</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.202909512719481</c:v>
+                  <c:v>0.197042896819481</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.202974447784416</c:v>
+                  <c:v>0.197107831884416</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.203039382849351</c:v>
+                  <c:v>0.197172766949351</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.203104317914286</c:v>
+                  <c:v>0.197237702014286</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.203169252979221</c:v>
+                  <c:v>0.197302637079221</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.203234188044156</c:v>
+                  <c:v>0.197367572144156</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.203299123109091</c:v>
+                  <c:v>0.197432507209091</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.203364058174026</c:v>
+                  <c:v>0.197497442274026</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.203428993238961</c:v>
+                  <c:v>0.197562377338961</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.203493928303896</c:v>
+                  <c:v>0.197627312403896</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.203558863368831</c:v>
+                  <c:v>0.197692247468831</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.203623798433766</c:v>
+                  <c:v>0.197757182533766</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.203688733498702</c:v>
+                  <c:v>0.197822117598702</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.203753668563637</c:v>
+                  <c:v>0.197887052663637</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.203818603628572</c:v>
+                  <c:v>0.197951987728572</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.203883538693507</c:v>
+                  <c:v>0.198016922793507</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.203948473758442</c:v>
+                  <c:v>0.198081857858442</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.204013408823377</c:v>
+                  <c:v>0.198146792923377</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.204078343888312</c:v>
+                  <c:v>0.198211727988312</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.204143278953247</c:v>
+                  <c:v>0.198276663053247</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.204208214018182</c:v>
+                  <c:v>0.198341598118182</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.204273149083117</c:v>
+                  <c:v>0.198406533183117</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.204338084148052</c:v>
+                  <c:v>0.198471468248052</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.204403019212987</c:v>
+                  <c:v>0.198536403312987</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.204467954277922</c:v>
+                  <c:v>0.198601338377922</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.204532889342857</c:v>
+                  <c:v>0.198666273442857</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.204597824407793</c:v>
+                  <c:v>0.198731208507793</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.204662759472728</c:v>
+                  <c:v>0.198796143572728</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.204727694537663</c:v>
+                  <c:v>0.198861078637663</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.204792629602598</c:v>
+                  <c:v>0.198926013702598</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.204857564667533</c:v>
+                  <c:v>0.198990948767533</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.204922499732468</c:v>
+                  <c:v>0.199055883832468</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.204987434797403</c:v>
+                  <c:v>0.199120818897403</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.205052369862338</c:v>
+                  <c:v>0.199185753962338</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.205117304927273</c:v>
+                  <c:v>0.199250689027273</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.205182239992208</c:v>
+                  <c:v>0.199315624092208</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.205247175057143</c:v>
+                  <c:v>0.199380559157143</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.205312110122078</c:v>
+                  <c:v>0.199445494222078</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.205377045187013</c:v>
+                  <c:v>0.199510429287013</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.205441980251948</c:v>
+                  <c:v>0.199575364351948</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.205506915316884</c:v>
+                  <c:v>0.199640299416884</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.205571850381819</c:v>
+                  <c:v>0.199705234481819</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.205636785446754</c:v>
+                  <c:v>0.199770169546754</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.205701720511689</c:v>
+                  <c:v>0.199835104611689</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.205766655576624</c:v>
+                  <c:v>0.199900039676624</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.205831590641559</c:v>
+                  <c:v>0.199964974741559</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.205896525706494</c:v>
+                  <c:v>0.200029909806494</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.205961460771429</c:v>
+                  <c:v>0.200094844871429</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.206026395836364</c:v>
+                  <c:v>0.200159779936364</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.206091330901299</c:v>
+                  <c:v>0.200224715001299</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.206156265966234</c:v>
+                  <c:v>0.200289650066234</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.206221201031169</c:v>
+                  <c:v>0.200354585131169</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.206286136096104</c:v>
+                  <c:v>0.200419520196104</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.20635107116104</c:v>
+                  <c:v>0.200484455261039</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.206416006225975</c:v>
+                  <c:v>0.200549390325975</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.20648094129091</c:v>
+                  <c:v>0.20061432539091</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.206545876355845</c:v>
+                  <c:v>0.200679260455845</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.20661081142078</c:v>
+                  <c:v>0.20074419552078</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.206675746485715</c:v>
+                  <c:v>0.200809130585715</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.20674068155065</c:v>
+                  <c:v>0.20087406565065</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.206805616615585</c:v>
+                  <c:v>0.200939000715585</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.20687055168052</c:v>
+                  <c:v>0.20100393578052</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.206935486745455</c:v>
+                  <c:v>0.201068870845455</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.20700042181039</c:v>
+                  <c:v>0.20113380591039</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.207065356875325</c:v>
+                  <c:v>0.201198740975325</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.20713029194026</c:v>
+                  <c:v>0.20126367604026</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0.207195227005195</c:v>
+                  <c:v>0.201328611105195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31145,232 +31145,232 @@
                   <c:v>0.195</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.205</c:v>
+                  <c:v>0.2008666159</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.2023900322</c:v>
+                  <c:v>0.1965234163</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.20213029194026</c:v>
+                  <c:v>0.19626367604026</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.20187055168052</c:v>
+                  <c:v>0.196003935780519</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.201610811420779</c:v>
+                  <c:v>0.195744195520779</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.201351071161039</c:v>
+                  <c:v>0.195484455261039</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.201091330901299</c:v>
+                  <c:v>0.195224715001299</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.200831590641558</c:v>
+                  <c:v>0.194964974741558</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.200571850381818</c:v>
+                  <c:v>0.194705234481818</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.200312110122078</c:v>
+                  <c:v>0.194445494222078</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.200052369862338</c:v>
+                  <c:v>0.194185753962338</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.199792629602597</c:v>
+                  <c:v>0.193926013702597</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.199532889342857</c:v>
+                  <c:v>0.193666273442857</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.199273149083117</c:v>
+                  <c:v>0.193406533183117</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.199013408823377</c:v>
+                  <c:v>0.193146792923377</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.198753668563636</c:v>
+                  <c:v>0.192887052663636</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.198493928303896</c:v>
+                  <c:v>0.192627312403896</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.198234188044156</c:v>
+                  <c:v>0.192367572144156</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.197974447784416</c:v>
+                  <c:v>0.192107831884416</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.197714707524675</c:v>
+                  <c:v>0.191848091624675</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.197454967264935</c:v>
+                  <c:v>0.191588351364935</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.197195227005195</c:v>
+                  <c:v>0.191328611105195</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.196935486745455</c:v>
+                  <c:v>0.191068870845454</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.196675746485714</c:v>
+                  <c:v>0.190809130585714</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.196416006225974</c:v>
+                  <c:v>0.190549390325974</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.196156265966234</c:v>
+                  <c:v>0.190289650066234</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.195896525706493</c:v>
+                  <c:v>0.190029909806493</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.195636785446753</c:v>
+                  <c:v>0.189770169546753</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.195377045187013</c:v>
+                  <c:v>0.189510429287013</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.195117304927273</c:v>
+                  <c:v>0.189250689027273</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.194857564667532</c:v>
+                  <c:v>0.188990948767532</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.194597824407792</c:v>
+                  <c:v>0.188731208507792</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.194338084148052</c:v>
+                  <c:v>0.188471468248052</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.194078343888312</c:v>
+                  <c:v>0.188211727988312</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.193818603628571</c:v>
+                  <c:v>0.187951987728571</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.193558863368831</c:v>
+                  <c:v>0.187692247468831</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.193299123109091</c:v>
+                  <c:v>0.187432507209091</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.193039382849351</c:v>
+                  <c:v>0.18717276694935</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.19277964258961</c:v>
+                  <c:v>0.18691302668961</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.19251990232987</c:v>
+                  <c:v>0.18665328642987</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.19226016207013</c:v>
+                  <c:v>0.18639354617013</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.192000421810389</c:v>
+                  <c:v>0.186133805910389</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.191740681550649</c:v>
+                  <c:v>0.185874065650649</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.191480941290909</c:v>
+                  <c:v>0.185614325390909</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.191221201031169</c:v>
+                  <c:v>0.185354585131169</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.190961460771428</c:v>
+                  <c:v>0.185094844871428</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.190701720511688</c:v>
+                  <c:v>0.184835104611688</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.190441980251948</c:v>
+                  <c:v>0.184575364351948</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.190182239992208</c:v>
+                  <c:v>0.184315624092208</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.189922499732467</c:v>
+                  <c:v>0.184055883832467</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.189662759472727</c:v>
+                  <c:v>0.183796143572727</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.189403019212987</c:v>
+                  <c:v>0.183536403312987</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.189143278953247</c:v>
+                  <c:v>0.183276663053246</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.188883538693506</c:v>
+                  <c:v>0.183016922793506</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.188623798433766</c:v>
+                  <c:v>0.182757182533766</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.188364058174026</c:v>
+                  <c:v>0.182497442274026</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.188104317914285</c:v>
+                  <c:v>0.182237702014285</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.187844577654545</c:v>
+                  <c:v>0.181977961754545</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.187584837394805</c:v>
+                  <c:v>0.181718221494805</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.187325097135065</c:v>
+                  <c:v>0.181458481235065</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.187065356875324</c:v>
+                  <c:v>0.181198740975324</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.186805616615584</c:v>
+                  <c:v>0.180939000715584</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.186545876355844</c:v>
+                  <c:v>0.180679260455844</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.186286136096104</c:v>
+                  <c:v>0.180419520196104</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.186026395836363</c:v>
+                  <c:v>0.180159779936363</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.185766655576623</c:v>
+                  <c:v>0.179900039676623</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.185506915316883</c:v>
+                  <c:v>0.179640299416883</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.185247175057143</c:v>
+                  <c:v>0.179380559157143</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.184987434797402</c:v>
+                  <c:v>0.179120818897402</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.184727694537662</c:v>
+                  <c:v>0.178861078637662</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.184467954277922</c:v>
+                  <c:v>0.178601338377922</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.184208214018181</c:v>
+                  <c:v>0.178341598118181</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.183948473758441</c:v>
+                  <c:v>0.178081857858441</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.183688733498701</c:v>
+                  <c:v>0.177822117598701</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.183428993238961</c:v>
+                  <c:v>0.177562377338961</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0.18316925297922</c:v>
+                  <c:v>0.17730263707922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32240,229 +32240,229 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="262"/>
                 <c:pt idx="187">
-                  <c:v>0.2023900322</c:v>
+                  <c:v>0.1965234163</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.201805616615584</c:v>
+                  <c:v>0.195939000715584</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.201221201031169</c:v>
+                  <c:v>0.195354585131169</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.200636785446753</c:v>
+                  <c:v>0.194770169546753</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.200052369862338</c:v>
+                  <c:v>0.194185753962338</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.199467954277922</c:v>
+                  <c:v>0.193601338377922</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.198883538693507</c:v>
+                  <c:v>0.193016922793507</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.198299123109091</c:v>
+                  <c:v>0.192432507209091</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.197714707524675</c:v>
+                  <c:v>0.191848091624675</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.19713029194026</c:v>
+                  <c:v>0.19126367604026</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.196545876355844</c:v>
+                  <c:v>0.190679260455844</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.195961460771429</c:v>
+                  <c:v>0.190094844871429</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.195377045187013</c:v>
+                  <c:v>0.189510429287013</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.194792629602598</c:v>
+                  <c:v>0.188926013702598</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.194208214018182</c:v>
+                  <c:v>0.188341598118182</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.193623798433766</c:v>
+                  <c:v>0.187757182533766</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.193039382849351</c:v>
+                  <c:v>0.187172766949351</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.192454967264935</c:v>
+                  <c:v>0.186588351364935</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.19187055168052</c:v>
+                  <c:v>0.18600393578052</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.191286136096104</c:v>
+                  <c:v>0.185419520196104</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.190701720511689</c:v>
+                  <c:v>0.184835104611689</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.190117304927273</c:v>
+                  <c:v>0.184250689027273</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.189532889342857</c:v>
+                  <c:v>0.183666273442857</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.188948473758442</c:v>
+                  <c:v>0.183081857858442</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.188364058174026</c:v>
+                  <c:v>0.182497442274026</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.187779642589611</c:v>
+                  <c:v>0.181913026689611</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.187195227005195</c:v>
+                  <c:v>0.181328611105195</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.18661081142078</c:v>
+                  <c:v>0.180744195520779</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.186026395836364</c:v>
+                  <c:v>0.180159779936364</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.185441980251948</c:v>
+                  <c:v>0.179575364351948</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.184857564667533</c:v>
+                  <c:v>0.178990948767533</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.184273149083117</c:v>
+                  <c:v>0.178406533183117</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.183688733498702</c:v>
+                  <c:v>0.177822117598702</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.183104317914286</c:v>
+                  <c:v>0.177237702014286</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.18251990232987</c:v>
+                  <c:v>0.17665328642987</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.181935486745455</c:v>
+                  <c:v>0.176068870845455</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.181351071161039</c:v>
+                  <c:v>0.175484455261039</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.180766655576624</c:v>
+                  <c:v>0.174900039676624</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.180182239992208</c:v>
+                  <c:v>0.174315624092208</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.179597824407793</c:v>
+                  <c:v>0.173731208507793</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.179013408823377</c:v>
+                  <c:v>0.173146792923377</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.178428993238961</c:v>
+                  <c:v>0.172562377338961</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.177844577654546</c:v>
+                  <c:v>0.171977961754546</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.17726016207013</c:v>
+                  <c:v>0.17139354617013</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.176675746485715</c:v>
+                  <c:v>0.170809130585715</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.176091330901299</c:v>
+                  <c:v>0.170224715001299</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.175506915316884</c:v>
+                  <c:v>0.169640299416884</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.174922499732468</c:v>
+                  <c:v>0.169055883832468</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.174338084148052</c:v>
+                  <c:v>0.168471468248052</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.173753668563637</c:v>
+                  <c:v>0.167887052663637</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.173169252979221</c:v>
+                  <c:v>0.167302637079221</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.172584837394806</c:v>
+                  <c:v>0.166718221494806</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.17200042181039</c:v>
+                  <c:v>0.16613380591039</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.171416006225975</c:v>
+                  <c:v>0.165549390325974</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.170831590641559</c:v>
+                  <c:v>0.164964974741559</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.170247175057143</c:v>
+                  <c:v>0.164380559157143</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.169662759472728</c:v>
+                  <c:v>0.163796143572728</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.169078343888312</c:v>
+                  <c:v>0.163211727988312</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.168493928303897</c:v>
+                  <c:v>0.162627312403897</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.167909512719481</c:v>
+                  <c:v>0.162042896819481</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.167325097135065</c:v>
+                  <c:v>0.161458481235065</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.16674068155065</c:v>
+                  <c:v>0.16087406565065</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.166156265966234</c:v>
+                  <c:v>0.160289650066234</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.165571850381819</c:v>
+                  <c:v>0.159705234481819</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.164987434797403</c:v>
+                  <c:v>0.159120818897403</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.164403019212988</c:v>
+                  <c:v>0.158536403312988</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.163818603628572</c:v>
+                  <c:v>0.157951987728572</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.163234188044156</c:v>
+                  <c:v>0.157367572144156</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.162649772459741</c:v>
+                  <c:v>0.156783156559741</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.162065356875325</c:v>
+                  <c:v>0.156198740975325</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.16148094129091</c:v>
+                  <c:v>0.15561432539091</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.160896525706494</c:v>
+                  <c:v>0.155029909806494</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.160312110122079</c:v>
+                  <c:v>0.154445494222079</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.159727694537663</c:v>
+                  <c:v>0.153861078637663</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0.159143278953247</c:v>
+                  <c:v>0.153276663053247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41444,11 +41444,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="44761976"/>
-        <c:axId val="13510735"/>
+        <c:axId val="13962499"/>
+        <c:axId val="15032182"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44761976"/>
+        <c:axId val="13962499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41480,14 +41480,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13510735"/>
+        <c:crossAx val="15032182"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13510735"/>
+        <c:axId val="15032182"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -41531,7 +41531,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44761976"/>
+        <c:crossAx val="13962499"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -41606,9 +41606,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>473760</xdr:colOff>
+      <xdr:colOff>473400</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -41616,8 +41616,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="40926600" y="0"/>
-        <a:ext cx="22925160" cy="10789200"/>
+        <a:off x="41006520" y="0"/>
+        <a:ext cx="22970520" cy="10788840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -41636,9 +41636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>83</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
+      <xdr:colOff>29160</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -41646,8 +41646,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="29750760" y="12911400"/>
-        <a:ext cx="22872600" cy="10802520"/>
+        <a:off x="29808000" y="12911400"/>
+        <a:ext cx="22919040" cy="10802160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -41666,9 +41666,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>299520</xdr:colOff>
+      <xdr:colOff>299160</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -41679,8 +41679,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15166080" y="27656280"/>
-          <a:ext cx="299520" cy="299520"/>
+          <a:off x="15195240" y="27656280"/>
+          <a:ext cx="299160" cy="299160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41708,9 +41708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>617040</xdr:colOff>
+      <xdr:colOff>616680</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -41721,8 +41721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15483600" y="27656280"/>
-          <a:ext cx="299520" cy="299520"/>
+          <a:off x="15512760" y="27656280"/>
+          <a:ext cx="299160" cy="299160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41750,9 +41750,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>261720</xdr:colOff>
+      <xdr:colOff>261360</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -41763,8 +41763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15813000" y="27656280"/>
-          <a:ext cx="249120" cy="299520"/>
+          <a:off x="15843600" y="27656280"/>
+          <a:ext cx="248760" cy="299160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41793,11 +41793,11 @@
   </sheetPr>
   <dimension ref="A1:BL284"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI169" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO224" activeCellId="0" sqref="AO224"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O234" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W271" activeCellId="0" sqref="W271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.16"/>
   </cols>
@@ -54758,7 +54758,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="2" t="n">
         <f aca="false">(K190-F185)/(ROW(K190)-ROW(F185))</f>
-        <v>-0.00474253456</v>
+        <v>-0.00474253455999999</v>
       </c>
       <c r="AA175" s="1" t="n">
         <f aca="false">(L190-G185)/(ROW(L190)-ROW(G185))</f>
@@ -55066,7 +55066,7 @@
       <c r="Y178" s="5"/>
       <c r="Z178" s="5" t="n">
         <f aca="false">K186+$Z$175</f>
-        <v>-0.00474253456</v>
+        <v>-0.00474253455999999</v>
       </c>
       <c r="AA178" s="5" t="n">
         <f aca="false">L186+$AA$175</f>
@@ -55117,7 +55117,7 @@
       <c r="BD178" s="5"/>
       <c r="BE178" s="5" t="n">
         <f aca="false">AP186+$Z$175</f>
-        <v>-0.00474253456</v>
+        <v>-0.00474253455999999</v>
       </c>
       <c r="BF178" s="5" t="n">
         <f aca="false">AQ186+$AA$175</f>
@@ -55174,7 +55174,7 @@
       <c r="Y179" s="5"/>
       <c r="Z179" s="5" t="n">
         <f aca="false">K187+$Z$175</f>
-        <v>-0.00474253456</v>
+        <v>-0.00474253455999999</v>
       </c>
       <c r="AA179" s="5" t="n">
         <f aca="false">L187+$AA$175</f>
@@ -55225,7 +55225,7 @@
       <c r="BD179" s="5"/>
       <c r="BE179" s="5" t="n">
         <f aca="false">AP187+$Z$175</f>
-        <v>-0.00474253456</v>
+        <v>-0.00474253455999999</v>
       </c>
       <c r="BF179" s="5" t="n">
         <f aca="false">AQ187+$AA$175</f>
@@ -55282,7 +55282,7 @@
       <c r="Y180" s="5"/>
       <c r="Z180" s="5" t="n">
         <f aca="false">K188+$Z$175</f>
-        <v>-0.00474253456</v>
+        <v>-0.00474253455999999</v>
       </c>
       <c r="AA180" s="5" t="n">
         <f aca="false">L188+$AA$175</f>
@@ -55333,7 +55333,7 @@
       <c r="BD180" s="5"/>
       <c r="BE180" s="5" t="n">
         <f aca="false">AP188+$Z$175</f>
-        <v>-0.00474253456</v>
+        <v>-0.00474253455999999</v>
       </c>
       <c r="BF180" s="5" t="n">
         <f aca="false">AQ188+$AA$175</f>
@@ -56142,7 +56142,7 @@
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="1" t="n">
         <f aca="false">K190-AP190</f>
-        <v>0.0893</v>
+        <v>0.0893000000000001</v>
       </c>
       <c r="E189" s="0" t="n">
         <f aca="false">E185+1</f>
@@ -56196,7 +56196,7 @@
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="1" t="n">
         <f aca="false">K190-AP190</f>
-        <v>0.0893</v>
+        <v>0.0893000000000001</v>
       </c>
       <c r="E190" s="0" t="n">
         <f aca="false">E186+1</f>
@@ -56515,14 +56515,15 @@
         <v>1</v>
       </c>
       <c r="AP193" s="5" t="n">
-        <v>0.27</v>
+        <f aca="false">AK186</f>
+        <v>0.2741333841</v>
       </c>
       <c r="AQ193" s="5" t="n">
         <v>0.04</v>
       </c>
       <c r="AR193" s="5" t="n">
         <f aca="false">1-(AP193+AQ193+AT193+AS193)</f>
-        <v>0.205</v>
+        <v>0.2008666159</v>
       </c>
       <c r="AS193" s="5" t="n">
         <v>0.065</v>
@@ -56621,15 +56622,14 @@
         <v>1</v>
       </c>
       <c r="AP194" s="5" t="n">
-        <f aca="false">AK186</f>
-        <v>0.2741333841</v>
+        <v>0.28</v>
       </c>
       <c r="AQ194" s="5" t="n">
         <v>0.04</v>
       </c>
       <c r="AR194" s="5" t="n">
         <f aca="false">1-(AP194+AQ194+AT194+AS194)</f>
-        <v>0.2023900322</v>
+        <v>0.1965234163</v>
       </c>
       <c r="AS194" s="5" t="n">
         <v>0.065</v>
@@ -56640,11 +56640,11 @@
       </c>
       <c r="AU194" s="5" t="n">
         <f aca="false">AP194</f>
-        <v>0.2741333841</v>
+        <v>0.28</v>
       </c>
       <c r="AV194" s="5" t="n">
         <f aca="false">AR194</f>
-        <v>0.2023900322</v>
+        <v>0.1965234163</v>
       </c>
       <c r="AW194" s="5" t="n">
         <f aca="false">AS194</f>
@@ -56656,11 +56656,11 @@
       </c>
       <c r="AY194" s="5" t="n">
         <f aca="false">AP194</f>
-        <v>0.2741333841</v>
+        <v>0.28</v>
       </c>
       <c r="AZ194" s="5" t="n">
         <f aca="false">AR194</f>
-        <v>0.2023900322</v>
+        <v>0.1965234163</v>
       </c>
       <c r="BA194" s="5" t="n">
         <f aca="false">AS194</f>
@@ -56748,7 +56748,7 @@
       </c>
       <c r="AP195" s="5" t="n">
         <f aca="false">AP194+$BE$185</f>
-        <v>0.275497020463636</v>
+        <v>0.281363636363636</v>
       </c>
       <c r="AQ195" s="5" t="n">
         <f aca="false">AQ194+$BF$185</f>
@@ -56756,7 +56756,7 @@
       </c>
       <c r="AR195" s="5" t="n">
         <f aca="false">AR194+$BG$185</f>
-        <v>0.20213029194026</v>
+        <v>0.19626367604026</v>
       </c>
       <c r="AS195" s="5" t="n">
         <f aca="false">AS194+$BH$185</f>
@@ -56768,11 +56768,11 @@
       </c>
       <c r="AU195" s="5" t="n">
         <f aca="false">AU194+$BE$186</f>
-        <v>0.274587929554545</v>
+        <v>0.280454545454545</v>
       </c>
       <c r="AV195" s="5" t="n">
         <f aca="false">AV194+$BF$186</f>
-        <v>0.202454967264935</v>
+        <v>0.196588351364935</v>
       </c>
       <c r="AW195" s="5" t="n">
         <f aca="false">AW194+$BG$186</f>
@@ -56784,11 +56784,11 @@
       </c>
       <c r="AY195" s="5" t="n">
         <f aca="false">AY194+$BI$186</f>
-        <v>0.276406111372727</v>
+        <v>0.282272727272727</v>
       </c>
       <c r="AZ195" s="5" t="n">
         <f aca="false">AZ194+$BJ$186</f>
-        <v>0.201805616615584</v>
+        <v>0.195939000715584</v>
       </c>
       <c r="BA195" s="5" t="n">
         <f aca="false">BA194+$BK$186</f>
@@ -56878,7 +56878,7 @@
       </c>
       <c r="AP196" s="5" t="n">
         <f aca="false">AP195+$BE$185</f>
-        <v>0.276860656827273</v>
+        <v>0.282727272727273</v>
       </c>
       <c r="AQ196" s="5" t="n">
         <f aca="false">AQ195+$BF$185</f>
@@ -56886,7 +56886,7 @@
       </c>
       <c r="AR196" s="5" t="n">
         <f aca="false">AR195+$BG$185</f>
-        <v>0.20187055168052</v>
+        <v>0.196003935780519</v>
       </c>
       <c r="AS196" s="5" t="n">
         <f aca="false">AS195+$BH$185</f>
@@ -56898,11 +56898,11 @@
       </c>
       <c r="AU196" s="5" t="n">
         <f aca="false">AU195+$BE$186</f>
-        <v>0.275042475009091</v>
+        <v>0.280909090909091</v>
       </c>
       <c r="AV196" s="5" t="n">
         <f aca="false">AV195+$BF$186</f>
-        <v>0.20251990232987</v>
+        <v>0.19665328642987</v>
       </c>
       <c r="AW196" s="5" t="n">
         <f aca="false">AW195+$BG$186</f>
@@ -56914,11 +56914,11 @@
       </c>
       <c r="AY196" s="5" t="n">
         <f aca="false">AY195+$BI$186</f>
-        <v>0.278678838645454</v>
+        <v>0.284545454545455</v>
       </c>
       <c r="AZ196" s="5" t="n">
         <f aca="false">AZ195+$BJ$186</f>
-        <v>0.201221201031169</v>
+        <v>0.195354585131169</v>
       </c>
       <c r="BA196" s="5" t="n">
         <f aca="false">BA195+$BK$186</f>
@@ -56937,7 +56937,7 @@
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="1" t="n">
         <f aca="false">K193-AP193</f>
-        <v>0.1025</v>
+        <v>0.0983666159</v>
       </c>
       <c r="E197" s="0" t="n">
         <f aca="false">E193+1</f>
@@ -57006,7 +57006,7 @@
       </c>
       <c r="AP197" s="5" t="n">
         <f aca="false">AP196+$BE$185</f>
-        <v>0.278224293190909</v>
+        <v>0.284090909090909</v>
       </c>
       <c r="AQ197" s="5" t="n">
         <f aca="false">AQ196+$BF$185</f>
@@ -57014,7 +57014,7 @@
       </c>
       <c r="AR197" s="5" t="n">
         <f aca="false">AR196+$BG$185</f>
-        <v>0.201610811420779</v>
+        <v>0.195744195520779</v>
       </c>
       <c r="AS197" s="5" t="n">
         <f aca="false">AS196+$BH$185</f>
@@ -57026,11 +57026,11 @@
       </c>
       <c r="AU197" s="5" t="n">
         <f aca="false">AU196+$BE$186</f>
-        <v>0.275497020463636</v>
+        <v>0.281363636363636</v>
       </c>
       <c r="AV197" s="5" t="n">
         <f aca="false">AV196+$BF$186</f>
-        <v>0.202584837394805</v>
+        <v>0.196718221494805</v>
       </c>
       <c r="AW197" s="5" t="n">
         <f aca="false">AW196+$BG$186</f>
@@ -57042,11 +57042,11 @@
       </c>
       <c r="AY197" s="5" t="n">
         <f aca="false">AY196+$BI$186</f>
-        <v>0.280951565918182</v>
+        <v>0.286818181818182</v>
       </c>
       <c r="AZ197" s="5" t="n">
         <f aca="false">AZ196+$BJ$186</f>
-        <v>0.200636785446753</v>
+        <v>0.194770169546753</v>
       </c>
       <c r="BA197" s="5" t="n">
         <f aca="false">BA196+$BK$186</f>
@@ -57065,7 +57065,7 @@
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="1" t="n">
         <f aca="false">K194-AP194</f>
-        <v>0.1009554672</v>
+        <v>0.0950888513</v>
       </c>
       <c r="E198" s="0" t="n">
         <f aca="false">E194+1</f>
@@ -57134,7 +57134,7 @@
       </c>
       <c r="AP198" s="5" t="n">
         <f aca="false">AP197+$BE$185</f>
-        <v>0.279587929554545</v>
+        <v>0.285454545454545</v>
       </c>
       <c r="AQ198" s="5" t="n">
         <f aca="false">AQ197+$BF$185</f>
@@ -57142,7 +57142,7 @@
       </c>
       <c r="AR198" s="5" t="n">
         <f aca="false">AR197+$BG$185</f>
-        <v>0.201351071161039</v>
+        <v>0.195484455261039</v>
       </c>
       <c r="AS198" s="5" t="n">
         <f aca="false">AS197+$BH$185</f>
@@ -57154,11 +57154,11 @@
       </c>
       <c r="AU198" s="5" t="n">
         <f aca="false">AU197+$BE$186</f>
-        <v>0.275951565918182</v>
+        <v>0.281818181818182</v>
       </c>
       <c r="AV198" s="5" t="n">
         <f aca="false">AV197+$BF$186</f>
-        <v>0.20264977245974</v>
+        <v>0.19678315655974</v>
       </c>
       <c r="AW198" s="5" t="n">
         <f aca="false">AW197+$BG$186</f>
@@ -57170,11 +57170,11 @@
       </c>
       <c r="AY198" s="5" t="n">
         <f aca="false">AY197+$BI$186</f>
-        <v>0.283224293190909</v>
+        <v>0.289090909090909</v>
       </c>
       <c r="AZ198" s="5" t="n">
         <f aca="false">AZ197+$BJ$186</f>
-        <v>0.200052369862338</v>
+        <v>0.194185753962338</v>
       </c>
       <c r="BA198" s="5" t="n">
         <f aca="false">BA197+$BK$186</f>
@@ -57193,7 +57193,7 @@
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="1" t="n">
         <f aca="false">K195-AP195</f>
-        <v>0.101020402264935</v>
+        <v>0.0951537863649351</v>
       </c>
       <c r="E199" s="0" t="n">
         <f aca="false">E195+1</f>
@@ -57262,7 +57262,7 @@
       </c>
       <c r="AP199" s="5" t="n">
         <f aca="false">AP198+$BE$185</f>
-        <v>0.280951565918182</v>
+        <v>0.286818181818182</v>
       </c>
       <c r="AQ199" s="5" t="n">
         <f aca="false">AQ198+$BF$185</f>
@@ -57270,7 +57270,7 @@
       </c>
       <c r="AR199" s="5" t="n">
         <f aca="false">AR198+$BG$185</f>
-        <v>0.201091330901299</v>
+        <v>0.195224715001299</v>
       </c>
       <c r="AS199" s="5" t="n">
         <f aca="false">AS198+$BH$185</f>
@@ -57282,11 +57282,11 @@
       </c>
       <c r="AU199" s="5" t="n">
         <f aca="false">AU198+$BE$186</f>
-        <v>0.276406111372727</v>
+        <v>0.282272727272727</v>
       </c>
       <c r="AV199" s="5" t="n">
         <f aca="false">AV198+$BF$186</f>
-        <v>0.202714707524675</v>
+        <v>0.196848091624675</v>
       </c>
       <c r="AW199" s="5" t="n">
         <f aca="false">AW198+$BG$186</f>
@@ -57298,11 +57298,11 @@
       </c>
       <c r="AY199" s="5" t="n">
         <f aca="false">AY198+$BI$186</f>
-        <v>0.285497020463636</v>
+        <v>0.291363636363636</v>
       </c>
       <c r="AZ199" s="5" t="n">
         <f aca="false">AZ198+$BJ$186</f>
-        <v>0.199467954277922</v>
+        <v>0.193601338377922</v>
       </c>
       <c r="BA199" s="5" t="n">
         <f aca="false">BA198+$BK$186</f>
@@ -57321,7 +57321,7 @@
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="1" t="n">
         <f aca="false">K196-AP196</f>
-        <v>0.10108533732987</v>
+        <v>0.0952187214298702</v>
       </c>
       <c r="E200" s="0" t="n">
         <f aca="false">E196+1</f>
@@ -57390,7 +57390,7 @@
       </c>
       <c r="AP200" s="5" t="n">
         <f aca="false">AP199+$BE$185</f>
-        <v>0.282315202281818</v>
+        <v>0.288181818181818</v>
       </c>
       <c r="AQ200" s="5" t="n">
         <f aca="false">AQ199+$BF$185</f>
@@ -57398,7 +57398,7 @@
       </c>
       <c r="AR200" s="5" t="n">
         <f aca="false">AR199+$BG$185</f>
-        <v>0.200831590641558</v>
+        <v>0.194964974741558</v>
       </c>
       <c r="AS200" s="5" t="n">
         <f aca="false">AS199+$BH$185</f>
@@ -57410,11 +57410,11 @@
       </c>
       <c r="AU200" s="5" t="n">
         <f aca="false">AU199+$BE$186</f>
-        <v>0.276860656827273</v>
+        <v>0.282727272727273</v>
       </c>
       <c r="AV200" s="5" t="n">
         <f aca="false">AV199+$BF$186</f>
-        <v>0.20277964258961</v>
+        <v>0.19691302668961</v>
       </c>
       <c r="AW200" s="5" t="n">
         <f aca="false">AW199+$BG$186</f>
@@ -57426,11 +57426,11 @@
       </c>
       <c r="AY200" s="5" t="n">
         <f aca="false">AY199+$BI$186</f>
-        <v>0.287769747736364</v>
+        <v>0.293636363636364</v>
       </c>
       <c r="AZ200" s="5" t="n">
         <f aca="false">AZ199+$BJ$186</f>
-        <v>0.198883538693507</v>
+        <v>0.193016922793507</v>
       </c>
       <c r="BA200" s="5" t="n">
         <f aca="false">BA199+$BK$186</f>
@@ -57449,7 +57449,7 @@
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="1" t="n">
         <f aca="false">K197-AP197</f>
-        <v>0.101150272394805</v>
+        <v>0.0952836564948053</v>
       </c>
       <c r="E201" s="0" t="n">
         <f aca="false">E197+1</f>
@@ -57518,7 +57518,7 @@
       </c>
       <c r="AP201" s="5" t="n">
         <f aca="false">AP200+$BE$185</f>
-        <v>0.283678838645454</v>
+        <v>0.289545454545454</v>
       </c>
       <c r="AQ201" s="5" t="n">
         <f aca="false">AQ200+$BF$185</f>
@@ -57526,7 +57526,7 @@
       </c>
       <c r="AR201" s="5" t="n">
         <f aca="false">AR200+$BG$185</f>
-        <v>0.200571850381818</v>
+        <v>0.194705234481818</v>
       </c>
       <c r="AS201" s="5" t="n">
         <f aca="false">AS200+$BH$185</f>
@@ -57538,11 +57538,11 @@
       </c>
       <c r="AU201" s="5" t="n">
         <f aca="false">AU200+$BE$186</f>
-        <v>0.277315202281818</v>
+        <v>0.283181818181818</v>
       </c>
       <c r="AV201" s="5" t="n">
         <f aca="false">AV200+$BF$186</f>
-        <v>0.202844577654546</v>
+        <v>0.196977961754546</v>
       </c>
       <c r="AW201" s="5" t="n">
         <f aca="false">AW200+$BG$186</f>
@@ -57554,11 +57554,11 @@
       </c>
       <c r="AY201" s="5" t="n">
         <f aca="false">AY200+$BI$186</f>
-        <v>0.290042475009091</v>
+        <v>0.295909090909091</v>
       </c>
       <c r="AZ201" s="5" t="n">
         <f aca="false">AZ200+$BJ$186</f>
-        <v>0.198299123109091</v>
+        <v>0.192432507209091</v>
       </c>
       <c r="BA201" s="5" t="n">
         <f aca="false">BA200+$BK$186</f>
@@ -57577,7 +57577,7 @@
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="1" t="n">
         <f aca="false">K198-AP198</f>
-        <v>0.101215207459741</v>
+        <v>0.0953485915597404</v>
       </c>
       <c r="E202" s="0" t="n">
         <f aca="false">E198+1</f>
@@ -57646,7 +57646,7 @@
       </c>
       <c r="AP202" s="5" t="n">
         <f aca="false">AP201+$BE$185</f>
-        <v>0.285042475009091</v>
+        <v>0.290909090909091</v>
       </c>
       <c r="AQ202" s="5" t="n">
         <f aca="false">AQ201+$BF$185</f>
@@ -57654,7 +57654,7 @@
       </c>
       <c r="AR202" s="5" t="n">
         <f aca="false">AR201+$BG$185</f>
-        <v>0.200312110122078</v>
+        <v>0.194445494222078</v>
       </c>
       <c r="AS202" s="5" t="n">
         <f aca="false">AS201+$BH$185</f>
@@ -57666,11 +57666,11 @@
       </c>
       <c r="AU202" s="5" t="n">
         <f aca="false">AU201+$BE$186</f>
-        <v>0.277769747736363</v>
+        <v>0.283636363636363</v>
       </c>
       <c r="AV202" s="5" t="n">
         <f aca="false">AV201+$BF$186</f>
-        <v>0.202909512719481</v>
+        <v>0.197042896819481</v>
       </c>
       <c r="AW202" s="5" t="n">
         <f aca="false">AW201+$BG$186</f>
@@ -57682,11 +57682,11 @@
       </c>
       <c r="AY202" s="5" t="n">
         <f aca="false">AY201+$BI$186</f>
-        <v>0.292315202281818</v>
+        <v>0.298181818181818</v>
       </c>
       <c r="AZ202" s="5" t="n">
         <f aca="false">AZ201+$BJ$186</f>
-        <v>0.197714707524675</v>
+        <v>0.191848091624675</v>
       </c>
       <c r="BA202" s="5" t="n">
         <f aca="false">BA201+$BK$186</f>
@@ -57705,7 +57705,7 @@
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="1" t="n">
         <f aca="false">K199-AP199</f>
-        <v>0.101280142524675</v>
+        <v>0.0954135266246755</v>
       </c>
       <c r="E203" s="0" t="n">
         <f aca="false">E199+1</f>
@@ -57774,7 +57774,7 @@
       </c>
       <c r="AP203" s="5" t="n">
         <f aca="false">AP202+$BE$185</f>
-        <v>0.286406111372727</v>
+        <v>0.292272727272727</v>
       </c>
       <c r="AQ203" s="5" t="n">
         <f aca="false">AQ202+$BF$185</f>
@@ -57782,7 +57782,7 @@
       </c>
       <c r="AR203" s="5" t="n">
         <f aca="false">AR202+$BG$185</f>
-        <v>0.200052369862338</v>
+        <v>0.194185753962338</v>
       </c>
       <c r="AS203" s="5" t="n">
         <f aca="false">AS202+$BH$185</f>
@@ -57794,11 +57794,11 @@
       </c>
       <c r="AU203" s="5" t="n">
         <f aca="false">AU202+$BE$186</f>
-        <v>0.278224293190909</v>
+        <v>0.284090909090909</v>
       </c>
       <c r="AV203" s="5" t="n">
         <f aca="false">AV202+$BF$186</f>
-        <v>0.202974447784416</v>
+        <v>0.197107831884416</v>
       </c>
       <c r="AW203" s="5" t="n">
         <f aca="false">AW202+$BG$186</f>
@@ -57810,11 +57810,11 @@
       </c>
       <c r="AY203" s="5" t="n">
         <f aca="false">AY202+$BI$186</f>
-        <v>0.294587929554545</v>
+        <v>0.300454545454545</v>
       </c>
       <c r="AZ203" s="5" t="n">
         <f aca="false">AZ202+$BJ$186</f>
-        <v>0.19713029194026</v>
+        <v>0.19126367604026</v>
       </c>
       <c r="BA203" s="5" t="n">
         <f aca="false">BA202+$BK$186</f>
@@ -57833,7 +57833,7 @@
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="1" t="n">
         <f aca="false">K200-AP200</f>
-        <v>0.101345077589611</v>
+        <v>0.0954784616896106</v>
       </c>
       <c r="E204" s="0" t="n">
         <f aca="false">E200+1</f>
@@ -57902,7 +57902,7 @@
       </c>
       <c r="AP204" s="5" t="n">
         <f aca="false">AP203+$BE$185</f>
-        <v>0.287769747736363</v>
+        <v>0.293636363636363</v>
       </c>
       <c r="AQ204" s="5" t="n">
         <f aca="false">AQ203+$BF$185</f>
@@ -57910,7 +57910,7 @@
       </c>
       <c r="AR204" s="5" t="n">
         <f aca="false">AR203+$BG$185</f>
-        <v>0.199792629602597</v>
+        <v>0.193926013702597</v>
       </c>
       <c r="AS204" s="5" t="n">
         <f aca="false">AS203+$BH$185</f>
@@ -57922,11 +57922,11 @@
       </c>
       <c r="AU204" s="5" t="n">
         <f aca="false">AU203+$BE$186</f>
-        <v>0.278678838645454</v>
+        <v>0.284545454545454</v>
       </c>
       <c r="AV204" s="5" t="n">
         <f aca="false">AV203+$BF$186</f>
-        <v>0.203039382849351</v>
+        <v>0.197172766949351</v>
       </c>
       <c r="AW204" s="5" t="n">
         <f aca="false">AW203+$BG$186</f>
@@ -57938,11 +57938,11 @@
       </c>
       <c r="AY204" s="5" t="n">
         <f aca="false">AY203+$BI$186</f>
-        <v>0.296860656827273</v>
+        <v>0.302727272727273</v>
       </c>
       <c r="AZ204" s="5" t="n">
         <f aca="false">AZ203+$BJ$186</f>
-        <v>0.196545876355844</v>
+        <v>0.190679260455844</v>
       </c>
       <c r="BA204" s="5" t="n">
         <f aca="false">BA203+$BK$186</f>
@@ -57961,7 +57961,7 @@
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="1" t="n">
         <f aca="false">K201-AP201</f>
-        <v>0.101410012654546</v>
+        <v>0.0955433967545457</v>
       </c>
       <c r="E205" s="0" t="n">
         <f aca="false">E201+1</f>
@@ -58030,7 +58030,7 @@
       </c>
       <c r="AP205" s="5" t="n">
         <f aca="false">AP204+$BE$185</f>
-        <v>0.2891333841</v>
+        <v>0.295</v>
       </c>
       <c r="AQ205" s="5" t="n">
         <f aca="false">AQ204+$BF$185</f>
@@ -58038,7 +58038,7 @@
       </c>
       <c r="AR205" s="5" t="n">
         <f aca="false">AR204+$BG$185</f>
-        <v>0.199532889342857</v>
+        <v>0.193666273442857</v>
       </c>
       <c r="AS205" s="5" t="n">
         <f aca="false">AS204+$BH$185</f>
@@ -58050,11 +58050,11 @@
       </c>
       <c r="AU205" s="5" t="n">
         <f aca="false">AU204+$BE$186</f>
-        <v>0.2791333841</v>
+        <v>0.285</v>
       </c>
       <c r="AV205" s="5" t="n">
         <f aca="false">AV204+$BF$186</f>
-        <v>0.203104317914286</v>
+        <v>0.197237702014286</v>
       </c>
       <c r="AW205" s="5" t="n">
         <f aca="false">AW204+$BG$186</f>
@@ -58066,11 +58066,11 @@
       </c>
       <c r="AY205" s="5" t="n">
         <f aca="false">AY204+$BI$186</f>
-        <v>0.2991333841</v>
+        <v>0.305</v>
       </c>
       <c r="AZ205" s="5" t="n">
         <f aca="false">AZ204+$BJ$186</f>
-        <v>0.195961460771429</v>
+        <v>0.190094844871429</v>
       </c>
       <c r="BA205" s="5" t="n">
         <f aca="false">BA204+$BK$186</f>
@@ -58089,7 +58089,7 @@
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="1" t="n">
         <f aca="false">K202-AP202</f>
-        <v>0.101474947719481</v>
+        <v>0.0956083318194808</v>
       </c>
       <c r="E206" s="0" t="n">
         <f aca="false">E202+1</f>
@@ -58158,7 +58158,7 @@
       </c>
       <c r="AP206" s="5" t="n">
         <f aca="false">AP205+$BE$185</f>
-        <v>0.290497020463636</v>
+        <v>0.296363636363636</v>
       </c>
       <c r="AQ206" s="5" t="n">
         <f aca="false">AQ205+$BF$185</f>
@@ -58166,7 +58166,7 @@
       </c>
       <c r="AR206" s="5" t="n">
         <f aca="false">AR205+$BG$185</f>
-        <v>0.199273149083117</v>
+        <v>0.193406533183117</v>
       </c>
       <c r="AS206" s="5" t="n">
         <f aca="false">AS205+$BH$185</f>
@@ -58178,11 +58178,11 @@
       </c>
       <c r="AU206" s="5" t="n">
         <f aca="false">AU205+$BE$186</f>
-        <v>0.279587929554545</v>
+        <v>0.285454545454545</v>
       </c>
       <c r="AV206" s="5" t="n">
         <f aca="false">AV205+$BF$186</f>
-        <v>0.203169252979221</v>
+        <v>0.197302637079221</v>
       </c>
       <c r="AW206" s="5" t="n">
         <f aca="false">AW205+$BG$186</f>
@@ -58194,11 +58194,11 @@
       </c>
       <c r="AY206" s="5" t="n">
         <f aca="false">AY205+$BI$186</f>
-        <v>0.301406111372727</v>
+        <v>0.307272727272727</v>
       </c>
       <c r="AZ206" s="5" t="n">
         <f aca="false">AZ205+$BJ$186</f>
-        <v>0.195377045187013</v>
+        <v>0.189510429287013</v>
       </c>
       <c r="BA206" s="5" t="n">
         <f aca="false">BA205+$BK$186</f>
@@ -58217,7 +58217,7 @@
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="1" t="n">
         <f aca="false">K203-AP203</f>
-        <v>0.101539882784416</v>
+        <v>0.0956732668844159</v>
       </c>
       <c r="E207" s="0" t="n">
         <f aca="false">E203+1</f>
@@ -58286,7 +58286,7 @@
       </c>
       <c r="AP207" s="5" t="n">
         <f aca="false">AP206+$BE$185</f>
-        <v>0.291860656827272</v>
+        <v>0.297727272727272</v>
       </c>
       <c r="AQ207" s="5" t="n">
         <f aca="false">AQ206+$BF$185</f>
@@ -58294,7 +58294,7 @@
       </c>
       <c r="AR207" s="5" t="n">
         <f aca="false">AR206+$BG$185</f>
-        <v>0.199013408823377</v>
+        <v>0.193146792923377</v>
       </c>
       <c r="AS207" s="5" t="n">
         <f aca="false">AS206+$BH$185</f>
@@ -58306,11 +58306,11 @@
       </c>
       <c r="AU207" s="5" t="n">
         <f aca="false">AU206+$BE$186</f>
-        <v>0.280042475009091</v>
+        <v>0.285909090909091</v>
       </c>
       <c r="AV207" s="5" t="n">
         <f aca="false">AV206+$BF$186</f>
-        <v>0.203234188044156</v>
+        <v>0.197367572144156</v>
       </c>
       <c r="AW207" s="5" t="n">
         <f aca="false">AW206+$BG$186</f>
@@ -58322,11 +58322,11 @@
       </c>
       <c r="AY207" s="5" t="n">
         <f aca="false">AY206+$BI$186</f>
-        <v>0.303678838645454</v>
+        <v>0.309545454545454</v>
       </c>
       <c r="AZ207" s="5" t="n">
         <f aca="false">AZ206+$BJ$186</f>
-        <v>0.194792629602598</v>
+        <v>0.188926013702598</v>
       </c>
       <c r="BA207" s="5" t="n">
         <f aca="false">BA206+$BK$186</f>
@@ -58345,7 +58345,7 @@
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="1" t="n">
         <f aca="false">K204-AP204</f>
-        <v>0.101604817849351</v>
+        <v>0.095738201949351</v>
       </c>
       <c r="E208" s="0" t="n">
         <f aca="false">E204+1</f>
@@ -58414,7 +58414,7 @@
       </c>
       <c r="AP208" s="5" t="n">
         <f aca="false">AP207+$BE$185</f>
-        <v>0.293224293190909</v>
+        <v>0.299090909090909</v>
       </c>
       <c r="AQ208" s="5" t="n">
         <f aca="false">AQ207+$BF$185</f>
@@ -58422,7 +58422,7 @@
       </c>
       <c r="AR208" s="5" t="n">
         <f aca="false">AR207+$BG$185</f>
-        <v>0.198753668563636</v>
+        <v>0.192887052663636</v>
       </c>
       <c r="AS208" s="5" t="n">
         <f aca="false">AS207+$BH$185</f>
@@ -58434,11 +58434,11 @@
       </c>
       <c r="AU208" s="5" t="n">
         <f aca="false">AU207+$BE$186</f>
-        <v>0.280497020463636</v>
+        <v>0.286363636363636</v>
       </c>
       <c r="AV208" s="5" t="n">
         <f aca="false">AV207+$BF$186</f>
-        <v>0.203299123109091</v>
+        <v>0.197432507209091</v>
       </c>
       <c r="AW208" s="5" t="n">
         <f aca="false">AW207+$BG$186</f>
@@ -58450,11 +58450,11 @@
       </c>
       <c r="AY208" s="5" t="n">
         <f aca="false">AY207+$BI$186</f>
-        <v>0.305951565918182</v>
+        <v>0.311818181818182</v>
       </c>
       <c r="AZ208" s="5" t="n">
         <f aca="false">AZ207+$BJ$186</f>
-        <v>0.194208214018182</v>
+        <v>0.188341598118182</v>
       </c>
       <c r="BA208" s="5" t="n">
         <f aca="false">BA207+$BK$186</f>
@@ -58473,7 +58473,7 @@
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="1" t="n">
         <f aca="false">K205-AP205</f>
-        <v>0.101669752914286</v>
+        <v>0.0958031370142861</v>
       </c>
       <c r="E209" s="0" t="n">
         <f aca="false">E205+1</f>
@@ -58542,7 +58542,7 @@
       </c>
       <c r="AP209" s="5" t="n">
         <f aca="false">AP208+$BE$185</f>
-        <v>0.294587929554545</v>
+        <v>0.300454545454545</v>
       </c>
       <c r="AQ209" s="5" t="n">
         <f aca="false">AQ208+$BF$185</f>
@@ -58550,7 +58550,7 @@
       </c>
       <c r="AR209" s="5" t="n">
         <f aca="false">AR208+$BG$185</f>
-        <v>0.198493928303896</v>
+        <v>0.192627312403896</v>
       </c>
       <c r="AS209" s="5" t="n">
         <f aca="false">AS208+$BH$185</f>
@@ -58562,11 +58562,11 @@
       </c>
       <c r="AU209" s="5" t="n">
         <f aca="false">AU208+$BE$186</f>
-        <v>0.280951565918181</v>
+        <v>0.286818181818181</v>
       </c>
       <c r="AV209" s="5" t="n">
         <f aca="false">AV208+$BF$186</f>
-        <v>0.203364058174026</v>
+        <v>0.197497442274026</v>
       </c>
       <c r="AW209" s="5" t="n">
         <f aca="false">AW208+$BG$186</f>
@@ -58578,11 +58578,11 @@
       </c>
       <c r="AY209" s="5" t="n">
         <f aca="false">AY208+$BI$186</f>
-        <v>0.308224293190909</v>
+        <v>0.314090909090909</v>
       </c>
       <c r="AZ209" s="5" t="n">
         <f aca="false">AZ208+$BJ$186</f>
-        <v>0.193623798433766</v>
+        <v>0.187757182533766</v>
       </c>
       <c r="BA209" s="5" t="n">
         <f aca="false">BA208+$BK$186</f>
@@ -58601,7 +58601,7 @@
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="1" t="n">
         <f aca="false">K206-AP206</f>
-        <v>0.101734687979221</v>
+        <v>0.0958680720792212</v>
       </c>
       <c r="E210" s="0" t="n">
         <f aca="false">E206+1</f>
@@ -58670,7 +58670,7 @@
       </c>
       <c r="AP210" s="5" t="n">
         <f aca="false">AP209+$BE$185</f>
-        <v>0.295951565918181</v>
+        <v>0.301818181818182</v>
       </c>
       <c r="AQ210" s="5" t="n">
         <f aca="false">AQ209+$BF$185</f>
@@ -58678,7 +58678,7 @@
       </c>
       <c r="AR210" s="5" t="n">
         <f aca="false">AR209+$BG$185</f>
-        <v>0.198234188044156</v>
+        <v>0.192367572144156</v>
       </c>
       <c r="AS210" s="5" t="n">
         <f aca="false">AS209+$BH$185</f>
@@ -58690,11 +58690,11 @@
       </c>
       <c r="AU210" s="5" t="n">
         <f aca="false">AU209+$BE$186</f>
-        <v>0.281406111372727</v>
+        <v>0.287272727272727</v>
       </c>
       <c r="AV210" s="5" t="n">
         <f aca="false">AV209+$BF$186</f>
-        <v>0.203428993238961</v>
+        <v>0.197562377338961</v>
       </c>
       <c r="AW210" s="5" t="n">
         <f aca="false">AW209+$BG$186</f>
@@ -58706,11 +58706,11 @@
       </c>
       <c r="AY210" s="5" t="n">
         <f aca="false">AY209+$BI$186</f>
-        <v>0.310497020463636</v>
+        <v>0.316363636363636</v>
       </c>
       <c r="AZ210" s="5" t="n">
         <f aca="false">AZ209+$BJ$186</f>
-        <v>0.193039382849351</v>
+        <v>0.187172766949351</v>
       </c>
       <c r="BA210" s="5" t="n">
         <f aca="false">BA209+$BK$186</f>
@@ -58729,7 +58729,7 @@
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="1" t="n">
         <f aca="false">K207-AP207</f>
-        <v>0.101799623044157</v>
+        <v>0.0959330071441563</v>
       </c>
       <c r="E211" s="0" t="n">
         <f aca="false">E207+1</f>
@@ -58798,7 +58798,7 @@
       </c>
       <c r="AP211" s="5" t="n">
         <f aca="false">AP210+$BE$185</f>
-        <v>0.297315202281818</v>
+        <v>0.303181818181818</v>
       </c>
       <c r="AQ211" s="5" t="n">
         <f aca="false">AQ210+$BF$185</f>
@@ -58806,7 +58806,7 @@
       </c>
       <c r="AR211" s="5" t="n">
         <f aca="false">AR210+$BG$185</f>
-        <v>0.197974447784416</v>
+        <v>0.192107831884416</v>
       </c>
       <c r="AS211" s="5" t="n">
         <f aca="false">AS210+$BH$185</f>
@@ -58818,11 +58818,11 @@
       </c>
       <c r="AU211" s="5" t="n">
         <f aca="false">AU210+$BE$186</f>
-        <v>0.281860656827272</v>
+        <v>0.287727272727272</v>
       </c>
       <c r="AV211" s="5" t="n">
         <f aca="false">AV210+$BF$186</f>
-        <v>0.203493928303896</v>
+        <v>0.197627312403896</v>
       </c>
       <c r="AW211" s="5" t="n">
         <f aca="false">AW210+$BG$186</f>
@@ -58834,11 +58834,11 @@
       </c>
       <c r="AY211" s="5" t="n">
         <f aca="false">AY210+$BI$186</f>
-        <v>0.312769747736363</v>
+        <v>0.318636363636363</v>
       </c>
       <c r="AZ211" s="5" t="n">
         <f aca="false">AZ210+$BJ$186</f>
-        <v>0.192454967264935</v>
+        <v>0.186588351364935</v>
       </c>
       <c r="BA211" s="5" t="n">
         <f aca="false">BA210+$BK$186</f>
@@ -58857,7 +58857,7 @@
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="1" t="n">
         <f aca="false">K208-AP208</f>
-        <v>0.101864558109091</v>
+        <v>0.0959979422090914</v>
       </c>
       <c r="E212" s="0" t="n">
         <f aca="false">E208+1</f>
@@ -58926,7 +58926,7 @@
       </c>
       <c r="AP212" s="5" t="n">
         <f aca="false">AP211+$BE$185</f>
-        <v>0.298678838645454</v>
+        <v>0.304545454545454</v>
       </c>
       <c r="AQ212" s="5" t="n">
         <f aca="false">AQ211+$BF$185</f>
@@ -58934,7 +58934,7 @@
       </c>
       <c r="AR212" s="5" t="n">
         <f aca="false">AR211+$BG$185</f>
-        <v>0.197714707524675</v>
+        <v>0.191848091624675</v>
       </c>
       <c r="AS212" s="5" t="n">
         <f aca="false">AS211+$BH$185</f>
@@ -58946,11 +58946,11 @@
       </c>
       <c r="AU212" s="5" t="n">
         <f aca="false">AU211+$BE$186</f>
-        <v>0.282315202281818</v>
+        <v>0.288181818181818</v>
       </c>
       <c r="AV212" s="5" t="n">
         <f aca="false">AV211+$BF$186</f>
-        <v>0.203558863368831</v>
+        <v>0.197692247468831</v>
       </c>
       <c r="AW212" s="5" t="n">
         <f aca="false">AW211+$BG$186</f>
@@ -58962,11 +58962,11 @@
       </c>
       <c r="AY212" s="5" t="n">
         <f aca="false">AY211+$BI$186</f>
-        <v>0.315042475009091</v>
+        <v>0.320909090909091</v>
       </c>
       <c r="AZ212" s="5" t="n">
         <f aca="false">AZ211+$BJ$186</f>
-        <v>0.19187055168052</v>
+        <v>0.18600393578052</v>
       </c>
       <c r="BA212" s="5" t="n">
         <f aca="false">BA211+$BK$186</f>
@@ -58985,7 +58985,7 @@
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="1" t="n">
         <f aca="false">K209-AP209</f>
-        <v>0.101929493174027</v>
+        <v>0.0960628772740265</v>
       </c>
       <c r="E213" s="0" t="n">
         <f aca="false">E209+1</f>
@@ -59054,7 +59054,7 @@
       </c>
       <c r="AP213" s="5" t="n">
         <f aca="false">AP212+$BE$185</f>
-        <v>0.300042475009091</v>
+        <v>0.305909090909091</v>
       </c>
       <c r="AQ213" s="5" t="n">
         <f aca="false">AQ212+$BF$185</f>
@@ -59062,7 +59062,7 @@
       </c>
       <c r="AR213" s="5" t="n">
         <f aca="false">AR212+$BG$185</f>
-        <v>0.197454967264935</v>
+        <v>0.191588351364935</v>
       </c>
       <c r="AS213" s="5" t="n">
         <f aca="false">AS212+$BH$185</f>
@@ -59074,11 +59074,11 @@
       </c>
       <c r="AU213" s="5" t="n">
         <f aca="false">AU212+$BE$186</f>
-        <v>0.282769747736363</v>
+        <v>0.288636363636363</v>
       </c>
       <c r="AV213" s="5" t="n">
         <f aca="false">AV212+$BF$186</f>
-        <v>0.203623798433766</v>
+        <v>0.197757182533766</v>
       </c>
       <c r="AW213" s="5" t="n">
         <f aca="false">AW212+$BG$186</f>
@@ -59090,11 +59090,11 @@
       </c>
       <c r="AY213" s="5" t="n">
         <f aca="false">AY212+$BI$186</f>
-        <v>0.317315202281818</v>
+        <v>0.323181818181818</v>
       </c>
       <c r="AZ213" s="5" t="n">
         <f aca="false">AZ212+$BJ$186</f>
-        <v>0.191286136096104</v>
+        <v>0.185419520196104</v>
       </c>
       <c r="BA213" s="5" t="n">
         <f aca="false">BA212+$BK$186</f>
@@ -59113,7 +59113,7 @@
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="1" t="n">
         <f aca="false">K210-AP210</f>
-        <v>0.101994428238962</v>
+        <v>0.0961278123389616</v>
       </c>
       <c r="E214" s="0" t="n">
         <f aca="false">E210+1</f>
@@ -59182,7 +59182,7 @@
       </c>
       <c r="AP214" s="5" t="n">
         <f aca="false">AP213+$BE$185</f>
-        <v>0.301406111372727</v>
+        <v>0.307272727272727</v>
       </c>
       <c r="AQ214" s="5" t="n">
         <f aca="false">AQ213+$BF$185</f>
@@ -59190,7 +59190,7 @@
       </c>
       <c r="AR214" s="5" t="n">
         <f aca="false">AR213+$BG$185</f>
-        <v>0.197195227005195</v>
+        <v>0.191328611105195</v>
       </c>
       <c r="AS214" s="5" t="n">
         <f aca="false">AS213+$BH$185</f>
@@ -59202,11 +59202,11 @@
       </c>
       <c r="AU214" s="5" t="n">
         <f aca="false">AU213+$BE$186</f>
-        <v>0.283224293190909</v>
+        <v>0.289090909090909</v>
       </c>
       <c r="AV214" s="5" t="n">
         <f aca="false">AV213+$BF$186</f>
-        <v>0.203688733498702</v>
+        <v>0.197822117598702</v>
       </c>
       <c r="AW214" s="5" t="n">
         <f aca="false">AW213+$BG$186</f>
@@ -59218,11 +59218,11 @@
       </c>
       <c r="AY214" s="5" t="n">
         <f aca="false">AY213+$BI$186</f>
-        <v>0.319587929554545</v>
+        <v>0.325454545454545</v>
       </c>
       <c r="AZ214" s="5" t="n">
         <f aca="false">AZ213+$BJ$186</f>
-        <v>0.190701720511689</v>
+        <v>0.184835104611689</v>
       </c>
       <c r="BA214" s="5" t="n">
         <f aca="false">BA213+$BK$186</f>
@@ -59241,7 +59241,7 @@
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="1" t="n">
         <f aca="false">K211-AP211</f>
-        <v>0.102059363303897</v>
+        <v>0.0961927474038967</v>
       </c>
       <c r="E215" s="0" t="n">
         <f aca="false">E211+1</f>
@@ -59310,7 +59310,7 @@
       </c>
       <c r="AP215" s="5" t="n">
         <f aca="false">AP214+$BE$185</f>
-        <v>0.302769747736363</v>
+        <v>0.308636363636363</v>
       </c>
       <c r="AQ215" s="5" t="n">
         <f aca="false">AQ214+$BF$185</f>
@@ -59318,7 +59318,7 @@
       </c>
       <c r="AR215" s="5" t="n">
         <f aca="false">AR214+$BG$185</f>
-        <v>0.196935486745455</v>
+        <v>0.191068870845454</v>
       </c>
       <c r="AS215" s="5" t="n">
         <f aca="false">AS214+$BH$185</f>
@@ -59330,11 +59330,11 @@
       </c>
       <c r="AU215" s="5" t="n">
         <f aca="false">AU214+$BE$186</f>
-        <v>0.283678838645454</v>
+        <v>0.289545454545454</v>
       </c>
       <c r="AV215" s="5" t="n">
         <f aca="false">AV214+$BF$186</f>
-        <v>0.203753668563637</v>
+        <v>0.197887052663637</v>
       </c>
       <c r="AW215" s="5" t="n">
         <f aca="false">AW214+$BG$186</f>
@@ -59346,11 +59346,11 @@
       </c>
       <c r="AY215" s="5" t="n">
         <f aca="false">AY214+$BI$186</f>
-        <v>0.321860656827272</v>
+        <v>0.327727272727272</v>
       </c>
       <c r="AZ215" s="5" t="n">
         <f aca="false">AZ214+$BJ$186</f>
-        <v>0.190117304927273</v>
+        <v>0.184250689027273</v>
       </c>
       <c r="BA215" s="5" t="n">
         <f aca="false">BA214+$BK$186</f>
@@ -59369,7 +59369,7 @@
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="1" t="n">
         <f aca="false">K212-AP212</f>
-        <v>0.102124298368832</v>
+        <v>0.0962576824688318</v>
       </c>
       <c r="E216" s="0" t="n">
         <f aca="false">E212+1</f>
@@ -59438,7 +59438,7 @@
       </c>
       <c r="AP216" s="5" t="n">
         <f aca="false">AP215+$BE$185</f>
-        <v>0.3041333841</v>
+        <v>0.31</v>
       </c>
       <c r="AQ216" s="5" t="n">
         <f aca="false">AQ215+$BF$185</f>
@@ -59446,7 +59446,7 @@
       </c>
       <c r="AR216" s="5" t="n">
         <f aca="false">AR215+$BG$185</f>
-        <v>0.196675746485714</v>
+        <v>0.190809130585714</v>
       </c>
       <c r="AS216" s="5" t="n">
         <f aca="false">AS215+$BH$185</f>
@@ -59458,11 +59458,11 @@
       </c>
       <c r="AU216" s="5" t="n">
         <f aca="false">AU215+$BE$186</f>
-        <v>0.284133384099999</v>
+        <v>0.289999999999999</v>
       </c>
       <c r="AV216" s="5" t="n">
         <f aca="false">AV215+$BF$186</f>
-        <v>0.203818603628572</v>
+        <v>0.197951987728572</v>
       </c>
       <c r="AW216" s="5" t="n">
         <f aca="false">AW215+$BG$186</f>
@@ -59474,11 +59474,11 @@
       </c>
       <c r="AY216" s="5" t="n">
         <f aca="false">AY215+$BI$186</f>
-        <v>0.3241333841</v>
+        <v>0.33</v>
       </c>
       <c r="AZ216" s="5" t="n">
         <f aca="false">AZ215+$BJ$186</f>
-        <v>0.189532889342857</v>
+        <v>0.183666273442857</v>
       </c>
       <c r="BA216" s="5" t="n">
         <f aca="false">BA215+$BK$186</f>
@@ -59497,7 +59497,7 @@
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="1" t="n">
         <f aca="false">K213-AP213</f>
-        <v>0.102189233433767</v>
+        <v>0.0963226175337669</v>
       </c>
       <c r="E217" s="0" t="n">
         <f aca="false">E213+1</f>
@@ -59566,7 +59566,7 @@
       </c>
       <c r="AP217" s="5" t="n">
         <f aca="false">AP216+$BE$185</f>
-        <v>0.305497020463636</v>
+        <v>0.311363636363636</v>
       </c>
       <c r="AQ217" s="5" t="n">
         <f aca="false">AQ216+$BF$185</f>
@@ -59574,7 +59574,7 @@
       </c>
       <c r="AR217" s="5" t="n">
         <f aca="false">AR216+$BG$185</f>
-        <v>0.196416006225974</v>
+        <v>0.190549390325974</v>
       </c>
       <c r="AS217" s="5" t="n">
         <f aca="false">AS216+$BH$185</f>
@@ -59586,11 +59586,11 @@
       </c>
       <c r="AU217" s="5" t="n">
         <f aca="false">AU216+$BE$186</f>
-        <v>0.284587929554545</v>
+        <v>0.290454545454545</v>
       </c>
       <c r="AV217" s="5" t="n">
         <f aca="false">AV216+$BF$186</f>
-        <v>0.203883538693507</v>
+        <v>0.198016922793507</v>
       </c>
       <c r="AW217" s="5" t="n">
         <f aca="false">AW216+$BG$186</f>
@@ -59602,11 +59602,11 @@
       </c>
       <c r="AY217" s="5" t="n">
         <f aca="false">AY216+$BI$186</f>
-        <v>0.326406111372727</v>
+        <v>0.332272727272727</v>
       </c>
       <c r="AZ217" s="5" t="n">
         <f aca="false">AZ216+$BJ$186</f>
-        <v>0.188948473758442</v>
+        <v>0.183081857858442</v>
       </c>
       <c r="BA217" s="5" t="n">
         <f aca="false">BA216+$BK$186</f>
@@ -59625,7 +59625,7 @@
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="1" t="n">
         <f aca="false">K214-AP214</f>
-        <v>0.102254168498702</v>
+        <v>0.096387552598702</v>
       </c>
       <c r="E218" s="0" t="n">
         <f aca="false">E214+1</f>
@@ -59694,7 +59694,7 @@
       </c>
       <c r="AP218" s="5" t="n">
         <f aca="false">AP217+$BE$185</f>
-        <v>0.306860656827272</v>
+        <v>0.312727272727272</v>
       </c>
       <c r="AQ218" s="5" t="n">
         <f aca="false">AQ217+$BF$185</f>
@@ -59702,7 +59702,7 @@
       </c>
       <c r="AR218" s="5" t="n">
         <f aca="false">AR217+$BG$185</f>
-        <v>0.196156265966234</v>
+        <v>0.190289650066234</v>
       </c>
       <c r="AS218" s="5" t="n">
         <f aca="false">AS217+$BH$185</f>
@@ -59714,11 +59714,11 @@
       </c>
       <c r="AU218" s="5" t="n">
         <f aca="false">AU217+$BE$186</f>
-        <v>0.28504247500909</v>
+        <v>0.29090909090909</v>
       </c>
       <c r="AV218" s="5" t="n">
         <f aca="false">AV217+$BF$186</f>
-        <v>0.203948473758442</v>
+        <v>0.198081857858442</v>
       </c>
       <c r="AW218" s="5" t="n">
         <f aca="false">AW217+$BG$186</f>
@@ -59730,11 +59730,11 @@
       </c>
       <c r="AY218" s="5" t="n">
         <f aca="false">AY217+$BI$186</f>
-        <v>0.328678838645454</v>
+        <v>0.334545454545454</v>
       </c>
       <c r="AZ218" s="5" t="n">
         <f aca="false">AZ217+$BJ$186</f>
-        <v>0.188364058174026</v>
+        <v>0.182497442274026</v>
       </c>
       <c r="BA218" s="5" t="n">
         <f aca="false">BA217+$BK$186</f>
@@ -59753,7 +59753,7 @@
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="1" t="n">
         <f aca="false">K215-AP215</f>
-        <v>0.102319103563637</v>
+        <v>0.0964524876636371</v>
       </c>
       <c r="E219" s="0" t="n">
         <f aca="false">E215+1</f>
@@ -59822,7 +59822,7 @@
       </c>
       <c r="AP219" s="5" t="n">
         <f aca="false">AP218+$BE$185</f>
-        <v>0.308224293190909</v>
+        <v>0.314090909090909</v>
       </c>
       <c r="AQ219" s="5" t="n">
         <f aca="false">AQ218+$BF$185</f>
@@ -59830,7 +59830,7 @@
       </c>
       <c r="AR219" s="5" t="n">
         <f aca="false">AR218+$BG$185</f>
-        <v>0.195896525706493</v>
+        <v>0.190029909806493</v>
       </c>
       <c r="AS219" s="5" t="n">
         <f aca="false">AS218+$BH$185</f>
@@ -59842,11 +59842,11 @@
       </c>
       <c r="AU219" s="5" t="n">
         <f aca="false">AU218+$BE$186</f>
-        <v>0.285497020463636</v>
+        <v>0.291363636363636</v>
       </c>
       <c r="AV219" s="5" t="n">
         <f aca="false">AV218+$BF$186</f>
-        <v>0.204013408823377</v>
+        <v>0.198146792923377</v>
       </c>
       <c r="AW219" s="5" t="n">
         <f aca="false">AW218+$BG$186</f>
@@ -59858,11 +59858,11 @@
       </c>
       <c r="AY219" s="5" t="n">
         <f aca="false">AY218+$BI$186</f>
-        <v>0.330951565918181</v>
+        <v>0.336818181818181</v>
       </c>
       <c r="AZ219" s="5" t="n">
         <f aca="false">AZ218+$BJ$186</f>
-        <v>0.187779642589611</v>
+        <v>0.181913026689611</v>
       </c>
       <c r="BA219" s="5" t="n">
         <f aca="false">BA218+$BK$186</f>
@@ -59881,7 +59881,7 @@
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="1" t="n">
         <f aca="false">K216-AP216</f>
-        <v>0.102384038628572</v>
+        <v>0.0965174227285722</v>
       </c>
       <c r="E220" s="0" t="n">
         <f aca="false">E216+1</f>
@@ -59950,7 +59950,7 @@
       </c>
       <c r="AP220" s="5" t="n">
         <f aca="false">AP219+$BE$185</f>
-        <v>0.309587929554545</v>
+        <v>0.315454545454545</v>
       </c>
       <c r="AQ220" s="5" t="n">
         <f aca="false">AQ219+$BF$185</f>
@@ -59958,7 +59958,7 @@
       </c>
       <c r="AR220" s="5" t="n">
         <f aca="false">AR219+$BG$185</f>
-        <v>0.195636785446753</v>
+        <v>0.189770169546753</v>
       </c>
       <c r="AS220" s="5" t="n">
         <f aca="false">AS219+$BH$185</f>
@@ -59970,11 +59970,11 @@
       </c>
       <c r="AU220" s="5" t="n">
         <f aca="false">AU219+$BE$186</f>
-        <v>0.285951565918181</v>
+        <v>0.291818181818181</v>
       </c>
       <c r="AV220" s="5" t="n">
         <f aca="false">AV219+$BF$186</f>
-        <v>0.204078343888312</v>
+        <v>0.198211727988312</v>
       </c>
       <c r="AW220" s="5" t="n">
         <f aca="false">AW219+$BG$186</f>
@@ -59986,11 +59986,11 @@
       </c>
       <c r="AY220" s="5" t="n">
         <f aca="false">AY219+$BI$186</f>
-        <v>0.333224293190909</v>
+        <v>0.339090909090909</v>
       </c>
       <c r="AZ220" s="5" t="n">
         <f aca="false">AZ219+$BJ$186</f>
-        <v>0.187195227005195</v>
+        <v>0.181328611105195</v>
       </c>
       <c r="BA220" s="5" t="n">
         <f aca="false">BA219+$BK$186</f>
@@ -60009,7 +60009,7 @@
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="1" t="n">
         <f aca="false">K217-AP217</f>
-        <v>0.102448973693507</v>
+        <v>0.0965823577935073</v>
       </c>
       <c r="E221" s="0" t="n">
         <f aca="false">E217+1</f>
@@ -60078,7 +60078,7 @@
       </c>
       <c r="AP221" s="5" t="n">
         <f aca="false">AP220+$BE$185</f>
-        <v>0.310951565918181</v>
+        <v>0.316818181818181</v>
       </c>
       <c r="AQ221" s="5" t="n">
         <f aca="false">AQ220+$BF$185</f>
@@ -60086,7 +60086,7 @@
       </c>
       <c r="AR221" s="5" t="n">
         <f aca="false">AR220+$BG$185</f>
-        <v>0.195377045187013</v>
+        <v>0.189510429287013</v>
       </c>
       <c r="AS221" s="5" t="n">
         <f aca="false">AS220+$BH$185</f>
@@ -60098,11 +60098,11 @@
       </c>
       <c r="AU221" s="5" t="n">
         <f aca="false">AU220+$BE$186</f>
-        <v>0.286406111372727</v>
+        <v>0.292272727272727</v>
       </c>
       <c r="AV221" s="5" t="n">
         <f aca="false">AV220+$BF$186</f>
-        <v>0.204143278953247</v>
+        <v>0.198276663053247</v>
       </c>
       <c r="AW221" s="5" t="n">
         <f aca="false">AW220+$BG$186</f>
@@ -60114,11 +60114,11 @@
       </c>
       <c r="AY221" s="5" t="n">
         <f aca="false">AY220+$BI$186</f>
-        <v>0.335497020463636</v>
+        <v>0.341363636363636</v>
       </c>
       <c r="AZ221" s="5" t="n">
         <f aca="false">AZ220+$BJ$186</f>
-        <v>0.18661081142078</v>
+        <v>0.180744195520779</v>
       </c>
       <c r="BA221" s="5" t="n">
         <f aca="false">BA220+$BK$186</f>
@@ -60137,7 +60137,7 @@
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="1" t="n">
         <f aca="false">K218-AP218</f>
-        <v>0.102513908758443</v>
+        <v>0.0966472928584424</v>
       </c>
       <c r="E222" s="0" t="n">
         <f aca="false">E218+1</f>
@@ -60206,7 +60206,7 @@
       </c>
       <c r="AP222" s="5" t="n">
         <f aca="false">AP221+$BE$185</f>
-        <v>0.312315202281818</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="AQ222" s="5" t="n">
         <f aca="false">AQ221+$BF$185</f>
@@ -60214,7 +60214,7 @@
       </c>
       <c r="AR222" s="5" t="n">
         <f aca="false">AR221+$BG$185</f>
-        <v>0.195117304927273</v>
+        <v>0.189250689027273</v>
       </c>
       <c r="AS222" s="5" t="n">
         <f aca="false">AS221+$BH$185</f>
@@ -60226,11 +60226,11 @@
       </c>
       <c r="AU222" s="5" t="n">
         <f aca="false">AU221+$BE$186</f>
-        <v>0.286860656827272</v>
+        <v>0.292727272727272</v>
       </c>
       <c r="AV222" s="5" t="n">
         <f aca="false">AV221+$BF$186</f>
-        <v>0.204208214018182</v>
+        <v>0.198341598118182</v>
       </c>
       <c r="AW222" s="5" t="n">
         <f aca="false">AW221+$BG$186</f>
@@ -60242,11 +60242,11 @@
       </c>
       <c r="AY222" s="5" t="n">
         <f aca="false">AY221+$BI$186</f>
-        <v>0.337769747736363</v>
+        <v>0.343636363636363</v>
       </c>
       <c r="AZ222" s="5" t="n">
         <f aca="false">AZ221+$BJ$186</f>
-        <v>0.186026395836364</v>
+        <v>0.180159779936364</v>
       </c>
       <c r="BA222" s="5" t="n">
         <f aca="false">BA221+$BK$186</f>
@@ -60265,7 +60265,7 @@
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="1" t="n">
         <f aca="false">K219-AP219</f>
-        <v>0.102578843823377</v>
+        <v>0.0967122279233775</v>
       </c>
       <c r="E223" s="0" t="n">
         <f aca="false">E219+1</f>
@@ -60334,7 +60334,7 @@
       </c>
       <c r="AP223" s="5" t="n">
         <f aca="false">AP222+$BE$185</f>
-        <v>0.313678838645454</v>
+        <v>0.319545454545454</v>
       </c>
       <c r="AQ223" s="5" t="n">
         <f aca="false">AQ222+$BF$185</f>
@@ -60342,7 +60342,7 @@
       </c>
       <c r="AR223" s="5" t="n">
         <f aca="false">AR222+$BG$185</f>
-        <v>0.194857564667532</v>
+        <v>0.188990948767532</v>
       </c>
       <c r="AS223" s="5" t="n">
         <f aca="false">AS222+$BH$185</f>
@@ -60354,11 +60354,11 @@
       </c>
       <c r="AU223" s="5" t="n">
         <f aca="false">AU222+$BE$186</f>
-        <v>0.287315202281817</v>
+        <v>0.293181818181817</v>
       </c>
       <c r="AV223" s="5" t="n">
         <f aca="false">AV222+$BF$186</f>
-        <v>0.204273149083117</v>
+        <v>0.198406533183117</v>
       </c>
       <c r="AW223" s="5" t="n">
         <f aca="false">AW222+$BG$186</f>
@@ -60370,11 +60370,11 @@
       </c>
       <c r="AY223" s="5" t="n">
         <f aca="false">AY222+$BI$186</f>
-        <v>0.34004247500909</v>
+        <v>0.345909090909091</v>
       </c>
       <c r="AZ223" s="5" t="n">
         <f aca="false">AZ222+$BJ$186</f>
-        <v>0.185441980251948</v>
+        <v>0.179575364351948</v>
       </c>
       <c r="BA223" s="5" t="n">
         <f aca="false">BA222+$BK$186</f>
@@ -60393,7 +60393,7 @@
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="1" t="n">
         <f aca="false">K220-AP220</f>
-        <v>0.102643778888313</v>
+        <v>0.0967771629883126</v>
       </c>
       <c r="E224" s="0" t="n">
         <f aca="false">E220+1</f>
@@ -60462,7 +60462,7 @@
       </c>
       <c r="AP224" s="5" t="n">
         <f aca="false">AP223+$BE$185</f>
-        <v>0.31504247500909</v>
+        <v>0.32090909090909</v>
       </c>
       <c r="AQ224" s="5" t="n">
         <f aca="false">AQ223+$BF$185</f>
@@ -60470,7 +60470,7 @@
       </c>
       <c r="AR224" s="5" t="n">
         <f aca="false">AR223+$BG$185</f>
-        <v>0.194597824407792</v>
+        <v>0.188731208507792</v>
       </c>
       <c r="AS224" s="5" t="n">
         <f aca="false">AS223+$BH$185</f>
@@ -60482,11 +60482,11 @@
       </c>
       <c r="AU224" s="5" t="n">
         <f aca="false">AU223+$BE$186</f>
-        <v>0.287769747736363</v>
+        <v>0.293636363636363</v>
       </c>
       <c r="AV224" s="5" t="n">
         <f aca="false">AV223+$BF$186</f>
-        <v>0.204338084148052</v>
+        <v>0.198471468248052</v>
       </c>
       <c r="AW224" s="5" t="n">
         <f aca="false">AW223+$BG$186</f>
@@ -60498,11 +60498,11 @@
       </c>
       <c r="AY224" s="5" t="n">
         <f aca="false">AY223+$BI$186</f>
-        <v>0.342315202281818</v>
+        <v>0.348181818181818</v>
       </c>
       <c r="AZ224" s="5" t="n">
         <f aca="false">AZ223+$BJ$186</f>
-        <v>0.184857564667533</v>
+        <v>0.178990948767533</v>
       </c>
       <c r="BA224" s="5" t="n">
         <f aca="false">BA223+$BK$186</f>
@@ -60521,7 +60521,7 @@
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="1" t="n">
         <f aca="false">K221-AP221</f>
-        <v>0.102708713953248</v>
+        <v>0.0968420980532477</v>
       </c>
       <c r="E225" s="0" t="n">
         <f aca="false">E221+1</f>
@@ -60590,7 +60590,7 @@
       </c>
       <c r="AP225" s="5" t="n">
         <f aca="false">AP224+$BE$185</f>
-        <v>0.316406111372727</v>
+        <v>0.322272727272727</v>
       </c>
       <c r="AQ225" s="5" t="n">
         <f aca="false">AQ224+$BF$185</f>
@@ -60598,7 +60598,7 @@
       </c>
       <c r="AR225" s="5" t="n">
         <f aca="false">AR224+$BG$185</f>
-        <v>0.194338084148052</v>
+        <v>0.188471468248052</v>
       </c>
       <c r="AS225" s="5" t="n">
         <f aca="false">AS224+$BH$185</f>
@@ -60610,11 +60610,11 @@
       </c>
       <c r="AU225" s="5" t="n">
         <f aca="false">AU224+$BE$186</f>
-        <v>0.288224293190908</v>
+        <v>0.294090909090908</v>
       </c>
       <c r="AV225" s="5" t="n">
         <f aca="false">AV224+$BF$186</f>
-        <v>0.204403019212987</v>
+        <v>0.198536403312987</v>
       </c>
       <c r="AW225" s="5" t="n">
         <f aca="false">AW224+$BG$186</f>
@@ -60626,11 +60626,11 @@
       </c>
       <c r="AY225" s="5" t="n">
         <f aca="false">AY224+$BI$186</f>
-        <v>0.344587929554545</v>
+        <v>0.350454545454545</v>
       </c>
       <c r="AZ225" s="5" t="n">
         <f aca="false">AZ224+$BJ$186</f>
-        <v>0.184273149083117</v>
+        <v>0.178406533183117</v>
       </c>
       <c r="BA225" s="5" t="n">
         <f aca="false">BA224+$BK$186</f>
@@ -60649,7 +60649,7 @@
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="1" t="n">
         <f aca="false">K222-AP222</f>
-        <v>0.102773649018182</v>
+        <v>0.0969070331181828</v>
       </c>
       <c r="E226" s="0" t="n">
         <f aca="false">E222+1</f>
@@ -60718,7 +60718,7 @@
       </c>
       <c r="AP226" s="5" t="n">
         <f aca="false">AP225+$BE$185</f>
-        <v>0.317769747736363</v>
+        <v>0.323636363636363</v>
       </c>
       <c r="AQ226" s="5" t="n">
         <f aca="false">AQ225+$BF$185</f>
@@ -60726,7 +60726,7 @@
       </c>
       <c r="AR226" s="5" t="n">
         <f aca="false">AR225+$BG$185</f>
-        <v>0.194078343888312</v>
+        <v>0.188211727988312</v>
       </c>
       <c r="AS226" s="5" t="n">
         <f aca="false">AS225+$BH$185</f>
@@ -60738,11 +60738,11 @@
       </c>
       <c r="AU226" s="5" t="n">
         <f aca="false">AU225+$BE$186</f>
-        <v>0.288678838645454</v>
+        <v>0.294545454545454</v>
       </c>
       <c r="AV226" s="5" t="n">
         <f aca="false">AV225+$BF$186</f>
-        <v>0.204467954277922</v>
+        <v>0.198601338377922</v>
       </c>
       <c r="AW226" s="5" t="n">
         <f aca="false">AW225+$BG$186</f>
@@ -60754,11 +60754,11 @@
       </c>
       <c r="AY226" s="5" t="n">
         <f aca="false">AY225+$BI$186</f>
-        <v>0.346860656827272</v>
+        <v>0.352727272727272</v>
       </c>
       <c r="AZ226" s="5" t="n">
         <f aca="false">AZ225+$BJ$186</f>
-        <v>0.183688733498702</v>
+        <v>0.177822117598702</v>
       </c>
       <c r="BA226" s="5" t="n">
         <f aca="false">BA225+$BK$186</f>
@@ -60777,7 +60777,7 @@
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="1" t="n">
         <f aca="false">K223-AP223</f>
-        <v>0.102838584083118</v>
+        <v>0.0969719681831179</v>
       </c>
       <c r="E227" s="0" t="n">
         <f aca="false">E223+1</f>
@@ -60846,7 +60846,7 @@
       </c>
       <c r="AP227" s="5" t="n">
         <f aca="false">AP226+$BE$185</f>
-        <v>0.319133384099999</v>
+        <v>0.324999999999999</v>
       </c>
       <c r="AQ227" s="5" t="n">
         <f aca="false">AQ226+$BF$185</f>
@@ -60854,7 +60854,7 @@
       </c>
       <c r="AR227" s="5" t="n">
         <f aca="false">AR226+$BG$185</f>
-        <v>0.193818603628571</v>
+        <v>0.187951987728571</v>
       </c>
       <c r="AS227" s="5" t="n">
         <f aca="false">AS226+$BH$185</f>
@@ -60866,11 +60866,11 @@
       </c>
       <c r="AU227" s="5" t="n">
         <f aca="false">AU226+$BE$186</f>
-        <v>0.289133384099999</v>
+        <v>0.294999999999999</v>
       </c>
       <c r="AV227" s="5" t="n">
         <f aca="false">AV226+$BF$186</f>
-        <v>0.204532889342857</v>
+        <v>0.198666273442857</v>
       </c>
       <c r="AW227" s="5" t="n">
         <f aca="false">AW226+$BG$186</f>
@@ -60882,11 +60882,11 @@
       </c>
       <c r="AY227" s="5" t="n">
         <f aca="false">AY226+$BI$186</f>
-        <v>0.3491333841</v>
+        <v>0.355</v>
       </c>
       <c r="AZ227" s="5" t="n">
         <f aca="false">AZ226+$BJ$186</f>
-        <v>0.183104317914286</v>
+        <v>0.177237702014286</v>
       </c>
       <c r="BA227" s="5" t="n">
         <f aca="false">BA226+$BK$186</f>
@@ -60905,7 +60905,7 @@
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="1" t="n">
         <f aca="false">K224-AP224</f>
-        <v>0.102903519148053</v>
+        <v>0.097036903248053</v>
       </c>
       <c r="E228" s="0" t="n">
         <f aca="false">E224+1</f>
@@ -60974,7 +60974,7 @@
       </c>
       <c r="AP228" s="5" t="n">
         <f aca="false">AP227+$BE$185</f>
-        <v>0.320497020463636</v>
+        <v>0.326363636363636</v>
       </c>
       <c r="AQ228" s="5" t="n">
         <f aca="false">AQ227+$BF$185</f>
@@ -60982,7 +60982,7 @@
       </c>
       <c r="AR228" s="5" t="n">
         <f aca="false">AR227+$BG$185</f>
-        <v>0.193558863368831</v>
+        <v>0.187692247468831</v>
       </c>
       <c r="AS228" s="5" t="n">
         <f aca="false">AS227+$BH$185</f>
@@ -60994,11 +60994,11 @@
       </c>
       <c r="AU228" s="5" t="n">
         <f aca="false">AU227+$BE$186</f>
-        <v>0.289587929554545</v>
+        <v>0.295454545454545</v>
       </c>
       <c r="AV228" s="5" t="n">
         <f aca="false">AV227+$BF$186</f>
-        <v>0.204597824407793</v>
+        <v>0.198731208507793</v>
       </c>
       <c r="AW228" s="5" t="n">
         <f aca="false">AW227+$BG$186</f>
@@ -61010,11 +61010,11 @@
       </c>
       <c r="AY228" s="5" t="n">
         <f aca="false">AY227+$BI$186</f>
-        <v>0.351406111372727</v>
+        <v>0.357272727272727</v>
       </c>
       <c r="AZ228" s="5" t="n">
         <f aca="false">AZ227+$BJ$186</f>
-        <v>0.18251990232987</v>
+        <v>0.17665328642987</v>
       </c>
       <c r="BA228" s="5" t="n">
         <f aca="false">BA227+$BK$186</f>
@@ -61033,7 +61033,7 @@
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="1" t="n">
         <f aca="false">K225-AP225</f>
-        <v>0.102968454212988</v>
+        <v>0.0971018383129881</v>
       </c>
       <c r="E229" s="0" t="n">
         <f aca="false">E225+1</f>
@@ -61102,7 +61102,7 @@
       </c>
       <c r="AP229" s="5" t="n">
         <f aca="false">AP228+$BE$185</f>
-        <v>0.321860656827272</v>
+        <v>0.327727272727272</v>
       </c>
       <c r="AQ229" s="5" t="n">
         <f aca="false">AQ228+$BF$185</f>
@@ -61110,7 +61110,7 @@
       </c>
       <c r="AR229" s="5" t="n">
         <f aca="false">AR228+$BG$185</f>
-        <v>0.193299123109091</v>
+        <v>0.187432507209091</v>
       </c>
       <c r="AS229" s="5" t="n">
         <f aca="false">AS228+$BH$185</f>
@@ -61122,11 +61122,11 @@
       </c>
       <c r="AU229" s="5" t="n">
         <f aca="false">AU228+$BE$186</f>
-        <v>0.29004247500909</v>
+        <v>0.29590909090909</v>
       </c>
       <c r="AV229" s="5" t="n">
         <f aca="false">AV228+$BF$186</f>
-        <v>0.204662759472728</v>
+        <v>0.198796143572728</v>
       </c>
       <c r="AW229" s="5" t="n">
         <f aca="false">AW228+$BG$186</f>
@@ -61138,11 +61138,11 @@
       </c>
       <c r="AY229" s="5" t="n">
         <f aca="false">AY228+$BI$186</f>
-        <v>0.353678838645454</v>
+        <v>0.359545454545454</v>
       </c>
       <c r="AZ229" s="5" t="n">
         <f aca="false">AZ228+$BJ$186</f>
-        <v>0.181935486745455</v>
+        <v>0.176068870845455</v>
       </c>
       <c r="BA229" s="5" t="n">
         <f aca="false">BA228+$BK$186</f>
@@ -61161,7 +61161,7 @@
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="1" t="n">
         <f aca="false">K226-AP226</f>
-        <v>0.103033389277923</v>
+        <v>0.0971667733779232</v>
       </c>
       <c r="E230" s="0" t="n">
         <f aca="false">E226+1</f>
@@ -61230,7 +61230,7 @@
       </c>
       <c r="AP230" s="5" t="n">
         <f aca="false">AP229+$BE$185</f>
-        <v>0.323224293190908</v>
+        <v>0.329090909090908</v>
       </c>
       <c r="AQ230" s="5" t="n">
         <f aca="false">AQ229+$BF$185</f>
@@ -61238,7 +61238,7 @@
       </c>
       <c r="AR230" s="5" t="n">
         <f aca="false">AR229+$BG$185</f>
-        <v>0.193039382849351</v>
+        <v>0.18717276694935</v>
       </c>
       <c r="AS230" s="5" t="n">
         <f aca="false">AS229+$BH$185</f>
@@ -61250,11 +61250,11 @@
       </c>
       <c r="AU230" s="5" t="n">
         <f aca="false">AU229+$BE$186</f>
-        <v>0.290497020463635</v>
+        <v>0.296363636363635</v>
       </c>
       <c r="AV230" s="5" t="n">
         <f aca="false">AV229+$BF$186</f>
-        <v>0.204727694537663</v>
+        <v>0.198861078637663</v>
       </c>
       <c r="AW230" s="5" t="n">
         <f aca="false">AW229+$BG$186</f>
@@ -61266,11 +61266,11 @@
       </c>
       <c r="AY230" s="5" t="n">
         <f aca="false">AY229+$BI$186</f>
-        <v>0.355951565918181</v>
+        <v>0.361818181818181</v>
       </c>
       <c r="AZ230" s="5" t="n">
         <f aca="false">AZ229+$BJ$186</f>
-        <v>0.181351071161039</v>
+        <v>0.175484455261039</v>
       </c>
       <c r="BA230" s="5" t="n">
         <f aca="false">BA229+$BK$186</f>
@@ -61289,7 +61289,7 @@
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="1" t="n">
         <f aca="false">K227-AP227</f>
-        <v>0.103098324342859</v>
+        <v>0.0972317084428583</v>
       </c>
       <c r="E231" s="0" t="n">
         <f aca="false">E227+1</f>
@@ -61358,7 +61358,7 @@
       </c>
       <c r="AP231" s="5" t="n">
         <f aca="false">AP230+$BE$185</f>
-        <v>0.324587929554545</v>
+        <v>0.330454545454545</v>
       </c>
       <c r="AQ231" s="5" t="n">
         <f aca="false">AQ230+$BF$185</f>
@@ -61366,7 +61366,7 @@
       </c>
       <c r="AR231" s="5" t="n">
         <f aca="false">AR230+$BG$185</f>
-        <v>0.19277964258961</v>
+        <v>0.18691302668961</v>
       </c>
       <c r="AS231" s="5" t="n">
         <f aca="false">AS230+$BH$185</f>
@@ -61378,11 +61378,11 @@
       </c>
       <c r="AU231" s="5" t="n">
         <f aca="false">AU230+$BE$186</f>
-        <v>0.290951565918181</v>
+        <v>0.296818181818181</v>
       </c>
       <c r="AV231" s="5" t="n">
         <f aca="false">AV230+$BF$186</f>
-        <v>0.204792629602598</v>
+        <v>0.198926013702598</v>
       </c>
       <c r="AW231" s="5" t="n">
         <f aca="false">AW230+$BG$186</f>
@@ -61394,11 +61394,11 @@
       </c>
       <c r="AY231" s="5" t="n">
         <f aca="false">AY230+$BI$186</f>
-        <v>0.358224293190909</v>
+        <v>0.364090909090909</v>
       </c>
       <c r="AZ231" s="5" t="n">
         <f aca="false">AZ230+$BJ$186</f>
-        <v>0.180766655576624</v>
+        <v>0.174900039676624</v>
       </c>
       <c r="BA231" s="5" t="n">
         <f aca="false">BA230+$BK$186</f>
@@ -61417,7 +61417,7 @@
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="1" t="n">
         <f aca="false">K228-AP228</f>
-        <v>0.103163259407793</v>
+        <v>0.0972966435077934</v>
       </c>
       <c r="E232" s="0" t="n">
         <f aca="false">E228+1</f>
@@ -61486,7 +61486,7 @@
       </c>
       <c r="AP232" s="5" t="n">
         <f aca="false">AP231+$BE$185</f>
-        <v>0.325951565918181</v>
+        <v>0.331818181818181</v>
       </c>
       <c r="AQ232" s="5" t="n">
         <f aca="false">AQ231+$BF$185</f>
@@ -61494,7 +61494,7 @@
       </c>
       <c r="AR232" s="5" t="n">
         <f aca="false">AR231+$BG$185</f>
-        <v>0.19251990232987</v>
+        <v>0.18665328642987</v>
       </c>
       <c r="AS232" s="5" t="n">
         <f aca="false">AS231+$BH$185</f>
@@ -61506,11 +61506,11 @@
       </c>
       <c r="AU232" s="5" t="n">
         <f aca="false">AU231+$BE$186</f>
-        <v>0.291406111372726</v>
+        <v>0.297272727272726</v>
       </c>
       <c r="AV232" s="5" t="n">
         <f aca="false">AV231+$BF$186</f>
-        <v>0.204857564667533</v>
+        <v>0.198990948767533</v>
       </c>
       <c r="AW232" s="5" t="n">
         <f aca="false">AW231+$BG$186</f>
@@ -61522,11 +61522,11 @@
       </c>
       <c r="AY232" s="5" t="n">
         <f aca="false">AY231+$BI$186</f>
-        <v>0.360497020463636</v>
+        <v>0.366363636363636</v>
       </c>
       <c r="AZ232" s="5" t="n">
         <f aca="false">AZ231+$BJ$186</f>
-        <v>0.180182239992208</v>
+        <v>0.174315624092208</v>
       </c>
       <c r="BA232" s="5" t="n">
         <f aca="false">BA231+$BK$186</f>
@@ -61545,7 +61545,7 @@
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="1" t="n">
         <f aca="false">K229-AP229</f>
-        <v>0.103228194472729</v>
+        <v>0.0973615785727285</v>
       </c>
       <c r="E233" s="0" t="n">
         <f aca="false">E229+1</f>
@@ -61614,7 +61614,7 @@
       </c>
       <c r="AP233" s="5" t="n">
         <f aca="false">AP232+$BE$185</f>
-        <v>0.327315202281817</v>
+        <v>0.333181818181817</v>
       </c>
       <c r="AQ233" s="5" t="n">
         <f aca="false">AQ232+$BF$185</f>
@@ -61622,7 +61622,7 @@
       </c>
       <c r="AR233" s="5" t="n">
         <f aca="false">AR232+$BG$185</f>
-        <v>0.19226016207013</v>
+        <v>0.18639354617013</v>
       </c>
       <c r="AS233" s="5" t="n">
         <f aca="false">AS232+$BH$185</f>
@@ -61634,11 +61634,11 @@
       </c>
       <c r="AU233" s="5" t="n">
         <f aca="false">AU232+$BE$186</f>
-        <v>0.291860656827272</v>
+        <v>0.297727272727272</v>
       </c>
       <c r="AV233" s="5" t="n">
         <f aca="false">AV232+$BF$186</f>
-        <v>0.204922499732468</v>
+        <v>0.199055883832468</v>
       </c>
       <c r="AW233" s="5" t="n">
         <f aca="false">AW232+$BG$186</f>
@@ -61650,11 +61650,11 @@
       </c>
       <c r="AY233" s="5" t="n">
         <f aca="false">AY232+$BI$186</f>
-        <v>0.362769747736363</v>
+        <v>0.368636363636363</v>
       </c>
       <c r="AZ233" s="5" t="n">
         <f aca="false">AZ232+$BJ$186</f>
-        <v>0.179597824407793</v>
+        <v>0.173731208507793</v>
       </c>
       <c r="BA233" s="5" t="n">
         <f aca="false">BA232+$BK$186</f>
@@ -61673,7 +61673,7 @@
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="1" t="n">
         <f aca="false">K230-AP230</f>
-        <v>0.103293129537664</v>
+        <v>0.0974265136376636</v>
       </c>
       <c r="E234" s="0" t="n">
         <f aca="false">E230+1</f>
@@ -61742,7 +61742,7 @@
       </c>
       <c r="AP234" s="5" t="n">
         <f aca="false">AP233+$BE$185</f>
-        <v>0.328678838645454</v>
+        <v>0.334545454545454</v>
       </c>
       <c r="AQ234" s="5" t="n">
         <f aca="false">AQ233+$BF$185</f>
@@ -61750,7 +61750,7 @@
       </c>
       <c r="AR234" s="5" t="n">
         <f aca="false">AR233+$BG$185</f>
-        <v>0.192000421810389</v>
+        <v>0.186133805910389</v>
       </c>
       <c r="AS234" s="5" t="n">
         <f aca="false">AS233+$BH$185</f>
@@ -61762,11 +61762,11 @@
       </c>
       <c r="AU234" s="5" t="n">
         <f aca="false">AU233+$BE$186</f>
-        <v>0.292315202281817</v>
+        <v>0.298181818181817</v>
       </c>
       <c r="AV234" s="5" t="n">
         <f aca="false">AV233+$BF$186</f>
-        <v>0.204987434797403</v>
+        <v>0.199120818897403</v>
       </c>
       <c r="AW234" s="5" t="n">
         <f aca="false">AW233+$BG$186</f>
@@ -61778,11 +61778,11 @@
       </c>
       <c r="AY234" s="5" t="n">
         <f aca="false">AY233+$BI$186</f>
-        <v>0.36504247500909</v>
+        <v>0.37090909090909</v>
       </c>
       <c r="AZ234" s="5" t="n">
         <f aca="false">AZ233+$BJ$186</f>
-        <v>0.179013408823377</v>
+        <v>0.173146792923377</v>
       </c>
       <c r="BA234" s="5" t="n">
         <f aca="false">BA233+$BK$186</f>
@@ -61801,7 +61801,7 @@
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="1" t="n">
         <f aca="false">K231-AP231</f>
-        <v>0.103358064602599</v>
+        <v>0.0974914487025987</v>
       </c>
       <c r="E235" s="0" t="n">
         <f aca="false">E231+1</f>
@@ -61870,7 +61870,7 @@
       </c>
       <c r="AP235" s="5" t="n">
         <f aca="false">AP234+$BE$185</f>
-        <v>0.33004247500909</v>
+        <v>0.33590909090909</v>
       </c>
       <c r="AQ235" s="5" t="n">
         <f aca="false">AQ234+$BF$185</f>
@@ -61878,7 +61878,7 @@
       </c>
       <c r="AR235" s="5" t="n">
         <f aca="false">AR234+$BG$185</f>
-        <v>0.191740681550649</v>
+        <v>0.185874065650649</v>
       </c>
       <c r="AS235" s="5" t="n">
         <f aca="false">AS234+$BH$185</f>
@@ -61890,11 +61890,11 @@
       </c>
       <c r="AU235" s="5" t="n">
         <f aca="false">AU234+$BE$186</f>
-        <v>0.292769747736363</v>
+        <v>0.298636363636363</v>
       </c>
       <c r="AV235" s="5" t="n">
         <f aca="false">AV234+$BF$186</f>
-        <v>0.205052369862338</v>
+        <v>0.199185753962338</v>
       </c>
       <c r="AW235" s="5" t="n">
         <f aca="false">AW234+$BG$186</f>
@@ -61906,11 +61906,11 @@
       </c>
       <c r="AY235" s="5" t="n">
         <f aca="false">AY234+$BI$186</f>
-        <v>0.367315202281818</v>
+        <v>0.373181818181818</v>
       </c>
       <c r="AZ235" s="5" t="n">
         <f aca="false">AZ234+$BJ$186</f>
-        <v>0.178428993238961</v>
+        <v>0.172562377338961</v>
       </c>
       <c r="BA235" s="5" t="n">
         <f aca="false">BA234+$BK$186</f>
@@ -61929,7 +61929,7 @@
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="1" t="n">
         <f aca="false">K232-AP232</f>
-        <v>0.103422999667534</v>
+        <v>0.0975563837675338</v>
       </c>
       <c r="E236" s="0" t="n">
         <f aca="false">E232+1</f>
@@ -61998,7 +61998,7 @@
       </c>
       <c r="AP236" s="5" t="n">
         <f aca="false">AP235+$BE$185</f>
-        <v>0.331406111372726</v>
+        <v>0.337272727272726</v>
       </c>
       <c r="AQ236" s="5" t="n">
         <f aca="false">AQ235+$BF$185</f>
@@ -62006,7 +62006,7 @@
       </c>
       <c r="AR236" s="5" t="n">
         <f aca="false">AR235+$BG$185</f>
-        <v>0.191480941290909</v>
+        <v>0.185614325390909</v>
       </c>
       <c r="AS236" s="5" t="n">
         <f aca="false">AS235+$BH$185</f>
@@ -62018,11 +62018,11 @@
       </c>
       <c r="AU236" s="5" t="n">
         <f aca="false">AU235+$BE$186</f>
-        <v>0.293224293190908</v>
+        <v>0.299090909090908</v>
       </c>
       <c r="AV236" s="5" t="n">
         <f aca="false">AV235+$BF$186</f>
-        <v>0.205117304927273</v>
+        <v>0.199250689027273</v>
       </c>
       <c r="AW236" s="5" t="n">
         <f aca="false">AW235+$BG$186</f>
@@ -62034,11 +62034,11 @@
       </c>
       <c r="AY236" s="5" t="n">
         <f aca="false">AY235+$BI$186</f>
-        <v>0.369587929554545</v>
+        <v>0.375454545454545</v>
       </c>
       <c r="AZ236" s="5" t="n">
         <f aca="false">AZ235+$BJ$186</f>
-        <v>0.177844577654546</v>
+        <v>0.171977961754546</v>
       </c>
       <c r="BA236" s="5" t="n">
         <f aca="false">BA235+$BK$186</f>
@@ -62057,7 +62057,7 @@
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="1" t="n">
         <f aca="false">K233-AP233</f>
-        <v>0.103487934732469</v>
+        <v>0.0976213188324689</v>
       </c>
       <c r="E237" s="0" t="n">
         <f aca="false">E233+1</f>
@@ -62126,7 +62126,7 @@
       </c>
       <c r="AP237" s="5" t="n">
         <f aca="false">AP236+$BE$185</f>
-        <v>0.332769747736363</v>
+        <v>0.338636363636363</v>
       </c>
       <c r="AQ237" s="5" t="n">
         <f aca="false">AQ236+$BF$185</f>
@@ -62134,7 +62134,7 @@
       </c>
       <c r="AR237" s="5" t="n">
         <f aca="false">AR236+$BG$185</f>
-        <v>0.191221201031169</v>
+        <v>0.185354585131169</v>
       </c>
       <c r="AS237" s="5" t="n">
         <f aca="false">AS236+$BH$185</f>
@@ -62146,11 +62146,11 @@
       </c>
       <c r="AU237" s="5" t="n">
         <f aca="false">AU236+$BE$186</f>
-        <v>0.293678838645453</v>
+        <v>0.299545454545453</v>
       </c>
       <c r="AV237" s="5" t="n">
         <f aca="false">AV236+$BF$186</f>
-        <v>0.205182239992208</v>
+        <v>0.199315624092208</v>
       </c>
       <c r="AW237" s="5" t="n">
         <f aca="false">AW236+$BG$186</f>
@@ -62162,11 +62162,11 @@
       </c>
       <c r="AY237" s="5" t="n">
         <f aca="false">AY236+$BI$186</f>
-        <v>0.371860656827272</v>
+        <v>0.377727272727272</v>
       </c>
       <c r="AZ237" s="5" t="n">
         <f aca="false">AZ236+$BJ$186</f>
-        <v>0.17726016207013</v>
+        <v>0.17139354617013</v>
       </c>
       <c r="BA237" s="5" t="n">
         <f aca="false">BA236+$BK$186</f>
@@ -62185,7 +62185,7 @@
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="1" t="n">
         <f aca="false">K234-AP234</f>
-        <v>0.103552869797404</v>
+        <v>0.097686253897404</v>
       </c>
       <c r="E238" s="0" t="n">
         <f aca="false">E234+1</f>
@@ -62254,7 +62254,7 @@
       </c>
       <c r="AP238" s="5" t="n">
         <f aca="false">AP237+$BE$185</f>
-        <v>0.334133384099999</v>
+        <v>0.339999999999999</v>
       </c>
       <c r="AQ238" s="5" t="n">
         <f aca="false">AQ237+$BF$185</f>
@@ -62262,7 +62262,7 @@
       </c>
       <c r="AR238" s="5" t="n">
         <f aca="false">AR237+$BG$185</f>
-        <v>0.190961460771428</v>
+        <v>0.185094844871428</v>
       </c>
       <c r="AS238" s="5" t="n">
         <f aca="false">AS237+$BH$185</f>
@@ -62274,11 +62274,11 @@
       </c>
       <c r="AU238" s="5" t="n">
         <f aca="false">AU237+$BE$186</f>
-        <v>0.294133384099999</v>
+        <v>0.299999999999999</v>
       </c>
       <c r="AV238" s="5" t="n">
         <f aca="false">AV237+$BF$186</f>
-        <v>0.205247175057143</v>
+        <v>0.199380559157143</v>
       </c>
       <c r="AW238" s="5" t="n">
         <f aca="false">AW237+$BG$186</f>
@@ -62290,11 +62290,11 @@
       </c>
       <c r="AY238" s="5" t="n">
         <f aca="false">AY237+$BI$186</f>
-        <v>0.374133384099999</v>
+        <v>0.379999999999999</v>
       </c>
       <c r="AZ238" s="5" t="n">
         <f aca="false">AZ237+$BJ$186</f>
-        <v>0.176675746485715</v>
+        <v>0.170809130585715</v>
       </c>
       <c r="BA238" s="5" t="n">
         <f aca="false">BA237+$BK$186</f>
@@ -62313,7 +62313,7 @@
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="1" t="n">
         <f aca="false">K235-AP235</f>
-        <v>0.103617804862339</v>
+        <v>0.0977511889623391</v>
       </c>
       <c r="E239" s="0" t="n">
         <f aca="false">E235+1</f>
@@ -62382,7 +62382,7 @@
       </c>
       <c r="AP239" s="5" t="n">
         <f aca="false">AP238+$BE$185</f>
-        <v>0.335497020463635</v>
+        <v>0.341363636363636</v>
       </c>
       <c r="AQ239" s="5" t="n">
         <f aca="false">AQ238+$BF$185</f>
@@ -62390,7 +62390,7 @@
       </c>
       <c r="AR239" s="5" t="n">
         <f aca="false">AR238+$BG$185</f>
-        <v>0.190701720511688</v>
+        <v>0.184835104611688</v>
       </c>
       <c r="AS239" s="5" t="n">
         <f aca="false">AS238+$BH$185</f>
@@ -62402,11 +62402,11 @@
       </c>
       <c r="AU239" s="5" t="n">
         <f aca="false">AU238+$BE$186</f>
-        <v>0.294587929554544</v>
+        <v>0.300454545454544</v>
       </c>
       <c r="AV239" s="5" t="n">
         <f aca="false">AV238+$BF$186</f>
-        <v>0.205312110122078</v>
+        <v>0.199445494222078</v>
       </c>
       <c r="AW239" s="5" t="n">
         <f aca="false">AW238+$BG$186</f>
@@ -62418,11 +62418,11 @@
       </c>
       <c r="AY239" s="5" t="n">
         <f aca="false">AY238+$BI$186</f>
-        <v>0.376406111372727</v>
+        <v>0.382272727272727</v>
       </c>
       <c r="AZ239" s="5" t="n">
         <f aca="false">AZ238+$BJ$186</f>
-        <v>0.176091330901299</v>
+        <v>0.170224715001299</v>
       </c>
       <c r="BA239" s="5" t="n">
         <f aca="false">BA238+$BK$186</f>
@@ -62441,7 +62441,7 @@
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="1" t="n">
         <f aca="false">K236-AP236</f>
-        <v>0.103682739927275</v>
+        <v>0.0978161240272742</v>
       </c>
       <c r="E240" s="0" t="n">
         <f aca="false">E236+1</f>
@@ -62510,7 +62510,7 @@
       </c>
       <c r="AP240" s="5" t="n">
         <f aca="false">AP239+$BE$185</f>
-        <v>0.336860656827272</v>
+        <v>0.342727272727272</v>
       </c>
       <c r="AQ240" s="5" t="n">
         <f aca="false">AQ239+$BF$185</f>
@@ -62518,7 +62518,7 @@
       </c>
       <c r="AR240" s="5" t="n">
         <f aca="false">AR239+$BG$185</f>
-        <v>0.190441980251948</v>
+        <v>0.184575364351948</v>
       </c>
       <c r="AS240" s="5" t="n">
         <f aca="false">AS239+$BH$185</f>
@@ -62530,11 +62530,11 @@
       </c>
       <c r="AU240" s="5" t="n">
         <f aca="false">AU239+$BE$186</f>
-        <v>0.29504247500909</v>
+        <v>0.30090909090909</v>
       </c>
       <c r="AV240" s="5" t="n">
         <f aca="false">AV239+$BF$186</f>
-        <v>0.205377045187013</v>
+        <v>0.199510429287013</v>
       </c>
       <c r="AW240" s="5" t="n">
         <f aca="false">AW239+$BG$186</f>
@@ -62546,11 +62546,11 @@
       </c>
       <c r="AY240" s="5" t="n">
         <f aca="false">AY239+$BI$186</f>
-        <v>0.378678838645454</v>
+        <v>0.384545454545454</v>
       </c>
       <c r="AZ240" s="5" t="n">
         <f aca="false">AZ239+$BJ$186</f>
-        <v>0.175506915316884</v>
+        <v>0.169640299416884</v>
       </c>
       <c r="BA240" s="5" t="n">
         <f aca="false">BA239+$BK$186</f>
@@ -62569,7 +62569,7 @@
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="1" t="n">
         <f aca="false">K237-AP237</f>
-        <v>0.103747674992209</v>
+        <v>0.0978810590922094</v>
       </c>
       <c r="E241" s="0" t="n">
         <f aca="false">E237+1</f>
@@ -62638,7 +62638,7 @@
       </c>
       <c r="AP241" s="5" t="n">
         <f aca="false">AP240+$BE$185</f>
-        <v>0.338224293190908</v>
+        <v>0.344090909090908</v>
       </c>
       <c r="AQ241" s="5" t="n">
         <f aca="false">AQ240+$BF$185</f>
@@ -62646,7 +62646,7 @@
       </c>
       <c r="AR241" s="5" t="n">
         <f aca="false">AR240+$BG$185</f>
-        <v>0.190182239992208</v>
+        <v>0.184315624092208</v>
       </c>
       <c r="AS241" s="5" t="n">
         <f aca="false">AS240+$BH$185</f>
@@ -62658,11 +62658,11 @@
       </c>
       <c r="AU241" s="5" t="n">
         <f aca="false">AU240+$BE$186</f>
-        <v>0.295497020463635</v>
+        <v>0.301363636363635</v>
       </c>
       <c r="AV241" s="5" t="n">
         <f aca="false">AV240+$BF$186</f>
-        <v>0.205441980251948</v>
+        <v>0.199575364351948</v>
       </c>
       <c r="AW241" s="5" t="n">
         <f aca="false">AW240+$BG$186</f>
@@ -62674,11 +62674,11 @@
       </c>
       <c r="AY241" s="5" t="n">
         <f aca="false">AY240+$BI$186</f>
-        <v>0.380951565918181</v>
+        <v>0.386818181818181</v>
       </c>
       <c r="AZ241" s="5" t="n">
         <f aca="false">AZ240+$BJ$186</f>
-        <v>0.174922499732468</v>
+        <v>0.169055883832468</v>
       </c>
       <c r="BA241" s="5" t="n">
         <f aca="false">BA240+$BK$186</f>
@@ -62697,7 +62697,7 @@
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="1" t="n">
         <f aca="false">K238-AP238</f>
-        <v>0.103812610057145</v>
+        <v>0.0979459941571444</v>
       </c>
       <c r="E242" s="0" t="n">
         <f aca="false">E238+1</f>
@@ -62766,7 +62766,7 @@
       </c>
       <c r="AP242" s="5" t="n">
         <f aca="false">AP241+$BE$185</f>
-        <v>0.339587929554545</v>
+        <v>0.345454545454545</v>
       </c>
       <c r="AQ242" s="5" t="n">
         <f aca="false">AQ241+$BF$185</f>
@@ -62774,7 +62774,7 @@
       </c>
       <c r="AR242" s="5" t="n">
         <f aca="false">AR241+$BG$185</f>
-        <v>0.189922499732467</v>
+        <v>0.184055883832467</v>
       </c>
       <c r="AS242" s="5" t="n">
         <f aca="false">AS241+$BH$185</f>
@@ -62786,11 +62786,11 @@
       </c>
       <c r="AU242" s="5" t="n">
         <f aca="false">AU241+$BE$186</f>
-        <v>0.295951565918181</v>
+        <v>0.301818181818181</v>
       </c>
       <c r="AV242" s="5" t="n">
         <f aca="false">AV241+$BF$186</f>
-        <v>0.205506915316884</v>
+        <v>0.199640299416884</v>
       </c>
       <c r="AW242" s="5" t="n">
         <f aca="false">AW241+$BG$186</f>
@@ -62802,11 +62802,11 @@
       </c>
       <c r="AY242" s="5" t="n">
         <f aca="false">AY241+$BI$186</f>
-        <v>0.383224293190908</v>
+        <v>0.389090909090908</v>
       </c>
       <c r="AZ242" s="5" t="n">
         <f aca="false">AZ241+$BJ$186</f>
-        <v>0.174338084148052</v>
+        <v>0.168471468248052</v>
       </c>
       <c r="BA242" s="5" t="n">
         <f aca="false">BA241+$BK$186</f>
@@ -62825,7 +62825,7 @@
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="1" t="n">
         <f aca="false">K239-AP239</f>
-        <v>0.10387754512208</v>
+        <v>0.0980109292220796</v>
       </c>
       <c r="E243" s="0" t="n">
         <f aca="false">E239+1</f>
@@ -62894,7 +62894,7 @@
       </c>
       <c r="AP243" s="5" t="n">
         <f aca="false">AP242+$BE$185</f>
-        <v>0.340951565918181</v>
+        <v>0.346818181818181</v>
       </c>
       <c r="AQ243" s="5" t="n">
         <f aca="false">AQ242+$BF$185</f>
@@ -62902,7 +62902,7 @@
       </c>
       <c r="AR243" s="5" t="n">
         <f aca="false">AR242+$BG$185</f>
-        <v>0.189662759472727</v>
+        <v>0.183796143572727</v>
       </c>
       <c r="AS243" s="5" t="n">
         <f aca="false">AS242+$BH$185</f>
@@ -62914,11 +62914,11 @@
       </c>
       <c r="AU243" s="5" t="n">
         <f aca="false">AU242+$BE$186</f>
-        <v>0.296406111372726</v>
+        <v>0.302272727272726</v>
       </c>
       <c r="AV243" s="5" t="n">
         <f aca="false">AV242+$BF$186</f>
-        <v>0.205571850381819</v>
+        <v>0.199705234481819</v>
       </c>
       <c r="AW243" s="5" t="n">
         <f aca="false">AW242+$BG$186</f>
@@ -62930,11 +62930,11 @@
       </c>
       <c r="AY243" s="5" t="n">
         <f aca="false">AY242+$BI$186</f>
-        <v>0.385497020463636</v>
+        <v>0.391363636363636</v>
       </c>
       <c r="AZ243" s="5" t="n">
         <f aca="false">AZ242+$BJ$186</f>
-        <v>0.173753668563637</v>
+        <v>0.167887052663637</v>
       </c>
       <c r="BA243" s="5" t="n">
         <f aca="false">BA242+$BK$186</f>
@@ -62953,7 +62953,7 @@
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="1" t="n">
         <f aca="false">K240-AP240</f>
-        <v>0.103942480187015</v>
+        <v>0.0980758642870146</v>
       </c>
       <c r="E244" s="0" t="n">
         <f aca="false">E240+1</f>
@@ -63022,7 +63022,7 @@
       </c>
       <c r="AP244" s="5" t="n">
         <f aca="false">AP243+$BE$185</f>
-        <v>0.342315202281817</v>
+        <v>0.348181818181817</v>
       </c>
       <c r="AQ244" s="5" t="n">
         <f aca="false">AQ243+$BF$185</f>
@@ -63030,7 +63030,7 @@
       </c>
       <c r="AR244" s="5" t="n">
         <f aca="false">AR243+$BG$185</f>
-        <v>0.189403019212987</v>
+        <v>0.183536403312987</v>
       </c>
       <c r="AS244" s="5" t="n">
         <f aca="false">AS243+$BH$185</f>
@@ -63042,11 +63042,11 @@
       </c>
       <c r="AU244" s="5" t="n">
         <f aca="false">AU243+$BE$186</f>
-        <v>0.296860656827271</v>
+        <v>0.302727272727271</v>
       </c>
       <c r="AV244" s="5" t="n">
         <f aca="false">AV243+$BF$186</f>
-        <v>0.205636785446754</v>
+        <v>0.199770169546754</v>
       </c>
       <c r="AW244" s="5" t="n">
         <f aca="false">AW243+$BG$186</f>
@@ -63058,11 +63058,11 @@
       </c>
       <c r="AY244" s="5" t="n">
         <f aca="false">AY243+$BI$186</f>
-        <v>0.387769747736363</v>
+        <v>0.393636363636363</v>
       </c>
       <c r="AZ244" s="5" t="n">
         <f aca="false">AZ243+$BJ$186</f>
-        <v>0.173169252979221</v>
+        <v>0.167302637079221</v>
       </c>
       <c r="BA244" s="5" t="n">
         <f aca="false">BA243+$BK$186</f>
@@ -63081,7 +63081,7 @@
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="1" t="n">
         <f aca="false">K241-AP241</f>
-        <v>0.10400741525195</v>
+        <v>0.0981407993519498</v>
       </c>
       <c r="E245" s="0" t="n">
         <f aca="false">E241+1</f>
@@ -63150,7 +63150,7 @@
       </c>
       <c r="AP245" s="5" t="n">
         <f aca="false">AP244+$BE$185</f>
-        <v>0.343678838645454</v>
+        <v>0.349545454545454</v>
       </c>
       <c r="AQ245" s="5" t="n">
         <f aca="false">AQ244+$BF$185</f>
@@ -63158,7 +63158,7 @@
       </c>
       <c r="AR245" s="5" t="n">
         <f aca="false">AR244+$BG$185</f>
-        <v>0.189143278953247</v>
+        <v>0.183276663053246</v>
       </c>
       <c r="AS245" s="5" t="n">
         <f aca="false">AS244+$BH$185</f>
@@ -63170,11 +63170,11 @@
       </c>
       <c r="AU245" s="5" t="n">
         <f aca="false">AU244+$BE$186</f>
-        <v>0.297315202281817</v>
+        <v>0.303181818181817</v>
       </c>
       <c r="AV245" s="5" t="n">
         <f aca="false">AV244+$BF$186</f>
-        <v>0.205701720511689</v>
+        <v>0.199835104611689</v>
       </c>
       <c r="AW245" s="5" t="n">
         <f aca="false">AW244+$BG$186</f>
@@ -63186,11 +63186,11 @@
       </c>
       <c r="AY245" s="5" t="n">
         <f aca="false">AY244+$BI$186</f>
-        <v>0.39004247500909</v>
+        <v>0.39590909090909</v>
       </c>
       <c r="AZ245" s="5" t="n">
         <f aca="false">AZ244+$BJ$186</f>
-        <v>0.172584837394806</v>
+        <v>0.166718221494806</v>
       </c>
       <c r="BA245" s="5" t="n">
         <f aca="false">BA244+$BK$186</f>
@@ -63209,7 +63209,7 @@
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="1" t="n">
         <f aca="false">K242-AP242</f>
-        <v>0.104072350316884</v>
+        <v>0.0982057344168848</v>
       </c>
       <c r="E246" s="0" t="n">
         <f aca="false">E242+1</f>
@@ -63278,7 +63278,7 @@
       </c>
       <c r="AP246" s="5" t="n">
         <f aca="false">AP245+$BE$185</f>
-        <v>0.34504247500909</v>
+        <v>0.35090909090909</v>
       </c>
       <c r="AQ246" s="5" t="n">
         <f aca="false">AQ245+$BF$185</f>
@@ -63286,7 +63286,7 @@
       </c>
       <c r="AR246" s="5" t="n">
         <f aca="false">AR245+$BG$185</f>
-        <v>0.188883538693506</v>
+        <v>0.183016922793506</v>
       </c>
       <c r="AS246" s="5" t="n">
         <f aca="false">AS245+$BH$185</f>
@@ -63298,11 +63298,11 @@
       </c>
       <c r="AU246" s="5" t="n">
         <f aca="false">AU245+$BE$186</f>
-        <v>0.297769747736362</v>
+        <v>0.303636363636362</v>
       </c>
       <c r="AV246" s="5" t="n">
         <f aca="false">AV245+$BF$186</f>
-        <v>0.205766655576624</v>
+        <v>0.199900039676624</v>
       </c>
       <c r="AW246" s="5" t="n">
         <f aca="false">AW245+$BG$186</f>
@@ -63314,11 +63314,11 @@
       </c>
       <c r="AY246" s="5" t="n">
         <f aca="false">AY245+$BI$186</f>
-        <v>0.392315202281817</v>
+        <v>0.398181818181818</v>
       </c>
       <c r="AZ246" s="5" t="n">
         <f aca="false">AZ245+$BJ$186</f>
-        <v>0.17200042181039</v>
+        <v>0.16613380591039</v>
       </c>
       <c r="BA246" s="5" t="n">
         <f aca="false">BA245+$BK$186</f>
@@ -63337,7 +63337,7 @@
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="1" t="n">
         <f aca="false">K243-AP243</f>
-        <v>0.10413728538182</v>
+        <v>0.09827066948182</v>
       </c>
       <c r="E247" s="0" t="n">
         <f aca="false">E243+1</f>
@@ -63406,7 +63406,7 @@
       </c>
       <c r="AP247" s="5" t="n">
         <f aca="false">AP246+$BE$185</f>
-        <v>0.346406111372726</v>
+        <v>0.352272727272726</v>
       </c>
       <c r="AQ247" s="5" t="n">
         <f aca="false">AQ246+$BF$185</f>
@@ -63414,7 +63414,7 @@
       </c>
       <c r="AR247" s="5" t="n">
         <f aca="false">AR246+$BG$185</f>
-        <v>0.188623798433766</v>
+        <v>0.182757182533766</v>
       </c>
       <c r="AS247" s="5" t="n">
         <f aca="false">AS246+$BH$185</f>
@@ -63426,11 +63426,11 @@
       </c>
       <c r="AU247" s="5" t="n">
         <f aca="false">AU246+$BE$186</f>
-        <v>0.298224293190908</v>
+        <v>0.304090909090908</v>
       </c>
       <c r="AV247" s="5" t="n">
         <f aca="false">AV246+$BF$186</f>
-        <v>0.205831590641559</v>
+        <v>0.199964974741559</v>
       </c>
       <c r="AW247" s="5" t="n">
         <f aca="false">AW246+$BG$186</f>
@@ -63442,11 +63442,11 @@
       </c>
       <c r="AY247" s="5" t="n">
         <f aca="false">AY246+$BI$186</f>
-        <v>0.394587929554545</v>
+        <v>0.400454545454545</v>
       </c>
       <c r="AZ247" s="5" t="n">
         <f aca="false">AZ246+$BJ$186</f>
-        <v>0.171416006225975</v>
+        <v>0.165549390325974</v>
       </c>
       <c r="BA247" s="5" t="n">
         <f aca="false">BA246+$BK$186</f>
@@ -63465,7 +63465,7 @@
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="1" t="n">
         <f aca="false">K244-AP244</f>
-        <v>0.104202220446755</v>
+        <v>0.098335604546755</v>
       </c>
       <c r="E248" s="0" t="n">
         <f aca="false">E244+1</f>
@@ -63534,7 +63534,7 @@
       </c>
       <c r="AP248" s="5" t="n">
         <f aca="false">AP247+$BE$185</f>
-        <v>0.347769747736363</v>
+        <v>0.353636363636363</v>
       </c>
       <c r="AQ248" s="5" t="n">
         <f aca="false">AQ247+$BF$185</f>
@@ -63542,7 +63542,7 @@
       </c>
       <c r="AR248" s="5" t="n">
         <f aca="false">AR247+$BG$185</f>
-        <v>0.188364058174026</v>
+        <v>0.182497442274026</v>
       </c>
       <c r="AS248" s="5" t="n">
         <f aca="false">AS247+$BH$185</f>
@@ -63554,11 +63554,11 @@
       </c>
       <c r="AU248" s="5" t="n">
         <f aca="false">AU247+$BE$186</f>
-        <v>0.298678838645453</v>
+        <v>0.304545454545453</v>
       </c>
       <c r="AV248" s="5" t="n">
         <f aca="false">AV247+$BF$186</f>
-        <v>0.205896525706494</v>
+        <v>0.200029909806494</v>
       </c>
       <c r="AW248" s="5" t="n">
         <f aca="false">AW247+$BG$186</f>
@@ -63570,11 +63570,11 @@
       </c>
       <c r="AY248" s="5" t="n">
         <f aca="false">AY247+$BI$186</f>
-        <v>0.396860656827272</v>
+        <v>0.402727272727272</v>
       </c>
       <c r="AZ248" s="5" t="n">
         <f aca="false">AZ247+$BJ$186</f>
-        <v>0.170831590641559</v>
+        <v>0.164964974741559</v>
       </c>
       <c r="BA248" s="5" t="n">
         <f aca="false">BA247+$BK$186</f>
@@ -63593,7 +63593,7 @@
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="1" t="n">
         <f aca="false">K245-AP245</f>
-        <v>0.10426715551169</v>
+        <v>0.0984005396116902</v>
       </c>
       <c r="E249" s="0" t="n">
         <f aca="false">E245+1</f>
@@ -63662,7 +63662,7 @@
       </c>
       <c r="AP249" s="5" t="n">
         <f aca="false">AP248+$BE$185</f>
-        <v>0.349133384099999</v>
+        <v>0.354999999999999</v>
       </c>
       <c r="AQ249" s="5" t="n">
         <f aca="false">AQ248+$BF$185</f>
@@ -63670,7 +63670,7 @@
       </c>
       <c r="AR249" s="5" t="n">
         <f aca="false">AR248+$BG$185</f>
-        <v>0.188104317914285</v>
+        <v>0.182237702014285</v>
       </c>
       <c r="AS249" s="5" t="n">
         <f aca="false">AS248+$BH$185</f>
@@ -63682,11 +63682,11 @@
       </c>
       <c r="AU249" s="5" t="n">
         <f aca="false">AU248+$BE$186</f>
-        <v>0.299133384099999</v>
+        <v>0.304999999999999</v>
       </c>
       <c r="AV249" s="5" t="n">
         <f aca="false">AV248+$BF$186</f>
-        <v>0.205961460771429</v>
+        <v>0.200094844871429</v>
       </c>
       <c r="AW249" s="5" t="n">
         <f aca="false">AW248+$BG$186</f>
@@ -63698,11 +63698,11 @@
       </c>
       <c r="AY249" s="5" t="n">
         <f aca="false">AY248+$BI$186</f>
-        <v>0.399133384099999</v>
+        <v>0.404999999999999</v>
       </c>
       <c r="AZ249" s="5" t="n">
         <f aca="false">AZ248+$BJ$186</f>
-        <v>0.170247175057143</v>
+        <v>0.164380559157143</v>
       </c>
       <c r="BA249" s="5" t="n">
         <f aca="false">BA248+$BK$186</f>
@@ -63721,7 +63721,7 @@
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="1" t="n">
         <f aca="false">K246-AP246</f>
-        <v>0.104332090576625</v>
+        <v>0.0984654746766253</v>
       </c>
       <c r="E250" s="0" t="n">
         <f aca="false">E246+1</f>
@@ -63790,7 +63790,7 @@
       </c>
       <c r="AP250" s="5" t="n">
         <f aca="false">AP249+$BE$185</f>
-        <v>0.350497020463635</v>
+        <v>0.356363636363635</v>
       </c>
       <c r="AQ250" s="5" t="n">
         <f aca="false">AQ249+$BF$185</f>
@@ -63798,7 +63798,7 @@
       </c>
       <c r="AR250" s="5" t="n">
         <f aca="false">AR249+$BG$185</f>
-        <v>0.187844577654545</v>
+        <v>0.181977961754545</v>
       </c>
       <c r="AS250" s="5" t="n">
         <f aca="false">AS249+$BH$185</f>
@@ -63810,11 +63810,11 @@
       </c>
       <c r="AU250" s="5" t="n">
         <f aca="false">AU249+$BE$186</f>
-        <v>0.299587929554544</v>
+        <v>0.305454545454544</v>
       </c>
       <c r="AV250" s="5" t="n">
         <f aca="false">AV249+$BF$186</f>
-        <v>0.206026395836364</v>
+        <v>0.200159779936364</v>
       </c>
       <c r="AW250" s="5" t="n">
         <f aca="false">AW249+$BG$186</f>
@@ -63826,11 +63826,11 @@
       </c>
       <c r="AY250" s="5" t="n">
         <f aca="false">AY249+$BI$186</f>
-        <v>0.401406111372727</v>
+        <v>0.407272727272727</v>
       </c>
       <c r="AZ250" s="5" t="n">
         <f aca="false">AZ249+$BJ$186</f>
-        <v>0.169662759472728</v>
+        <v>0.163796143572728</v>
       </c>
       <c r="BA250" s="5" t="n">
         <f aca="false">BA249+$BK$186</f>
@@ -63849,7 +63849,7 @@
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="1" t="n">
         <f aca="false">K247-AP247</f>
-        <v>0.104397025641561</v>
+        <v>0.0985304097415604</v>
       </c>
       <c r="E251" s="0" t="n">
         <f aca="false">E247+1</f>
@@ -63918,7 +63918,7 @@
       </c>
       <c r="AP251" s="5" t="n">
         <f aca="false">AP250+$BE$185</f>
-        <v>0.351860656827272</v>
+        <v>0.357727272727272</v>
       </c>
       <c r="AQ251" s="5" t="n">
         <f aca="false">AQ250+$BF$185</f>
@@ -63926,7 +63926,7 @@
       </c>
       <c r="AR251" s="5" t="n">
         <f aca="false">AR250+$BG$185</f>
-        <v>0.187584837394805</v>
+        <v>0.181718221494805</v>
       </c>
       <c r="AS251" s="5" t="n">
         <f aca="false">AS250+$BH$185</f>
@@ -63938,11 +63938,11 @@
       </c>
       <c r="AU251" s="5" t="n">
         <f aca="false">AU250+$BE$186</f>
-        <v>0.300042475009089</v>
+        <v>0.305909090909089</v>
       </c>
       <c r="AV251" s="5" t="n">
         <f aca="false">AV250+$BF$186</f>
-        <v>0.206091330901299</v>
+        <v>0.200224715001299</v>
       </c>
       <c r="AW251" s="5" t="n">
         <f aca="false">AW250+$BG$186</f>
@@ -63954,11 +63954,11 @@
       </c>
       <c r="AY251" s="5" t="n">
         <f aca="false">AY250+$BI$186</f>
-        <v>0.403678838645454</v>
+        <v>0.409545454545454</v>
       </c>
       <c r="AZ251" s="5" t="n">
         <f aca="false">AZ250+$BJ$186</f>
-        <v>0.169078343888312</v>
+        <v>0.163211727988312</v>
       </c>
       <c r="BA251" s="5" t="n">
         <f aca="false">BA250+$BK$186</f>
@@ -63977,7 +63977,7 @@
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="1" t="n">
         <f aca="false">K248-AP248</f>
-        <v>0.104461960706495</v>
+        <v>0.0985953448064955</v>
       </c>
       <c r="E252" s="0" t="n">
         <f aca="false">E248+1</f>
@@ -64046,7 +64046,7 @@
       </c>
       <c r="AP252" s="5" t="n">
         <f aca="false">AP251+$BE$185</f>
-        <v>0.353224293190908</v>
+        <v>0.359090909090908</v>
       </c>
       <c r="AQ252" s="5" t="n">
         <f aca="false">AQ251+$BF$185</f>
@@ -64054,7 +64054,7 @@
       </c>
       <c r="AR252" s="5" t="n">
         <f aca="false">AR251+$BG$185</f>
-        <v>0.187325097135065</v>
+        <v>0.181458481235065</v>
       </c>
       <c r="AS252" s="5" t="n">
         <f aca="false">AS251+$BH$185</f>
@@ -64066,11 +64066,11 @@
       </c>
       <c r="AU252" s="5" t="n">
         <f aca="false">AU251+$BE$186</f>
-        <v>0.300497020463635</v>
+        <v>0.306363636363635</v>
       </c>
       <c r="AV252" s="5" t="n">
         <f aca="false">AV251+$BF$186</f>
-        <v>0.206156265966234</v>
+        <v>0.200289650066234</v>
       </c>
       <c r="AW252" s="5" t="n">
         <f aca="false">AW251+$BG$186</f>
@@ -64082,11 +64082,11 @@
       </c>
       <c r="AY252" s="5" t="n">
         <f aca="false">AY251+$BI$186</f>
-        <v>0.405951565918181</v>
+        <v>0.411818181818181</v>
       </c>
       <c r="AZ252" s="5" t="n">
         <f aca="false">AZ251+$BJ$186</f>
-        <v>0.168493928303897</v>
+        <v>0.162627312403897</v>
       </c>
       <c r="BA252" s="5" t="n">
         <f aca="false">BA251+$BK$186</f>
@@ -64105,7 +64105,7 @@
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="1" t="n">
         <f aca="false">K249-AP249</f>
-        <v>0.104526895771431</v>
+        <v>0.0986602798714306</v>
       </c>
       <c r="E253" s="0" t="n">
         <f aca="false">E249+1</f>
@@ -64174,7 +64174,7 @@
       </c>
       <c r="AP253" s="5" t="n">
         <f aca="false">AP252+$BE$185</f>
-        <v>0.354587929554544</v>
+        <v>0.360454545454544</v>
       </c>
       <c r="AQ253" s="5" t="n">
         <f aca="false">AQ252+$BF$185</f>
@@ -64182,7 +64182,7 @@
       </c>
       <c r="AR253" s="5" t="n">
         <f aca="false">AR252+$BG$185</f>
-        <v>0.187065356875324</v>
+        <v>0.181198740975324</v>
       </c>
       <c r="AS253" s="5" t="n">
         <f aca="false">AS252+$BH$185</f>
@@ -64194,11 +64194,11 @@
       </c>
       <c r="AU253" s="5" t="n">
         <f aca="false">AU252+$BE$186</f>
-        <v>0.30095156591818</v>
+        <v>0.30681818181818</v>
       </c>
       <c r="AV253" s="5" t="n">
         <f aca="false">AV252+$BF$186</f>
-        <v>0.206221201031169</v>
+        <v>0.200354585131169</v>
       </c>
       <c r="AW253" s="5" t="n">
         <f aca="false">AW252+$BG$186</f>
@@ -64210,11 +64210,11 @@
       </c>
       <c r="AY253" s="5" t="n">
         <f aca="false">AY252+$BI$186</f>
-        <v>0.408224293190908</v>
+        <v>0.414090909090908</v>
       </c>
       <c r="AZ253" s="5" t="n">
         <f aca="false">AZ252+$BJ$186</f>
-        <v>0.167909512719481</v>
+        <v>0.162042896819481</v>
       </c>
       <c r="BA253" s="5" t="n">
         <f aca="false">BA252+$BK$186</f>
@@ -64233,7 +64233,7 @@
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="1" t="n">
         <f aca="false">K250-AP250</f>
-        <v>0.104591830836366</v>
+        <v>0.0987252149363657</v>
       </c>
       <c r="E254" s="0" t="n">
         <f aca="false">E250+1</f>
@@ -64302,7 +64302,7 @@
       </c>
       <c r="AP254" s="5" t="n">
         <f aca="false">AP253+$BE$185</f>
-        <v>0.355951565918181</v>
+        <v>0.361818181818181</v>
       </c>
       <c r="AQ254" s="5" t="n">
         <f aca="false">AQ253+$BF$185</f>
@@ -64310,7 +64310,7 @@
       </c>
       <c r="AR254" s="5" t="n">
         <f aca="false">AR253+$BG$185</f>
-        <v>0.186805616615584</v>
+        <v>0.180939000715584</v>
       </c>
       <c r="AS254" s="5" t="n">
         <f aca="false">AS253+$BH$185</f>
@@ -64322,11 +64322,11 @@
       </c>
       <c r="AU254" s="5" t="n">
         <f aca="false">AU253+$BE$186</f>
-        <v>0.301406111372726</v>
+        <v>0.307272727272726</v>
       </c>
       <c r="AV254" s="5" t="n">
         <f aca="false">AV253+$BF$186</f>
-        <v>0.206286136096104</v>
+        <v>0.200419520196104</v>
       </c>
       <c r="AW254" s="5" t="n">
         <f aca="false">AW253+$BG$186</f>
@@ -64338,11 +64338,11 @@
       </c>
       <c r="AY254" s="5" t="n">
         <f aca="false">AY253+$BI$186</f>
-        <v>0.410497020463636</v>
+        <v>0.416363636363636</v>
       </c>
       <c r="AZ254" s="5" t="n">
         <f aca="false">AZ253+$BJ$186</f>
-        <v>0.167325097135065</v>
+        <v>0.161458481235065</v>
       </c>
       <c r="BA254" s="5" t="n">
         <f aca="false">BA253+$BK$186</f>
@@ -64361,7 +64361,7 @@
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="1" t="n">
         <f aca="false">K251-AP251</f>
-        <v>0.1046567659013</v>
+        <v>0.0987901500013008</v>
       </c>
       <c r="E255" s="0" t="n">
         <f aca="false">E251+1</f>
@@ -64430,7 +64430,7 @@
       </c>
       <c r="AP255" s="5" t="n">
         <f aca="false">AP254+$BE$185</f>
-        <v>0.357315202281817</v>
+        <v>0.363181818181817</v>
       </c>
       <c r="AQ255" s="5" t="n">
         <f aca="false">AQ254+$BF$185</f>
@@ -64438,7 +64438,7 @@
       </c>
       <c r="AR255" s="5" t="n">
         <f aca="false">AR254+$BG$185</f>
-        <v>0.186545876355844</v>
+        <v>0.180679260455844</v>
       </c>
       <c r="AS255" s="5" t="n">
         <f aca="false">AS254+$BH$185</f>
@@ -64450,11 +64450,11 @@
       </c>
       <c r="AU255" s="5" t="n">
         <f aca="false">AU254+$BE$186</f>
-        <v>0.301860656827271</v>
+        <v>0.307727272727271</v>
       </c>
       <c r="AV255" s="5" t="n">
         <f aca="false">AV254+$BF$186</f>
-        <v>0.20635107116104</v>
+        <v>0.200484455261039</v>
       </c>
       <c r="AW255" s="5" t="n">
         <f aca="false">AW254+$BG$186</f>
@@ -64466,11 +64466,11 @@
       </c>
       <c r="AY255" s="5" t="n">
         <f aca="false">AY254+$BI$186</f>
-        <v>0.412769747736363</v>
+        <v>0.418636363636363</v>
       </c>
       <c r="AZ255" s="5" t="n">
         <f aca="false">AZ254+$BJ$186</f>
-        <v>0.16674068155065</v>
+        <v>0.16087406565065</v>
       </c>
       <c r="BA255" s="5" t="n">
         <f aca="false">BA254+$BK$186</f>
@@ -64489,7 +64489,7 @@
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="1" t="n">
         <f aca="false">K252-AP252</f>
-        <v>0.104721700966236</v>
+        <v>0.0988550850662359</v>
       </c>
       <c r="E256" s="0" t="n">
         <f aca="false">E252+1</f>
@@ -64558,7 +64558,7 @@
       </c>
       <c r="AP256" s="5" t="n">
         <f aca="false">AP255+$BE$185</f>
-        <v>0.358678838645453</v>
+        <v>0.364545454545453</v>
       </c>
       <c r="AQ256" s="5" t="n">
         <f aca="false">AQ255+$BF$185</f>
@@ -64566,7 +64566,7 @@
       </c>
       <c r="AR256" s="5" t="n">
         <f aca="false">AR255+$BG$185</f>
-        <v>0.186286136096104</v>
+        <v>0.180419520196104</v>
       </c>
       <c r="AS256" s="5" t="n">
         <f aca="false">AS255+$BH$185</f>
@@ -64578,11 +64578,11 @@
       </c>
       <c r="AU256" s="5" t="n">
         <f aca="false">AU255+$BE$186</f>
-        <v>0.302315202281817</v>
+        <v>0.308181818181817</v>
       </c>
       <c r="AV256" s="5" t="n">
         <f aca="false">AV255+$BF$186</f>
-        <v>0.206416006225975</v>
+        <v>0.200549390325975</v>
       </c>
       <c r="AW256" s="5" t="n">
         <f aca="false">AW255+$BG$186</f>
@@ -64594,11 +64594,11 @@
       </c>
       <c r="AY256" s="5" t="n">
         <f aca="false">AY255+$BI$186</f>
-        <v>0.41504247500909</v>
+        <v>0.42090909090909</v>
       </c>
       <c r="AZ256" s="5" t="n">
         <f aca="false">AZ255+$BJ$186</f>
-        <v>0.166156265966234</v>
+        <v>0.160289650066234</v>
       </c>
       <c r="BA256" s="5" t="n">
         <f aca="false">BA255+$BK$186</f>
@@ -64617,7 +64617,7 @@
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="1" t="n">
         <f aca="false">K253-AP253</f>
-        <v>0.104786636031171</v>
+        <v>0.098920020131171</v>
       </c>
       <c r="E257" s="0" t="n">
         <f aca="false">E253+1</f>
@@ -64686,7 +64686,7 @@
       </c>
       <c r="AP257" s="5" t="n">
         <f aca="false">AP256+$BE$185</f>
-        <v>0.36004247500909</v>
+        <v>0.36590909090909</v>
       </c>
       <c r="AQ257" s="5" t="n">
         <f aca="false">AQ256+$BF$185</f>
@@ -64694,7 +64694,7 @@
       </c>
       <c r="AR257" s="5" t="n">
         <f aca="false">AR256+$BG$185</f>
-        <v>0.186026395836363</v>
+        <v>0.180159779936363</v>
       </c>
       <c r="AS257" s="5" t="n">
         <f aca="false">AS256+$BH$185</f>
@@ -64706,11 +64706,11 @@
       </c>
       <c r="AU257" s="5" t="n">
         <f aca="false">AU256+$BE$186</f>
-        <v>0.302769747736362</v>
+        <v>0.308636363636362</v>
       </c>
       <c r="AV257" s="5" t="n">
         <f aca="false">AV256+$BF$186</f>
-        <v>0.20648094129091</v>
+        <v>0.20061432539091</v>
       </c>
       <c r="AW257" s="5" t="n">
         <f aca="false">AW256+$BG$186</f>
@@ -64722,11 +64722,11 @@
       </c>
       <c r="AY257" s="5" t="n">
         <f aca="false">AY256+$BI$186</f>
-        <v>0.417315202281817</v>
+        <v>0.423181818181817</v>
       </c>
       <c r="AZ257" s="5" t="n">
         <f aca="false">AZ256+$BJ$186</f>
-        <v>0.165571850381819</v>
+        <v>0.159705234481819</v>
       </c>
       <c r="BA257" s="5" t="n">
         <f aca="false">BA256+$BK$186</f>
@@ -64745,7 +64745,7 @@
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="1" t="n">
         <f aca="false">K254-AP254</f>
-        <v>0.104851571096106</v>
+        <v>0.0989849551961061</v>
       </c>
       <c r="E258" s="0" t="n">
         <f aca="false">E254+1</f>
@@ -64814,7 +64814,7 @@
       </c>
       <c r="AP258" s="5" t="n">
         <f aca="false">AP257+$BE$185</f>
-        <v>0.361406111372726</v>
+        <v>0.367272727272726</v>
       </c>
       <c r="AQ258" s="5" t="n">
         <f aca="false">AQ257+$BF$185</f>
@@ -64822,7 +64822,7 @@
       </c>
       <c r="AR258" s="5" t="n">
         <f aca="false">AR257+$BG$185</f>
-        <v>0.185766655576623</v>
+        <v>0.179900039676623</v>
       </c>
       <c r="AS258" s="5" t="n">
         <f aca="false">AS257+$BH$185</f>
@@ -64834,11 +64834,11 @@
       </c>
       <c r="AU258" s="5" t="n">
         <f aca="false">AU257+$BE$186</f>
-        <v>0.303224293190907</v>
+        <v>0.309090909090908</v>
       </c>
       <c r="AV258" s="5" t="n">
         <f aca="false">AV257+$BF$186</f>
-        <v>0.206545876355845</v>
+        <v>0.200679260455845</v>
       </c>
       <c r="AW258" s="5" t="n">
         <f aca="false">AW257+$BG$186</f>
@@ -64850,11 +64850,11 @@
       </c>
       <c r="AY258" s="5" t="n">
         <f aca="false">AY257+$BI$186</f>
-        <v>0.419587929554545</v>
+        <v>0.425454545454545</v>
       </c>
       <c r="AZ258" s="5" t="n">
         <f aca="false">AZ257+$BJ$186</f>
-        <v>0.164987434797403</v>
+        <v>0.159120818897403</v>
       </c>
       <c r="BA258" s="5" t="n">
         <f aca="false">BA257+$BK$186</f>
@@ -64873,7 +64873,7 @@
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="1" t="n">
         <f aca="false">K255-AP255</f>
-        <v>0.104916506161041</v>
+        <v>0.0990498902610412</v>
       </c>
       <c r="E259" s="0" t="n">
         <f aca="false">E255+1</f>
@@ -64942,7 +64942,7 @@
       </c>
       <c r="AP259" s="5" t="n">
         <f aca="false">AP258+$BE$185</f>
-        <v>0.362769747736362</v>
+        <v>0.368636363636362</v>
       </c>
       <c r="AQ259" s="5" t="n">
         <f aca="false">AQ258+$BF$185</f>
@@ -64950,7 +64950,7 @@
       </c>
       <c r="AR259" s="5" t="n">
         <f aca="false">AR258+$BG$185</f>
-        <v>0.185506915316883</v>
+        <v>0.179640299416883</v>
       </c>
       <c r="AS259" s="5" t="n">
         <f aca="false">AS258+$BH$185</f>
@@ -64962,11 +64962,11 @@
       </c>
       <c r="AU259" s="5" t="n">
         <f aca="false">AU258+$BE$186</f>
-        <v>0.303678838645453</v>
+        <v>0.309545454545453</v>
       </c>
       <c r="AV259" s="5" t="n">
         <f aca="false">AV258+$BF$186</f>
-        <v>0.20661081142078</v>
+        <v>0.20074419552078</v>
       </c>
       <c r="AW259" s="5" t="n">
         <f aca="false">AW258+$BG$186</f>
@@ -64978,11 +64978,11 @@
       </c>
       <c r="AY259" s="5" t="n">
         <f aca="false">AY258+$BI$186</f>
-        <v>0.421860656827272</v>
+        <v>0.427727272727272</v>
       </c>
       <c r="AZ259" s="5" t="n">
         <f aca="false">AZ258+$BJ$186</f>
-        <v>0.164403019212988</v>
+        <v>0.158536403312988</v>
       </c>
       <c r="BA259" s="5" t="n">
         <f aca="false">BA258+$BK$186</f>
@@ -65001,7 +65001,7 @@
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="1" t="n">
         <f aca="false">K256-AP256</f>
-        <v>0.104981441225977</v>
+        <v>0.0991148253259763</v>
       </c>
       <c r="E260" s="0" t="n">
         <f aca="false">E256+1</f>
@@ -65070,7 +65070,7 @@
       </c>
       <c r="AP260" s="5" t="n">
         <f aca="false">AP259+$BE$185</f>
-        <v>0.364133384099999</v>
+        <v>0.369999999999999</v>
       </c>
       <c r="AQ260" s="5" t="n">
         <f aca="false">AQ259+$BF$185</f>
@@ -65078,7 +65078,7 @@
       </c>
       <c r="AR260" s="5" t="n">
         <f aca="false">AR259+$BG$185</f>
-        <v>0.185247175057143</v>
+        <v>0.179380559157143</v>
       </c>
       <c r="AS260" s="5" t="n">
         <f aca="false">AS259+$BH$185</f>
@@ -65090,11 +65090,11 @@
       </c>
       <c r="AU260" s="5" t="n">
         <f aca="false">AU259+$BE$186</f>
-        <v>0.304133384099998</v>
+        <v>0.309999999999998</v>
       </c>
       <c r="AV260" s="5" t="n">
         <f aca="false">AV259+$BF$186</f>
-        <v>0.206675746485715</v>
+        <v>0.200809130585715</v>
       </c>
       <c r="AW260" s="5" t="n">
         <f aca="false">AW259+$BG$186</f>
@@ -65106,11 +65106,11 @@
       </c>
       <c r="AY260" s="5" t="n">
         <f aca="false">AY259+$BI$186</f>
-        <v>0.424133384099999</v>
+        <v>0.429999999999999</v>
       </c>
       <c r="AZ260" s="5" t="n">
         <f aca="false">AZ259+$BJ$186</f>
-        <v>0.163818603628572</v>
+        <v>0.157951987728572</v>
       </c>
       <c r="BA260" s="5" t="n">
         <f aca="false">BA259+$BK$186</f>
@@ -65129,7 +65129,7 @@
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="1" t="n">
         <f aca="false">K257-AP257</f>
-        <v>0.105046376290911</v>
+        <v>0.0991797603909114</v>
       </c>
       <c r="E261" s="0" t="n">
         <f aca="false">E257+1</f>
@@ -65198,7 +65198,7 @@
       </c>
       <c r="AP261" s="5" t="n">
         <f aca="false">AP260+$BE$185</f>
-        <v>0.365497020463635</v>
+        <v>0.371363636363635</v>
       </c>
       <c r="AQ261" s="5" t="n">
         <f aca="false">AQ260+$BF$185</f>
@@ -65206,7 +65206,7 @@
       </c>
       <c r="AR261" s="5" t="n">
         <f aca="false">AR260+$BG$185</f>
-        <v>0.184987434797402</v>
+        <v>0.179120818897402</v>
       </c>
       <c r="AS261" s="5" t="n">
         <f aca="false">AS260+$BH$185</f>
@@ -65218,11 +65218,11 @@
       </c>
       <c r="AU261" s="5" t="n">
         <f aca="false">AU260+$BE$186</f>
-        <v>0.304587929554544</v>
+        <v>0.310454545454544</v>
       </c>
       <c r="AV261" s="5" t="n">
         <f aca="false">AV260+$BF$186</f>
-        <v>0.20674068155065</v>
+        <v>0.20087406565065</v>
       </c>
       <c r="AW261" s="5" t="n">
         <f aca="false">AW260+$BG$186</f>
@@ -65234,11 +65234,11 @@
       </c>
       <c r="AY261" s="5" t="n">
         <f aca="false">AY260+$BI$186</f>
-        <v>0.426406111372726</v>
+        <v>0.432272727272726</v>
       </c>
       <c r="AZ261" s="5" t="n">
         <f aca="false">AZ260+$BJ$186</f>
-        <v>0.163234188044156</v>
+        <v>0.157367572144156</v>
       </c>
       <c r="BA261" s="5" t="n">
         <f aca="false">BA260+$BK$186</f>
@@ -65257,7 +65257,7 @@
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="1" t="n">
         <f aca="false">K258-AP258</f>
-        <v>0.105111311355847</v>
+        <v>0.0992446954558465</v>
       </c>
       <c r="E262" s="0" t="n">
         <f aca="false">E258+1</f>
@@ -65326,7 +65326,7 @@
       </c>
       <c r="AP262" s="5" t="n">
         <f aca="false">AP261+$BE$185</f>
-        <v>0.366860656827271</v>
+        <v>0.372727272727271</v>
       </c>
       <c r="AQ262" s="5" t="n">
         <f aca="false">AQ261+$BF$185</f>
@@ -65334,7 +65334,7 @@
       </c>
       <c r="AR262" s="5" t="n">
         <f aca="false">AR261+$BG$185</f>
-        <v>0.184727694537662</v>
+        <v>0.178861078637662</v>
       </c>
       <c r="AS262" s="5" t="n">
         <f aca="false">AS261+$BH$185</f>
@@ -65346,11 +65346,11 @@
       </c>
       <c r="AU262" s="5" t="n">
         <f aca="false">AU261+$BE$186</f>
-        <v>0.305042475009089</v>
+        <v>0.310909090909089</v>
       </c>
       <c r="AV262" s="5" t="n">
         <f aca="false">AV261+$BF$186</f>
-        <v>0.206805616615585</v>
+        <v>0.200939000715585</v>
       </c>
       <c r="AW262" s="5" t="n">
         <f aca="false">AW261+$BG$186</f>
@@ -65362,11 +65362,11 @@
       </c>
       <c r="AY262" s="5" t="n">
         <f aca="false">AY261+$BI$186</f>
-        <v>0.428678838645454</v>
+        <v>0.434545454545454</v>
       </c>
       <c r="AZ262" s="5" t="n">
         <f aca="false">AZ261+$BJ$186</f>
-        <v>0.162649772459741</v>
+        <v>0.156783156559741</v>
       </c>
       <c r="BA262" s="5" t="n">
         <f aca="false">BA261+$BK$186</f>
@@ -65385,7 +65385,7 @@
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="1" t="n">
         <f aca="false">K259-AP259</f>
-        <v>0.105176246420782</v>
+        <v>0.0993096305207816</v>
       </c>
       <c r="E263" s="0" t="n">
         <f aca="false">E259+1</f>
@@ -65454,7 +65454,7 @@
       </c>
       <c r="AP263" s="5" t="n">
         <f aca="false">AP262+$BE$185</f>
-        <v>0.368224293190908</v>
+        <v>0.374090909090908</v>
       </c>
       <c r="AQ263" s="5" t="n">
         <f aca="false">AQ262+$BF$185</f>
@@ -65462,7 +65462,7 @@
       </c>
       <c r="AR263" s="5" t="n">
         <f aca="false">AR262+$BG$185</f>
-        <v>0.184467954277922</v>
+        <v>0.178601338377922</v>
       </c>
       <c r="AS263" s="5" t="n">
         <f aca="false">AS262+$BH$185</f>
@@ -65474,11 +65474,11 @@
       </c>
       <c r="AU263" s="5" t="n">
         <f aca="false">AU262+$BE$186</f>
-        <v>0.305497020463635</v>
+        <v>0.311363636363635</v>
       </c>
       <c r="AV263" s="5" t="n">
         <f aca="false">AV262+$BF$186</f>
-        <v>0.20687055168052</v>
+        <v>0.20100393578052</v>
       </c>
       <c r="AW263" s="5" t="n">
         <f aca="false">AW262+$BG$186</f>
@@ -65490,11 +65490,11 @@
       </c>
       <c r="AY263" s="5" t="n">
         <f aca="false">AY262+$BI$186</f>
-        <v>0.430951565918181</v>
+        <v>0.436818181818181</v>
       </c>
       <c r="AZ263" s="5" t="n">
         <f aca="false">AZ262+$BJ$186</f>
-        <v>0.162065356875325</v>
+        <v>0.156198740975325</v>
       </c>
       <c r="BA263" s="5" t="n">
         <f aca="false">BA262+$BK$186</f>
@@ -65513,7 +65513,7 @@
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="1" t="n">
         <f aca="false">K260-AP260</f>
-        <v>0.105241181485716</v>
+        <v>0.0993745655857167</v>
       </c>
       <c r="E264" s="0" t="n">
         <f aca="false">E260+1</f>
@@ -65582,7 +65582,7 @@
       </c>
       <c r="AP264" s="5" t="n">
         <f aca="false">AP263+$BE$185</f>
-        <v>0.369587929554544</v>
+        <v>0.375454545454544</v>
       </c>
       <c r="AQ264" s="5" t="n">
         <f aca="false">AQ263+$BF$185</f>
@@ -65590,7 +65590,7 @@
       </c>
       <c r="AR264" s="5" t="n">
         <f aca="false">AR263+$BG$185</f>
-        <v>0.184208214018181</v>
+        <v>0.178341598118181</v>
       </c>
       <c r="AS264" s="5" t="n">
         <f aca="false">AS263+$BH$185</f>
@@ -65602,11 +65602,11 @@
       </c>
       <c r="AU264" s="5" t="n">
         <f aca="false">AU263+$BE$186</f>
-        <v>0.30595156591818</v>
+        <v>0.31181818181818</v>
       </c>
       <c r="AV264" s="5" t="n">
         <f aca="false">AV263+$BF$186</f>
-        <v>0.206935486745455</v>
+        <v>0.201068870845455</v>
       </c>
       <c r="AW264" s="5" t="n">
         <f aca="false">AW263+$BG$186</f>
@@ -65618,11 +65618,11 @@
       </c>
       <c r="AY264" s="5" t="n">
         <f aca="false">AY263+$BI$186</f>
-        <v>0.433224293190908</v>
+        <v>0.439090909090908</v>
       </c>
       <c r="AZ264" s="5" t="n">
         <f aca="false">AZ263+$BJ$186</f>
-        <v>0.16148094129091</v>
+        <v>0.15561432539091</v>
       </c>
       <c r="BA264" s="5" t="n">
         <f aca="false">BA263+$BK$186</f>
@@ -65641,7 +65641,7 @@
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="1" t="n">
         <f aca="false">K261-AP261</f>
-        <v>0.105306116550652</v>
+        <v>0.0994395006506518</v>
       </c>
       <c r="E265" s="0" t="n">
         <f aca="false">E261+1</f>
@@ -65710,7 +65710,7 @@
       </c>
       <c r="AP265" s="5" t="n">
         <f aca="false">AP264+$BE$185</f>
-        <v>0.37095156591818</v>
+        <v>0.37681818181818</v>
       </c>
       <c r="AQ265" s="5" t="n">
         <f aca="false">AQ264+$BF$185</f>
@@ -65718,7 +65718,7 @@
       </c>
       <c r="AR265" s="5" t="n">
         <f aca="false">AR264+$BG$185</f>
-        <v>0.183948473758441</v>
+        <v>0.178081857858441</v>
       </c>
       <c r="AS265" s="5" t="n">
         <f aca="false">AS264+$BH$185</f>
@@ -65730,11 +65730,11 @@
       </c>
       <c r="AU265" s="5" t="n">
         <f aca="false">AU264+$BE$186</f>
-        <v>0.306406111372725</v>
+        <v>0.312272727272726</v>
       </c>
       <c r="AV265" s="5" t="n">
         <f aca="false">AV264+$BF$186</f>
-        <v>0.20700042181039</v>
+        <v>0.20113380591039</v>
       </c>
       <c r="AW265" s="5" t="n">
         <f aca="false">AW264+$BG$186</f>
@@ -65746,11 +65746,11 @@
       </c>
       <c r="AY265" s="5" t="n">
         <f aca="false">AY264+$BI$186</f>
-        <v>0.435497020463635</v>
+        <v>0.441363636363635</v>
       </c>
       <c r="AZ265" s="5" t="n">
         <f aca="false">AZ264+$BJ$186</f>
-        <v>0.160896525706494</v>
+        <v>0.155029909806494</v>
       </c>
       <c r="BA265" s="5" t="n">
         <f aca="false">BA264+$BK$186</f>
@@ -65769,7 +65769,7 @@
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="1" t="n">
         <f aca="false">K262-AP262</f>
-        <v>0.105371051615587</v>
+        <v>0.0995044357155869</v>
       </c>
       <c r="E266" s="0" t="n">
         <f aca="false">E262+1</f>
@@ -65838,7 +65838,7 @@
       </c>
       <c r="AP266" s="5" t="n">
         <f aca="false">AP265+$BE$185</f>
-        <v>0.372315202281817</v>
+        <v>0.378181818181817</v>
       </c>
       <c r="AQ266" s="5" t="n">
         <f aca="false">AQ265+$BF$185</f>
@@ -65846,7 +65846,7 @@
       </c>
       <c r="AR266" s="5" t="n">
         <f aca="false">AR265+$BG$185</f>
-        <v>0.183688733498701</v>
+        <v>0.177822117598701</v>
       </c>
       <c r="AS266" s="5" t="n">
         <f aca="false">AS265+$BH$185</f>
@@ -65858,11 +65858,11 @@
       </c>
       <c r="AU266" s="5" t="n">
         <f aca="false">AU265+$BE$186</f>
-        <v>0.306860656827271</v>
+        <v>0.312727272727271</v>
       </c>
       <c r="AV266" s="5" t="n">
         <f aca="false">AV265+$BF$186</f>
-        <v>0.207065356875325</v>
+        <v>0.201198740975325</v>
       </c>
       <c r="AW266" s="5" t="n">
         <f aca="false">AW265+$BG$186</f>
@@ -65874,11 +65874,11 @@
       </c>
       <c r="AY266" s="5" t="n">
         <f aca="false">AY265+$BI$186</f>
-        <v>0.437769747736363</v>
+        <v>0.443636363636363</v>
       </c>
       <c r="AZ266" s="5" t="n">
         <f aca="false">AZ265+$BJ$186</f>
-        <v>0.160312110122079</v>
+        <v>0.154445494222079</v>
       </c>
       <c r="BA266" s="5" t="n">
         <f aca="false">BA265+$BK$186</f>
@@ -65897,7 +65897,7 @@
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="1" t="n">
         <f aca="false">K263-AP263</f>
-        <v>0.105435986680522</v>
+        <v>0.099569370780522</v>
       </c>
       <c r="E267" s="0" t="n">
         <f aca="false">E263+1</f>
@@ -65966,7 +65966,7 @@
       </c>
       <c r="AP267" s="5" t="n">
         <f aca="false">AP266+$BE$185</f>
-        <v>0.373678838645453</v>
+        <v>0.379545454545453</v>
       </c>
       <c r="AQ267" s="5" t="n">
         <f aca="false">AQ266+$BF$185</f>
@@ -65974,7 +65974,7 @@
       </c>
       <c r="AR267" s="5" t="n">
         <f aca="false">AR266+$BG$185</f>
-        <v>0.183428993238961</v>
+        <v>0.177562377338961</v>
       </c>
       <c r="AS267" s="5" t="n">
         <f aca="false">AS266+$BH$185</f>
@@ -65986,11 +65986,11 @@
       </c>
       <c r="AU267" s="5" t="n">
         <f aca="false">AU266+$BE$186</f>
-        <v>0.307315202281816</v>
+        <v>0.313181818181816</v>
       </c>
       <c r="AV267" s="5" t="n">
         <f aca="false">AV266+$BF$186</f>
-        <v>0.20713029194026</v>
+        <v>0.20126367604026</v>
       </c>
       <c r="AW267" s="5" t="n">
         <f aca="false">AW266+$BG$186</f>
@@ -66002,11 +66002,11 @@
       </c>
       <c r="AY267" s="5" t="n">
         <f aca="false">AY266+$BI$186</f>
-        <v>0.44004247500909</v>
+        <v>0.44590909090909</v>
       </c>
       <c r="AZ267" s="5" t="n">
         <f aca="false">AZ266+$BJ$186</f>
-        <v>0.159727694537663</v>
+        <v>0.153861078637663</v>
       </c>
       <c r="BA267" s="5" t="n">
         <f aca="false">BA266+$BK$186</f>
@@ -66025,7 +66025,7 @@
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="1" t="n">
         <f aca="false">K264-AP264</f>
-        <v>0.105500921745457</v>
+        <v>0.0996343058454571</v>
       </c>
       <c r="E268" s="0" t="n">
         <f aca="false">E264+1</f>
@@ -66094,7 +66094,7 @@
       </c>
       <c r="AP268" s="5" t="n">
         <f aca="false">AP267+$BE$185</f>
-        <v>0.375042475009089</v>
+        <v>0.38090909090909</v>
       </c>
       <c r="AQ268" s="5" t="n">
         <f aca="false">AQ267+$BF$185</f>
@@ -66102,7 +66102,7 @@
       </c>
       <c r="AR268" s="5" t="n">
         <f aca="false">AR267+$BG$185</f>
-        <v>0.18316925297922</v>
+        <v>0.17730263707922</v>
       </c>
       <c r="AS268" s="5" t="n">
         <f aca="false">AS267+$BH$185</f>
@@ -66114,11 +66114,11 @@
       </c>
       <c r="AU268" s="5" t="n">
         <f aca="false">AU267+$BE$186</f>
-        <v>0.307769747736362</v>
+        <v>0.313636363636362</v>
       </c>
       <c r="AV268" s="5" t="n">
         <f aca="false">AV267+$BF$186</f>
-        <v>0.207195227005195</v>
+        <v>0.201328611105195</v>
       </c>
       <c r="AW268" s="5" t="n">
         <f aca="false">AW267+$BG$186</f>
@@ -66130,11 +66130,11 @@
       </c>
       <c r="AY268" s="5" t="n">
         <f aca="false">AY267+$BI$186</f>
-        <v>0.442315202281817</v>
+        <v>0.448181818181817</v>
       </c>
       <c r="AZ268" s="5" t="n">
         <f aca="false">AZ267+$BJ$186</f>
-        <v>0.159143278953247</v>
+        <v>0.153276663053247</v>
       </c>
       <c r="BA268" s="5" t="n">
         <f aca="false">BA267+$BK$186</f>
@@ -66153,7 +66153,7 @@
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="1" t="n">
         <f aca="false">K265-AP265</f>
-        <v>0.105565856810393</v>
+        <v>0.0996992409103922</v>
       </c>
       <c r="E269" s="0" t="n">
         <f aca="false">E265+1</f>
@@ -66222,7 +66222,7 @@
       </c>
       <c r="AP269" s="5" t="n">
         <f aca="false">AP268+$BE$185</f>
-        <v>0.376406111372726</v>
+        <v>0.382272727272726</v>
       </c>
       <c r="AQ269" s="5" t="n">
         <f aca="false">AQ268+$BF$185</f>
@@ -66230,7 +66230,7 @@
       </c>
       <c r="AR269" s="5" t="n">
         <f aca="false">AR268+$BG$185</f>
-        <v>0.18290951271948</v>
+        <v>0.17704289681948</v>
       </c>
       <c r="AS269" s="5" t="n">
         <f aca="false">AS268+$BH$185</f>
@@ -66242,11 +66242,11 @@
       </c>
       <c r="AU269" s="5" t="n">
         <f aca="false">AU268+$BE$186</f>
-        <v>0.308224293190907</v>
+        <v>0.314090909090907</v>
       </c>
       <c r="AV269" s="5" t="n">
         <f aca="false">AV268+$BF$186</f>
-        <v>0.207260162070131</v>
+        <v>0.201393546170131</v>
       </c>
       <c r="AW269" s="5" t="n">
         <f aca="false">AW268+$BG$186</f>
@@ -66258,11 +66258,11 @@
       </c>
       <c r="AY269" s="5" t="n">
         <f aca="false">AY268+$BI$186</f>
-        <v>0.444587929554545</v>
+        <v>0.450454545454545</v>
       </c>
       <c r="AZ269" s="5" t="n">
         <f aca="false">AZ268+$BJ$186</f>
-        <v>0.158558863368832</v>
+        <v>0.152692247468832</v>
       </c>
       <c r="BA269" s="5" t="n">
         <f aca="false">BA268+$BK$186</f>
@@ -66281,7 +66281,7 @@
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="1" t="n">
         <f aca="false">K266-AP266</f>
-        <v>0.105630791875327</v>
+        <v>0.0997641759753273</v>
       </c>
       <c r="E270" s="0" t="n">
         <f aca="false">E266+1</f>
@@ -66350,7 +66350,7 @@
       </c>
       <c r="AP270" s="5" t="n">
         <f aca="false">AP269+$BE$185</f>
-        <v>0.377769747736362</v>
+        <v>0.383636363636362</v>
       </c>
       <c r="AQ270" s="5" t="n">
         <f aca="false">AQ269+$BF$185</f>
@@ -66358,7 +66358,7 @@
       </c>
       <c r="AR270" s="5" t="n">
         <f aca="false">AR269+$BG$185</f>
-        <v>0.18264977245974</v>
+        <v>0.17678315655974</v>
       </c>
       <c r="AS270" s="5" t="n">
         <f aca="false">AS269+$BH$185</f>
@@ -66370,11 +66370,11 @@
       </c>
       <c r="AU270" s="5" t="n">
         <f aca="false">AU269+$BE$186</f>
-        <v>0.308678838645453</v>
+        <v>0.314545454545453</v>
       </c>
       <c r="AV270" s="5" t="n">
         <f aca="false">AV269+$BF$186</f>
-        <v>0.207325097135066</v>
+        <v>0.201458481235066</v>
       </c>
       <c r="AW270" s="5" t="n">
         <f aca="false">AW269+$BG$186</f>
@@ -66386,11 +66386,11 @@
       </c>
       <c r="AY270" s="5" t="n">
         <f aca="false">AY269+$BI$186</f>
-        <v>0.446860656827272</v>
+        <v>0.452727272727272</v>
       </c>
       <c r="AZ270" s="5" t="n">
         <f aca="false">AZ269+$BJ$186</f>
-        <v>0.157974447784416</v>
+        <v>0.152107831884416</v>
       </c>
       <c r="BA270" s="5" t="n">
         <f aca="false">BA269+$BK$186</f>
@@ -66409,11 +66409,11 @@
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
         <f aca="false">(B271-B176)/B176</f>
-        <v>0.0376337317717656</v>
+        <v>-0.0198186933843439</v>
       </c>
       <c r="B271" s="1" t="n">
         <f aca="false">K271-AP271</f>
-        <v>0.1059554672</v>
+        <v>0.1000888513</v>
       </c>
       <c r="E271" s="0" t="n">
         <f aca="false">E267+1</f>
@@ -66486,7 +66486,7 @@
       </c>
       <c r="AP271" s="8" t="n">
         <f aca="false">AP194+0.105</f>
-        <v>0.3791333841</v>
+        <v>0.385</v>
       </c>
       <c r="AQ271" s="8" t="n">
         <f aca="false">AQ194</f>
@@ -66494,7 +66494,7 @@
       </c>
       <c r="AR271" s="8" t="n">
         <f aca="false">AR194-0.02</f>
-        <v>0.1823900322</v>
+        <v>0.1765234163</v>
       </c>
       <c r="AS271" s="8" t="n">
         <f aca="false">AS194-0.025</f>
@@ -66506,11 +66506,11 @@
       </c>
       <c r="AU271" s="8" t="n">
         <f aca="false">AP194+0.035</f>
-        <v>0.3091333841</v>
+        <v>0.315</v>
       </c>
       <c r="AV271" s="8" t="n">
         <f aca="false">AR194+0.005</f>
-        <v>0.2073900322</v>
+        <v>0.2015234163</v>
       </c>
       <c r="AW271" s="8" t="n">
         <f aca="false">AS194-0.01</f>
@@ -66522,11 +66522,11 @@
       </c>
       <c r="AY271" s="8" t="n">
         <f aca="false">AY194+0.175</f>
-        <v>0.4491333841</v>
+        <v>0.455</v>
       </c>
       <c r="AZ271" s="8" t="n">
         <f aca="false">AZ194-0.045</f>
-        <v>0.1573900322</v>
+        <v>0.1515234163</v>
       </c>
       <c r="BA271" s="8" t="n">
         <f aca="false">BA194-0.04</f>
@@ -66688,7 +66688,7 @@
       </c>
       <c r="H284" s="1" t="n">
         <f aca="false">AR271/SUM(AP271:AS271)</f>
-        <v>0.284307676954239</v>
+        <v>0.275162857371758</v>
       </c>
       <c r="J284" s="0" t="s">
         <v>196</v>

--- a/Excel_files_for_MISSAR/Prospective_scenarios/2014_q4_start/Historical_graphs_ages_16_69/Economic_scenarios_representation_nov_2020.xlsx
+++ b/Excel_files_for_MISSAR/Prospective_scenarios/2014_q4_start/Historical_graphs_ages_16_69/Economic_scenarios_representation_nov_2020.xlsx
@@ -841,7 +841,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -852,10 +852,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0524855817452357"/>
-          <c:y val="0.020286953620287"/>
-          <c:w val="0.91731444332999"/>
-          <c:h val="0.625458792125459"/>
+          <c:x val="0.052481603256615"/>
+          <c:y val="0.02028763055157"/>
+          <c:w val="0.917300767183341"/>
+          <c:h val="0.625446294504321"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2915,223 +2915,223 @@
                   <c:v>0.3750888513</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.375738201949351</c:v>
+                  <c:v>0.375673266884416</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.376387552598701</c:v>
+                  <c:v>0.376257682468831</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.377036903248052</c:v>
+                  <c:v>0.376842098053247</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.377686253897402</c:v>
+                  <c:v>0.377426513637662</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.378335604546753</c:v>
+                  <c:v>0.378010929222078</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.378984955196104</c:v>
+                  <c:v>0.378595344806493</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.379634305845454</c:v>
+                  <c:v>0.379179760390909</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.380283656494805</c:v>
+                  <c:v>0.379764175975325</c:v>
                 </c:pt>
                 <c:pt idx="196">
+                  <c:v>0.38034859155974</c:v>
+                </c:pt>
+                <c:pt idx="197">
                   <c:v>0.380933007144156</c:v>
                 </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.381582357793506</c:v>
-                </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.382231708442857</c:v>
+                  <c:v>0.381517422728571</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.382881059092207</c:v>
+                  <c:v>0.382101838312987</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.383530409741558</c:v>
+                  <c:v>0.382686253897403</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.384179760390909</c:v>
+                  <c:v>0.383270669481818</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.384829111040259</c:v>
+                  <c:v>0.383855085066234</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.38547846168961</c:v>
+                  <c:v>0.384439500650649</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.386127812338961</c:v>
+                  <c:v>0.385023916235065</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.386777162988311</c:v>
+                  <c:v>0.38560833181948</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.387426513637662</c:v>
+                  <c:v>0.386192747403896</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.388075864287012</c:v>
+                  <c:v>0.386777162988312</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.388725214936363</c:v>
+                  <c:v>0.387361578572727</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.389374565585714</c:v>
+                  <c:v>0.387945994157143</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.390023916235064</c:v>
+                  <c:v>0.388530409741558</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.390673266884415</c:v>
+                  <c:v>0.389114825325974</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.391322617533766</c:v>
+                  <c:v>0.389699240910389</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.391971968183116</c:v>
+                  <c:v>0.390283656494805</c:v>
                 </c:pt>
                 <c:pt idx="214">
+                  <c:v>0.390868072079221</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.391452487663636</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.392036903248052</c:v>
+                </c:pt>
+                <c:pt idx="217">
                   <c:v>0.392621318832467</c:v>
                 </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.393270669481817</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.393920020131168</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0.394569370780519</c:v>
-                </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.395218721429869</c:v>
+                  <c:v>0.393205734416883</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.39586807207922</c:v>
+                  <c:v>0.393790150001298</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.39651742272857</c:v>
+                  <c:v>0.394374565585714</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.397166773377921</c:v>
+                  <c:v>0.39495898117013</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.397816124027272</c:v>
+                  <c:v>0.395543396754545</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.398465474676622</c:v>
+                  <c:v>0.396127812338961</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.399114825325973</c:v>
+                  <c:v>0.396712227923376</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.399764175975324</c:v>
+                  <c:v>0.397296643507792</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.400413526624674</c:v>
+                  <c:v>0.397881059092207</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.401062877274025</c:v>
+                  <c:v>0.398465474676623</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.401712227923376</c:v>
+                  <c:v>0.399049890261039</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.402361578572726</c:v>
+                  <c:v>0.399634305845454</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.403010929222077</c:v>
+                  <c:v>0.40021872142987</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.403660279871427</c:v>
+                  <c:v>0.400803137014285</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.404309630520778</c:v>
+                  <c:v>0.401387552598701</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.404958981170129</c:v>
+                  <c:v>0.401971968183117</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.405608331819479</c:v>
+                  <c:v>0.402556383767532</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.40625768246883</c:v>
+                  <c:v>0.403140799351948</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.40690703311818</c:v>
+                  <c:v>0.403725214936363</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.407556383767531</c:v>
+                  <c:v>0.404309630520779</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.408205734416882</c:v>
+                  <c:v>0.404894046105194</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.408855085066232</c:v>
+                  <c:v>0.40547846168961</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.409504435715583</c:v>
+                  <c:v>0.406062877274026</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.410153786364934</c:v>
+                  <c:v>0.406647292858441</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.410803137014284</c:v>
+                  <c:v>0.407231708442857</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.411452487663635</c:v>
+                  <c:v>0.407816124027272</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.412101838312985</c:v>
+                  <c:v>0.408400539611688</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.412751188962336</c:v>
+                  <c:v>0.408984955196103</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.413400539611687</c:v>
+                  <c:v>0.409569370780519</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.414049890261037</c:v>
+                  <c:v>0.410153786364935</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.414699240910388</c:v>
+                  <c:v>0.41073820194935</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.415348591559739</c:v>
+                  <c:v>0.411322617533766</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.415997942209089</c:v>
+                  <c:v>0.411907033118181</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.41664729285844</c:v>
+                  <c:v>0.412491448702597</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.41729664350779</c:v>
+                  <c:v>0.413075864287012</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.417945994157141</c:v>
+                  <c:v>0.413660279871428</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.418595344806492</c:v>
+                  <c:v>0.414244695455844</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.419244695455842</c:v>
+                  <c:v>0.414829111040259</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.419894046105193</c:v>
+                  <c:v>0.415413526624675</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.420543396754544</c:v>
+                  <c:v>0.41599794220909</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.421192747403894</c:v>
+                  <c:v>0.416582357793506</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.421842098053245</c:v>
+                  <c:v>0.417166773377921</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.422491448702595</c:v>
+                  <c:v>0.417751188962337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4016,223 +4016,223 @@
                   <c:v>0.3750888513</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.376517422728571</c:v>
+                  <c:v>0.376452487663636</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.377945994157143</c:v>
+                  <c:v>0.377816124027273</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.379374565585714</c:v>
+                  <c:v>0.379179760390909</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.380803137014286</c:v>
+                  <c:v>0.380543396754545</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.382231708442857</c:v>
+                  <c:v>0.381907033118182</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.383660279871429</c:v>
+                  <c:v>0.383270669481818</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.3850888513</c:v>
+                  <c:v>0.384634305845454</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.386517422728572</c:v>
+                  <c:v>0.385997942209091</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.387945994157143</c:v>
+                  <c:v>0.387361578572727</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.389374565585714</c:v>
+                  <c:v>0.388725214936363</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.390803137014286</c:v>
+                  <c:v>0.3900888513</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.392231708442857</c:v>
+                  <c:v>0.391452487663636</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.393660279871429</c:v>
+                  <c:v>0.392816124027272</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.3950888513</c:v>
+                  <c:v>0.394179760390909</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.396517422728572</c:v>
+                  <c:v>0.395543396754545</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.397945994157143</c:v>
+                  <c:v>0.396907033118182</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.399374565585715</c:v>
+                  <c:v>0.398270669481818</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.400803137014286</c:v>
+                  <c:v>0.399634305845454</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.402231708442857</c:v>
+                  <c:v>0.400997942209091</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.403660279871429</c:v>
+                  <c:v>0.402361578572727</c:v>
                 </c:pt>
                 <c:pt idx="208">
+                  <c:v>0.403725214936363</c:v>
+                </c:pt>
+                <c:pt idx="209">
                   <c:v>0.4050888513</c:v>
                 </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.406517422728572</c:v>
-                </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.407945994157143</c:v>
+                  <c:v>0.406452487663636</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.409374565585715</c:v>
+                  <c:v>0.407816124027272</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.410803137014286</c:v>
+                  <c:v>0.409179760390909</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.412231708442858</c:v>
+                  <c:v>0.410543396754545</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.413660279871429</c:v>
+                  <c:v>0.411907033118181</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.4150888513</c:v>
+                  <c:v>0.413270669481818</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.416517422728572</c:v>
+                  <c:v>0.414634305845454</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.417945994157143</c:v>
+                  <c:v>0.41599794220909</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.419374565585715</c:v>
+                  <c:v>0.417361578572727</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.420803137014286</c:v>
+                  <c:v>0.418725214936363</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.422231708442858</c:v>
+                  <c:v>0.420088851299999</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.423660279871429</c:v>
+                  <c:v>0.421452487663636</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.425088851300001</c:v>
+                  <c:v>0.422816124027272</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.426517422728572</c:v>
+                  <c:v>0.424179760390908</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.427945994157144</c:v>
+                  <c:v>0.425543396754545</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.429374565585715</c:v>
+                  <c:v>0.426907033118181</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.430803137014286</c:v>
+                  <c:v>0.428270669481818</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.432231708442858</c:v>
+                  <c:v>0.429634305845454</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.433660279871429</c:v>
+                  <c:v>0.43099794220909</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.435088851300001</c:v>
+                  <c:v>0.432361578572727</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.436517422728572</c:v>
+                  <c:v>0.433725214936363</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.437945994157144</c:v>
+                  <c:v>0.435088851299999</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.439374565585715</c:v>
+                  <c:v>0.436452487663636</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.440803137014287</c:v>
+                  <c:v>0.437816124027272</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.442231708442858</c:v>
+                  <c:v>0.439179760390908</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.443660279871429</c:v>
+                  <c:v>0.440543396754545</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.445088851300001</c:v>
+                  <c:v>0.441907033118181</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.446517422728572</c:v>
+                  <c:v>0.443270669481817</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.447945994157144</c:v>
+                  <c:v>0.444634305845454</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.449374565585715</c:v>
+                  <c:v>0.44599794220909</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.450803137014287</c:v>
+                  <c:v>0.447361578572726</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.452231708442858</c:v>
+                  <c:v>0.448725214936363</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.45366027987143</c:v>
+                  <c:v>0.450088851299999</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.455088851300001</c:v>
+                  <c:v>0.451452487663635</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.456517422728572</c:v>
+                  <c:v>0.452816124027272</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.457945994157144</c:v>
+                  <c:v>0.454179760390908</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.459374565585715</c:v>
+                  <c:v>0.455543396754544</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.460803137014287</c:v>
+                  <c:v>0.456907033118181</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.462231708442858</c:v>
+                  <c:v>0.458270669481817</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.46366027987143</c:v>
+                  <c:v>0.459634305845453</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.465088851300001</c:v>
+                  <c:v>0.46099794220909</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.466517422728573</c:v>
+                  <c:v>0.462361578572726</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.467945994157144</c:v>
+                  <c:v>0.463725214936362</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.469374565585715</c:v>
+                  <c:v>0.465088851299999</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.470803137014287</c:v>
+                  <c:v>0.466452487663635</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.472231708442858</c:v>
+                  <c:v>0.467816124027271</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.47366027987143</c:v>
+                  <c:v>0.469179760390908</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.475088851300001</c:v>
+                  <c:v>0.470543396754544</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.476517422728573</c:v>
+                  <c:v>0.471907033118181</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.477945994157144</c:v>
+                  <c:v>0.473270669481817</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.479374565585716</c:v>
+                  <c:v>0.474634305845453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5105,223 +5105,223 @@
                   <c:v>0.3750888513</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.377296643507792</c:v>
+                  <c:v>0.377231708442857</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.379504435715584</c:v>
+                  <c:v>0.379374565585714</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.381712227923377</c:v>
+                  <c:v>0.381517422728571</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.383920020131169</c:v>
+                  <c:v>0.383660279871429</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.386127812338961</c:v>
+                  <c:v>0.385803137014286</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.388335604546753</c:v>
+                  <c:v>0.387945994157143</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.390543396754546</c:v>
+                  <c:v>0.3900888513</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.392751188962338</c:v>
+                  <c:v>0.392231708442857</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.39495898117013</c:v>
+                  <c:v>0.394374565585715</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.397166773377922</c:v>
+                  <c:v>0.396517422728572</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.399374565585714</c:v>
+                  <c:v>0.398660279871429</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.401582357793507</c:v>
+                  <c:v>0.400803137014286</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.403790150001299</c:v>
+                  <c:v>0.402945994157143</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.405997942209091</c:v>
+                  <c:v>0.4050888513</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.408205734416883</c:v>
+                  <c:v>0.407231708442858</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.410413526624675</c:v>
+                  <c:v>0.409374565585715</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.412621318832468</c:v>
+                  <c:v>0.411517422728572</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.41482911104026</c:v>
+                  <c:v>0.413660279871429</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.417036903248052</c:v>
+                  <c:v>0.415803137014286</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.419244695455844</c:v>
+                  <c:v>0.417945994157143</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.421452487663637</c:v>
+                  <c:v>0.420088851300001</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.423660279871429</c:v>
+                  <c:v>0.422231708442858</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.425868072079221</c:v>
+                  <c:v>0.424374565585715</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.428075864287013</c:v>
+                  <c:v>0.426517422728572</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.430283656494805</c:v>
+                  <c:v>0.428660279871429</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.432491448702598</c:v>
+                  <c:v>0.430803137014286</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.43469924091039</c:v>
+                  <c:v>0.432945994157144</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.436907033118182</c:v>
+                  <c:v>0.435088851300001</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.439114825325974</c:v>
+                  <c:v>0.437231708442858</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.441322617533766</c:v>
+                  <c:v>0.439374565585715</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.443530409741559</c:v>
+                  <c:v>0.441517422728572</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.445738201949351</c:v>
+                  <c:v>0.443660279871429</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.447945994157143</c:v>
+                  <c:v>0.445803137014287</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.450153786364935</c:v>
+                  <c:v>0.447945994157144</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.452361578572728</c:v>
+                  <c:v>0.450088851300001</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.45456937078052</c:v>
+                  <c:v>0.452231708442858</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.456777162988312</c:v>
+                  <c:v>0.454374565585715</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.458984955196104</c:v>
+                  <c:v>0.456517422728572</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.461192747403896</c:v>
+                  <c:v>0.45866027987143</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.463400539611689</c:v>
+                  <c:v>0.460803137014287</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.465608331819481</c:v>
+                  <c:v>0.462945994157144</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.467816124027273</c:v>
+                  <c:v>0.465088851300001</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.470023916235065</c:v>
+                  <c:v>0.467231708442858</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.472231708442857</c:v>
+                  <c:v>0.469374565585715</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.47443950065065</c:v>
+                  <c:v>0.471517422728573</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.476647292858442</c:v>
+                  <c:v>0.47366027987143</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.478855085066234</c:v>
+                  <c:v>0.475803137014287</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.481062877274026</c:v>
+                  <c:v>0.477945994157144</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.483270669481819</c:v>
+                  <c:v>0.480088851300001</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.485478461689611</c:v>
+                  <c:v>0.482231708442858</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.487686253897403</c:v>
+                  <c:v>0.484374565585716</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.489894046105195</c:v>
+                  <c:v>0.486517422728573</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.492101838312987</c:v>
+                  <c:v>0.48866027987143</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.49430963052078</c:v>
+                  <c:v>0.490803137014287</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.496517422728572</c:v>
+                  <c:v>0.492945994157144</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.498725214936364</c:v>
+                  <c:v>0.495088851300001</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.500933007144156</c:v>
+                  <c:v>0.497231708442859</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.503140799351948</c:v>
+                  <c:v>0.499374565585716</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.505348591559741</c:v>
+                  <c:v>0.501517422728573</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.507556383767533</c:v>
+                  <c:v>0.50366027987143</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.509764175975325</c:v>
+                  <c:v>0.505803137014287</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.511971968183117</c:v>
+                  <c:v>0.507945994157144</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.51417976039091</c:v>
+                  <c:v>0.510088851300001</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.516387552598702</c:v>
+                  <c:v>0.512231708442859</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.518595344806494</c:v>
+                  <c:v>0.514374565585716</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.520803137014286</c:v>
+                  <c:v>0.516517422728573</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.523010929222078</c:v>
+                  <c:v>0.51866027987143</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.525218721429871</c:v>
+                  <c:v>0.520803137014287</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.527426513637663</c:v>
+                  <c:v>0.522945994157144</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.529634305845455</c:v>
+                  <c:v>0.525088851300001</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.531842098053247</c:v>
+                  <c:v>0.527231708442858</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.534049890261039</c:v>
+                  <c:v>0.529374565585715</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.536257682468832</c:v>
+                  <c:v>0.531517422728572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9674,223 +9674,223 @@
                   <c:v>0.2595411411</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.25941127097013</c:v>
+                  <c:v>0.259346335905195</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.25928140084026</c:v>
+                  <c:v>0.25915153071039</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.259151530710389</c:v>
+                  <c:v>0.258956725515584</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.259021660580519</c:v>
+                  <c:v>0.258761920320779</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.258891790450649</c:v>
+                  <c:v>0.258567115125974</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.258761920320779</c:v>
+                  <c:v>0.258372309931169</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.258632050190909</c:v>
+                  <c:v>0.258177504736364</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.258502180061039</c:v>
+                  <c:v>0.257982699541558</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.258372309931169</c:v>
+                  <c:v>0.257787894346753</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.258242439801298</c:v>
+                  <c:v>0.257593089151948</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.258112569671428</c:v>
+                  <c:v>0.257398283957143</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.257982699541558</c:v>
+                  <c:v>0.257203478762338</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.257852829411688</c:v>
+                  <c:v>0.257008673567532</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.257722959281818</c:v>
+                  <c:v>0.256813868372727</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.257593089151948</c:v>
+                  <c:v>0.256619063177922</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.257463219022078</c:v>
+                  <c:v>0.256424257983117</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.257333348892207</c:v>
+                  <c:v>0.256229452788312</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.257203478762337</c:v>
+                  <c:v>0.256034647593507</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.257073608632467</c:v>
+                  <c:v>0.255839842398701</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.256943738502597</c:v>
+                  <c:v>0.255645037203896</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.256813868372727</c:v>
+                  <c:v>0.255450232009091</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.256683998242857</c:v>
+                  <c:v>0.255255426814286</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.256554128112987</c:v>
+                  <c:v>0.255060621619481</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.256424257983116</c:v>
+                  <c:v>0.254865816424675</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.256294387853246</c:v>
+                  <c:v>0.25467101122987</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.256164517723376</c:v>
+                  <c:v>0.254476206035065</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.256034647593506</c:v>
+                  <c:v>0.25428140084026</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.255904777463636</c:v>
+                  <c:v>0.254086595645455</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.255774907333766</c:v>
+                  <c:v>0.253891790450649</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.255645037203895</c:v>
+                  <c:v>0.253696985255844</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.255515167074025</c:v>
+                  <c:v>0.253502180061039</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.255385296944155</c:v>
+                  <c:v>0.253307374866234</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.255255426814285</c:v>
+                  <c:v>0.253112569671429</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.255125556684415</c:v>
+                  <c:v>0.252917764476623</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.254995686554545</c:v>
+                  <c:v>0.252722959281818</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.254865816424675</c:v>
+                  <c:v>0.252528154087013</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.254735946294804</c:v>
+                  <c:v>0.252333348892208</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.254606076164934</c:v>
+                  <c:v>0.252138543697403</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.254476206035064</c:v>
+                  <c:v>0.251943738502597</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.254346335905194</c:v>
+                  <c:v>0.251748933307792</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.254216465775324</c:v>
+                  <c:v>0.251554128112987</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.254086595645454</c:v>
+                  <c:v>0.251359322918182</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.253956725515584</c:v>
+                  <c:v>0.251164517723377</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.253826855385713</c:v>
+                  <c:v>0.250969712528572</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.253696985255843</c:v>
+                  <c:v>0.250774907333766</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.253567115125973</c:v>
+                  <c:v>0.250580102138961</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.253437244996103</c:v>
+                  <c:v>0.250385296944156</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.253307374866233</c:v>
+                  <c:v>0.250190491749351</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.253177504736363</c:v>
+                  <c:v>0.249995686554546</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.253047634606493</c:v>
+                  <c:v>0.24980088135974</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.252917764476622</c:v>
+                  <c:v>0.249606076164935</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.252787894346752</c:v>
+                  <c:v>0.24941127097013</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.252658024216882</c:v>
+                  <c:v>0.249216465775325</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.252528154087012</c:v>
+                  <c:v>0.24902166058052</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.252398283957142</c:v>
+                  <c:v>0.248826855385714</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.252268413827272</c:v>
+                  <c:v>0.248632050190909</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.252138543697402</c:v>
+                  <c:v>0.248437244996104</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.252008673567531</c:v>
+                  <c:v>0.248242439801299</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.251878803437661</c:v>
+                  <c:v>0.248047634606494</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.251748933307791</c:v>
+                  <c:v>0.247852829411688</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.251619063177921</c:v>
+                  <c:v>0.247658024216883</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.251489193048051</c:v>
+                  <c:v>0.247463219022078</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.251359322918181</c:v>
+                  <c:v>0.247268413827273</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.251229452788311</c:v>
+                  <c:v>0.247073608632468</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.25109958265844</c:v>
+                  <c:v>0.246878803437662</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.25096971252857</c:v>
+                  <c:v>0.246683998242857</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.2508398423987</c:v>
+                  <c:v>0.246489193048052</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.25070997226883</c:v>
+                  <c:v>0.246294387853247</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.25058010213896</c:v>
+                  <c:v>0.246099582658442</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.25045023200909</c:v>
+                  <c:v>0.245904777463637</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.250320361879219</c:v>
+                  <c:v>0.245709972268831</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.250190491749349</c:v>
+                  <c:v>0.245515167074026</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.250060621619479</c:v>
+                  <c:v>0.245320361879221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10775,223 +10775,223 @@
                   <c:v>0.2595411411</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.259021660580519</c:v>
+                  <c:v>0.258956725515584</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.258502180061039</c:v>
+                  <c:v>0.258372309931169</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.257982699541558</c:v>
+                  <c:v>0.257787894346753</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.257463219022078</c:v>
+                  <c:v>0.257203478762338</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.256943738502597</c:v>
+                  <c:v>0.256619063177922</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.256424257983117</c:v>
+                  <c:v>0.256034647593507</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.255904777463636</c:v>
+                  <c:v>0.255450232009091</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.255385296944156</c:v>
+                  <c:v>0.254865816424675</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.254865816424675</c:v>
+                  <c:v>0.25428140084026</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.254346335905195</c:v>
+                  <c:v>0.253696985255844</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.253826855385714</c:v>
+                  <c:v>0.253112569671429</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.253307374866234</c:v>
+                  <c:v>0.252528154087013</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.252787894346753</c:v>
+                  <c:v>0.251943738502597</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.252268413827272</c:v>
+                  <c:v>0.251359322918182</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.251748933307792</c:v>
+                  <c:v>0.250774907333766</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.251229452788311</c:v>
+                  <c:v>0.250190491749351</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.250709972268831</c:v>
+                  <c:v>0.249606076164935</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.25019049174935</c:v>
+                  <c:v>0.24902166058052</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.24967101122987</c:v>
+                  <c:v>0.248437244996104</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.249151530710389</c:v>
+                  <c:v>0.247852829411688</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.248632050190909</c:v>
+                  <c:v>0.247268413827273</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.248112569671428</c:v>
+                  <c:v>0.246683998242857</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.247593089151948</c:v>
+                  <c:v>0.246099582658442</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.247073608632467</c:v>
+                  <c:v>0.245515167074026</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.246554128112987</c:v>
+                  <c:v>0.244930751489611</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.246034647593506</c:v>
+                  <c:v>0.244346335905195</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.245515167074026</c:v>
+                  <c:v>0.243761920320779</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.244995686554545</c:v>
+                  <c:v>0.243177504736364</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.244476206035065</c:v>
+                  <c:v>0.242593089151948</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.243956725515584</c:v>
+                  <c:v>0.242008673567533</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.243437244996103</c:v>
+                  <c:v>0.241424257983117</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.242917764476623</c:v>
+                  <c:v>0.240839842398702</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.242398283957142</c:v>
+                  <c:v>0.240255426814286</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.241878803437662</c:v>
+                  <c:v>0.23967101122987</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.241359322918181</c:v>
+                  <c:v>0.239086595645455</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.240839842398701</c:v>
+                  <c:v>0.238502180061039</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.24032036187922</c:v>
+                  <c:v>0.237917764476624</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.23980088135974</c:v>
+                  <c:v>0.237333348892208</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.239281400840259</c:v>
+                  <c:v>0.236748933307792</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.238761920320779</c:v>
+                  <c:v>0.236164517723377</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.238242439801298</c:v>
+                  <c:v>0.235580102138961</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.237722959281818</c:v>
+                  <c:v>0.234995686554546</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.237203478762337</c:v>
+                  <c:v>0.23441127097013</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.236683998242857</c:v>
+                  <c:v>0.233826855385715</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.236164517723376</c:v>
+                  <c:v>0.233242439801299</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.235645037203895</c:v>
+                  <c:v>0.232658024216883</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.235125556684415</c:v>
+                  <c:v>0.232073608632468</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.234606076164934</c:v>
+                  <c:v>0.231489193048052</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.234086595645454</c:v>
+                  <c:v>0.230904777463637</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.233567115125973</c:v>
+                  <c:v>0.230320361879221</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.233047634606493</c:v>
+                  <c:v>0.229735946294806</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.232528154087012</c:v>
+                  <c:v>0.22915153071039</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.232008673567532</c:v>
+                  <c:v>0.228567115125974</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.231489193048051</c:v>
+                  <c:v>0.227982699541559</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.230969712528571</c:v>
+                  <c:v>0.227398283957143</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.23045023200909</c:v>
+                  <c:v>0.226813868372728</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.22993075148961</c:v>
+                  <c:v>0.226229452788312</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.229411270970129</c:v>
+                  <c:v>0.225645037203897</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.228891790450649</c:v>
+                  <c:v>0.225060621619481</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.228372309931168</c:v>
+                  <c:v>0.224476206035065</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.227852829411688</c:v>
+                  <c:v>0.22389179045065</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.227333348892207</c:v>
+                  <c:v>0.223307374866234</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.226813868372726</c:v>
+                  <c:v>0.222722959281819</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.226294387853246</c:v>
+                  <c:v>0.222138543697403</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.225774907333765</c:v>
+                  <c:v>0.221554128112987</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.225255426814285</c:v>
+                  <c:v>0.220969712528572</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.224735946294804</c:v>
+                  <c:v>0.220385296944156</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.224216465775324</c:v>
+                  <c:v>0.219800881359741</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.223696985255843</c:v>
+                  <c:v>0.219216465775325</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.223177504736363</c:v>
+                  <c:v>0.21863205019091</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.222658024216882</c:v>
+                  <c:v>0.218047634606494</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.222138543697402</c:v>
+                  <c:v>0.217463219022078</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.221619063177921</c:v>
+                  <c:v>0.216878803437663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11864,223 +11864,223 @@
                   <c:v>0.2595411411</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.258632050190909</c:v>
+                  <c:v>0.258567115125974</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.257722959281818</c:v>
+                  <c:v>0.257593089151948</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.256813868372727</c:v>
+                  <c:v>0.256619063177922</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.255904777463636</c:v>
+                  <c:v>0.255645037203896</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.254995686554545</c:v>
+                  <c:v>0.25467101122987</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.254086595645454</c:v>
+                  <c:v>0.253696985255844</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.253177504736363</c:v>
+                  <c:v>0.252722959281818</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.252268413827273</c:v>
+                  <c:v>0.251748933307792</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.251359322918182</c:v>
+                  <c:v>0.250774907333766</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.250450232009091</c:v>
+                  <c:v>0.24980088135974</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.2495411411</c:v>
+                  <c:v>0.248826855385714</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.248632050190909</c:v>
+                  <c:v>0.247852829411688</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.247722959281818</c:v>
+                  <c:v>0.246878803437662</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.246813868372727</c:v>
+                  <c:v>0.245904777463637</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.245904777463636</c:v>
+                  <c:v>0.244930751489611</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.244995686554545</c:v>
+                  <c:v>0.243956725515585</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.244086595645454</c:v>
+                  <c:v>0.242982699541559</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.243177504736363</c:v>
+                  <c:v>0.242008673567533</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.242268413827272</c:v>
+                  <c:v>0.241034647593507</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.241359322918182</c:v>
+                  <c:v>0.240060621619481</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.240450232009091</c:v>
+                  <c:v>0.239086595645455</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.2395411411</c:v>
+                  <c:v>0.238112569671429</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.238632050190909</c:v>
+                  <c:v>0.237138543697403</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.237722959281818</c:v>
+                  <c:v>0.236164517723377</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.236813868372727</c:v>
+                  <c:v>0.235190491749351</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.235904777463636</c:v>
+                  <c:v>0.234216465775325</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.234995686554545</c:v>
+                  <c:v>0.233242439801299</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.234086595645454</c:v>
+                  <c:v>0.232268413827273</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.233177504736363</c:v>
+                  <c:v>0.231294387853247</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.232268413827272</c:v>
+                  <c:v>0.230320361879221</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.231359322918182</c:v>
+                  <c:v>0.229346335905195</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.230450232009091</c:v>
+                  <c:v>0.228372309931169</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.2295411411</c:v>
+                  <c:v>0.227398283957143</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.228632050190909</c:v>
+                  <c:v>0.226424257983117</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.227722959281818</c:v>
+                  <c:v>0.225450232009091</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.226813868372727</c:v>
+                  <c:v>0.224476206035065</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.225904777463636</c:v>
+                  <c:v>0.223502180061039</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.224995686554545</c:v>
+                  <c:v>0.222528154087013</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.224086595645454</c:v>
+                  <c:v>0.221554128112987</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.223177504736363</c:v>
+                  <c:v>0.220580102138962</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.222268413827272</c:v>
+                  <c:v>0.219606076164936</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.221359322918181</c:v>
+                  <c:v>0.21863205019091</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.220450232009091</c:v>
+                  <c:v>0.217658024216884</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.2195411411</c:v>
+                  <c:v>0.216683998242858</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.218632050190909</c:v>
+                  <c:v>0.215709972268832</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.217722959281818</c:v>
+                  <c:v>0.214735946294806</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.216813868372727</c:v>
+                  <c:v>0.21376192032078</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.215904777463636</c:v>
+                  <c:v>0.212787894346754</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.214995686554545</c:v>
+                  <c:v>0.211813868372728</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.214086595645454</c:v>
+                  <c:v>0.210839842398702</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.213177504736363</c:v>
+                  <c:v>0.209865816424676</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.212268413827272</c:v>
+                  <c:v>0.20889179045065</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.211359322918181</c:v>
+                  <c:v>0.207917764476624</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.21045023200909</c:v>
+                  <c:v>0.206943738502598</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.2095411411</c:v>
+                  <c:v>0.205969712528572</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.208632050190909</c:v>
+                  <c:v>0.204995686554546</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.207722959281818</c:v>
+                  <c:v>0.20402166058052</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.206813868372727</c:v>
+                  <c:v>0.203047634606494</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.205904777463636</c:v>
+                  <c:v>0.202073608632468</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.204995686554545</c:v>
+                  <c:v>0.201099582658442</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.204086595645454</c:v>
+                  <c:v>0.200125556684416</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.203177504736363</c:v>
+                  <c:v>0.19915153071039</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.202268413827272</c:v>
+                  <c:v>0.198177504736364</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.201359322918181</c:v>
+                  <c:v>0.197203478762339</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.20045023200909</c:v>
+                  <c:v>0.196229452788313</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.1995411411</c:v>
+                  <c:v>0.195255426814287</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.198632050190909</c:v>
+                  <c:v>0.194281400840261</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.197722959281818</c:v>
+                  <c:v>0.193307374866235</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.196813868372727</c:v>
+                  <c:v>0.192333348892209</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.195904777463636</c:v>
+                  <c:v>0.191359322918183</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.194995686554545</c:v>
+                  <c:v>0.190385296944157</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.194086595645454</c:v>
+                  <c:v>0.189411270970131</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.193177504736363</c:v>
+                  <c:v>0.188437244996105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18628,223 +18628,223 @@
                   <c:v>0.2253700076</c:v>
                 </c:pt>
                 <c:pt idx="188">
+                  <c:v>0.225305072535065</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.22524013747013</c:v>
+                </c:pt>
+                <c:pt idx="190">
                   <c:v>0.225175202405195</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="191">
+                  <c:v>0.22511026734026</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.225045332275325</c:v>
+                </c:pt>
+                <c:pt idx="193">
                   <c:v>0.22498039721039</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="194">
+                  <c:v>0.224915462145454</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.224850527080519</c:v>
+                </c:pt>
+                <c:pt idx="196">
                   <c:v>0.224785592015584</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="197">
+                  <c:v>0.224720656950649</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.224655721885714</c:v>
+                </c:pt>
+                <c:pt idx="199">
                   <c:v>0.224590786820779</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="200">
+                  <c:v>0.224525851755844</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.224460916690909</c:v>
+                </c:pt>
+                <c:pt idx="202">
                   <c:v>0.224395981625974</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="203">
+                  <c:v>0.224331046561039</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.224266111496104</c:v>
+                </c:pt>
+                <c:pt idx="205">
                   <c:v>0.224201176431169</c:v>
                 </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.224006371236364</c:v>
-                </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="206">
+                  <c:v>0.224136241366234</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.224071306301299</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.224006371236363</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.223941436171428</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.223876501106493</c:v>
+                </c:pt>
+                <c:pt idx="211">
                   <c:v>0.223811566041558</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="212">
+                  <c:v>0.223746630976623</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.223681695911688</c:v>
+                </c:pt>
+                <c:pt idx="214">
                   <c:v>0.223616760846753</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="215">
+                  <c:v>0.223551825781818</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.223486890716883</c:v>
+                </c:pt>
+                <c:pt idx="217">
                   <c:v>0.223421955651948</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="218">
+                  <c:v>0.223357020587013</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.223292085522078</c:v>
+                </c:pt>
+                <c:pt idx="220">
                   <c:v>0.223227150457143</c:v>
                 </c:pt>
-                <c:pt idx="199">
-                  <c:v>0.223032345262338</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0.222837540067533</c:v>
-                </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="221">
+                  <c:v>0.223162215392207</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.223097280327272</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.223032345262337</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.222967410197402</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.222902475132467</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.222837540067532</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.222772605002597</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.222707669937662</c:v>
+                </c:pt>
+                <c:pt idx="229">
                   <c:v>0.222642734872727</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="230">
+                  <c:v>0.222577799807792</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.222512864742857</c:v>
+                </c:pt>
+                <c:pt idx="232">
                   <c:v>0.222447929677922</c:v>
                 </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.222253124483117</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.222058319288312</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0.221863514093507</c:v>
-                </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="233">
+                  <c:v>0.222382994612987</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.222318059548052</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.222253124483116</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.222188189418181</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.222123254353246</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.222058319288311</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.221993384223376</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.221928449158441</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.221863514093506</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.221798579028571</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.221733643963636</c:v>
+                </c:pt>
+                <c:pt idx="244">
                   <c:v>0.221668708898701</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="245">
+                  <c:v>0.221603773833766</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.221538838768831</c:v>
+                </c:pt>
+                <c:pt idx="247">
                   <c:v>0.221473903703896</c:v>
                 </c:pt>
-                <c:pt idx="208">
-                  <c:v>0.221279098509091</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.221084293314286</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0.220889488119481</c:v>
-                </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="248">
+                  <c:v>0.221408968638961</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.221344033574025</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.22127909850909</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.221214163444155</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.22114922837922</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.221084293314285</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.22101935824935</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.220954423184415</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.22088948811948</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.220824553054545</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.22075961798961</c:v>
+                </c:pt>
+                <c:pt idx="259">
                   <c:v>0.220694682924675</c:v>
                 </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.22049987772987</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.220305072535065</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.22011026734026</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.219915462145455</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.219720656950649</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0.219525851755844</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0.219331046561039</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0.219136241366234</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.218941436171429</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.218746630976623</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0.218551825781818</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0.218357020587013</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0.218162215392208</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0.217967410197403</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0.217772605002598</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0.217577799807792</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0.217382994612987</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0.217188189418182</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0.216993384223377</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.216798579028572</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0.216603773833766</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0.216408968638961</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.216214163444156</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0.216019358249351</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0.215824553054546</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0.21562974785974</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0.215434942664935</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0.21524013747013</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0.215045332275325</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0.21485052708052</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0.214655721885714</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0.214460916690909</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0.214266111496104</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0.214071306301299</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0.213876501106494</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0.213681695911688</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0.213486890716883</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0.213292085522078</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0.213097280327273</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0.212902475132468</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0.212707669937663</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0.212512864742857</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0.212318059548052</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0.212123254353247</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0.211928449158442</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0.211733643963637</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0.211538838768831</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0.211344033574026</c:v>
-                </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.211149228379221</c:v>
+                  <c:v>0.22062974785974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19729,223 +19729,223 @@
                   <c:v>0.2253700076</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.22498039721039</c:v>
+                  <c:v>0.22511026734026</c:v>
                 </c:pt>
                 <c:pt idx="189">
+                  <c:v>0.224850527080519</c:v>
+                </c:pt>
+                <c:pt idx="190">
                   <c:v>0.224590786820779</c:v>
                 </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.224201176431169</c:v>
-                </c:pt>
                 <c:pt idx="191">
+                  <c:v>0.224331046561039</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.224071306301299</c:v>
+                </c:pt>
+                <c:pt idx="193">
                   <c:v>0.223811566041558</c:v>
                 </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.223421955651948</c:v>
-                </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="194">
+                  <c:v>0.223551825781818</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.223292085522078</c:v>
+                </c:pt>
+                <c:pt idx="196">
                   <c:v>0.223032345262338</c:v>
                 </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.222642734872727</c:v>
-                </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="197">
+                  <c:v>0.222772605002597</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.222512864742857</c:v>
+                </c:pt>
+                <c:pt idx="199">
                   <c:v>0.222253124483117</c:v>
                 </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.221863514093507</c:v>
-                </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="200">
+                  <c:v>0.221993384223377</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.221733643963636</c:v>
+                </c:pt>
+                <c:pt idx="202">
                   <c:v>0.221473903703896</c:v>
                 </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.221084293314286</c:v>
-                </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="203">
+                  <c:v>0.221214163444156</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.220954423184415</c:v>
+                </c:pt>
+                <c:pt idx="205">
                   <c:v>0.220694682924675</c:v>
                 </c:pt>
-                <c:pt idx="200">
-                  <c:v>0.220305072535065</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0.219915462145455</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0.219525851755844</c:v>
-                </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="206">
+                  <c:v>0.220434942664935</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.220175202405195</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.219915462145454</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.219655721885714</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.219395981625974</c:v>
+                </c:pt>
+                <c:pt idx="211">
                   <c:v>0.219136241366234</c:v>
                 </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.218746630976623</c:v>
-                </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="212">
+                  <c:v>0.218876501106493</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.218616760846753</c:v>
+                </c:pt>
+                <c:pt idx="214">
                   <c:v>0.218357020587013</c:v>
                 </c:pt>
-                <c:pt idx="206">
-                  <c:v>0.217967410197403</c:v>
-                </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="215">
+                  <c:v>0.218097280327273</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.217837540067532</c:v>
+                </c:pt>
+                <c:pt idx="217">
                   <c:v>0.217577799807792</c:v>
                 </c:pt>
-                <c:pt idx="208">
-                  <c:v>0.217188189418182</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.216798579028572</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0.216408968638961</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0.216019358249351</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.21562974785974</c:v>
-                </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="218">
+                  <c:v>0.217318059548052</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.217058319288311</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.216798579028571</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.216538838768831</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.216279098509091</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.21601935824935</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.21575961798961</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.21549987772987</c:v>
+                </c:pt>
+                <c:pt idx="226">
                   <c:v>0.21524013747013</c:v>
                 </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.21485052708052</c:v>
-                </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="227">
+                  <c:v>0.214980397210389</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.214720656950649</c:v>
+                </c:pt>
+                <c:pt idx="229">
                   <c:v>0.214460916690909</c:v>
                 </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.214071306301299</c:v>
-                </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="230">
+                  <c:v>0.214201176431169</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.213941436171428</c:v>
+                </c:pt>
+                <c:pt idx="232">
                   <c:v>0.213681695911688</c:v>
                 </c:pt>
-                <c:pt idx="218">
-                  <c:v>0.213292085522078</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0.212902475132468</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.212512864742857</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.212123254353247</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0.211733643963637</c:v>
-                </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="233">
+                  <c:v>0.213421955651948</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.213162215392208</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.212902475132467</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.212642734872727</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.212382994612987</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.212123254353246</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.211863514093506</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.211603773833766</c:v>
+                </c:pt>
+                <c:pt idx="241">
                   <c:v>0.211344033574026</c:v>
                 </c:pt>
-                <c:pt idx="224">
-                  <c:v>0.210954423184416</c:v>
-                </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="242">
+                  <c:v>0.211084293314285</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.210824553054545</c:v>
+                </c:pt>
+                <c:pt idx="244">
                   <c:v>0.210564812794805</c:v>
                 </c:pt>
-                <c:pt idx="226">
-                  <c:v>0.210175202405195</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0.209785592015585</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0.209395981625974</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0.209006371236364</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0.208616760846753</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.208227150457143</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0.207837540067533</c:v>
-                </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="245">
+                  <c:v>0.210305072535065</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.210045332275324</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.209785592015584</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.209525851755844</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.209266111496104</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.209006371236363</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.208746630976623</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.208486890716883</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.208227150457142</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.207967410197402</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.207707669937662</c:v>
+                </c:pt>
+                <c:pt idx="256">
                   <c:v>0.207447929677922</c:v>
                 </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.207058319288312</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0.206668708898702</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0.206279098509091</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0.205889488119481</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0.20549987772987</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0.20511026734026</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0.20472065695065</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0.204331046561039</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0.203941436171429</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0.203551825781818</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0.203162215392208</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0.202772605002598</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0.202382994612987</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0.201993384223377</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0.201603773833767</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0.201214163444156</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0.200824553054546</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0.200434942664935</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0.200045332275325</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0.199655721885715</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0.199266111496104</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0.198876501106494</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0.198486890716883</c:v>
-                </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.198097280327273</c:v>
+                  <c:v>0.207188189418181</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.197707669937663</c:v>
+                  <c:v>0.206928449158441</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.197318059548052</c:v>
+                  <c:v>0.206668708898701</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.196928449158442</c:v>
+                  <c:v>0.206408968638961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20818,223 +20818,223 @@
                   <c:v>0.2253700076</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.224785592015584</c:v>
+                  <c:v>0.224915462145455</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.224201176431169</c:v>
+                  <c:v>0.224460916690909</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.223616760846753</c:v>
+                  <c:v>0.224006371236364</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.223032345262338</c:v>
+                  <c:v>0.223551825781818</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.222447929677922</c:v>
+                  <c:v>0.223097280327273</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.221863514093507</c:v>
+                  <c:v>0.222642734872727</c:v>
                 </c:pt>
                 <c:pt idx="194">
+                  <c:v>0.222188189418182</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.221733643963636</c:v>
+                </c:pt>
+                <c:pt idx="196">
                   <c:v>0.221279098509091</c:v>
                 </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.220694682924675</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.22011026734026</c:v>
-                </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.219525851755844</c:v>
+                  <c:v>0.220824553054545</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.218941436171429</c:v>
+                  <c:v>0.2203700076</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.218357020587013</c:v>
+                  <c:v>0.219915462145455</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.217772605002598</c:v>
+                  <c:v>0.219460916690909</c:v>
                 </c:pt>
                 <c:pt idx="201">
+                  <c:v>0.219006371236364</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.218551825781818</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.218097280327273</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.217642734872727</c:v>
+                </c:pt>
+                <c:pt idx="205">
                   <c:v>0.217188189418182</c:v>
                 </c:pt>
-                <c:pt idx="202">
-                  <c:v>0.216603773833766</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.216019358249351</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.215434942664935</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0.21485052708052</c:v>
-                </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.214266111496104</c:v>
+                  <c:v>0.216733643963636</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.213681695911688</c:v>
+                  <c:v>0.216279098509091</c:v>
                 </c:pt>
                 <c:pt idx="208">
+                  <c:v>0.215824553054545</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.2153700076</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.214915462145454</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.214460916690909</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.214006371236364</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.213551825781818</c:v>
+                </c:pt>
+                <c:pt idx="214">
                   <c:v>0.213097280327273</c:v>
                 </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.212512864742857</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0.211928449158442</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0.211344033574026</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.210759617989611</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.210175202405195</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.209590786820779</c:v>
-                </c:pt>
                 <c:pt idx="215">
+                  <c:v>0.212642734872727</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.212188189418182</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.211733643963636</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.211279098509091</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.210824553054545</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.2103700076</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.209915462145454</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.209460916690909</c:v>
+                </c:pt>
+                <c:pt idx="223">
                   <c:v>0.209006371236364</c:v>
                 </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.208421955651948</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0.207837540067533</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0.207253124483117</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0.206668708898702</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.206084293314286</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.20549987772987</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0.204915462145455</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0.204331046561039</c:v>
-                </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.203746630976624</c:v>
+                  <c:v>0.208551825781818</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.203162215392208</c:v>
+                  <c:v>0.208097280327273</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.202577799807793</c:v>
+                  <c:v>0.207642734872727</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.201993384223377</c:v>
+                  <c:v>0.207188189418182</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.201408968638961</c:v>
+                  <c:v>0.206733643963636</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.200824553054546</c:v>
+                  <c:v>0.206279098509091</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.20024013747013</c:v>
+                  <c:v>0.205824553054545</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.199655721885715</c:v>
+                  <c:v>0.2053700076</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.199071306301299</c:v>
+                  <c:v>0.204915462145454</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.198486890716883</c:v>
+                  <c:v>0.204460916690909</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.197902475132468</c:v>
+                  <c:v>0.204006371236363</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.197318059548052</c:v>
+                  <c:v>0.203551825781818</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.196733643963637</c:v>
+                  <c:v>0.203097280327273</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.196149228379221</c:v>
+                  <c:v>0.202642734872727</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.195564812794806</c:v>
+                  <c:v>0.202188189418182</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.19498039721039</c:v>
+                  <c:v>0.201733643963636</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.194395981625974</c:v>
+                  <c:v>0.201279098509091</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.193811566041559</c:v>
+                  <c:v>0.200824553054545</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.193227150457143</c:v>
+                  <c:v>0.2003700076</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.192642734872728</c:v>
+                  <c:v>0.199915462145454</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.192058319288312</c:v>
+                  <c:v>0.199460916690909</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.191473903703897</c:v>
+                  <c:v>0.199006371236363</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.190889488119481</c:v>
+                  <c:v>0.198551825781818</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.190305072535065</c:v>
+                  <c:v>0.198097280327273</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.18972065695065</c:v>
+                  <c:v>0.197642734872727</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.189136241366234</c:v>
+                  <c:v>0.197188189418182</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.188551825781819</c:v>
+                  <c:v>0.196733643963636</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.187967410197403</c:v>
+                  <c:v>0.196279098509091</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.187382994612988</c:v>
+                  <c:v>0.195824553054545</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.186798579028572</c:v>
+                  <c:v>0.1953700076</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.186214163444156</c:v>
+                  <c:v>0.194915462145454</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.185629747859741</c:v>
+                  <c:v>0.194460916690909</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.185045332275325</c:v>
+                  <c:v>0.194006371236363</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.18446091669091</c:v>
+                  <c:v>0.193551825781818</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.183876501106494</c:v>
+                  <c:v>0.193097280327273</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.183292085522079</c:v>
+                  <c:v>0.192642734872727</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.182707669937663</c:v>
+                  <c:v>0.192188189418182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21049,11 +21049,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="74108156"/>
-        <c:axId val="91190568"/>
+        <c:axId val="14620874"/>
+        <c:axId val="88312981"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74108156"/>
+        <c:axId val="14620874"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21085,14 +21085,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91190568"/>
+        <c:crossAx val="88312981"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91190568"/>
+        <c:axId val="88312981"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -21135,7 +21135,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74108156"/>
+        <c:crossAx val="14620874"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21199,7 +21199,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -21210,10 +21210,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0465090709180869"/>
-          <c:y val="0.0268270736828073"/>
-          <c:w val="0.940736668499175"/>
-          <c:h val="0.59089545772653"/>
+          <c:x val="0.0465087086144673"/>
+          <c:y val="0.0268279677397854"/>
+          <c:w val="0.940718656833516"/>
+          <c:h val="0.590881823635273"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -41444,11 +41444,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="13962499"/>
-        <c:axId val="15032182"/>
+        <c:axId val="78007631"/>
+        <c:axId val="22887806"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13962499"/>
+        <c:axId val="78007631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41480,14 +41480,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15032182"/>
+        <c:crossAx val="22887806"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15032182"/>
+        <c:axId val="22887806"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -41531,7 +41531,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13962499"/>
+        <c:crossAx val="78007631"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -41606,9 +41606,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>473400</xdr:colOff>
+      <xdr:colOff>473040</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -41616,8 +41616,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="41006520" y="0"/>
-        <a:ext cx="22970520" cy="10788840"/>
+        <a:off x="41046840" y="0"/>
+        <a:ext cx="22992840" cy="10788480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -41636,9 +41636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>83</xdr:col>
-      <xdr:colOff>29160</xdr:colOff>
+      <xdr:colOff>28800</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -41646,8 +41646,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="29808000" y="12911400"/>
-        <a:ext cx="22919040" cy="10802160"/>
+        <a:off x="29836440" y="12911400"/>
+        <a:ext cx="22942440" cy="10801800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -41666,9 +41666,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>299160</xdr:colOff>
+      <xdr:colOff>298800</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -41679,8 +41679,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15195240" y="27656280"/>
-          <a:ext cx="299160" cy="299160"/>
+          <a:off x="15210000" y="27656280"/>
+          <a:ext cx="298800" cy="298800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41708,9 +41708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>616680</xdr:colOff>
+      <xdr:colOff>616320</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -41721,8 +41721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15512760" y="27656280"/>
-          <a:ext cx="299160" cy="299160"/>
+          <a:off x="15527520" y="27656280"/>
+          <a:ext cx="298800" cy="298800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41750,9 +41750,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>261360</xdr:colOff>
+      <xdr:colOff>261000</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -41763,8 +41763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15843600" y="27656280"/>
-          <a:ext cx="248760" cy="299160"/>
+          <a:off x="15858720" y="27656280"/>
+          <a:ext cx="248400" cy="298800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41793,11 +41793,11 @@
   </sheetPr>
   <dimension ref="A1:BL284"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O234" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W271" activeCellId="0" sqref="W271"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AT234" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BD276" activeCellId="0" sqref="BD276"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.16"/>
   </cols>
@@ -55819,7 +55819,7 @@
       <c r="Y185" s="7"/>
       <c r="Z185" s="1" t="n">
         <f aca="false">(K271-K194)/(ROW(K271)-ROW(K194))</f>
-        <v>0.00142857142857143</v>
+        <v>0.00136363636363636</v>
       </c>
       <c r="AA185" s="1" t="n">
         <f aca="false">(L271-L194)/(ROW(L271)-ROW(L194))</f>
@@ -55827,7 +55827,7 @@
       </c>
       <c r="AB185" s="1" t="n">
         <f aca="false">(M271-M194)/(ROW(M271)-ROW(M194))</f>
-        <v>-0.00051948051948052</v>
+        <v>-0.000584415584415584</v>
       </c>
       <c r="AC185" s="1" t="n">
         <f aca="false">(N271-N194)/(ROW(N271)-ROW(N194))</f>
@@ -55835,7 +55835,7 @@
       </c>
       <c r="AD185" s="1" t="n">
         <f aca="false">(O271-O194)/(ROW(O271)-ROW(O194))</f>
-        <v>-0.00038961038961039</v>
+        <v>-0.00025974025974026</v>
       </c>
       <c r="AJ185" s="0" t="n">
         <f aca="false">AJ181+1</f>
@@ -55922,11 +55922,11 @@
       <c r="R186" s="5"/>
       <c r="Z186" s="5" t="n">
         <f aca="false">(P271-P194)/(ROW(P271)-ROW(P194))</f>
-        <v>0.000649350649350649</v>
+        <v>0.000584415584415584</v>
       </c>
       <c r="AA186" s="5" t="n">
         <f aca="false">(Q271-Q194)/(ROW(Q271)-ROW(Q194))</f>
-        <v>-0.00012987012987013</v>
+        <v>-0.000194805194805195</v>
       </c>
       <c r="AB186" s="5" t="n">
         <f aca="false">(R271-R194)/(ROW(R271)-ROW(R194))</f>
@@ -55934,15 +55934,15 @@
       </c>
       <c r="AC186" s="5" t="n">
         <f aca="false">(S271-S194)/(ROW(S271)-ROW(S194))</f>
-        <v>-0.000194805194805195</v>
+        <v>-6.4935064935065E-005</v>
       </c>
       <c r="AD186" s="5" t="n">
         <f aca="false">(T271-T194)/(ROW(T271)-ROW(T194))</f>
-        <v>0.00220779220779221</v>
+        <v>0.00214285714285714</v>
       </c>
       <c r="AE186" s="5" t="n">
         <f aca="false">(U271-U194)/(ROW(U271)-ROW(U194))</f>
-        <v>-0.000909090909090909</v>
+        <v>-0.000974025974025974</v>
       </c>
       <c r="AF186" s="5" t="n">
         <f aca="false">(V271-V194)/(ROW(V271)-ROW(V194))</f>
@@ -55950,7 +55950,7 @@
       </c>
       <c r="AG186" s="5" t="n">
         <f aca="false">(W271-W194)/(ROW(W271)-ROW(W194))</f>
-        <v>-0.000584415584415584</v>
+        <v>-0.000454545454545455</v>
       </c>
       <c r="AH186" s="5"/>
       <c r="AJ186" s="0" t="n">
@@ -56687,7 +56687,7 @@
       </c>
       <c r="K195" s="5" t="n">
         <f aca="false">K194+$Z$185</f>
-        <v>0.376517422728571</v>
+        <v>0.376452487663636</v>
       </c>
       <c r="L195" s="5" t="n">
         <f aca="false">L194+$AA$185</f>
@@ -56695,7 +56695,7 @@
       </c>
       <c r="M195" s="5" t="n">
         <f aca="false">M194+$AB$185</f>
-        <v>0.259021660580519</v>
+        <v>0.258956725515584</v>
       </c>
       <c r="N195" s="5" t="n">
         <f aca="false">N194+$AC$185</f>
@@ -56703,15 +56703,15 @@
       </c>
       <c r="O195" s="5" t="n">
         <f aca="false">O194+$AD$185</f>
-        <v>0.22498039721039</v>
+        <v>0.22511026734026</v>
       </c>
       <c r="P195" s="5" t="n">
         <f aca="false">P194+$Z$186</f>
-        <v>0.375738201949351</v>
+        <v>0.375673266884416</v>
       </c>
       <c r="Q195" s="5" t="n">
         <f aca="false">Q194+$AA$186</f>
-        <v>0.25941127097013</v>
+        <v>0.259346335905195</v>
       </c>
       <c r="R195" s="5" t="n">
         <f aca="false">R194+$AB$186</f>
@@ -56719,15 +56719,15 @@
       </c>
       <c r="S195" s="5" t="n">
         <f aca="false">S194+$AC$186</f>
-        <v>0.225175202405195</v>
+        <v>0.225305072535065</v>
       </c>
       <c r="T195" s="5" t="n">
         <f aca="false">T194+$AD$186</f>
-        <v>0.377296643507792</v>
+        <v>0.377231708442857</v>
       </c>
       <c r="U195" s="5" t="n">
         <f aca="false">U194+$AE$186</f>
-        <v>0.258632050190909</v>
+        <v>0.258567115125974</v>
       </c>
       <c r="V195" s="5" t="n">
         <f aca="false">V194+$AF$186</f>
@@ -56735,7 +56735,7 @@
       </c>
       <c r="W195" s="5" t="n">
         <f aca="false">W194+$AG$186</f>
-        <v>0.224785592015584</v>
+        <v>0.224915462145455</v>
       </c>
       <c r="X195" s="5"/>
       <c r="Y195" s="5"/>
@@ -56817,7 +56817,7 @@
       </c>
       <c r="K196" s="5" t="n">
         <f aca="false">K195+$Z$185</f>
-        <v>0.377945994157143</v>
+        <v>0.377816124027273</v>
       </c>
       <c r="L196" s="5" t="n">
         <f aca="false">L195+$AA$185</f>
@@ -56825,7 +56825,7 @@
       </c>
       <c r="M196" s="5" t="n">
         <f aca="false">M195+$AB$185</f>
-        <v>0.258502180061039</v>
+        <v>0.258372309931169</v>
       </c>
       <c r="N196" s="5" t="n">
         <f aca="false">N195+$AC$185</f>
@@ -56833,15 +56833,15 @@
       </c>
       <c r="O196" s="5" t="n">
         <f aca="false">O195+$AD$185</f>
-        <v>0.224590786820779</v>
+        <v>0.224850527080519</v>
       </c>
       <c r="P196" s="5" t="n">
         <f aca="false">P195+$Z$186</f>
-        <v>0.376387552598701</v>
+        <v>0.376257682468831</v>
       </c>
       <c r="Q196" s="5" t="n">
         <f aca="false">Q195+$AA$186</f>
-        <v>0.25928140084026</v>
+        <v>0.25915153071039</v>
       </c>
       <c r="R196" s="5" t="n">
         <f aca="false">R195+$AB$186</f>
@@ -56849,15 +56849,15 @@
       </c>
       <c r="S196" s="5" t="n">
         <f aca="false">S195+$AC$186</f>
-        <v>0.22498039721039</v>
+        <v>0.22524013747013</v>
       </c>
       <c r="T196" s="5" t="n">
         <f aca="false">T195+$AD$186</f>
-        <v>0.379504435715584</v>
+        <v>0.379374565585714</v>
       </c>
       <c r="U196" s="5" t="n">
         <f aca="false">U195+$AE$186</f>
-        <v>0.257722959281818</v>
+        <v>0.257593089151948</v>
       </c>
       <c r="V196" s="5" t="n">
         <f aca="false">V195+$AF$186</f>
@@ -56865,7 +56865,7 @@
       </c>
       <c r="W196" s="5" t="n">
         <f aca="false">W195+$AG$186</f>
-        <v>0.224201176431169</v>
+        <v>0.224460916690909</v>
       </c>
       <c r="X196" s="5"/>
       <c r="Y196" s="5"/>
@@ -56945,7 +56945,7 @@
       </c>
       <c r="K197" s="5" t="n">
         <f aca="false">K196+$Z$185</f>
-        <v>0.379374565585714</v>
+        <v>0.379179760390909</v>
       </c>
       <c r="L197" s="5" t="n">
         <f aca="false">L196+$AA$185</f>
@@ -56953,7 +56953,7 @@
       </c>
       <c r="M197" s="5" t="n">
         <f aca="false">M196+$AB$185</f>
-        <v>0.257982699541558</v>
+        <v>0.257787894346753</v>
       </c>
       <c r="N197" s="5" t="n">
         <f aca="false">N196+$AC$185</f>
@@ -56961,15 +56961,15 @@
       </c>
       <c r="O197" s="5" t="n">
         <f aca="false">O196+$AD$185</f>
-        <v>0.224201176431169</v>
+        <v>0.224590786820779</v>
       </c>
       <c r="P197" s="5" t="n">
         <f aca="false">P196+$Z$186</f>
-        <v>0.377036903248052</v>
+        <v>0.376842098053247</v>
       </c>
       <c r="Q197" s="5" t="n">
         <f aca="false">Q196+$AA$186</f>
-        <v>0.259151530710389</v>
+        <v>0.258956725515584</v>
       </c>
       <c r="R197" s="5" t="n">
         <f aca="false">R196+$AB$186</f>
@@ -56977,15 +56977,15 @@
       </c>
       <c r="S197" s="5" t="n">
         <f aca="false">S196+$AC$186</f>
-        <v>0.224785592015584</v>
+        <v>0.225175202405195</v>
       </c>
       <c r="T197" s="5" t="n">
         <f aca="false">T196+$AD$186</f>
-        <v>0.381712227923377</v>
+        <v>0.381517422728571</v>
       </c>
       <c r="U197" s="5" t="n">
         <f aca="false">U196+$AE$186</f>
-        <v>0.256813868372727</v>
+        <v>0.256619063177922</v>
       </c>
       <c r="V197" s="5" t="n">
         <f aca="false">V196+$AF$186</f>
@@ -56993,7 +56993,7 @@
       </c>
       <c r="W197" s="5" t="n">
         <f aca="false">W196+$AG$186</f>
-        <v>0.223616760846753</v>
+        <v>0.224006371236364</v>
       </c>
       <c r="X197" s="5"/>
       <c r="Y197" s="5"/>
@@ -57073,7 +57073,7 @@
       </c>
       <c r="K198" s="5" t="n">
         <f aca="false">K197+$Z$185</f>
-        <v>0.380803137014286</v>
+        <v>0.380543396754545</v>
       </c>
       <c r="L198" s="5" t="n">
         <f aca="false">L197+$AA$185</f>
@@ -57081,7 +57081,7 @@
       </c>
       <c r="M198" s="5" t="n">
         <f aca="false">M197+$AB$185</f>
-        <v>0.257463219022078</v>
+        <v>0.257203478762338</v>
       </c>
       <c r="N198" s="5" t="n">
         <f aca="false">N197+$AC$185</f>
@@ -57089,15 +57089,15 @@
       </c>
       <c r="O198" s="5" t="n">
         <f aca="false">O197+$AD$185</f>
-        <v>0.223811566041558</v>
+        <v>0.224331046561039</v>
       </c>
       <c r="P198" s="5" t="n">
         <f aca="false">P197+$Z$186</f>
-        <v>0.377686253897402</v>
+        <v>0.377426513637662</v>
       </c>
       <c r="Q198" s="5" t="n">
         <f aca="false">Q197+$AA$186</f>
-        <v>0.259021660580519</v>
+        <v>0.258761920320779</v>
       </c>
       <c r="R198" s="5" t="n">
         <f aca="false">R197+$AB$186</f>
@@ -57105,15 +57105,15 @@
       </c>
       <c r="S198" s="5" t="n">
         <f aca="false">S197+$AC$186</f>
-        <v>0.224590786820779</v>
+        <v>0.22511026734026</v>
       </c>
       <c r="T198" s="5" t="n">
         <f aca="false">T197+$AD$186</f>
-        <v>0.383920020131169</v>
+        <v>0.383660279871429</v>
       </c>
       <c r="U198" s="5" t="n">
         <f aca="false">U197+$AE$186</f>
-        <v>0.255904777463636</v>
+        <v>0.255645037203896</v>
       </c>
       <c r="V198" s="5" t="n">
         <f aca="false">V197+$AF$186</f>
@@ -57121,7 +57121,7 @@
       </c>
       <c r="W198" s="5" t="n">
         <f aca="false">W197+$AG$186</f>
-        <v>0.223032345262338</v>
+        <v>0.223551825781818</v>
       </c>
       <c r="X198" s="5"/>
       <c r="Y198" s="5"/>
@@ -57193,7 +57193,7 @@
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="1" t="n">
         <f aca="false">K195-AP195</f>
-        <v>0.0951537863649351</v>
+        <v>0.0950888513000003</v>
       </c>
       <c r="E199" s="0" t="n">
         <f aca="false">E195+1</f>
@@ -57201,7 +57201,7 @@
       </c>
       <c r="K199" s="5" t="n">
         <f aca="false">K198+$Z$185</f>
-        <v>0.382231708442857</v>
+        <v>0.381907033118182</v>
       </c>
       <c r="L199" s="5" t="n">
         <f aca="false">L198+$AA$185</f>
@@ -57209,7 +57209,7 @@
       </c>
       <c r="M199" s="5" t="n">
         <f aca="false">M198+$AB$185</f>
-        <v>0.256943738502597</v>
+        <v>0.256619063177922</v>
       </c>
       <c r="N199" s="5" t="n">
         <f aca="false">N198+$AC$185</f>
@@ -57217,15 +57217,15 @@
       </c>
       <c r="O199" s="5" t="n">
         <f aca="false">O198+$AD$185</f>
-        <v>0.223421955651948</v>
+        <v>0.224071306301299</v>
       </c>
       <c r="P199" s="5" t="n">
         <f aca="false">P198+$Z$186</f>
-        <v>0.378335604546753</v>
+        <v>0.378010929222078</v>
       </c>
       <c r="Q199" s="5" t="n">
         <f aca="false">Q198+$AA$186</f>
-        <v>0.258891790450649</v>
+        <v>0.258567115125974</v>
       </c>
       <c r="R199" s="5" t="n">
         <f aca="false">R198+$AB$186</f>
@@ -57233,15 +57233,15 @@
       </c>
       <c r="S199" s="5" t="n">
         <f aca="false">S198+$AC$186</f>
-        <v>0.224395981625974</v>
+        <v>0.225045332275325</v>
       </c>
       <c r="T199" s="5" t="n">
         <f aca="false">T198+$AD$186</f>
-        <v>0.386127812338961</v>
+        <v>0.385803137014286</v>
       </c>
       <c r="U199" s="5" t="n">
         <f aca="false">U198+$AE$186</f>
-        <v>0.254995686554545</v>
+        <v>0.25467101122987</v>
       </c>
       <c r="V199" s="5" t="n">
         <f aca="false">V198+$AF$186</f>
@@ -57249,7 +57249,7 @@
       </c>
       <c r="W199" s="5" t="n">
         <f aca="false">W198+$AG$186</f>
-        <v>0.222447929677922</v>
+        <v>0.223097280327273</v>
       </c>
       <c r="X199" s="5"/>
       <c r="Y199" s="5"/>
@@ -57321,7 +57321,7 @@
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="1" t="n">
         <f aca="false">K196-AP196</f>
-        <v>0.0952187214298702</v>
+        <v>0.0950888512999997</v>
       </c>
       <c r="E200" s="0" t="n">
         <f aca="false">E196+1</f>
@@ -57329,7 +57329,7 @@
       </c>
       <c r="K200" s="5" t="n">
         <f aca="false">K199+$Z$185</f>
-        <v>0.383660279871429</v>
+        <v>0.383270669481818</v>
       </c>
       <c r="L200" s="5" t="n">
         <f aca="false">L199+$AA$185</f>
@@ -57337,7 +57337,7 @@
       </c>
       <c r="M200" s="5" t="n">
         <f aca="false">M199+$AB$185</f>
-        <v>0.256424257983117</v>
+        <v>0.256034647593507</v>
       </c>
       <c r="N200" s="5" t="n">
         <f aca="false">N199+$AC$185</f>
@@ -57345,15 +57345,15 @@
       </c>
       <c r="O200" s="5" t="n">
         <f aca="false">O199+$AD$185</f>
-        <v>0.223032345262338</v>
+        <v>0.223811566041558</v>
       </c>
       <c r="P200" s="5" t="n">
         <f aca="false">P199+$Z$186</f>
-        <v>0.378984955196104</v>
+        <v>0.378595344806493</v>
       </c>
       <c r="Q200" s="5" t="n">
         <f aca="false">Q199+$AA$186</f>
-        <v>0.258761920320779</v>
+        <v>0.258372309931169</v>
       </c>
       <c r="R200" s="5" t="n">
         <f aca="false">R199+$AB$186</f>
@@ -57361,15 +57361,15 @@
       </c>
       <c r="S200" s="5" t="n">
         <f aca="false">S199+$AC$186</f>
-        <v>0.224201176431169</v>
+        <v>0.22498039721039</v>
       </c>
       <c r="T200" s="5" t="n">
         <f aca="false">T199+$AD$186</f>
-        <v>0.388335604546753</v>
+        <v>0.387945994157143</v>
       </c>
       <c r="U200" s="5" t="n">
         <f aca="false">U199+$AE$186</f>
-        <v>0.254086595645454</v>
+        <v>0.253696985255844</v>
       </c>
       <c r="V200" s="5" t="n">
         <f aca="false">V199+$AF$186</f>
@@ -57377,7 +57377,7 @@
       </c>
       <c r="W200" s="5" t="n">
         <f aca="false">W199+$AG$186</f>
-        <v>0.221863514093507</v>
+        <v>0.222642734872727</v>
       </c>
       <c r="X200" s="5"/>
       <c r="Y200" s="5"/>
@@ -57449,7 +57449,7 @@
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="1" t="n">
         <f aca="false">K197-AP197</f>
-        <v>0.0952836564948053</v>
+        <v>0.0950888513000001</v>
       </c>
       <c r="E201" s="0" t="n">
         <f aca="false">E197+1</f>
@@ -57457,7 +57457,7 @@
       </c>
       <c r="K201" s="5" t="n">
         <f aca="false">K200+$Z$185</f>
-        <v>0.3850888513</v>
+        <v>0.384634305845454</v>
       </c>
       <c r="L201" s="5" t="n">
         <f aca="false">L200+$AA$185</f>
@@ -57465,7 +57465,7 @@
       </c>
       <c r="M201" s="5" t="n">
         <f aca="false">M200+$AB$185</f>
-        <v>0.255904777463636</v>
+        <v>0.255450232009091</v>
       </c>
       <c r="N201" s="5" t="n">
         <f aca="false">N200+$AC$185</f>
@@ -57473,15 +57473,15 @@
       </c>
       <c r="O201" s="5" t="n">
         <f aca="false">O200+$AD$185</f>
-        <v>0.222642734872727</v>
+        <v>0.223551825781818</v>
       </c>
       <c r="P201" s="5" t="n">
         <f aca="false">P200+$Z$186</f>
-        <v>0.379634305845454</v>
+        <v>0.379179760390909</v>
       </c>
       <c r="Q201" s="5" t="n">
         <f aca="false">Q200+$AA$186</f>
-        <v>0.258632050190909</v>
+        <v>0.258177504736364</v>
       </c>
       <c r="R201" s="5" t="n">
         <f aca="false">R200+$AB$186</f>
@@ -57489,15 +57489,15 @@
       </c>
       <c r="S201" s="5" t="n">
         <f aca="false">S200+$AC$186</f>
-        <v>0.224006371236364</v>
+        <v>0.224915462145454</v>
       </c>
       <c r="T201" s="5" t="n">
         <f aca="false">T200+$AD$186</f>
-        <v>0.390543396754546</v>
+        <v>0.3900888513</v>
       </c>
       <c r="U201" s="5" t="n">
         <f aca="false">U200+$AE$186</f>
-        <v>0.253177504736363</v>
+        <v>0.252722959281818</v>
       </c>
       <c r="V201" s="5" t="n">
         <f aca="false">V200+$AF$186</f>
@@ -57505,7 +57505,7 @@
       </c>
       <c r="W201" s="5" t="n">
         <f aca="false">W200+$AG$186</f>
-        <v>0.221279098509091</v>
+        <v>0.222188189418182</v>
       </c>
       <c r="X201" s="5"/>
       <c r="Y201" s="5"/>
@@ -57577,7 +57577,7 @@
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="1" t="n">
         <f aca="false">K198-AP198</f>
-        <v>0.0953485915597404</v>
+        <v>0.0950888513000004</v>
       </c>
       <c r="E202" s="0" t="n">
         <f aca="false">E198+1</f>
@@ -57585,7 +57585,7 @@
       </c>
       <c r="K202" s="5" t="n">
         <f aca="false">K201+$Z$185</f>
-        <v>0.386517422728572</v>
+        <v>0.385997942209091</v>
       </c>
       <c r="L202" s="5" t="n">
         <f aca="false">L201+$AA$185</f>
@@ -57593,7 +57593,7 @@
       </c>
       <c r="M202" s="5" t="n">
         <f aca="false">M201+$AB$185</f>
-        <v>0.255385296944156</v>
+        <v>0.254865816424675</v>
       </c>
       <c r="N202" s="5" t="n">
         <f aca="false">N201+$AC$185</f>
@@ -57601,15 +57601,15 @@
       </c>
       <c r="O202" s="5" t="n">
         <f aca="false">O201+$AD$185</f>
-        <v>0.222253124483117</v>
+        <v>0.223292085522078</v>
       </c>
       <c r="P202" s="5" t="n">
         <f aca="false">P201+$Z$186</f>
-        <v>0.380283656494805</v>
+        <v>0.379764175975325</v>
       </c>
       <c r="Q202" s="5" t="n">
         <f aca="false">Q201+$AA$186</f>
-        <v>0.258502180061039</v>
+        <v>0.257982699541558</v>
       </c>
       <c r="R202" s="5" t="n">
         <f aca="false">R201+$AB$186</f>
@@ -57617,15 +57617,15 @@
       </c>
       <c r="S202" s="5" t="n">
         <f aca="false">S201+$AC$186</f>
-        <v>0.223811566041558</v>
+        <v>0.224850527080519</v>
       </c>
       <c r="T202" s="5" t="n">
         <f aca="false">T201+$AD$186</f>
-        <v>0.392751188962338</v>
+        <v>0.392231708442857</v>
       </c>
       <c r="U202" s="5" t="n">
         <f aca="false">U201+$AE$186</f>
-        <v>0.252268413827273</v>
+        <v>0.251748933307792</v>
       </c>
       <c r="V202" s="5" t="n">
         <f aca="false">V201+$AF$186</f>
@@ -57633,7 +57633,7 @@
       </c>
       <c r="W202" s="5" t="n">
         <f aca="false">W201+$AG$186</f>
-        <v>0.220694682924675</v>
+        <v>0.221733643963636</v>
       </c>
       <c r="X202" s="5"/>
       <c r="Y202" s="5"/>
@@ -57705,7 +57705,7 @@
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="1" t="n">
         <f aca="false">K199-AP199</f>
-        <v>0.0954135266246755</v>
+        <v>0.0950888512999997</v>
       </c>
       <c r="E203" s="0" t="n">
         <f aca="false">E199+1</f>
@@ -57713,7 +57713,7 @@
       </c>
       <c r="K203" s="5" t="n">
         <f aca="false">K202+$Z$185</f>
-        <v>0.387945994157143</v>
+        <v>0.387361578572727</v>
       </c>
       <c r="L203" s="5" t="n">
         <f aca="false">L202+$AA$185</f>
@@ -57721,7 +57721,7 @@
       </c>
       <c r="M203" s="5" t="n">
         <f aca="false">M202+$AB$185</f>
-        <v>0.254865816424675</v>
+        <v>0.25428140084026</v>
       </c>
       <c r="N203" s="5" t="n">
         <f aca="false">N202+$AC$185</f>
@@ -57729,15 +57729,15 @@
       </c>
       <c r="O203" s="5" t="n">
         <f aca="false">O202+$AD$185</f>
-        <v>0.221863514093507</v>
+        <v>0.223032345262338</v>
       </c>
       <c r="P203" s="5" t="n">
         <f aca="false">P202+$Z$186</f>
-        <v>0.380933007144156</v>
+        <v>0.38034859155974</v>
       </c>
       <c r="Q203" s="5" t="n">
         <f aca="false">Q202+$AA$186</f>
-        <v>0.258372309931169</v>
+        <v>0.257787894346753</v>
       </c>
       <c r="R203" s="5" t="n">
         <f aca="false">R202+$AB$186</f>
@@ -57745,15 +57745,15 @@
       </c>
       <c r="S203" s="5" t="n">
         <f aca="false">S202+$AC$186</f>
-        <v>0.223616760846753</v>
+        <v>0.224785592015584</v>
       </c>
       <c r="T203" s="5" t="n">
         <f aca="false">T202+$AD$186</f>
-        <v>0.39495898117013</v>
+        <v>0.394374565585715</v>
       </c>
       <c r="U203" s="5" t="n">
         <f aca="false">U202+$AE$186</f>
-        <v>0.251359322918182</v>
+        <v>0.250774907333766</v>
       </c>
       <c r="V203" s="5" t="n">
         <f aca="false">V202+$AF$186</f>
@@ -57761,7 +57761,7 @@
       </c>
       <c r="W203" s="5" t="n">
         <f aca="false">W202+$AG$186</f>
-        <v>0.22011026734026</v>
+        <v>0.221279098509091</v>
       </c>
       <c r="X203" s="5"/>
       <c r="Y203" s="5"/>
@@ -57833,7 +57833,7 @@
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="1" t="n">
         <f aca="false">K200-AP200</f>
-        <v>0.0954784616896106</v>
+        <v>0.0950888513000001</v>
       </c>
       <c r="E204" s="0" t="n">
         <f aca="false">E200+1</f>
@@ -57841,7 +57841,7 @@
       </c>
       <c r="K204" s="5" t="n">
         <f aca="false">K203+$Z$185</f>
-        <v>0.389374565585714</v>
+        <v>0.388725214936363</v>
       </c>
       <c r="L204" s="5" t="n">
         <f aca="false">L203+$AA$185</f>
@@ -57849,7 +57849,7 @@
       </c>
       <c r="M204" s="5" t="n">
         <f aca="false">M203+$AB$185</f>
-        <v>0.254346335905195</v>
+        <v>0.253696985255844</v>
       </c>
       <c r="N204" s="5" t="n">
         <f aca="false">N203+$AC$185</f>
@@ -57857,15 +57857,15 @@
       </c>
       <c r="O204" s="5" t="n">
         <f aca="false">O203+$AD$185</f>
-        <v>0.221473903703896</v>
+        <v>0.222772605002597</v>
       </c>
       <c r="P204" s="5" t="n">
         <f aca="false">P203+$Z$186</f>
-        <v>0.381582357793506</v>
+        <v>0.380933007144156</v>
       </c>
       <c r="Q204" s="5" t="n">
         <f aca="false">Q203+$AA$186</f>
-        <v>0.258242439801298</v>
+        <v>0.257593089151948</v>
       </c>
       <c r="R204" s="5" t="n">
         <f aca="false">R203+$AB$186</f>
@@ -57873,15 +57873,15 @@
       </c>
       <c r="S204" s="5" t="n">
         <f aca="false">S203+$AC$186</f>
-        <v>0.223421955651948</v>
+        <v>0.224720656950649</v>
       </c>
       <c r="T204" s="5" t="n">
         <f aca="false">T203+$AD$186</f>
-        <v>0.397166773377922</v>
+        <v>0.396517422728572</v>
       </c>
       <c r="U204" s="5" t="n">
         <f aca="false">U203+$AE$186</f>
-        <v>0.250450232009091</v>
+        <v>0.24980088135974</v>
       </c>
       <c r="V204" s="5" t="n">
         <f aca="false">V203+$AF$186</f>
@@ -57889,7 +57889,7 @@
       </c>
       <c r="W204" s="5" t="n">
         <f aca="false">W203+$AG$186</f>
-        <v>0.219525851755844</v>
+        <v>0.220824553054545</v>
       </c>
       <c r="X204" s="5"/>
       <c r="Y204" s="5"/>
@@ -57961,7 +57961,7 @@
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="1" t="n">
         <f aca="false">K201-AP201</f>
-        <v>0.0955433967545457</v>
+        <v>0.0950888513000004</v>
       </c>
       <c r="E205" s="0" t="n">
         <f aca="false">E201+1</f>
@@ -57969,7 +57969,7 @@
       </c>
       <c r="K205" s="5" t="n">
         <f aca="false">K204+$Z$185</f>
-        <v>0.390803137014286</v>
+        <v>0.3900888513</v>
       </c>
       <c r="L205" s="5" t="n">
         <f aca="false">L204+$AA$185</f>
@@ -57977,7 +57977,7 @@
       </c>
       <c r="M205" s="5" t="n">
         <f aca="false">M204+$AB$185</f>
-        <v>0.253826855385714</v>
+        <v>0.253112569671429</v>
       </c>
       <c r="N205" s="5" t="n">
         <f aca="false">N204+$AC$185</f>
@@ -57985,15 +57985,15 @@
       </c>
       <c r="O205" s="5" t="n">
         <f aca="false">O204+$AD$185</f>
-        <v>0.221084293314286</v>
+        <v>0.222512864742857</v>
       </c>
       <c r="P205" s="5" t="n">
         <f aca="false">P204+$Z$186</f>
-        <v>0.382231708442857</v>
+        <v>0.381517422728571</v>
       </c>
       <c r="Q205" s="5" t="n">
         <f aca="false">Q204+$AA$186</f>
-        <v>0.258112569671428</v>
+        <v>0.257398283957143</v>
       </c>
       <c r="R205" s="5" t="n">
         <f aca="false">R204+$AB$186</f>
@@ -58001,15 +58001,15 @@
       </c>
       <c r="S205" s="5" t="n">
         <f aca="false">S204+$AC$186</f>
-        <v>0.223227150457143</v>
+        <v>0.224655721885714</v>
       </c>
       <c r="T205" s="5" t="n">
         <f aca="false">T204+$AD$186</f>
-        <v>0.399374565585714</v>
+        <v>0.398660279871429</v>
       </c>
       <c r="U205" s="5" t="n">
         <f aca="false">U204+$AE$186</f>
-        <v>0.2495411411</v>
+        <v>0.248826855385714</v>
       </c>
       <c r="V205" s="5" t="n">
         <f aca="false">V204+$AF$186</f>
@@ -58017,7 +58017,7 @@
       </c>
       <c r="W205" s="5" t="n">
         <f aca="false">W204+$AG$186</f>
-        <v>0.218941436171429</v>
+        <v>0.2203700076</v>
       </c>
       <c r="X205" s="5"/>
       <c r="Y205" s="5"/>
@@ -58089,7 +58089,7 @@
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="1" t="n">
         <f aca="false">K202-AP202</f>
-        <v>0.0956083318194808</v>
+        <v>0.0950888512999998</v>
       </c>
       <c r="E206" s="0" t="n">
         <f aca="false">E202+1</f>
@@ -58097,7 +58097,7 @@
       </c>
       <c r="K206" s="5" t="n">
         <f aca="false">K205+$Z$185</f>
-        <v>0.392231708442857</v>
+        <v>0.391452487663636</v>
       </c>
       <c r="L206" s="5" t="n">
         <f aca="false">L205+$AA$185</f>
@@ -58105,7 +58105,7 @@
       </c>
       <c r="M206" s="5" t="n">
         <f aca="false">M205+$AB$185</f>
-        <v>0.253307374866234</v>
+        <v>0.252528154087013</v>
       </c>
       <c r="N206" s="5" t="n">
         <f aca="false">N205+$AC$185</f>
@@ -58113,15 +58113,15 @@
       </c>
       <c r="O206" s="5" t="n">
         <f aca="false">O205+$AD$185</f>
-        <v>0.220694682924675</v>
+        <v>0.222253124483117</v>
       </c>
       <c r="P206" s="5" t="n">
         <f aca="false">P205+$Z$186</f>
-        <v>0.382881059092207</v>
+        <v>0.382101838312987</v>
       </c>
       <c r="Q206" s="5" t="n">
         <f aca="false">Q205+$AA$186</f>
-        <v>0.257982699541558</v>
+        <v>0.257203478762338</v>
       </c>
       <c r="R206" s="5" t="n">
         <f aca="false">R205+$AB$186</f>
@@ -58129,15 +58129,15 @@
       </c>
       <c r="S206" s="5" t="n">
         <f aca="false">S205+$AC$186</f>
-        <v>0.223032345262338</v>
+        <v>0.224590786820779</v>
       </c>
       <c r="T206" s="5" t="n">
         <f aca="false">T205+$AD$186</f>
-        <v>0.401582357793507</v>
+        <v>0.400803137014286</v>
       </c>
       <c r="U206" s="5" t="n">
         <f aca="false">U205+$AE$186</f>
-        <v>0.248632050190909</v>
+        <v>0.247852829411688</v>
       </c>
       <c r="V206" s="5" t="n">
         <f aca="false">V205+$AF$186</f>
@@ -58145,7 +58145,7 @@
       </c>
       <c r="W206" s="5" t="n">
         <f aca="false">W205+$AG$186</f>
-        <v>0.218357020587013</v>
+        <v>0.219915462145455</v>
       </c>
       <c r="X206" s="5"/>
       <c r="Y206" s="5"/>
@@ -58217,7 +58217,7 @@
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="1" t="n">
         <f aca="false">K203-AP203</f>
-        <v>0.0956732668844159</v>
+        <v>0.0950888513000001</v>
       </c>
       <c r="E207" s="0" t="n">
         <f aca="false">E203+1</f>
@@ -58225,7 +58225,7 @@
       </c>
       <c r="K207" s="5" t="n">
         <f aca="false">K206+$Z$185</f>
-        <v>0.393660279871429</v>
+        <v>0.392816124027272</v>
       </c>
       <c r="L207" s="5" t="n">
         <f aca="false">L206+$AA$185</f>
@@ -58233,7 +58233,7 @@
       </c>
       <c r="M207" s="5" t="n">
         <f aca="false">M206+$AB$185</f>
-        <v>0.252787894346753</v>
+        <v>0.251943738502597</v>
       </c>
       <c r="N207" s="5" t="n">
         <f aca="false">N206+$AC$185</f>
@@ -58241,15 +58241,15 @@
       </c>
       <c r="O207" s="5" t="n">
         <f aca="false">O206+$AD$185</f>
-        <v>0.220305072535065</v>
+        <v>0.221993384223377</v>
       </c>
       <c r="P207" s="5" t="n">
         <f aca="false">P206+$Z$186</f>
-        <v>0.383530409741558</v>
+        <v>0.382686253897403</v>
       </c>
       <c r="Q207" s="5" t="n">
         <f aca="false">Q206+$AA$186</f>
-        <v>0.257852829411688</v>
+        <v>0.257008673567532</v>
       </c>
       <c r="R207" s="5" t="n">
         <f aca="false">R206+$AB$186</f>
@@ -58257,15 +58257,15 @@
       </c>
       <c r="S207" s="5" t="n">
         <f aca="false">S206+$AC$186</f>
-        <v>0.222837540067533</v>
+        <v>0.224525851755844</v>
       </c>
       <c r="T207" s="5" t="n">
         <f aca="false">T206+$AD$186</f>
-        <v>0.403790150001299</v>
+        <v>0.402945994157143</v>
       </c>
       <c r="U207" s="5" t="n">
         <f aca="false">U206+$AE$186</f>
-        <v>0.247722959281818</v>
+        <v>0.246878803437662</v>
       </c>
       <c r="V207" s="5" t="n">
         <f aca="false">V206+$AF$186</f>
@@ -58273,7 +58273,7 @@
       </c>
       <c r="W207" s="5" t="n">
         <f aca="false">W206+$AG$186</f>
-        <v>0.217772605002598</v>
+        <v>0.219460916690909</v>
       </c>
       <c r="X207" s="5"/>
       <c r="Y207" s="5"/>
@@ -58345,7 +58345,7 @@
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="1" t="n">
         <f aca="false">K204-AP204</f>
-        <v>0.095738201949351</v>
+        <v>0.0950888513000004</v>
       </c>
       <c r="E208" s="0" t="n">
         <f aca="false">E204+1</f>
@@ -58353,7 +58353,7 @@
       </c>
       <c r="K208" s="5" t="n">
         <f aca="false">K207+$Z$185</f>
-        <v>0.3950888513</v>
+        <v>0.394179760390909</v>
       </c>
       <c r="L208" s="5" t="n">
         <f aca="false">L207+$AA$185</f>
@@ -58361,7 +58361,7 @@
       </c>
       <c r="M208" s="5" t="n">
         <f aca="false">M207+$AB$185</f>
-        <v>0.252268413827272</v>
+        <v>0.251359322918182</v>
       </c>
       <c r="N208" s="5" t="n">
         <f aca="false">N207+$AC$185</f>
@@ -58369,15 +58369,15 @@
       </c>
       <c r="O208" s="5" t="n">
         <f aca="false">O207+$AD$185</f>
-        <v>0.219915462145455</v>
+        <v>0.221733643963636</v>
       </c>
       <c r="P208" s="5" t="n">
         <f aca="false">P207+$Z$186</f>
-        <v>0.384179760390909</v>
+        <v>0.383270669481818</v>
       </c>
       <c r="Q208" s="5" t="n">
         <f aca="false">Q207+$AA$186</f>
-        <v>0.257722959281818</v>
+        <v>0.256813868372727</v>
       </c>
       <c r="R208" s="5" t="n">
         <f aca="false">R207+$AB$186</f>
@@ -58385,15 +58385,15 @@
       </c>
       <c r="S208" s="5" t="n">
         <f aca="false">S207+$AC$186</f>
-        <v>0.222642734872727</v>
+        <v>0.224460916690909</v>
       </c>
       <c r="T208" s="5" t="n">
         <f aca="false">T207+$AD$186</f>
-        <v>0.405997942209091</v>
+        <v>0.4050888513</v>
       </c>
       <c r="U208" s="5" t="n">
         <f aca="false">U207+$AE$186</f>
-        <v>0.246813868372727</v>
+        <v>0.245904777463637</v>
       </c>
       <c r="V208" s="5" t="n">
         <f aca="false">V207+$AF$186</f>
@@ -58401,7 +58401,7 @@
       </c>
       <c r="W208" s="5" t="n">
         <f aca="false">W207+$AG$186</f>
-        <v>0.217188189418182</v>
+        <v>0.219006371236364</v>
       </c>
       <c r="X208" s="5"/>
       <c r="Y208" s="5"/>
@@ -58473,7 +58473,7 @@
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="1" t="n">
         <f aca="false">K205-AP205</f>
-        <v>0.0958031370142861</v>
+        <v>0.0950888512999998</v>
       </c>
       <c r="E209" s="0" t="n">
         <f aca="false">E205+1</f>
@@ -58481,7 +58481,7 @@
       </c>
       <c r="K209" s="5" t="n">
         <f aca="false">K208+$Z$185</f>
-        <v>0.396517422728572</v>
+        <v>0.395543396754545</v>
       </c>
       <c r="L209" s="5" t="n">
         <f aca="false">L208+$AA$185</f>
@@ -58489,7 +58489,7 @@
       </c>
       <c r="M209" s="5" t="n">
         <f aca="false">M208+$AB$185</f>
-        <v>0.251748933307792</v>
+        <v>0.250774907333766</v>
       </c>
       <c r="N209" s="5" t="n">
         <f aca="false">N208+$AC$185</f>
@@ -58497,15 +58497,15 @@
       </c>
       <c r="O209" s="5" t="n">
         <f aca="false">O208+$AD$185</f>
-        <v>0.219525851755844</v>
+        <v>0.221473903703896</v>
       </c>
       <c r="P209" s="5" t="n">
         <f aca="false">P208+$Z$186</f>
-        <v>0.384829111040259</v>
+        <v>0.383855085066234</v>
       </c>
       <c r="Q209" s="5" t="n">
         <f aca="false">Q208+$AA$186</f>
-        <v>0.257593089151948</v>
+        <v>0.256619063177922</v>
       </c>
       <c r="R209" s="5" t="n">
         <f aca="false">R208+$AB$186</f>
@@ -58513,15 +58513,15 @@
       </c>
       <c r="S209" s="5" t="n">
         <f aca="false">S208+$AC$186</f>
-        <v>0.222447929677922</v>
+        <v>0.224395981625974</v>
       </c>
       <c r="T209" s="5" t="n">
         <f aca="false">T208+$AD$186</f>
-        <v>0.408205734416883</v>
+        <v>0.407231708442858</v>
       </c>
       <c r="U209" s="5" t="n">
         <f aca="false">U208+$AE$186</f>
-        <v>0.245904777463636</v>
+        <v>0.244930751489611</v>
       </c>
       <c r="V209" s="5" t="n">
         <f aca="false">V208+$AF$186</f>
@@ -58529,7 +58529,7 @@
       </c>
       <c r="W209" s="5" t="n">
         <f aca="false">W208+$AG$186</f>
-        <v>0.216603773833766</v>
+        <v>0.218551825781818</v>
       </c>
       <c r="X209" s="5"/>
       <c r="Y209" s="5"/>
@@ -58601,7 +58601,7 @@
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="1" t="n">
         <f aca="false">K206-AP206</f>
-        <v>0.0958680720792212</v>
+        <v>0.0950888513000002</v>
       </c>
       <c r="E210" s="0" t="n">
         <f aca="false">E206+1</f>
@@ -58609,7 +58609,7 @@
       </c>
       <c r="K210" s="5" t="n">
         <f aca="false">K209+$Z$185</f>
-        <v>0.397945994157143</v>
+        <v>0.396907033118182</v>
       </c>
       <c r="L210" s="5" t="n">
         <f aca="false">L209+$AA$185</f>
@@ -58617,7 +58617,7 @@
       </c>
       <c r="M210" s="5" t="n">
         <f aca="false">M209+$AB$185</f>
-        <v>0.251229452788311</v>
+        <v>0.250190491749351</v>
       </c>
       <c r="N210" s="5" t="n">
         <f aca="false">N209+$AC$185</f>
@@ -58625,15 +58625,15 @@
       </c>
       <c r="O210" s="5" t="n">
         <f aca="false">O209+$AD$185</f>
-        <v>0.219136241366234</v>
+        <v>0.221214163444156</v>
       </c>
       <c r="P210" s="5" t="n">
         <f aca="false">P209+$Z$186</f>
-        <v>0.38547846168961</v>
+        <v>0.384439500650649</v>
       </c>
       <c r="Q210" s="5" t="n">
         <f aca="false">Q209+$AA$186</f>
-        <v>0.257463219022078</v>
+        <v>0.256424257983117</v>
       </c>
       <c r="R210" s="5" t="n">
         <f aca="false">R209+$AB$186</f>
@@ -58641,15 +58641,15 @@
       </c>
       <c r="S210" s="5" t="n">
         <f aca="false">S209+$AC$186</f>
-        <v>0.222253124483117</v>
+        <v>0.224331046561039</v>
       </c>
       <c r="T210" s="5" t="n">
         <f aca="false">T209+$AD$186</f>
-        <v>0.410413526624675</v>
+        <v>0.409374565585715</v>
       </c>
       <c r="U210" s="5" t="n">
         <f aca="false">U209+$AE$186</f>
-        <v>0.244995686554545</v>
+        <v>0.243956725515585</v>
       </c>
       <c r="V210" s="5" t="n">
         <f aca="false">V209+$AF$186</f>
@@ -58657,7 +58657,7 @@
       </c>
       <c r="W210" s="5" t="n">
         <f aca="false">W209+$AG$186</f>
-        <v>0.216019358249351</v>
+        <v>0.218097280327273</v>
       </c>
       <c r="X210" s="5"/>
       <c r="Y210" s="5"/>
@@ -58729,7 +58729,7 @@
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="1" t="n">
         <f aca="false">K207-AP207</f>
-        <v>0.0959330071441563</v>
+        <v>0.0950888513000005</v>
       </c>
       <c r="E211" s="0" t="n">
         <f aca="false">E207+1</f>
@@ -58737,7 +58737,7 @@
       </c>
       <c r="K211" s="5" t="n">
         <f aca="false">K210+$Z$185</f>
-        <v>0.399374565585715</v>
+        <v>0.398270669481818</v>
       </c>
       <c r="L211" s="5" t="n">
         <f aca="false">L210+$AA$185</f>
@@ -58745,7 +58745,7 @@
       </c>
       <c r="M211" s="5" t="n">
         <f aca="false">M210+$AB$185</f>
-        <v>0.250709972268831</v>
+        <v>0.249606076164935</v>
       </c>
       <c r="N211" s="5" t="n">
         <f aca="false">N210+$AC$185</f>
@@ -58753,15 +58753,15 @@
       </c>
       <c r="O211" s="5" t="n">
         <f aca="false">O210+$AD$185</f>
-        <v>0.218746630976623</v>
+        <v>0.220954423184415</v>
       </c>
       <c r="P211" s="5" t="n">
         <f aca="false">P210+$Z$186</f>
-        <v>0.386127812338961</v>
+        <v>0.385023916235065</v>
       </c>
       <c r="Q211" s="5" t="n">
         <f aca="false">Q210+$AA$186</f>
-        <v>0.257333348892207</v>
+        <v>0.256229452788312</v>
       </c>
       <c r="R211" s="5" t="n">
         <f aca="false">R210+$AB$186</f>
@@ -58769,15 +58769,15 @@
       </c>
       <c r="S211" s="5" t="n">
         <f aca="false">S210+$AC$186</f>
-        <v>0.222058319288312</v>
+        <v>0.224266111496104</v>
       </c>
       <c r="T211" s="5" t="n">
         <f aca="false">T210+$AD$186</f>
-        <v>0.412621318832468</v>
+        <v>0.411517422728572</v>
       </c>
       <c r="U211" s="5" t="n">
         <f aca="false">U210+$AE$186</f>
-        <v>0.244086595645454</v>
+        <v>0.242982699541559</v>
       </c>
       <c r="V211" s="5" t="n">
         <f aca="false">V210+$AF$186</f>
@@ -58785,7 +58785,7 @@
       </c>
       <c r="W211" s="5" t="n">
         <f aca="false">W210+$AG$186</f>
-        <v>0.215434942664935</v>
+        <v>0.217642734872727</v>
       </c>
       <c r="X211" s="5"/>
       <c r="Y211" s="5"/>
@@ -58857,7 +58857,7 @@
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="1" t="n">
         <f aca="false">K208-AP208</f>
-        <v>0.0959979422090914</v>
+        <v>0.0950888512999998</v>
       </c>
       <c r="E212" s="0" t="n">
         <f aca="false">E208+1</f>
@@ -58865,7 +58865,7 @@
       </c>
       <c r="K212" s="5" t="n">
         <f aca="false">K211+$Z$185</f>
-        <v>0.400803137014286</v>
+        <v>0.399634305845454</v>
       </c>
       <c r="L212" s="5" t="n">
         <f aca="false">L211+$AA$185</f>
@@ -58873,7 +58873,7 @@
       </c>
       <c r="M212" s="5" t="n">
         <f aca="false">M211+$AB$185</f>
-        <v>0.25019049174935</v>
+        <v>0.24902166058052</v>
       </c>
       <c r="N212" s="5" t="n">
         <f aca="false">N211+$AC$185</f>
@@ -58881,15 +58881,15 @@
       </c>
       <c r="O212" s="5" t="n">
         <f aca="false">O211+$AD$185</f>
-        <v>0.218357020587013</v>
+        <v>0.220694682924675</v>
       </c>
       <c r="P212" s="5" t="n">
         <f aca="false">P211+$Z$186</f>
-        <v>0.386777162988311</v>
+        <v>0.38560833181948</v>
       </c>
       <c r="Q212" s="5" t="n">
         <f aca="false">Q211+$AA$186</f>
-        <v>0.257203478762337</v>
+        <v>0.256034647593507</v>
       </c>
       <c r="R212" s="5" t="n">
         <f aca="false">R211+$AB$186</f>
@@ -58897,15 +58897,15 @@
       </c>
       <c r="S212" s="5" t="n">
         <f aca="false">S211+$AC$186</f>
-        <v>0.221863514093507</v>
+        <v>0.224201176431169</v>
       </c>
       <c r="T212" s="5" t="n">
         <f aca="false">T211+$AD$186</f>
-        <v>0.41482911104026</v>
+        <v>0.413660279871429</v>
       </c>
       <c r="U212" s="5" t="n">
         <f aca="false">U211+$AE$186</f>
-        <v>0.243177504736363</v>
+        <v>0.242008673567533</v>
       </c>
       <c r="V212" s="5" t="n">
         <f aca="false">V211+$AF$186</f>
@@ -58913,7 +58913,7 @@
       </c>
       <c r="W212" s="5" t="n">
         <f aca="false">W211+$AG$186</f>
-        <v>0.21485052708052</v>
+        <v>0.217188189418182</v>
       </c>
       <c r="X212" s="5"/>
       <c r="Y212" s="5"/>
@@ -58985,7 +58985,7 @@
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="1" t="n">
         <f aca="false">K209-AP209</f>
-        <v>0.0960628772740265</v>
+        <v>0.0950888513000002</v>
       </c>
       <c r="E213" s="0" t="n">
         <f aca="false">E209+1</f>
@@ -58993,7 +58993,7 @@
       </c>
       <c r="K213" s="5" t="n">
         <f aca="false">K212+$Z$185</f>
-        <v>0.402231708442857</v>
+        <v>0.400997942209091</v>
       </c>
       <c r="L213" s="5" t="n">
         <f aca="false">L212+$AA$185</f>
@@ -59001,7 +59001,7 @@
       </c>
       <c r="M213" s="5" t="n">
         <f aca="false">M212+$AB$185</f>
-        <v>0.24967101122987</v>
+        <v>0.248437244996104</v>
       </c>
       <c r="N213" s="5" t="n">
         <f aca="false">N212+$AC$185</f>
@@ -59009,15 +59009,15 @@
       </c>
       <c r="O213" s="5" t="n">
         <f aca="false">O212+$AD$185</f>
-        <v>0.217967410197403</v>
+        <v>0.220434942664935</v>
       </c>
       <c r="P213" s="5" t="n">
         <f aca="false">P212+$Z$186</f>
-        <v>0.387426513637662</v>
+        <v>0.386192747403896</v>
       </c>
       <c r="Q213" s="5" t="n">
         <f aca="false">Q212+$AA$186</f>
-        <v>0.257073608632467</v>
+        <v>0.255839842398701</v>
       </c>
       <c r="R213" s="5" t="n">
         <f aca="false">R212+$AB$186</f>
@@ -59025,15 +59025,15 @@
       </c>
       <c r="S213" s="5" t="n">
         <f aca="false">S212+$AC$186</f>
-        <v>0.221668708898701</v>
+        <v>0.224136241366234</v>
       </c>
       <c r="T213" s="5" t="n">
         <f aca="false">T212+$AD$186</f>
-        <v>0.417036903248052</v>
+        <v>0.415803137014286</v>
       </c>
       <c r="U213" s="5" t="n">
         <f aca="false">U212+$AE$186</f>
-        <v>0.242268413827272</v>
+        <v>0.241034647593507</v>
       </c>
       <c r="V213" s="5" t="n">
         <f aca="false">V212+$AF$186</f>
@@ -59041,7 +59041,7 @@
       </c>
       <c r="W213" s="5" t="n">
         <f aca="false">W212+$AG$186</f>
-        <v>0.214266111496104</v>
+        <v>0.216733643963636</v>
       </c>
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
@@ -59113,7 +59113,7 @@
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="1" t="n">
         <f aca="false">K210-AP210</f>
-        <v>0.0961278123389616</v>
+        <v>0.0950888512999995</v>
       </c>
       <c r="E214" s="0" t="n">
         <f aca="false">E210+1</f>
@@ -59121,7 +59121,7 @@
       </c>
       <c r="K214" s="5" t="n">
         <f aca="false">K213+$Z$185</f>
-        <v>0.403660279871429</v>
+        <v>0.402361578572727</v>
       </c>
       <c r="L214" s="5" t="n">
         <f aca="false">L213+$AA$185</f>
@@ -59129,7 +59129,7 @@
       </c>
       <c r="M214" s="5" t="n">
         <f aca="false">M213+$AB$185</f>
-        <v>0.249151530710389</v>
+        <v>0.247852829411688</v>
       </c>
       <c r="N214" s="5" t="n">
         <f aca="false">N213+$AC$185</f>
@@ -59137,15 +59137,15 @@
       </c>
       <c r="O214" s="5" t="n">
         <f aca="false">O213+$AD$185</f>
-        <v>0.217577799807792</v>
+        <v>0.220175202405195</v>
       </c>
       <c r="P214" s="5" t="n">
         <f aca="false">P213+$Z$186</f>
-        <v>0.388075864287012</v>
+        <v>0.386777162988312</v>
       </c>
       <c r="Q214" s="5" t="n">
         <f aca="false">Q213+$AA$186</f>
-        <v>0.256943738502597</v>
+        <v>0.255645037203896</v>
       </c>
       <c r="R214" s="5" t="n">
         <f aca="false">R213+$AB$186</f>
@@ -59153,15 +59153,15 @@
       </c>
       <c r="S214" s="5" t="n">
         <f aca="false">S213+$AC$186</f>
-        <v>0.221473903703896</v>
+        <v>0.224071306301299</v>
       </c>
       <c r="T214" s="5" t="n">
         <f aca="false">T213+$AD$186</f>
-        <v>0.419244695455844</v>
+        <v>0.417945994157143</v>
       </c>
       <c r="U214" s="5" t="n">
         <f aca="false">U213+$AE$186</f>
-        <v>0.241359322918182</v>
+        <v>0.240060621619481</v>
       </c>
       <c r="V214" s="5" t="n">
         <f aca="false">V213+$AF$186</f>
@@ -59169,7 +59169,7 @@
       </c>
       <c r="W214" s="5" t="n">
         <f aca="false">W213+$AG$186</f>
-        <v>0.213681695911688</v>
+        <v>0.216279098509091</v>
       </c>
       <c r="X214" s="5"/>
       <c r="Y214" s="5"/>
@@ -59241,7 +59241,7 @@
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="1" t="n">
         <f aca="false">K211-AP211</f>
-        <v>0.0961927474038967</v>
+        <v>0.0950888512999999</v>
       </c>
       <c r="E215" s="0" t="n">
         <f aca="false">E211+1</f>
@@ -59249,7 +59249,7 @@
       </c>
       <c r="K215" s="5" t="n">
         <f aca="false">K214+$Z$185</f>
-        <v>0.4050888513</v>
+        <v>0.403725214936363</v>
       </c>
       <c r="L215" s="5" t="n">
         <f aca="false">L214+$AA$185</f>
@@ -59257,7 +59257,7 @@
       </c>
       <c r="M215" s="5" t="n">
         <f aca="false">M214+$AB$185</f>
-        <v>0.248632050190909</v>
+        <v>0.247268413827273</v>
       </c>
       <c r="N215" s="5" t="n">
         <f aca="false">N214+$AC$185</f>
@@ -59265,15 +59265,15 @@
       </c>
       <c r="O215" s="5" t="n">
         <f aca="false">O214+$AD$185</f>
-        <v>0.217188189418182</v>
+        <v>0.219915462145454</v>
       </c>
       <c r="P215" s="5" t="n">
         <f aca="false">P214+$Z$186</f>
-        <v>0.388725214936363</v>
+        <v>0.387361578572727</v>
       </c>
       <c r="Q215" s="5" t="n">
         <f aca="false">Q214+$AA$186</f>
-        <v>0.256813868372727</v>
+        <v>0.255450232009091</v>
       </c>
       <c r="R215" s="5" t="n">
         <f aca="false">R214+$AB$186</f>
@@ -59281,15 +59281,15 @@
       </c>
       <c r="S215" s="5" t="n">
         <f aca="false">S214+$AC$186</f>
-        <v>0.221279098509091</v>
+        <v>0.224006371236363</v>
       </c>
       <c r="T215" s="5" t="n">
         <f aca="false">T214+$AD$186</f>
-        <v>0.421452487663637</v>
+        <v>0.420088851300001</v>
       </c>
       <c r="U215" s="5" t="n">
         <f aca="false">U214+$AE$186</f>
-        <v>0.240450232009091</v>
+        <v>0.239086595645455</v>
       </c>
       <c r="V215" s="5" t="n">
         <f aca="false">V214+$AF$186</f>
@@ -59297,7 +59297,7 @@
       </c>
       <c r="W215" s="5" t="n">
         <f aca="false">W214+$AG$186</f>
-        <v>0.213097280327273</v>
+        <v>0.215824553054545</v>
       </c>
       <c r="X215" s="5"/>
       <c r="Y215" s="5"/>
@@ -59369,7 +59369,7 @@
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="1" t="n">
         <f aca="false">K212-AP212</f>
-        <v>0.0962576824688318</v>
+        <v>0.0950888513000002</v>
       </c>
       <c r="E216" s="0" t="n">
         <f aca="false">E212+1</f>
@@ -59377,7 +59377,7 @@
       </c>
       <c r="K216" s="5" t="n">
         <f aca="false">K215+$Z$185</f>
-        <v>0.406517422728572</v>
+        <v>0.4050888513</v>
       </c>
       <c r="L216" s="5" t="n">
         <f aca="false">L215+$AA$185</f>
@@ -59385,7 +59385,7 @@
       </c>
       <c r="M216" s="5" t="n">
         <f aca="false">M215+$AB$185</f>
-        <v>0.248112569671428</v>
+        <v>0.246683998242857</v>
       </c>
       <c r="N216" s="5" t="n">
         <f aca="false">N215+$AC$185</f>
@@ -59393,15 +59393,15 @@
       </c>
       <c r="O216" s="5" t="n">
         <f aca="false">O215+$AD$185</f>
-        <v>0.216798579028572</v>
+        <v>0.219655721885714</v>
       </c>
       <c r="P216" s="5" t="n">
         <f aca="false">P215+$Z$186</f>
-        <v>0.389374565585714</v>
+        <v>0.387945994157143</v>
       </c>
       <c r="Q216" s="5" t="n">
         <f aca="false">Q215+$AA$186</f>
-        <v>0.256683998242857</v>
+        <v>0.255255426814286</v>
       </c>
       <c r="R216" s="5" t="n">
         <f aca="false">R215+$AB$186</f>
@@ -59409,15 +59409,15 @@
       </c>
       <c r="S216" s="5" t="n">
         <f aca="false">S215+$AC$186</f>
-        <v>0.221084293314286</v>
+        <v>0.223941436171428</v>
       </c>
       <c r="T216" s="5" t="n">
         <f aca="false">T215+$AD$186</f>
-        <v>0.423660279871429</v>
+        <v>0.422231708442858</v>
       </c>
       <c r="U216" s="5" t="n">
         <f aca="false">U215+$AE$186</f>
-        <v>0.2395411411</v>
+        <v>0.238112569671429</v>
       </c>
       <c r="V216" s="5" t="n">
         <f aca="false">V215+$AF$186</f>
@@ -59425,7 +59425,7 @@
       </c>
       <c r="W216" s="5" t="n">
         <f aca="false">W215+$AG$186</f>
-        <v>0.212512864742857</v>
+        <v>0.2153700076</v>
       </c>
       <c r="X216" s="5"/>
       <c r="Y216" s="5"/>
@@ -59497,7 +59497,7 @@
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="1" t="n">
         <f aca="false">K213-AP213</f>
-        <v>0.0963226175337669</v>
+        <v>0.0950888512999996</v>
       </c>
       <c r="E217" s="0" t="n">
         <f aca="false">E213+1</f>
@@ -59505,7 +59505,7 @@
       </c>
       <c r="K217" s="5" t="n">
         <f aca="false">K216+$Z$185</f>
-        <v>0.407945994157143</v>
+        <v>0.406452487663636</v>
       </c>
       <c r="L217" s="5" t="n">
         <f aca="false">L216+$AA$185</f>
@@ -59513,7 +59513,7 @@
       </c>
       <c r="M217" s="5" t="n">
         <f aca="false">M216+$AB$185</f>
-        <v>0.247593089151948</v>
+        <v>0.246099582658442</v>
       </c>
       <c r="N217" s="5" t="n">
         <f aca="false">N216+$AC$185</f>
@@ -59521,15 +59521,15 @@
       </c>
       <c r="O217" s="5" t="n">
         <f aca="false">O216+$AD$185</f>
-        <v>0.216408968638961</v>
+        <v>0.219395981625974</v>
       </c>
       <c r="P217" s="5" t="n">
         <f aca="false">P216+$Z$186</f>
-        <v>0.390023916235064</v>
+        <v>0.388530409741558</v>
       </c>
       <c r="Q217" s="5" t="n">
         <f aca="false">Q216+$AA$186</f>
-        <v>0.256554128112987</v>
+        <v>0.255060621619481</v>
       </c>
       <c r="R217" s="5" t="n">
         <f aca="false">R216+$AB$186</f>
@@ -59537,15 +59537,15 @@
       </c>
       <c r="S217" s="5" t="n">
         <f aca="false">S216+$AC$186</f>
-        <v>0.220889488119481</v>
+        <v>0.223876501106493</v>
       </c>
       <c r="T217" s="5" t="n">
         <f aca="false">T216+$AD$186</f>
-        <v>0.425868072079221</v>
+        <v>0.424374565585715</v>
       </c>
       <c r="U217" s="5" t="n">
         <f aca="false">U216+$AE$186</f>
-        <v>0.238632050190909</v>
+        <v>0.237138543697403</v>
       </c>
       <c r="V217" s="5" t="n">
         <f aca="false">V216+$AF$186</f>
@@ -59553,7 +59553,7 @@
       </c>
       <c r="W217" s="5" t="n">
         <f aca="false">W216+$AG$186</f>
-        <v>0.211928449158442</v>
+        <v>0.214915462145454</v>
       </c>
       <c r="X217" s="5"/>
       <c r="Y217" s="5"/>
@@ -59625,7 +59625,7 @@
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="1" t="n">
         <f aca="false">K214-AP214</f>
-        <v>0.096387552598702</v>
+        <v>0.0950888512999999</v>
       </c>
       <c r="E218" s="0" t="n">
         <f aca="false">E214+1</f>
@@ -59633,7 +59633,7 @@
       </c>
       <c r="K218" s="5" t="n">
         <f aca="false">K217+$Z$185</f>
-        <v>0.409374565585715</v>
+        <v>0.407816124027272</v>
       </c>
       <c r="L218" s="5" t="n">
         <f aca="false">L217+$AA$185</f>
@@ -59641,7 +59641,7 @@
       </c>
       <c r="M218" s="5" t="n">
         <f aca="false">M217+$AB$185</f>
-        <v>0.247073608632467</v>
+        <v>0.245515167074026</v>
       </c>
       <c r="N218" s="5" t="n">
         <f aca="false">N217+$AC$185</f>
@@ -59649,15 +59649,15 @@
       </c>
       <c r="O218" s="5" t="n">
         <f aca="false">O217+$AD$185</f>
-        <v>0.216019358249351</v>
+        <v>0.219136241366234</v>
       </c>
       <c r="P218" s="5" t="n">
         <f aca="false">P217+$Z$186</f>
-        <v>0.390673266884415</v>
+        <v>0.389114825325974</v>
       </c>
       <c r="Q218" s="5" t="n">
         <f aca="false">Q217+$AA$186</f>
-        <v>0.256424257983116</v>
+        <v>0.254865816424675</v>
       </c>
       <c r="R218" s="5" t="n">
         <f aca="false">R217+$AB$186</f>
@@ -59665,15 +59665,15 @@
       </c>
       <c r="S218" s="5" t="n">
         <f aca="false">S217+$AC$186</f>
-        <v>0.220694682924675</v>
+        <v>0.223811566041558</v>
       </c>
       <c r="T218" s="5" t="n">
         <f aca="false">T217+$AD$186</f>
-        <v>0.428075864287013</v>
+        <v>0.426517422728572</v>
       </c>
       <c r="U218" s="5" t="n">
         <f aca="false">U217+$AE$186</f>
-        <v>0.237722959281818</v>
+        <v>0.236164517723377</v>
       </c>
       <c r="V218" s="5" t="n">
         <f aca="false">V217+$AF$186</f>
@@ -59681,7 +59681,7 @@
       </c>
       <c r="W218" s="5" t="n">
         <f aca="false">W217+$AG$186</f>
-        <v>0.211344033574026</v>
+        <v>0.214460916690909</v>
       </c>
       <c r="X218" s="5"/>
       <c r="Y218" s="5"/>
@@ -59753,7 +59753,7 @@
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="1" t="n">
         <f aca="false">K215-AP215</f>
-        <v>0.0964524876636371</v>
+        <v>0.0950888513000002</v>
       </c>
       <c r="E219" s="0" t="n">
         <f aca="false">E215+1</f>
@@ -59761,7 +59761,7 @@
       </c>
       <c r="K219" s="5" t="n">
         <f aca="false">K218+$Z$185</f>
-        <v>0.410803137014286</v>
+        <v>0.409179760390909</v>
       </c>
       <c r="L219" s="5" t="n">
         <f aca="false">L218+$AA$185</f>
@@ -59769,7 +59769,7 @@
       </c>
       <c r="M219" s="5" t="n">
         <f aca="false">M218+$AB$185</f>
-        <v>0.246554128112987</v>
+        <v>0.244930751489611</v>
       </c>
       <c r="N219" s="5" t="n">
         <f aca="false">N218+$AC$185</f>
@@ -59777,15 +59777,15 @@
       </c>
       <c r="O219" s="5" t="n">
         <f aca="false">O218+$AD$185</f>
-        <v>0.21562974785974</v>
+        <v>0.218876501106493</v>
       </c>
       <c r="P219" s="5" t="n">
         <f aca="false">P218+$Z$186</f>
-        <v>0.391322617533766</v>
+        <v>0.389699240910389</v>
       </c>
       <c r="Q219" s="5" t="n">
         <f aca="false">Q218+$AA$186</f>
-        <v>0.256294387853246</v>
+        <v>0.25467101122987</v>
       </c>
       <c r="R219" s="5" t="n">
         <f aca="false">R218+$AB$186</f>
@@ -59793,15 +59793,15 @@
       </c>
       <c r="S219" s="5" t="n">
         <f aca="false">S218+$AC$186</f>
-        <v>0.22049987772987</v>
+        <v>0.223746630976623</v>
       </c>
       <c r="T219" s="5" t="n">
         <f aca="false">T218+$AD$186</f>
-        <v>0.430283656494805</v>
+        <v>0.428660279871429</v>
       </c>
       <c r="U219" s="5" t="n">
         <f aca="false">U218+$AE$186</f>
-        <v>0.236813868372727</v>
+        <v>0.235190491749351</v>
       </c>
       <c r="V219" s="5" t="n">
         <f aca="false">V218+$AF$186</f>
@@ -59809,7 +59809,7 @@
       </c>
       <c r="W219" s="5" t="n">
         <f aca="false">W218+$AG$186</f>
-        <v>0.210759617989611</v>
+        <v>0.214006371236364</v>
       </c>
       <c r="X219" s="5"/>
       <c r="Y219" s="5"/>
@@ -59881,7 +59881,7 @@
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="1" t="n">
         <f aca="false">K216-AP216</f>
-        <v>0.0965174227285722</v>
+        <v>0.0950888512999996</v>
       </c>
       <c r="E220" s="0" t="n">
         <f aca="false">E216+1</f>
@@ -59889,7 +59889,7 @@
       </c>
       <c r="K220" s="5" t="n">
         <f aca="false">K219+$Z$185</f>
-        <v>0.412231708442858</v>
+        <v>0.410543396754545</v>
       </c>
       <c r="L220" s="5" t="n">
         <f aca="false">L219+$AA$185</f>
@@ -59897,7 +59897,7 @@
       </c>
       <c r="M220" s="5" t="n">
         <f aca="false">M219+$AB$185</f>
-        <v>0.246034647593506</v>
+        <v>0.244346335905195</v>
       </c>
       <c r="N220" s="5" t="n">
         <f aca="false">N219+$AC$185</f>
@@ -59905,15 +59905,15 @@
       </c>
       <c r="O220" s="5" t="n">
         <f aca="false">O219+$AD$185</f>
-        <v>0.21524013747013</v>
+        <v>0.218616760846753</v>
       </c>
       <c r="P220" s="5" t="n">
         <f aca="false">P219+$Z$186</f>
-        <v>0.391971968183116</v>
+        <v>0.390283656494805</v>
       </c>
       <c r="Q220" s="5" t="n">
         <f aca="false">Q219+$AA$186</f>
-        <v>0.256164517723376</v>
+        <v>0.254476206035065</v>
       </c>
       <c r="R220" s="5" t="n">
         <f aca="false">R219+$AB$186</f>
@@ -59921,15 +59921,15 @@
       </c>
       <c r="S220" s="5" t="n">
         <f aca="false">S219+$AC$186</f>
-        <v>0.220305072535065</v>
+        <v>0.223681695911688</v>
       </c>
       <c r="T220" s="5" t="n">
         <f aca="false">T219+$AD$186</f>
-        <v>0.432491448702598</v>
+        <v>0.430803137014286</v>
       </c>
       <c r="U220" s="5" t="n">
         <f aca="false">U219+$AE$186</f>
-        <v>0.235904777463636</v>
+        <v>0.234216465775325</v>
       </c>
       <c r="V220" s="5" t="n">
         <f aca="false">V219+$AF$186</f>
@@ -59937,7 +59937,7 @@
       </c>
       <c r="W220" s="5" t="n">
         <f aca="false">W219+$AG$186</f>
-        <v>0.210175202405195</v>
+        <v>0.213551825781818</v>
       </c>
       <c r="X220" s="5"/>
       <c r="Y220" s="5"/>
@@ -60009,7 +60009,7 @@
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="1" t="n">
         <f aca="false">K217-AP217</f>
-        <v>0.0965823577935073</v>
+        <v>0.0950888512999999</v>
       </c>
       <c r="E221" s="0" t="n">
         <f aca="false">E217+1</f>
@@ -60017,7 +60017,7 @@
       </c>
       <c r="K221" s="5" t="n">
         <f aca="false">K220+$Z$185</f>
-        <v>0.413660279871429</v>
+        <v>0.411907033118181</v>
       </c>
       <c r="L221" s="5" t="n">
         <f aca="false">L220+$AA$185</f>
@@ -60025,7 +60025,7 @@
       </c>
       <c r="M221" s="5" t="n">
         <f aca="false">M220+$AB$185</f>
-        <v>0.245515167074026</v>
+        <v>0.243761920320779</v>
       </c>
       <c r="N221" s="5" t="n">
         <f aca="false">N220+$AC$185</f>
@@ -60033,15 +60033,15 @@
       </c>
       <c r="O221" s="5" t="n">
         <f aca="false">O220+$AD$185</f>
-        <v>0.21485052708052</v>
+        <v>0.218357020587013</v>
       </c>
       <c r="P221" s="5" t="n">
         <f aca="false">P220+$Z$186</f>
-        <v>0.392621318832467</v>
+        <v>0.390868072079221</v>
       </c>
       <c r="Q221" s="5" t="n">
         <f aca="false">Q220+$AA$186</f>
-        <v>0.256034647593506</v>
+        <v>0.25428140084026</v>
       </c>
       <c r="R221" s="5" t="n">
         <f aca="false">R220+$AB$186</f>
@@ -60049,15 +60049,15 @@
       </c>
       <c r="S221" s="5" t="n">
         <f aca="false">S220+$AC$186</f>
-        <v>0.22011026734026</v>
+        <v>0.223616760846753</v>
       </c>
       <c r="T221" s="5" t="n">
         <f aca="false">T220+$AD$186</f>
-        <v>0.43469924091039</v>
+        <v>0.432945994157144</v>
       </c>
       <c r="U221" s="5" t="n">
         <f aca="false">U220+$AE$186</f>
-        <v>0.234995686554545</v>
+        <v>0.233242439801299</v>
       </c>
       <c r="V221" s="5" t="n">
         <f aca="false">V220+$AF$186</f>
@@ -60065,7 +60065,7 @@
       </c>
       <c r="W221" s="5" t="n">
         <f aca="false">W220+$AG$186</f>
-        <v>0.209590786820779</v>
+        <v>0.213097280327273</v>
       </c>
       <c r="X221" s="5"/>
       <c r="Y221" s="5"/>
@@ -60137,7 +60137,7 @@
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="1" t="n">
         <f aca="false">K218-AP218</f>
-        <v>0.0966472928584424</v>
+        <v>0.0950888513000003</v>
       </c>
       <c r="E222" s="0" t="n">
         <f aca="false">E218+1</f>
@@ -60145,7 +60145,7 @@
       </c>
       <c r="K222" s="5" t="n">
         <f aca="false">K221+$Z$185</f>
-        <v>0.4150888513</v>
+        <v>0.413270669481818</v>
       </c>
       <c r="L222" s="5" t="n">
         <f aca="false">L221+$AA$185</f>
@@ -60153,7 +60153,7 @@
       </c>
       <c r="M222" s="5" t="n">
         <f aca="false">M221+$AB$185</f>
-        <v>0.244995686554545</v>
+        <v>0.243177504736364</v>
       </c>
       <c r="N222" s="5" t="n">
         <f aca="false">N221+$AC$185</f>
@@ -60161,15 +60161,15 @@
       </c>
       <c r="O222" s="5" t="n">
         <f aca="false">O221+$AD$185</f>
-        <v>0.214460916690909</v>
+        <v>0.218097280327273</v>
       </c>
       <c r="P222" s="5" t="n">
         <f aca="false">P221+$Z$186</f>
-        <v>0.393270669481817</v>
+        <v>0.391452487663636</v>
       </c>
       <c r="Q222" s="5" t="n">
         <f aca="false">Q221+$AA$186</f>
-        <v>0.255904777463636</v>
+        <v>0.254086595645455</v>
       </c>
       <c r="R222" s="5" t="n">
         <f aca="false">R221+$AB$186</f>
@@ -60177,15 +60177,15 @@
       </c>
       <c r="S222" s="5" t="n">
         <f aca="false">S221+$AC$186</f>
-        <v>0.219915462145455</v>
+        <v>0.223551825781818</v>
       </c>
       <c r="T222" s="5" t="n">
         <f aca="false">T221+$AD$186</f>
-        <v>0.436907033118182</v>
+        <v>0.435088851300001</v>
       </c>
       <c r="U222" s="5" t="n">
         <f aca="false">U221+$AE$186</f>
-        <v>0.234086595645454</v>
+        <v>0.232268413827273</v>
       </c>
       <c r="V222" s="5" t="n">
         <f aca="false">V221+$AF$186</f>
@@ -60193,7 +60193,7 @@
       </c>
       <c r="W222" s="5" t="n">
         <f aca="false">W221+$AG$186</f>
-        <v>0.209006371236364</v>
+        <v>0.212642734872727</v>
       </c>
       <c r="X222" s="5"/>
       <c r="Y222" s="5"/>
@@ -60265,7 +60265,7 @@
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="1" t="n">
         <f aca="false">K219-AP219</f>
-        <v>0.0967122279233775</v>
+        <v>0.0950888512999996</v>
       </c>
       <c r="E223" s="0" t="n">
         <f aca="false">E219+1</f>
@@ -60273,7 +60273,7 @@
       </c>
       <c r="K223" s="5" t="n">
         <f aca="false">K222+$Z$185</f>
-        <v>0.416517422728572</v>
+        <v>0.414634305845454</v>
       </c>
       <c r="L223" s="5" t="n">
         <f aca="false">L222+$AA$185</f>
@@ -60281,7 +60281,7 @@
       </c>
       <c r="M223" s="5" t="n">
         <f aca="false">M222+$AB$185</f>
-        <v>0.244476206035065</v>
+        <v>0.242593089151948</v>
       </c>
       <c r="N223" s="5" t="n">
         <f aca="false">N222+$AC$185</f>
@@ -60289,15 +60289,15 @@
       </c>
       <c r="O223" s="5" t="n">
         <f aca="false">O222+$AD$185</f>
-        <v>0.214071306301299</v>
+        <v>0.217837540067532</v>
       </c>
       <c r="P223" s="5" t="n">
         <f aca="false">P222+$Z$186</f>
-        <v>0.393920020131168</v>
+        <v>0.392036903248052</v>
       </c>
       <c r="Q223" s="5" t="n">
         <f aca="false">Q222+$AA$186</f>
-        <v>0.255774907333766</v>
+        <v>0.253891790450649</v>
       </c>
       <c r="R223" s="5" t="n">
         <f aca="false">R222+$AB$186</f>
@@ -60305,15 +60305,15 @@
       </c>
       <c r="S223" s="5" t="n">
         <f aca="false">S222+$AC$186</f>
-        <v>0.219720656950649</v>
+        <v>0.223486890716883</v>
       </c>
       <c r="T223" s="5" t="n">
         <f aca="false">T222+$AD$186</f>
-        <v>0.439114825325974</v>
+        <v>0.437231708442858</v>
       </c>
       <c r="U223" s="5" t="n">
         <f aca="false">U222+$AE$186</f>
-        <v>0.233177504736363</v>
+        <v>0.231294387853247</v>
       </c>
       <c r="V223" s="5" t="n">
         <f aca="false">V222+$AF$186</f>
@@ -60321,7 +60321,7 @@
       </c>
       <c r="W223" s="5" t="n">
         <f aca="false">W222+$AG$186</f>
-        <v>0.208421955651948</v>
+        <v>0.212188189418182</v>
       </c>
       <c r="X223" s="5"/>
       <c r="Y223" s="5"/>
@@ -60393,7 +60393,7 @@
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="1" t="n">
         <f aca="false">K220-AP220</f>
-        <v>0.0967771629883126</v>
+        <v>0.0950888512999999</v>
       </c>
       <c r="E224" s="0" t="n">
         <f aca="false">E220+1</f>
@@ -60401,7 +60401,7 @@
       </c>
       <c r="K224" s="5" t="n">
         <f aca="false">K223+$Z$185</f>
-        <v>0.417945994157143</v>
+        <v>0.41599794220909</v>
       </c>
       <c r="L224" s="5" t="n">
         <f aca="false">L223+$AA$185</f>
@@ -60409,7 +60409,7 @@
       </c>
       <c r="M224" s="5" t="n">
         <f aca="false">M223+$AB$185</f>
-        <v>0.243956725515584</v>
+        <v>0.242008673567533</v>
       </c>
       <c r="N224" s="5" t="n">
         <f aca="false">N223+$AC$185</f>
@@ -60417,15 +60417,15 @@
       </c>
       <c r="O224" s="5" t="n">
         <f aca="false">O223+$AD$185</f>
-        <v>0.213681695911688</v>
+        <v>0.217577799807792</v>
       </c>
       <c r="P224" s="5" t="n">
         <f aca="false">P223+$Z$186</f>
-        <v>0.394569370780519</v>
+        <v>0.392621318832467</v>
       </c>
       <c r="Q224" s="5" t="n">
         <f aca="false">Q223+$AA$186</f>
-        <v>0.255645037203895</v>
+        <v>0.253696985255844</v>
       </c>
       <c r="R224" s="5" t="n">
         <f aca="false">R223+$AB$186</f>
@@ -60433,15 +60433,15 @@
       </c>
       <c r="S224" s="5" t="n">
         <f aca="false">S223+$AC$186</f>
-        <v>0.219525851755844</v>
+        <v>0.223421955651948</v>
       </c>
       <c r="T224" s="5" t="n">
         <f aca="false">T223+$AD$186</f>
-        <v>0.441322617533766</v>
+        <v>0.439374565585715</v>
       </c>
       <c r="U224" s="5" t="n">
         <f aca="false">U223+$AE$186</f>
-        <v>0.232268413827272</v>
+        <v>0.230320361879221</v>
       </c>
       <c r="V224" s="5" t="n">
         <f aca="false">V223+$AF$186</f>
@@ -60449,7 +60449,7 @@
       </c>
       <c r="W224" s="5" t="n">
         <f aca="false">W223+$AG$186</f>
-        <v>0.207837540067533</v>
+        <v>0.211733643963636</v>
       </c>
       <c r="X224" s="5"/>
       <c r="Y224" s="5"/>
@@ -60521,7 +60521,7 @@
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="1" t="n">
         <f aca="false">K221-AP221</f>
-        <v>0.0968420980532477</v>
+        <v>0.0950888513000003</v>
       </c>
       <c r="E225" s="0" t="n">
         <f aca="false">E221+1</f>
@@ -60529,7 +60529,7 @@
       </c>
       <c r="K225" s="5" t="n">
         <f aca="false">K224+$Z$185</f>
-        <v>0.419374565585715</v>
+        <v>0.417361578572727</v>
       </c>
       <c r="L225" s="5" t="n">
         <f aca="false">L224+$AA$185</f>
@@ -60537,7 +60537,7 @@
       </c>
       <c r="M225" s="5" t="n">
         <f aca="false">M224+$AB$185</f>
-        <v>0.243437244996103</v>
+        <v>0.241424257983117</v>
       </c>
       <c r="N225" s="5" t="n">
         <f aca="false">N224+$AC$185</f>
@@ -60545,15 +60545,15 @@
       </c>
       <c r="O225" s="5" t="n">
         <f aca="false">O224+$AD$185</f>
-        <v>0.213292085522078</v>
+        <v>0.217318059548052</v>
       </c>
       <c r="P225" s="5" t="n">
         <f aca="false">P224+$Z$186</f>
-        <v>0.395218721429869</v>
+        <v>0.393205734416883</v>
       </c>
       <c r="Q225" s="5" t="n">
         <f aca="false">Q224+$AA$186</f>
-        <v>0.255515167074025</v>
+        <v>0.253502180061039</v>
       </c>
       <c r="R225" s="5" t="n">
         <f aca="false">R224+$AB$186</f>
@@ -60561,15 +60561,15 @@
       </c>
       <c r="S225" s="5" t="n">
         <f aca="false">S224+$AC$186</f>
-        <v>0.219331046561039</v>
+        <v>0.223357020587013</v>
       </c>
       <c r="T225" s="5" t="n">
         <f aca="false">T224+$AD$186</f>
-        <v>0.443530409741559</v>
+        <v>0.441517422728572</v>
       </c>
       <c r="U225" s="5" t="n">
         <f aca="false">U224+$AE$186</f>
-        <v>0.231359322918182</v>
+        <v>0.229346335905195</v>
       </c>
       <c r="V225" s="5" t="n">
         <f aca="false">V224+$AF$186</f>
@@ -60577,7 +60577,7 @@
       </c>
       <c r="W225" s="5" t="n">
         <f aca="false">W224+$AG$186</f>
-        <v>0.207253124483117</v>
+        <v>0.211279098509091</v>
       </c>
       <c r="X225" s="5"/>
       <c r="Y225" s="5"/>
@@ -60649,7 +60649,7 @@
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="1" t="n">
         <f aca="false">K222-AP222</f>
-        <v>0.0969070331181828</v>
+        <v>0.0950888512999997</v>
       </c>
       <c r="E226" s="0" t="n">
         <f aca="false">E222+1</f>
@@ -60657,7 +60657,7 @@
       </c>
       <c r="K226" s="5" t="n">
         <f aca="false">K225+$Z$185</f>
-        <v>0.420803137014286</v>
+        <v>0.418725214936363</v>
       </c>
       <c r="L226" s="5" t="n">
         <f aca="false">L225+$AA$185</f>
@@ -60665,7 +60665,7 @@
       </c>
       <c r="M226" s="5" t="n">
         <f aca="false">M225+$AB$185</f>
-        <v>0.242917764476623</v>
+        <v>0.240839842398702</v>
       </c>
       <c r="N226" s="5" t="n">
         <f aca="false">N225+$AC$185</f>
@@ -60673,15 +60673,15 @@
       </c>
       <c r="O226" s="5" t="n">
         <f aca="false">O225+$AD$185</f>
-        <v>0.212902475132468</v>
+        <v>0.217058319288311</v>
       </c>
       <c r="P226" s="5" t="n">
         <f aca="false">P225+$Z$186</f>
-        <v>0.39586807207922</v>
+        <v>0.393790150001298</v>
       </c>
       <c r="Q226" s="5" t="n">
         <f aca="false">Q225+$AA$186</f>
-        <v>0.255385296944155</v>
+        <v>0.253307374866234</v>
       </c>
       <c r="R226" s="5" t="n">
         <f aca="false">R225+$AB$186</f>
@@ -60689,15 +60689,15 @@
       </c>
       <c r="S226" s="5" t="n">
         <f aca="false">S225+$AC$186</f>
-        <v>0.219136241366234</v>
+        <v>0.223292085522078</v>
       </c>
       <c r="T226" s="5" t="n">
         <f aca="false">T225+$AD$186</f>
-        <v>0.445738201949351</v>
+        <v>0.443660279871429</v>
       </c>
       <c r="U226" s="5" t="n">
         <f aca="false">U225+$AE$186</f>
-        <v>0.230450232009091</v>
+        <v>0.228372309931169</v>
       </c>
       <c r="V226" s="5" t="n">
         <f aca="false">V225+$AF$186</f>
@@ -60705,7 +60705,7 @@
       </c>
       <c r="W226" s="5" t="n">
         <f aca="false">W225+$AG$186</f>
-        <v>0.206668708898702</v>
+        <v>0.210824553054545</v>
       </c>
       <c r="X226" s="5"/>
       <c r="Y226" s="5"/>
@@ -60777,7 +60777,7 @@
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="1" t="n">
         <f aca="false">K223-AP223</f>
-        <v>0.0969719681831179</v>
+        <v>0.0950888513</v>
       </c>
       <c r="E227" s="0" t="n">
         <f aca="false">E223+1</f>
@@ -60785,7 +60785,7 @@
       </c>
       <c r="K227" s="5" t="n">
         <f aca="false">K226+$Z$185</f>
-        <v>0.422231708442858</v>
+        <v>0.420088851299999</v>
       </c>
       <c r="L227" s="5" t="n">
         <f aca="false">L226+$AA$185</f>
@@ -60793,7 +60793,7 @@
       </c>
       <c r="M227" s="5" t="n">
         <f aca="false">M226+$AB$185</f>
-        <v>0.242398283957142</v>
+        <v>0.240255426814286</v>
       </c>
       <c r="N227" s="5" t="n">
         <f aca="false">N226+$AC$185</f>
@@ -60801,15 +60801,15 @@
       </c>
       <c r="O227" s="5" t="n">
         <f aca="false">O226+$AD$185</f>
-        <v>0.212512864742857</v>
+        <v>0.216798579028571</v>
       </c>
       <c r="P227" s="5" t="n">
         <f aca="false">P226+$Z$186</f>
-        <v>0.39651742272857</v>
+        <v>0.394374565585714</v>
       </c>
       <c r="Q227" s="5" t="n">
         <f aca="false">Q226+$AA$186</f>
-        <v>0.255255426814285</v>
+        <v>0.253112569671429</v>
       </c>
       <c r="R227" s="5" t="n">
         <f aca="false">R226+$AB$186</f>
@@ -60817,15 +60817,15 @@
       </c>
       <c r="S227" s="5" t="n">
         <f aca="false">S226+$AC$186</f>
-        <v>0.218941436171429</v>
+        <v>0.223227150457143</v>
       </c>
       <c r="T227" s="5" t="n">
         <f aca="false">T226+$AD$186</f>
-        <v>0.447945994157143</v>
+        <v>0.445803137014287</v>
       </c>
       <c r="U227" s="5" t="n">
         <f aca="false">U226+$AE$186</f>
-        <v>0.2295411411</v>
+        <v>0.227398283957143</v>
       </c>
       <c r="V227" s="5" t="n">
         <f aca="false">V226+$AF$186</f>
@@ -60833,7 +60833,7 @@
       </c>
       <c r="W227" s="5" t="n">
         <f aca="false">W226+$AG$186</f>
-        <v>0.206084293314286</v>
+        <v>0.2103700076</v>
       </c>
       <c r="X227" s="5"/>
       <c r="Y227" s="5"/>
@@ -60905,7 +60905,7 @@
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="1" t="n">
         <f aca="false">K224-AP224</f>
-        <v>0.097036903248053</v>
+        <v>0.0950888513000004</v>
       </c>
       <c r="E228" s="0" t="n">
         <f aca="false">E224+1</f>
@@ -60913,7 +60913,7 @@
       </c>
       <c r="K228" s="5" t="n">
         <f aca="false">K227+$Z$185</f>
-        <v>0.423660279871429</v>
+        <v>0.421452487663636</v>
       </c>
       <c r="L228" s="5" t="n">
         <f aca="false">L227+$AA$185</f>
@@ -60921,7 +60921,7 @@
       </c>
       <c r="M228" s="5" t="n">
         <f aca="false">M227+$AB$185</f>
-        <v>0.241878803437662</v>
+        <v>0.23967101122987</v>
       </c>
       <c r="N228" s="5" t="n">
         <f aca="false">N227+$AC$185</f>
@@ -60929,15 +60929,15 @@
       </c>
       <c r="O228" s="5" t="n">
         <f aca="false">O227+$AD$185</f>
-        <v>0.212123254353247</v>
+        <v>0.216538838768831</v>
       </c>
       <c r="P228" s="5" t="n">
         <f aca="false">P227+$Z$186</f>
-        <v>0.397166773377921</v>
+        <v>0.39495898117013</v>
       </c>
       <c r="Q228" s="5" t="n">
         <f aca="false">Q227+$AA$186</f>
-        <v>0.255125556684415</v>
+        <v>0.252917764476623</v>
       </c>
       <c r="R228" s="5" t="n">
         <f aca="false">R227+$AB$186</f>
@@ -60945,15 +60945,15 @@
       </c>
       <c r="S228" s="5" t="n">
         <f aca="false">S227+$AC$186</f>
-        <v>0.218746630976623</v>
+        <v>0.223162215392207</v>
       </c>
       <c r="T228" s="5" t="n">
         <f aca="false">T227+$AD$186</f>
-        <v>0.450153786364935</v>
+        <v>0.447945994157144</v>
       </c>
       <c r="U228" s="5" t="n">
         <f aca="false">U227+$AE$186</f>
-        <v>0.228632050190909</v>
+        <v>0.226424257983117</v>
       </c>
       <c r="V228" s="5" t="n">
         <f aca="false">V227+$AF$186</f>
@@ -60961,7 +60961,7 @@
       </c>
       <c r="W228" s="5" t="n">
         <f aca="false">W227+$AG$186</f>
-        <v>0.20549987772987</v>
+        <v>0.209915462145454</v>
       </c>
       <c r="X228" s="5"/>
       <c r="Y228" s="5"/>
@@ -61033,7 +61033,7 @@
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="1" t="n">
         <f aca="false">K225-AP225</f>
-        <v>0.0971018383129881</v>
+        <v>0.0950888512999997</v>
       </c>
       <c r="E229" s="0" t="n">
         <f aca="false">E225+1</f>
@@ -61041,7 +61041,7 @@
       </c>
       <c r="K229" s="5" t="n">
         <f aca="false">K228+$Z$185</f>
-        <v>0.425088851300001</v>
+        <v>0.422816124027272</v>
       </c>
       <c r="L229" s="5" t="n">
         <f aca="false">L228+$AA$185</f>
@@ -61049,7 +61049,7 @@
       </c>
       <c r="M229" s="5" t="n">
         <f aca="false">M228+$AB$185</f>
-        <v>0.241359322918181</v>
+        <v>0.239086595645455</v>
       </c>
       <c r="N229" s="5" t="n">
         <f aca="false">N228+$AC$185</f>
@@ -61057,15 +61057,15 @@
       </c>
       <c r="O229" s="5" t="n">
         <f aca="false">O228+$AD$185</f>
-        <v>0.211733643963637</v>
+        <v>0.216279098509091</v>
       </c>
       <c r="P229" s="5" t="n">
         <f aca="false">P228+$Z$186</f>
-        <v>0.397816124027272</v>
+        <v>0.395543396754545</v>
       </c>
       <c r="Q229" s="5" t="n">
         <f aca="false">Q228+$AA$186</f>
-        <v>0.254995686554545</v>
+        <v>0.252722959281818</v>
       </c>
       <c r="R229" s="5" t="n">
         <f aca="false">R228+$AB$186</f>
@@ -61073,15 +61073,15 @@
       </c>
       <c r="S229" s="5" t="n">
         <f aca="false">S228+$AC$186</f>
-        <v>0.218551825781818</v>
+        <v>0.223097280327272</v>
       </c>
       <c r="T229" s="5" t="n">
         <f aca="false">T228+$AD$186</f>
-        <v>0.452361578572728</v>
+        <v>0.450088851300001</v>
       </c>
       <c r="U229" s="5" t="n">
         <f aca="false">U228+$AE$186</f>
-        <v>0.227722959281818</v>
+        <v>0.225450232009091</v>
       </c>
       <c r="V229" s="5" t="n">
         <f aca="false">V228+$AF$186</f>
@@ -61089,7 +61089,7 @@
       </c>
       <c r="W229" s="5" t="n">
         <f aca="false">W228+$AG$186</f>
-        <v>0.204915462145455</v>
+        <v>0.209460916690909</v>
       </c>
       <c r="X229" s="5"/>
       <c r="Y229" s="5"/>
@@ -61161,7 +61161,7 @@
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="1" t="n">
         <f aca="false">K226-AP226</f>
-        <v>0.0971667733779232</v>
+        <v>0.0950888513000001</v>
       </c>
       <c r="E230" s="0" t="n">
         <f aca="false">E226+1</f>
@@ -61169,7 +61169,7 @@
       </c>
       <c r="K230" s="5" t="n">
         <f aca="false">K229+$Z$185</f>
-        <v>0.426517422728572</v>
+        <v>0.424179760390908</v>
       </c>
       <c r="L230" s="5" t="n">
         <f aca="false">L229+$AA$185</f>
@@ -61177,7 +61177,7 @@
       </c>
       <c r="M230" s="5" t="n">
         <f aca="false">M229+$AB$185</f>
-        <v>0.240839842398701</v>
+        <v>0.238502180061039</v>
       </c>
       <c r="N230" s="5" t="n">
         <f aca="false">N229+$AC$185</f>
@@ -61185,15 +61185,15 @@
       </c>
       <c r="O230" s="5" t="n">
         <f aca="false">O229+$AD$185</f>
-        <v>0.211344033574026</v>
+        <v>0.21601935824935</v>
       </c>
       <c r="P230" s="5" t="n">
         <f aca="false">P229+$Z$186</f>
-        <v>0.398465474676622</v>
+        <v>0.396127812338961</v>
       </c>
       <c r="Q230" s="5" t="n">
         <f aca="false">Q229+$AA$186</f>
-        <v>0.254865816424675</v>
+        <v>0.252528154087013</v>
       </c>
       <c r="R230" s="5" t="n">
         <f aca="false">R229+$AB$186</f>
@@ -61201,15 +61201,15 @@
       </c>
       <c r="S230" s="5" t="n">
         <f aca="false">S229+$AC$186</f>
-        <v>0.218357020587013</v>
+        <v>0.223032345262337</v>
       </c>
       <c r="T230" s="5" t="n">
         <f aca="false">T229+$AD$186</f>
-        <v>0.45456937078052</v>
+        <v>0.452231708442858</v>
       </c>
       <c r="U230" s="5" t="n">
         <f aca="false">U229+$AE$186</f>
-        <v>0.226813868372727</v>
+        <v>0.224476206035065</v>
       </c>
       <c r="V230" s="5" t="n">
         <f aca="false">V229+$AF$186</f>
@@ -61217,7 +61217,7 @@
       </c>
       <c r="W230" s="5" t="n">
         <f aca="false">W229+$AG$186</f>
-        <v>0.204331046561039</v>
+        <v>0.209006371236364</v>
       </c>
       <c r="X230" s="5"/>
       <c r="Y230" s="5"/>
@@ -61289,7 +61289,7 @@
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="1" t="n">
         <f aca="false">K227-AP227</f>
-        <v>0.0972317084428583</v>
+        <v>0.0950888513000004</v>
       </c>
       <c r="E231" s="0" t="n">
         <f aca="false">E227+1</f>
@@ -61297,7 +61297,7 @@
       </c>
       <c r="K231" s="5" t="n">
         <f aca="false">K230+$Z$185</f>
-        <v>0.427945994157144</v>
+        <v>0.425543396754545</v>
       </c>
       <c r="L231" s="5" t="n">
         <f aca="false">L230+$AA$185</f>
@@ -61305,7 +61305,7 @@
       </c>
       <c r="M231" s="5" t="n">
         <f aca="false">M230+$AB$185</f>
-        <v>0.24032036187922</v>
+        <v>0.237917764476624</v>
       </c>
       <c r="N231" s="5" t="n">
         <f aca="false">N230+$AC$185</f>
@@ -61313,15 +61313,15 @@
       </c>
       <c r="O231" s="5" t="n">
         <f aca="false">O230+$AD$185</f>
-        <v>0.210954423184416</v>
+        <v>0.21575961798961</v>
       </c>
       <c r="P231" s="5" t="n">
         <f aca="false">P230+$Z$186</f>
-        <v>0.399114825325973</v>
+        <v>0.396712227923376</v>
       </c>
       <c r="Q231" s="5" t="n">
         <f aca="false">Q230+$AA$186</f>
-        <v>0.254735946294804</v>
+        <v>0.252333348892208</v>
       </c>
       <c r="R231" s="5" t="n">
         <f aca="false">R230+$AB$186</f>
@@ -61329,15 +61329,15 @@
       </c>
       <c r="S231" s="5" t="n">
         <f aca="false">S230+$AC$186</f>
-        <v>0.218162215392208</v>
+        <v>0.222967410197402</v>
       </c>
       <c r="T231" s="5" t="n">
         <f aca="false">T230+$AD$186</f>
-        <v>0.456777162988312</v>
+        <v>0.454374565585715</v>
       </c>
       <c r="U231" s="5" t="n">
         <f aca="false">U230+$AE$186</f>
-        <v>0.225904777463636</v>
+        <v>0.223502180061039</v>
       </c>
       <c r="V231" s="5" t="n">
         <f aca="false">V230+$AF$186</f>
@@ -61345,7 +61345,7 @@
       </c>
       <c r="W231" s="5" t="n">
         <f aca="false">W230+$AG$186</f>
-        <v>0.203746630976624</v>
+        <v>0.208551825781818</v>
       </c>
       <c r="X231" s="5"/>
       <c r="Y231" s="5"/>
@@ -61417,7 +61417,7 @@
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="1" t="n">
         <f aca="false">K228-AP228</f>
-        <v>0.0972966435077934</v>
+        <v>0.0950888512999997</v>
       </c>
       <c r="E232" s="0" t="n">
         <f aca="false">E228+1</f>
@@ -61425,7 +61425,7 @@
       </c>
       <c r="K232" s="5" t="n">
         <f aca="false">K231+$Z$185</f>
-        <v>0.429374565585715</v>
+        <v>0.426907033118181</v>
       </c>
       <c r="L232" s="5" t="n">
         <f aca="false">L231+$AA$185</f>
@@ -61433,7 +61433,7 @@
       </c>
       <c r="M232" s="5" t="n">
         <f aca="false">M231+$AB$185</f>
-        <v>0.23980088135974</v>
+        <v>0.237333348892208</v>
       </c>
       <c r="N232" s="5" t="n">
         <f aca="false">N231+$AC$185</f>
@@ -61441,15 +61441,15 @@
       </c>
       <c r="O232" s="5" t="n">
         <f aca="false">O231+$AD$185</f>
-        <v>0.210564812794805</v>
+        <v>0.21549987772987</v>
       </c>
       <c r="P232" s="5" t="n">
         <f aca="false">P231+$Z$186</f>
-        <v>0.399764175975324</v>
+        <v>0.397296643507792</v>
       </c>
       <c r="Q232" s="5" t="n">
         <f aca="false">Q231+$AA$186</f>
-        <v>0.254606076164934</v>
+        <v>0.252138543697403</v>
       </c>
       <c r="R232" s="5" t="n">
         <f aca="false">R231+$AB$186</f>
@@ -61457,15 +61457,15 @@
       </c>
       <c r="S232" s="5" t="n">
         <f aca="false">S231+$AC$186</f>
-        <v>0.217967410197403</v>
+        <v>0.222902475132467</v>
       </c>
       <c r="T232" s="5" t="n">
         <f aca="false">T231+$AD$186</f>
-        <v>0.458984955196104</v>
+        <v>0.456517422728572</v>
       </c>
       <c r="U232" s="5" t="n">
         <f aca="false">U231+$AE$186</f>
-        <v>0.224995686554545</v>
+        <v>0.222528154087013</v>
       </c>
       <c r="V232" s="5" t="n">
         <f aca="false">V231+$AF$186</f>
@@ -61473,7 +61473,7 @@
       </c>
       <c r="W232" s="5" t="n">
         <f aca="false">W231+$AG$186</f>
-        <v>0.203162215392208</v>
+        <v>0.208097280327273</v>
       </c>
       <c r="X232" s="5"/>
       <c r="Y232" s="5"/>
@@ -61545,7 +61545,7 @@
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="1" t="n">
         <f aca="false">K229-AP229</f>
-        <v>0.0973615785727285</v>
+        <v>0.0950888513000001</v>
       </c>
       <c r="E233" s="0" t="n">
         <f aca="false">E229+1</f>
@@ -61553,7 +61553,7 @@
       </c>
       <c r="K233" s="5" t="n">
         <f aca="false">K232+$Z$185</f>
-        <v>0.430803137014286</v>
+        <v>0.428270669481818</v>
       </c>
       <c r="L233" s="5" t="n">
         <f aca="false">L232+$AA$185</f>
@@ -61561,7 +61561,7 @@
       </c>
       <c r="M233" s="5" t="n">
         <f aca="false">M232+$AB$185</f>
-        <v>0.239281400840259</v>
+        <v>0.236748933307792</v>
       </c>
       <c r="N233" s="5" t="n">
         <f aca="false">N232+$AC$185</f>
@@ -61569,15 +61569,15 @@
       </c>
       <c r="O233" s="5" t="n">
         <f aca="false">O232+$AD$185</f>
-        <v>0.210175202405195</v>
+        <v>0.21524013747013</v>
       </c>
       <c r="P233" s="5" t="n">
         <f aca="false">P232+$Z$186</f>
-        <v>0.400413526624674</v>
+        <v>0.397881059092207</v>
       </c>
       <c r="Q233" s="5" t="n">
         <f aca="false">Q232+$AA$186</f>
-        <v>0.254476206035064</v>
+        <v>0.251943738502597</v>
       </c>
       <c r="R233" s="5" t="n">
         <f aca="false">R232+$AB$186</f>
@@ -61585,15 +61585,15 @@
       </c>
       <c r="S233" s="5" t="n">
         <f aca="false">S232+$AC$186</f>
-        <v>0.217772605002598</v>
+        <v>0.222837540067532</v>
       </c>
       <c r="T233" s="5" t="n">
         <f aca="false">T232+$AD$186</f>
-        <v>0.461192747403896</v>
+        <v>0.45866027987143</v>
       </c>
       <c r="U233" s="5" t="n">
         <f aca="false">U232+$AE$186</f>
-        <v>0.224086595645454</v>
+        <v>0.221554128112987</v>
       </c>
       <c r="V233" s="5" t="n">
         <f aca="false">V232+$AF$186</f>
@@ -61601,7 +61601,7 @@
       </c>
       <c r="W233" s="5" t="n">
         <f aca="false">W232+$AG$186</f>
-        <v>0.202577799807793</v>
+        <v>0.207642734872727</v>
       </c>
       <c r="X233" s="5"/>
       <c r="Y233" s="5"/>
@@ -61673,7 +61673,7 @@
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="1" t="n">
         <f aca="false">K230-AP230</f>
-        <v>0.0974265136376636</v>
+        <v>0.0950888513000004</v>
       </c>
       <c r="E234" s="0" t="n">
         <f aca="false">E230+1</f>
@@ -61681,7 +61681,7 @@
       </c>
       <c r="K234" s="5" t="n">
         <f aca="false">K233+$Z$185</f>
-        <v>0.432231708442858</v>
+        <v>0.429634305845454</v>
       </c>
       <c r="L234" s="5" t="n">
         <f aca="false">L233+$AA$185</f>
@@ -61689,7 +61689,7 @@
       </c>
       <c r="M234" s="5" t="n">
         <f aca="false">M233+$AB$185</f>
-        <v>0.238761920320779</v>
+        <v>0.236164517723377</v>
       </c>
       <c r="N234" s="5" t="n">
         <f aca="false">N233+$AC$185</f>
@@ -61697,15 +61697,15 @@
       </c>
       <c r="O234" s="5" t="n">
         <f aca="false">O233+$AD$185</f>
-        <v>0.209785592015585</v>
+        <v>0.214980397210389</v>
       </c>
       <c r="P234" s="5" t="n">
         <f aca="false">P233+$Z$186</f>
-        <v>0.401062877274025</v>
+        <v>0.398465474676623</v>
       </c>
       <c r="Q234" s="5" t="n">
         <f aca="false">Q233+$AA$186</f>
-        <v>0.254346335905194</v>
+        <v>0.251748933307792</v>
       </c>
       <c r="R234" s="5" t="n">
         <f aca="false">R233+$AB$186</f>
@@ -61713,15 +61713,15 @@
       </c>
       <c r="S234" s="5" t="n">
         <f aca="false">S233+$AC$186</f>
-        <v>0.217577799807792</v>
+        <v>0.222772605002597</v>
       </c>
       <c r="T234" s="5" t="n">
         <f aca="false">T233+$AD$186</f>
-        <v>0.463400539611689</v>
+        <v>0.460803137014287</v>
       </c>
       <c r="U234" s="5" t="n">
         <f aca="false">U233+$AE$186</f>
-        <v>0.223177504736363</v>
+        <v>0.220580102138962</v>
       </c>
       <c r="V234" s="5" t="n">
         <f aca="false">V233+$AF$186</f>
@@ -61729,7 +61729,7 @@
       </c>
       <c r="W234" s="5" t="n">
         <f aca="false">W233+$AG$186</f>
-        <v>0.201993384223377</v>
+        <v>0.207188189418182</v>
       </c>
       <c r="X234" s="5"/>
       <c r="Y234" s="5"/>
@@ -61801,7 +61801,7 @@
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="1" t="n">
         <f aca="false">K231-AP231</f>
-        <v>0.0974914487025987</v>
+        <v>0.0950888512999998</v>
       </c>
       <c r="E235" s="0" t="n">
         <f aca="false">E231+1</f>
@@ -61809,7 +61809,7 @@
       </c>
       <c r="K235" s="5" t="n">
         <f aca="false">K234+$Z$185</f>
-        <v>0.433660279871429</v>
+        <v>0.43099794220909</v>
       </c>
       <c r="L235" s="5" t="n">
         <f aca="false">L234+$AA$185</f>
@@ -61817,7 +61817,7 @@
       </c>
       <c r="M235" s="5" t="n">
         <f aca="false">M234+$AB$185</f>
-        <v>0.238242439801298</v>
+        <v>0.235580102138961</v>
       </c>
       <c r="N235" s="5" t="n">
         <f aca="false">N234+$AC$185</f>
@@ -61825,15 +61825,15 @@
       </c>
       <c r="O235" s="5" t="n">
         <f aca="false">O234+$AD$185</f>
-        <v>0.209395981625974</v>
+        <v>0.214720656950649</v>
       </c>
       <c r="P235" s="5" t="n">
         <f aca="false">P234+$Z$186</f>
-        <v>0.401712227923376</v>
+        <v>0.399049890261039</v>
       </c>
       <c r="Q235" s="5" t="n">
         <f aca="false">Q234+$AA$186</f>
-        <v>0.254216465775324</v>
+        <v>0.251554128112987</v>
       </c>
       <c r="R235" s="5" t="n">
         <f aca="false">R234+$AB$186</f>
@@ -61841,15 +61841,15 @@
       </c>
       <c r="S235" s="5" t="n">
         <f aca="false">S234+$AC$186</f>
-        <v>0.217382994612987</v>
+        <v>0.222707669937662</v>
       </c>
       <c r="T235" s="5" t="n">
         <f aca="false">T234+$AD$186</f>
-        <v>0.465608331819481</v>
+        <v>0.462945994157144</v>
       </c>
       <c r="U235" s="5" t="n">
         <f aca="false">U234+$AE$186</f>
-        <v>0.222268413827272</v>
+        <v>0.219606076164936</v>
       </c>
       <c r="V235" s="5" t="n">
         <f aca="false">V234+$AF$186</f>
@@ -61857,7 +61857,7 @@
       </c>
       <c r="W235" s="5" t="n">
         <f aca="false">W234+$AG$186</f>
-        <v>0.201408968638961</v>
+        <v>0.206733643963636</v>
       </c>
       <c r="X235" s="5"/>
       <c r="Y235" s="5"/>
@@ -61929,7 +61929,7 @@
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="1" t="n">
         <f aca="false">K232-AP232</f>
-        <v>0.0975563837675338</v>
+        <v>0.0950888513000001</v>
       </c>
       <c r="E236" s="0" t="n">
         <f aca="false">E232+1</f>
@@ -61937,7 +61937,7 @@
       </c>
       <c r="K236" s="5" t="n">
         <f aca="false">K235+$Z$185</f>
-        <v>0.435088851300001</v>
+        <v>0.432361578572727</v>
       </c>
       <c r="L236" s="5" t="n">
         <f aca="false">L235+$AA$185</f>
@@ -61945,7 +61945,7 @@
       </c>
       <c r="M236" s="5" t="n">
         <f aca="false">M235+$AB$185</f>
-        <v>0.237722959281818</v>
+        <v>0.234995686554546</v>
       </c>
       <c r="N236" s="5" t="n">
         <f aca="false">N235+$AC$185</f>
@@ -61953,15 +61953,15 @@
       </c>
       <c r="O236" s="5" t="n">
         <f aca="false">O235+$AD$185</f>
-        <v>0.209006371236364</v>
+        <v>0.214460916690909</v>
       </c>
       <c r="P236" s="5" t="n">
         <f aca="false">P235+$Z$186</f>
-        <v>0.402361578572726</v>
+        <v>0.399634305845454</v>
       </c>
       <c r="Q236" s="5" t="n">
         <f aca="false">Q235+$AA$186</f>
-        <v>0.254086595645454</v>
+        <v>0.251359322918182</v>
       </c>
       <c r="R236" s="5" t="n">
         <f aca="false">R235+$AB$186</f>
@@ -61969,15 +61969,15 @@
       </c>
       <c r="S236" s="5" t="n">
         <f aca="false">S235+$AC$186</f>
-        <v>0.217188189418182</v>
+        <v>0.222642734872727</v>
       </c>
       <c r="T236" s="5" t="n">
         <f aca="false">T235+$AD$186</f>
-        <v>0.467816124027273</v>
+        <v>0.465088851300001</v>
       </c>
       <c r="U236" s="5" t="n">
         <f aca="false">U235+$AE$186</f>
-        <v>0.221359322918181</v>
+        <v>0.21863205019091</v>
       </c>
       <c r="V236" s="5" t="n">
         <f aca="false">V235+$AF$186</f>
@@ -61985,7 +61985,7 @@
       </c>
       <c r="W236" s="5" t="n">
         <f aca="false">W235+$AG$186</f>
-        <v>0.200824553054546</v>
+        <v>0.206279098509091</v>
       </c>
       <c r="X236" s="5"/>
       <c r="Y236" s="5"/>
@@ -62057,7 +62057,7 @@
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="1" t="n">
         <f aca="false">K233-AP233</f>
-        <v>0.0976213188324689</v>
+        <v>0.0950888513000004</v>
       </c>
       <c r="E237" s="0" t="n">
         <f aca="false">E233+1</f>
@@ -62065,7 +62065,7 @@
       </c>
       <c r="K237" s="5" t="n">
         <f aca="false">K236+$Z$185</f>
-        <v>0.436517422728572</v>
+        <v>0.433725214936363</v>
       </c>
       <c r="L237" s="5" t="n">
         <f aca="false">L236+$AA$185</f>
@@ -62073,7 +62073,7 @@
       </c>
       <c r="M237" s="5" t="n">
         <f aca="false">M236+$AB$185</f>
-        <v>0.237203478762337</v>
+        <v>0.23441127097013</v>
       </c>
       <c r="N237" s="5" t="n">
         <f aca="false">N236+$AC$185</f>
@@ -62081,15 +62081,15 @@
       </c>
       <c r="O237" s="5" t="n">
         <f aca="false">O236+$AD$185</f>
-        <v>0.208616760846753</v>
+        <v>0.214201176431169</v>
       </c>
       <c r="P237" s="5" t="n">
         <f aca="false">P236+$Z$186</f>
-        <v>0.403010929222077</v>
+        <v>0.40021872142987</v>
       </c>
       <c r="Q237" s="5" t="n">
         <f aca="false">Q236+$AA$186</f>
-        <v>0.253956725515584</v>
+        <v>0.251164517723377</v>
       </c>
       <c r="R237" s="5" t="n">
         <f aca="false">R236+$AB$186</f>
@@ -62097,15 +62097,15 @@
       </c>
       <c r="S237" s="5" t="n">
         <f aca="false">S236+$AC$186</f>
-        <v>0.216993384223377</v>
+        <v>0.222577799807792</v>
       </c>
       <c r="T237" s="5" t="n">
         <f aca="false">T236+$AD$186</f>
-        <v>0.470023916235065</v>
+        <v>0.467231708442858</v>
       </c>
       <c r="U237" s="5" t="n">
         <f aca="false">U236+$AE$186</f>
-        <v>0.220450232009091</v>
+        <v>0.217658024216884</v>
       </c>
       <c r="V237" s="5" t="n">
         <f aca="false">V236+$AF$186</f>
@@ -62113,7 +62113,7 @@
       </c>
       <c r="W237" s="5" t="n">
         <f aca="false">W236+$AG$186</f>
-        <v>0.20024013747013</v>
+        <v>0.205824553054545</v>
       </c>
       <c r="X237" s="5"/>
       <c r="Y237" s="5"/>
@@ -62185,7 +62185,7 @@
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="1" t="n">
         <f aca="false">K234-AP234</f>
-        <v>0.097686253897404</v>
+        <v>0.0950888512999998</v>
       </c>
       <c r="E238" s="0" t="n">
         <f aca="false">E234+1</f>
@@ -62193,7 +62193,7 @@
       </c>
       <c r="K238" s="5" t="n">
         <f aca="false">K237+$Z$185</f>
-        <v>0.437945994157144</v>
+        <v>0.435088851299999</v>
       </c>
       <c r="L238" s="5" t="n">
         <f aca="false">L237+$AA$185</f>
@@ -62201,7 +62201,7 @@
       </c>
       <c r="M238" s="5" t="n">
         <f aca="false">M237+$AB$185</f>
-        <v>0.236683998242857</v>
+        <v>0.233826855385715</v>
       </c>
       <c r="N238" s="5" t="n">
         <f aca="false">N237+$AC$185</f>
@@ -62209,15 +62209,15 @@
       </c>
       <c r="O238" s="5" t="n">
         <f aca="false">O237+$AD$185</f>
-        <v>0.208227150457143</v>
+        <v>0.213941436171428</v>
       </c>
       <c r="P238" s="5" t="n">
         <f aca="false">P237+$Z$186</f>
-        <v>0.403660279871427</v>
+        <v>0.400803137014285</v>
       </c>
       <c r="Q238" s="5" t="n">
         <f aca="false">Q237+$AA$186</f>
-        <v>0.253826855385713</v>
+        <v>0.250969712528572</v>
       </c>
       <c r="R238" s="5" t="n">
         <f aca="false">R237+$AB$186</f>
@@ -62225,15 +62225,15 @@
       </c>
       <c r="S238" s="5" t="n">
         <f aca="false">S237+$AC$186</f>
-        <v>0.216798579028572</v>
+        <v>0.222512864742857</v>
       </c>
       <c r="T238" s="5" t="n">
         <f aca="false">T237+$AD$186</f>
-        <v>0.472231708442857</v>
+        <v>0.469374565585715</v>
       </c>
       <c r="U238" s="5" t="n">
         <f aca="false">U237+$AE$186</f>
-        <v>0.2195411411</v>
+        <v>0.216683998242858</v>
       </c>
       <c r="V238" s="5" t="n">
         <f aca="false">V237+$AF$186</f>
@@ -62241,7 +62241,7 @@
       </c>
       <c r="W238" s="5" t="n">
         <f aca="false">W237+$AG$186</f>
-        <v>0.199655721885715</v>
+        <v>0.2053700076</v>
       </c>
       <c r="X238" s="5"/>
       <c r="Y238" s="5"/>
@@ -62313,7 +62313,7 @@
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="1" t="n">
         <f aca="false">K235-AP235</f>
-        <v>0.0977511889623391</v>
+        <v>0.0950888513000002</v>
       </c>
       <c r="E239" s="0" t="n">
         <f aca="false">E235+1</f>
@@ -62321,7 +62321,7 @@
       </c>
       <c r="K239" s="5" t="n">
         <f aca="false">K238+$Z$185</f>
-        <v>0.439374565585715</v>
+        <v>0.436452487663636</v>
       </c>
       <c r="L239" s="5" t="n">
         <f aca="false">L238+$AA$185</f>
@@ -62329,7 +62329,7 @@
       </c>
       <c r="M239" s="5" t="n">
         <f aca="false">M238+$AB$185</f>
-        <v>0.236164517723376</v>
+        <v>0.233242439801299</v>
       </c>
       <c r="N239" s="5" t="n">
         <f aca="false">N238+$AC$185</f>
@@ -62337,15 +62337,15 @@
       </c>
       <c r="O239" s="5" t="n">
         <f aca="false">O238+$AD$185</f>
-        <v>0.207837540067533</v>
+        <v>0.213681695911688</v>
       </c>
       <c r="P239" s="5" t="n">
         <f aca="false">P238+$Z$186</f>
-        <v>0.404309630520778</v>
+        <v>0.401387552598701</v>
       </c>
       <c r="Q239" s="5" t="n">
         <f aca="false">Q238+$AA$186</f>
-        <v>0.253696985255843</v>
+        <v>0.250774907333766</v>
       </c>
       <c r="R239" s="5" t="n">
         <f aca="false">R238+$AB$186</f>
@@ -62353,15 +62353,15 @@
       </c>
       <c r="S239" s="5" t="n">
         <f aca="false">S238+$AC$186</f>
-        <v>0.216603773833766</v>
+        <v>0.222447929677922</v>
       </c>
       <c r="T239" s="5" t="n">
         <f aca="false">T238+$AD$186</f>
-        <v>0.47443950065065</v>
+        <v>0.471517422728573</v>
       </c>
       <c r="U239" s="5" t="n">
         <f aca="false">U238+$AE$186</f>
-        <v>0.218632050190909</v>
+        <v>0.215709972268832</v>
       </c>
       <c r="V239" s="5" t="n">
         <f aca="false">V238+$AF$186</f>
@@ -62369,7 +62369,7 @@
       </c>
       <c r="W239" s="5" t="n">
         <f aca="false">W238+$AG$186</f>
-        <v>0.199071306301299</v>
+        <v>0.204915462145454</v>
       </c>
       <c r="X239" s="5"/>
       <c r="Y239" s="5"/>
@@ -62441,7 +62441,7 @@
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="1" t="n">
         <f aca="false">K236-AP236</f>
-        <v>0.0978161240272742</v>
+        <v>0.0950888513000005</v>
       </c>
       <c r="E240" s="0" t="n">
         <f aca="false">E236+1</f>
@@ -62449,7 +62449,7 @@
       </c>
       <c r="K240" s="5" t="n">
         <f aca="false">K239+$Z$185</f>
-        <v>0.440803137014287</v>
+        <v>0.437816124027272</v>
       </c>
       <c r="L240" s="5" t="n">
         <f aca="false">L239+$AA$185</f>
@@ -62457,7 +62457,7 @@
       </c>
       <c r="M240" s="5" t="n">
         <f aca="false">M239+$AB$185</f>
-        <v>0.235645037203895</v>
+        <v>0.232658024216883</v>
       </c>
       <c r="N240" s="5" t="n">
         <f aca="false">N239+$AC$185</f>
@@ -62465,15 +62465,15 @@
       </c>
       <c r="O240" s="5" t="n">
         <f aca="false">O239+$AD$185</f>
-        <v>0.207447929677922</v>
+        <v>0.213421955651948</v>
       </c>
       <c r="P240" s="5" t="n">
         <f aca="false">P239+$Z$186</f>
-        <v>0.404958981170129</v>
+        <v>0.401971968183117</v>
       </c>
       <c r="Q240" s="5" t="n">
         <f aca="false">Q239+$AA$186</f>
-        <v>0.253567115125973</v>
+        <v>0.250580102138961</v>
       </c>
       <c r="R240" s="5" t="n">
         <f aca="false">R239+$AB$186</f>
@@ -62481,15 +62481,15 @@
       </c>
       <c r="S240" s="5" t="n">
         <f aca="false">S239+$AC$186</f>
-        <v>0.216408968638961</v>
+        <v>0.222382994612987</v>
       </c>
       <c r="T240" s="5" t="n">
         <f aca="false">T239+$AD$186</f>
-        <v>0.476647292858442</v>
+        <v>0.47366027987143</v>
       </c>
       <c r="U240" s="5" t="n">
         <f aca="false">U239+$AE$186</f>
-        <v>0.217722959281818</v>
+        <v>0.214735946294806</v>
       </c>
       <c r="V240" s="5" t="n">
         <f aca="false">V239+$AF$186</f>
@@ -62497,7 +62497,7 @@
       </c>
       <c r="W240" s="5" t="n">
         <f aca="false">W239+$AG$186</f>
-        <v>0.198486890716883</v>
+        <v>0.204460916690909</v>
       </c>
       <c r="X240" s="5"/>
       <c r="Y240" s="5"/>
@@ -62569,7 +62569,7 @@
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="1" t="n">
         <f aca="false">K237-AP237</f>
-        <v>0.0978810590922094</v>
+        <v>0.0950888512999998</v>
       </c>
       <c r="E241" s="0" t="n">
         <f aca="false">E237+1</f>
@@ -62577,7 +62577,7 @@
       </c>
       <c r="K241" s="5" t="n">
         <f aca="false">K240+$Z$185</f>
-        <v>0.442231708442858</v>
+        <v>0.439179760390908</v>
       </c>
       <c r="L241" s="5" t="n">
         <f aca="false">L240+$AA$185</f>
@@ -62585,7 +62585,7 @@
       </c>
       <c r="M241" s="5" t="n">
         <f aca="false">M240+$AB$185</f>
-        <v>0.235125556684415</v>
+        <v>0.232073608632468</v>
       </c>
       <c r="N241" s="5" t="n">
         <f aca="false">N240+$AC$185</f>
@@ -62593,15 +62593,15 @@
       </c>
       <c r="O241" s="5" t="n">
         <f aca="false">O240+$AD$185</f>
-        <v>0.207058319288312</v>
+        <v>0.213162215392208</v>
       </c>
       <c r="P241" s="5" t="n">
         <f aca="false">P240+$Z$186</f>
-        <v>0.405608331819479</v>
+        <v>0.402556383767532</v>
       </c>
       <c r="Q241" s="5" t="n">
         <f aca="false">Q240+$AA$186</f>
-        <v>0.253437244996103</v>
+        <v>0.250385296944156</v>
       </c>
       <c r="R241" s="5" t="n">
         <f aca="false">R240+$AB$186</f>
@@ -62609,15 +62609,15 @@
       </c>
       <c r="S241" s="5" t="n">
         <f aca="false">S240+$AC$186</f>
-        <v>0.216214163444156</v>
+        <v>0.222318059548052</v>
       </c>
       <c r="T241" s="5" t="n">
         <f aca="false">T240+$AD$186</f>
-        <v>0.478855085066234</v>
+        <v>0.475803137014287</v>
       </c>
       <c r="U241" s="5" t="n">
         <f aca="false">U240+$AE$186</f>
-        <v>0.216813868372727</v>
+        <v>0.21376192032078</v>
       </c>
       <c r="V241" s="5" t="n">
         <f aca="false">V240+$AF$186</f>
@@ -62625,7 +62625,7 @@
       </c>
       <c r="W241" s="5" t="n">
         <f aca="false">W240+$AG$186</f>
-        <v>0.197902475132468</v>
+        <v>0.204006371236363</v>
       </c>
       <c r="X241" s="5"/>
       <c r="Y241" s="5"/>
@@ -62697,7 +62697,7 @@
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="1" t="n">
         <f aca="false">K238-AP238</f>
-        <v>0.0979459941571444</v>
+        <v>0.0950888513000002</v>
       </c>
       <c r="E242" s="0" t="n">
         <f aca="false">E238+1</f>
@@ -62705,7 +62705,7 @@
       </c>
       <c r="K242" s="5" t="n">
         <f aca="false">K241+$Z$185</f>
-        <v>0.443660279871429</v>
+        <v>0.440543396754545</v>
       </c>
       <c r="L242" s="5" t="n">
         <f aca="false">L241+$AA$185</f>
@@ -62713,7 +62713,7 @@
       </c>
       <c r="M242" s="5" t="n">
         <f aca="false">M241+$AB$185</f>
-        <v>0.234606076164934</v>
+        <v>0.231489193048052</v>
       </c>
       <c r="N242" s="5" t="n">
         <f aca="false">N241+$AC$185</f>
@@ -62721,15 +62721,15 @@
       </c>
       <c r="O242" s="5" t="n">
         <f aca="false">O241+$AD$185</f>
-        <v>0.206668708898702</v>
+        <v>0.212902475132467</v>
       </c>
       <c r="P242" s="5" t="n">
         <f aca="false">P241+$Z$186</f>
-        <v>0.40625768246883</v>
+        <v>0.403140799351948</v>
       </c>
       <c r="Q242" s="5" t="n">
         <f aca="false">Q241+$AA$186</f>
-        <v>0.253307374866233</v>
+        <v>0.250190491749351</v>
       </c>
       <c r="R242" s="5" t="n">
         <f aca="false">R241+$AB$186</f>
@@ -62737,15 +62737,15 @@
       </c>
       <c r="S242" s="5" t="n">
         <f aca="false">S241+$AC$186</f>
-        <v>0.216019358249351</v>
+        <v>0.222253124483116</v>
       </c>
       <c r="T242" s="5" t="n">
         <f aca="false">T241+$AD$186</f>
-        <v>0.481062877274026</v>
+        <v>0.477945994157144</v>
       </c>
       <c r="U242" s="5" t="n">
         <f aca="false">U241+$AE$186</f>
-        <v>0.215904777463636</v>
+        <v>0.212787894346754</v>
       </c>
       <c r="V242" s="5" t="n">
         <f aca="false">V241+$AF$186</f>
@@ -62753,7 +62753,7 @@
       </c>
       <c r="W242" s="5" t="n">
         <f aca="false">W241+$AG$186</f>
-        <v>0.197318059548052</v>
+        <v>0.203551825781818</v>
       </c>
       <c r="X242" s="5"/>
       <c r="Y242" s="5"/>
@@ -62825,7 +62825,7 @@
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="1" t="n">
         <f aca="false">K239-AP239</f>
-        <v>0.0980109292220796</v>
+        <v>0.0950888512999995</v>
       </c>
       <c r="E243" s="0" t="n">
         <f aca="false">E239+1</f>
@@ -62833,7 +62833,7 @@
       </c>
       <c r="K243" s="5" t="n">
         <f aca="false">K242+$Z$185</f>
-        <v>0.445088851300001</v>
+        <v>0.441907033118181</v>
       </c>
       <c r="L243" s="5" t="n">
         <f aca="false">L242+$AA$185</f>
@@ -62841,7 +62841,7 @@
       </c>
       <c r="M243" s="5" t="n">
         <f aca="false">M242+$AB$185</f>
-        <v>0.234086595645454</v>
+        <v>0.230904777463637</v>
       </c>
       <c r="N243" s="5" t="n">
         <f aca="false">N242+$AC$185</f>
@@ -62849,15 +62849,15 @@
       </c>
       <c r="O243" s="5" t="n">
         <f aca="false">O242+$AD$185</f>
-        <v>0.206279098509091</v>
+        <v>0.212642734872727</v>
       </c>
       <c r="P243" s="5" t="n">
         <f aca="false">P242+$Z$186</f>
-        <v>0.40690703311818</v>
+        <v>0.403725214936363</v>
       </c>
       <c r="Q243" s="5" t="n">
         <f aca="false">Q242+$AA$186</f>
-        <v>0.253177504736363</v>
+        <v>0.249995686554546</v>
       </c>
       <c r="R243" s="5" t="n">
         <f aca="false">R242+$AB$186</f>
@@ -62865,15 +62865,15 @@
       </c>
       <c r="S243" s="5" t="n">
         <f aca="false">S242+$AC$186</f>
-        <v>0.215824553054546</v>
+        <v>0.222188189418181</v>
       </c>
       <c r="T243" s="5" t="n">
         <f aca="false">T242+$AD$186</f>
-        <v>0.483270669481819</v>
+        <v>0.480088851300001</v>
       </c>
       <c r="U243" s="5" t="n">
         <f aca="false">U242+$AE$186</f>
-        <v>0.214995686554545</v>
+        <v>0.211813868372728</v>
       </c>
       <c r="V243" s="5" t="n">
         <f aca="false">V242+$AF$186</f>
@@ -62881,7 +62881,7 @@
       </c>
       <c r="W243" s="5" t="n">
         <f aca="false">W242+$AG$186</f>
-        <v>0.196733643963637</v>
+        <v>0.203097280327273</v>
       </c>
       <c r="X243" s="5"/>
       <c r="Y243" s="5"/>
@@ -62953,7 +62953,7 @@
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="1" t="n">
         <f aca="false">K240-AP240</f>
-        <v>0.0980758642870146</v>
+        <v>0.0950888512999998</v>
       </c>
       <c r="E244" s="0" t="n">
         <f aca="false">E240+1</f>
@@ -62961,7 +62961,7 @@
       </c>
       <c r="K244" s="5" t="n">
         <f aca="false">K243+$Z$185</f>
-        <v>0.446517422728572</v>
+        <v>0.443270669481817</v>
       </c>
       <c r="L244" s="5" t="n">
         <f aca="false">L243+$AA$185</f>
@@ -62969,7 +62969,7 @@
       </c>
       <c r="M244" s="5" t="n">
         <f aca="false">M243+$AB$185</f>
-        <v>0.233567115125973</v>
+        <v>0.230320361879221</v>
       </c>
       <c r="N244" s="5" t="n">
         <f aca="false">N243+$AC$185</f>
@@ -62977,15 +62977,15 @@
       </c>
       <c r="O244" s="5" t="n">
         <f aca="false">O243+$AD$185</f>
-        <v>0.205889488119481</v>
+        <v>0.212382994612987</v>
       </c>
       <c r="P244" s="5" t="n">
         <f aca="false">P243+$Z$186</f>
-        <v>0.407556383767531</v>
+        <v>0.404309630520779</v>
       </c>
       <c r="Q244" s="5" t="n">
         <f aca="false">Q243+$AA$186</f>
-        <v>0.253047634606493</v>
+        <v>0.24980088135974</v>
       </c>
       <c r="R244" s="5" t="n">
         <f aca="false">R243+$AB$186</f>
@@ -62993,15 +62993,15 @@
       </c>
       <c r="S244" s="5" t="n">
         <f aca="false">S243+$AC$186</f>
-        <v>0.21562974785974</v>
+        <v>0.222123254353246</v>
       </c>
       <c r="T244" s="5" t="n">
         <f aca="false">T243+$AD$186</f>
-        <v>0.485478461689611</v>
+        <v>0.482231708442858</v>
       </c>
       <c r="U244" s="5" t="n">
         <f aca="false">U243+$AE$186</f>
-        <v>0.214086595645454</v>
+        <v>0.210839842398702</v>
       </c>
       <c r="V244" s="5" t="n">
         <f aca="false">V243+$AF$186</f>
@@ -63009,7 +63009,7 @@
       </c>
       <c r="W244" s="5" t="n">
         <f aca="false">W243+$AG$186</f>
-        <v>0.196149228379221</v>
+        <v>0.202642734872727</v>
       </c>
       <c r="X244" s="5"/>
       <c r="Y244" s="5"/>
@@ -63081,7 +63081,7 @@
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="1" t="n">
         <f aca="false">K241-AP241</f>
-        <v>0.0981407993519498</v>
+        <v>0.0950888513000002</v>
       </c>
       <c r="E245" s="0" t="n">
         <f aca="false">E241+1</f>
@@ -63089,7 +63089,7 @@
       </c>
       <c r="K245" s="5" t="n">
         <f aca="false">K244+$Z$185</f>
-        <v>0.447945994157144</v>
+        <v>0.444634305845454</v>
       </c>
       <c r="L245" s="5" t="n">
         <f aca="false">L244+$AA$185</f>
@@ -63097,7 +63097,7 @@
       </c>
       <c r="M245" s="5" t="n">
         <f aca="false">M244+$AB$185</f>
-        <v>0.233047634606493</v>
+        <v>0.229735946294806</v>
       </c>
       <c r="N245" s="5" t="n">
         <f aca="false">N244+$AC$185</f>
@@ -63105,15 +63105,15 @@
       </c>
       <c r="O245" s="5" t="n">
         <f aca="false">O244+$AD$185</f>
-        <v>0.20549987772987</v>
+        <v>0.212123254353246</v>
       </c>
       <c r="P245" s="5" t="n">
         <f aca="false">P244+$Z$186</f>
-        <v>0.408205734416882</v>
+        <v>0.404894046105194</v>
       </c>
       <c r="Q245" s="5" t="n">
         <f aca="false">Q244+$AA$186</f>
-        <v>0.252917764476622</v>
+        <v>0.249606076164935</v>
       </c>
       <c r="R245" s="5" t="n">
         <f aca="false">R244+$AB$186</f>
@@ -63121,15 +63121,15 @@
       </c>
       <c r="S245" s="5" t="n">
         <f aca="false">S244+$AC$186</f>
-        <v>0.215434942664935</v>
+        <v>0.222058319288311</v>
       </c>
       <c r="T245" s="5" t="n">
         <f aca="false">T244+$AD$186</f>
-        <v>0.487686253897403</v>
+        <v>0.484374565585716</v>
       </c>
       <c r="U245" s="5" t="n">
         <f aca="false">U244+$AE$186</f>
-        <v>0.213177504736363</v>
+        <v>0.209865816424676</v>
       </c>
       <c r="V245" s="5" t="n">
         <f aca="false">V244+$AF$186</f>
@@ -63137,7 +63137,7 @@
       </c>
       <c r="W245" s="5" t="n">
         <f aca="false">W244+$AG$186</f>
-        <v>0.195564812794806</v>
+        <v>0.202188189418182</v>
       </c>
       <c r="X245" s="5"/>
       <c r="Y245" s="5"/>
@@ -63209,7 +63209,7 @@
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="1" t="n">
         <f aca="false">K242-AP242</f>
-        <v>0.0982057344168848</v>
+        <v>0.0950888512999996</v>
       </c>
       <c r="E246" s="0" t="n">
         <f aca="false">E242+1</f>
@@ -63217,7 +63217,7 @@
       </c>
       <c r="K246" s="5" t="n">
         <f aca="false">K245+$Z$185</f>
-        <v>0.449374565585715</v>
+        <v>0.44599794220909</v>
       </c>
       <c r="L246" s="5" t="n">
         <f aca="false">L245+$AA$185</f>
@@ -63225,7 +63225,7 @@
       </c>
       <c r="M246" s="5" t="n">
         <f aca="false">M245+$AB$185</f>
-        <v>0.232528154087012</v>
+        <v>0.22915153071039</v>
       </c>
       <c r="N246" s="5" t="n">
         <f aca="false">N245+$AC$185</f>
@@ -63233,15 +63233,15 @@
       </c>
       <c r="O246" s="5" t="n">
         <f aca="false">O245+$AD$185</f>
-        <v>0.20511026734026</v>
+        <v>0.211863514093506</v>
       </c>
       <c r="P246" s="5" t="n">
         <f aca="false">P245+$Z$186</f>
-        <v>0.408855085066232</v>
+        <v>0.40547846168961</v>
       </c>
       <c r="Q246" s="5" t="n">
         <f aca="false">Q245+$AA$186</f>
-        <v>0.252787894346752</v>
+        <v>0.24941127097013</v>
       </c>
       <c r="R246" s="5" t="n">
         <f aca="false">R245+$AB$186</f>
@@ -63249,15 +63249,15 @@
       </c>
       <c r="S246" s="5" t="n">
         <f aca="false">S245+$AC$186</f>
-        <v>0.21524013747013</v>
+        <v>0.221993384223376</v>
       </c>
       <c r="T246" s="5" t="n">
         <f aca="false">T245+$AD$186</f>
-        <v>0.489894046105195</v>
+        <v>0.486517422728573</v>
       </c>
       <c r="U246" s="5" t="n">
         <f aca="false">U245+$AE$186</f>
-        <v>0.212268413827272</v>
+        <v>0.20889179045065</v>
       </c>
       <c r="V246" s="5" t="n">
         <f aca="false">V245+$AF$186</f>
@@ -63265,7 +63265,7 @@
       </c>
       <c r="W246" s="5" t="n">
         <f aca="false">W245+$AG$186</f>
-        <v>0.19498039721039</v>
+        <v>0.201733643963636</v>
       </c>
       <c r="X246" s="5"/>
       <c r="Y246" s="5"/>
@@ -63337,7 +63337,7 @@
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="1" t="n">
         <f aca="false">K243-AP243</f>
-        <v>0.09827066948182</v>
+        <v>0.0950888512999999</v>
       </c>
       <c r="E247" s="0" t="n">
         <f aca="false">E243+1</f>
@@ -63345,7 +63345,7 @@
       </c>
       <c r="K247" s="5" t="n">
         <f aca="false">K246+$Z$185</f>
-        <v>0.450803137014287</v>
+        <v>0.447361578572726</v>
       </c>
       <c r="L247" s="5" t="n">
         <f aca="false">L246+$AA$185</f>
@@ -63353,7 +63353,7 @@
       </c>
       <c r="M247" s="5" t="n">
         <f aca="false">M246+$AB$185</f>
-        <v>0.232008673567532</v>
+        <v>0.228567115125974</v>
       </c>
       <c r="N247" s="5" t="n">
         <f aca="false">N246+$AC$185</f>
@@ -63361,15 +63361,15 @@
       </c>
       <c r="O247" s="5" t="n">
         <f aca="false">O246+$AD$185</f>
-        <v>0.20472065695065</v>
+        <v>0.211603773833766</v>
       </c>
       <c r="P247" s="5" t="n">
         <f aca="false">P246+$Z$186</f>
-        <v>0.409504435715583</v>
+        <v>0.406062877274026</v>
       </c>
       <c r="Q247" s="5" t="n">
         <f aca="false">Q246+$AA$186</f>
-        <v>0.252658024216882</v>
+        <v>0.249216465775325</v>
       </c>
       <c r="R247" s="5" t="n">
         <f aca="false">R246+$AB$186</f>
@@ -63377,15 +63377,15 @@
       </c>
       <c r="S247" s="5" t="n">
         <f aca="false">S246+$AC$186</f>
-        <v>0.215045332275325</v>
+        <v>0.221928449158441</v>
       </c>
       <c r="T247" s="5" t="n">
         <f aca="false">T246+$AD$186</f>
-        <v>0.492101838312987</v>
+        <v>0.48866027987143</v>
       </c>
       <c r="U247" s="5" t="n">
         <f aca="false">U246+$AE$186</f>
-        <v>0.211359322918181</v>
+        <v>0.207917764476624</v>
       </c>
       <c r="V247" s="5" t="n">
         <f aca="false">V246+$AF$186</f>
@@ -63393,7 +63393,7 @@
       </c>
       <c r="W247" s="5" t="n">
         <f aca="false">W246+$AG$186</f>
-        <v>0.194395981625974</v>
+        <v>0.201279098509091</v>
       </c>
       <c r="X247" s="5"/>
       <c r="Y247" s="5"/>
@@ -63465,7 +63465,7 @@
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="1" t="n">
         <f aca="false">K244-AP244</f>
-        <v>0.098335604546755</v>
+        <v>0.0950888513000002</v>
       </c>
       <c r="E248" s="0" t="n">
         <f aca="false">E244+1</f>
@@ -63473,7 +63473,7 @@
       </c>
       <c r="K248" s="5" t="n">
         <f aca="false">K247+$Z$185</f>
-        <v>0.452231708442858</v>
+        <v>0.448725214936363</v>
       </c>
       <c r="L248" s="5" t="n">
         <f aca="false">L247+$AA$185</f>
@@ -63481,7 +63481,7 @@
       </c>
       <c r="M248" s="5" t="n">
         <f aca="false">M247+$AB$185</f>
-        <v>0.231489193048051</v>
+        <v>0.227982699541559</v>
       </c>
       <c r="N248" s="5" t="n">
         <f aca="false">N247+$AC$185</f>
@@ -63489,15 +63489,15 @@
       </c>
       <c r="O248" s="5" t="n">
         <f aca="false">O247+$AD$185</f>
-        <v>0.204331046561039</v>
+        <v>0.211344033574026</v>
       </c>
       <c r="P248" s="5" t="n">
         <f aca="false">P247+$Z$186</f>
-        <v>0.410153786364934</v>
+        <v>0.406647292858441</v>
       </c>
       <c r="Q248" s="5" t="n">
         <f aca="false">Q247+$AA$186</f>
-        <v>0.252528154087012</v>
+        <v>0.24902166058052</v>
       </c>
       <c r="R248" s="5" t="n">
         <f aca="false">R247+$AB$186</f>
@@ -63505,15 +63505,15 @@
       </c>
       <c r="S248" s="5" t="n">
         <f aca="false">S247+$AC$186</f>
-        <v>0.21485052708052</v>
+        <v>0.221863514093506</v>
       </c>
       <c r="T248" s="5" t="n">
         <f aca="false">T247+$AD$186</f>
-        <v>0.49430963052078</v>
+        <v>0.490803137014287</v>
       </c>
       <c r="U248" s="5" t="n">
         <f aca="false">U247+$AE$186</f>
-        <v>0.21045023200909</v>
+        <v>0.206943738502598</v>
       </c>
       <c r="V248" s="5" t="n">
         <f aca="false">V247+$AF$186</f>
@@ -63521,7 +63521,7 @@
       </c>
       <c r="W248" s="5" t="n">
         <f aca="false">W247+$AG$186</f>
-        <v>0.193811566041559</v>
+        <v>0.200824553054545</v>
       </c>
       <c r="X248" s="5"/>
       <c r="Y248" s="5"/>
@@ -63593,7 +63593,7 @@
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="1" t="n">
         <f aca="false">K245-AP245</f>
-        <v>0.0984005396116902</v>
+        <v>0.0950888512999996</v>
       </c>
       <c r="E249" s="0" t="n">
         <f aca="false">E245+1</f>
@@ -63601,7 +63601,7 @@
       </c>
       <c r="K249" s="5" t="n">
         <f aca="false">K248+$Z$185</f>
-        <v>0.45366027987143</v>
+        <v>0.450088851299999</v>
       </c>
       <c r="L249" s="5" t="n">
         <f aca="false">L248+$AA$185</f>
@@ -63609,7 +63609,7 @@
       </c>
       <c r="M249" s="5" t="n">
         <f aca="false">M248+$AB$185</f>
-        <v>0.230969712528571</v>
+        <v>0.227398283957143</v>
       </c>
       <c r="N249" s="5" t="n">
         <f aca="false">N248+$AC$185</f>
@@ -63617,15 +63617,15 @@
       </c>
       <c r="O249" s="5" t="n">
         <f aca="false">O248+$AD$185</f>
-        <v>0.203941436171429</v>
+        <v>0.211084293314285</v>
       </c>
       <c r="P249" s="5" t="n">
         <f aca="false">P248+$Z$186</f>
-        <v>0.410803137014284</v>
+        <v>0.407231708442857</v>
       </c>
       <c r="Q249" s="5" t="n">
         <f aca="false">Q248+$AA$186</f>
-        <v>0.252398283957142</v>
+        <v>0.248826855385714</v>
       </c>
       <c r="R249" s="5" t="n">
         <f aca="false">R248+$AB$186</f>
@@ -63633,15 +63633,15 @@
       </c>
       <c r="S249" s="5" t="n">
         <f aca="false">S248+$AC$186</f>
-        <v>0.214655721885714</v>
+        <v>0.221798579028571</v>
       </c>
       <c r="T249" s="5" t="n">
         <f aca="false">T248+$AD$186</f>
-        <v>0.496517422728572</v>
+        <v>0.492945994157144</v>
       </c>
       <c r="U249" s="5" t="n">
         <f aca="false">U248+$AE$186</f>
-        <v>0.2095411411</v>
+        <v>0.205969712528572</v>
       </c>
       <c r="V249" s="5" t="n">
         <f aca="false">V248+$AF$186</f>
@@ -63649,7 +63649,7 @@
       </c>
       <c r="W249" s="5" t="n">
         <f aca="false">W248+$AG$186</f>
-        <v>0.193227150457143</v>
+        <v>0.2003700076</v>
       </c>
       <c r="X249" s="5"/>
       <c r="Y249" s="5"/>
@@ -63721,7 +63721,7 @@
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="1" t="n">
         <f aca="false">K246-AP246</f>
-        <v>0.0984654746766253</v>
+        <v>0.0950888512999999</v>
       </c>
       <c r="E250" s="0" t="n">
         <f aca="false">E246+1</f>
@@ -63729,7 +63729,7 @@
       </c>
       <c r="K250" s="5" t="n">
         <f aca="false">K249+$Z$185</f>
-        <v>0.455088851300001</v>
+        <v>0.451452487663635</v>
       </c>
       <c r="L250" s="5" t="n">
         <f aca="false">L249+$AA$185</f>
@@ -63737,7 +63737,7 @@
       </c>
       <c r="M250" s="5" t="n">
         <f aca="false">M249+$AB$185</f>
-        <v>0.23045023200909</v>
+        <v>0.226813868372728</v>
       </c>
       <c r="N250" s="5" t="n">
         <f aca="false">N249+$AC$185</f>
@@ -63745,15 +63745,15 @@
       </c>
       <c r="O250" s="5" t="n">
         <f aca="false">O249+$AD$185</f>
-        <v>0.203551825781818</v>
+        <v>0.210824553054545</v>
       </c>
       <c r="P250" s="5" t="n">
         <f aca="false">P249+$Z$186</f>
-        <v>0.411452487663635</v>
+        <v>0.407816124027272</v>
       </c>
       <c r="Q250" s="5" t="n">
         <f aca="false">Q249+$AA$186</f>
-        <v>0.252268413827272</v>
+        <v>0.248632050190909</v>
       </c>
       <c r="R250" s="5" t="n">
         <f aca="false">R249+$AB$186</f>
@@ -63761,15 +63761,15 @@
       </c>
       <c r="S250" s="5" t="n">
         <f aca="false">S249+$AC$186</f>
-        <v>0.214460916690909</v>
+        <v>0.221733643963636</v>
       </c>
       <c r="T250" s="5" t="n">
         <f aca="false">T249+$AD$186</f>
-        <v>0.498725214936364</v>
+        <v>0.495088851300001</v>
       </c>
       <c r="U250" s="5" t="n">
         <f aca="false">U249+$AE$186</f>
-        <v>0.208632050190909</v>
+        <v>0.204995686554546</v>
       </c>
       <c r="V250" s="5" t="n">
         <f aca="false">V249+$AF$186</f>
@@ -63777,7 +63777,7 @@
       </c>
       <c r="W250" s="5" t="n">
         <f aca="false">W249+$AG$186</f>
-        <v>0.192642734872728</v>
+        <v>0.199915462145454</v>
       </c>
       <c r="X250" s="5"/>
       <c r="Y250" s="5"/>
@@ -63849,7 +63849,7 @@
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="1" t="n">
         <f aca="false">K247-AP247</f>
-        <v>0.0985304097415604</v>
+        <v>0.0950888513000003</v>
       </c>
       <c r="E251" s="0" t="n">
         <f aca="false">E247+1</f>
@@ -63857,7 +63857,7 @@
       </c>
       <c r="K251" s="5" t="n">
         <f aca="false">K250+$Z$185</f>
-        <v>0.456517422728572</v>
+        <v>0.452816124027272</v>
       </c>
       <c r="L251" s="5" t="n">
         <f aca="false">L250+$AA$185</f>
@@ -63865,7 +63865,7 @@
       </c>
       <c r="M251" s="5" t="n">
         <f aca="false">M250+$AB$185</f>
-        <v>0.22993075148961</v>
+        <v>0.226229452788312</v>
       </c>
       <c r="N251" s="5" t="n">
         <f aca="false">N250+$AC$185</f>
@@ -63873,15 +63873,15 @@
       </c>
       <c r="O251" s="5" t="n">
         <f aca="false">O250+$AD$185</f>
-        <v>0.203162215392208</v>
+        <v>0.210564812794805</v>
       </c>
       <c r="P251" s="5" t="n">
         <f aca="false">P250+$Z$186</f>
-        <v>0.412101838312985</v>
+        <v>0.408400539611688</v>
       </c>
       <c r="Q251" s="5" t="n">
         <f aca="false">Q250+$AA$186</f>
-        <v>0.252138543697402</v>
+        <v>0.248437244996104</v>
       </c>
       <c r="R251" s="5" t="n">
         <f aca="false">R250+$AB$186</f>
@@ -63889,15 +63889,15 @@
       </c>
       <c r="S251" s="5" t="n">
         <f aca="false">S250+$AC$186</f>
-        <v>0.214266111496104</v>
+        <v>0.221668708898701</v>
       </c>
       <c r="T251" s="5" t="n">
         <f aca="false">T250+$AD$186</f>
-        <v>0.500933007144156</v>
+        <v>0.497231708442859</v>
       </c>
       <c r="U251" s="5" t="n">
         <f aca="false">U250+$AE$186</f>
-        <v>0.207722959281818</v>
+        <v>0.20402166058052</v>
       </c>
       <c r="V251" s="5" t="n">
         <f aca="false">V250+$AF$186</f>
@@ -63905,7 +63905,7 @@
       </c>
       <c r="W251" s="5" t="n">
         <f aca="false">W250+$AG$186</f>
-        <v>0.192058319288312</v>
+        <v>0.199460916690909</v>
       </c>
       <c r="X251" s="5"/>
       <c r="Y251" s="5"/>
@@ -63977,7 +63977,7 @@
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="1" t="n">
         <f aca="false">K248-AP248</f>
-        <v>0.0985953448064955</v>
+        <v>0.0950888512999996</v>
       </c>
       <c r="E252" s="0" t="n">
         <f aca="false">E248+1</f>
@@ -63985,7 +63985,7 @@
       </c>
       <c r="K252" s="5" t="n">
         <f aca="false">K251+$Z$185</f>
-        <v>0.457945994157144</v>
+        <v>0.454179760390908</v>
       </c>
       <c r="L252" s="5" t="n">
         <f aca="false">L251+$AA$185</f>
@@ -63993,7 +63993,7 @@
       </c>
       <c r="M252" s="5" t="n">
         <f aca="false">M251+$AB$185</f>
-        <v>0.229411270970129</v>
+        <v>0.225645037203897</v>
       </c>
       <c r="N252" s="5" t="n">
         <f aca="false">N251+$AC$185</f>
@@ -64001,15 +64001,15 @@
       </c>
       <c r="O252" s="5" t="n">
         <f aca="false">O251+$AD$185</f>
-        <v>0.202772605002598</v>
+        <v>0.210305072535065</v>
       </c>
       <c r="P252" s="5" t="n">
         <f aca="false">P251+$Z$186</f>
-        <v>0.412751188962336</v>
+        <v>0.408984955196103</v>
       </c>
       <c r="Q252" s="5" t="n">
         <f aca="false">Q251+$AA$186</f>
-        <v>0.252008673567531</v>
+        <v>0.248242439801299</v>
       </c>
       <c r="R252" s="5" t="n">
         <f aca="false">R251+$AB$186</f>
@@ -64017,15 +64017,15 @@
       </c>
       <c r="S252" s="5" t="n">
         <f aca="false">S251+$AC$186</f>
-        <v>0.214071306301299</v>
+        <v>0.221603773833766</v>
       </c>
       <c r="T252" s="5" t="n">
         <f aca="false">T251+$AD$186</f>
-        <v>0.503140799351948</v>
+        <v>0.499374565585716</v>
       </c>
       <c r="U252" s="5" t="n">
         <f aca="false">U251+$AE$186</f>
-        <v>0.206813868372727</v>
+        <v>0.203047634606494</v>
       </c>
       <c r="V252" s="5" t="n">
         <f aca="false">V251+$AF$186</f>
@@ -64033,7 +64033,7 @@
       </c>
       <c r="W252" s="5" t="n">
         <f aca="false">W251+$AG$186</f>
-        <v>0.191473903703897</v>
+        <v>0.199006371236363</v>
       </c>
       <c r="X252" s="5"/>
       <c r="Y252" s="5"/>
@@ -64105,7 +64105,7 @@
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="1" t="n">
         <f aca="false">K249-AP249</f>
-        <v>0.0986602798714306</v>
+        <v>0.0950888512999999</v>
       </c>
       <c r="E253" s="0" t="n">
         <f aca="false">E249+1</f>
@@ -64113,7 +64113,7 @@
       </c>
       <c r="K253" s="5" t="n">
         <f aca="false">K252+$Z$185</f>
-        <v>0.459374565585715</v>
+        <v>0.455543396754544</v>
       </c>
       <c r="L253" s="5" t="n">
         <f aca="false">L252+$AA$185</f>
@@ -64121,7 +64121,7 @@
       </c>
       <c r="M253" s="5" t="n">
         <f aca="false">M252+$AB$185</f>
-        <v>0.228891790450649</v>
+        <v>0.225060621619481</v>
       </c>
       <c r="N253" s="5" t="n">
         <f aca="false">N252+$AC$185</f>
@@ -64129,15 +64129,15 @@
       </c>
       <c r="O253" s="5" t="n">
         <f aca="false">O252+$AD$185</f>
-        <v>0.202382994612987</v>
+        <v>0.210045332275324</v>
       </c>
       <c r="P253" s="5" t="n">
         <f aca="false">P252+$Z$186</f>
-        <v>0.413400539611687</v>
+        <v>0.409569370780519</v>
       </c>
       <c r="Q253" s="5" t="n">
         <f aca="false">Q252+$AA$186</f>
-        <v>0.251878803437661</v>
+        <v>0.248047634606494</v>
       </c>
       <c r="R253" s="5" t="n">
         <f aca="false">R252+$AB$186</f>
@@ -64145,15 +64145,15 @@
       </c>
       <c r="S253" s="5" t="n">
         <f aca="false">S252+$AC$186</f>
-        <v>0.213876501106494</v>
+        <v>0.221538838768831</v>
       </c>
       <c r="T253" s="5" t="n">
         <f aca="false">T252+$AD$186</f>
-        <v>0.505348591559741</v>
+        <v>0.501517422728573</v>
       </c>
       <c r="U253" s="5" t="n">
         <f aca="false">U252+$AE$186</f>
-        <v>0.205904777463636</v>
+        <v>0.202073608632468</v>
       </c>
       <c r="V253" s="5" t="n">
         <f aca="false">V252+$AF$186</f>
@@ -64161,7 +64161,7 @@
       </c>
       <c r="W253" s="5" t="n">
         <f aca="false">W252+$AG$186</f>
-        <v>0.190889488119481</v>
+        <v>0.198551825781818</v>
       </c>
       <c r="X253" s="5"/>
       <c r="Y253" s="5"/>
@@ -64233,7 +64233,7 @@
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="1" t="n">
         <f aca="false">K250-AP250</f>
-        <v>0.0987252149363657</v>
+        <v>0.0950888513000003</v>
       </c>
       <c r="E254" s="0" t="n">
         <f aca="false">E250+1</f>
@@ -64241,7 +64241,7 @@
       </c>
       <c r="K254" s="5" t="n">
         <f aca="false">K253+$Z$185</f>
-        <v>0.460803137014287</v>
+        <v>0.456907033118181</v>
       </c>
       <c r="L254" s="5" t="n">
         <f aca="false">L253+$AA$185</f>
@@ -64249,7 +64249,7 @@
       </c>
       <c r="M254" s="5" t="n">
         <f aca="false">M253+$AB$185</f>
-        <v>0.228372309931168</v>
+        <v>0.224476206035065</v>
       </c>
       <c r="N254" s="5" t="n">
         <f aca="false">N253+$AC$185</f>
@@ -64257,15 +64257,15 @@
       </c>
       <c r="O254" s="5" t="n">
         <f aca="false">O253+$AD$185</f>
-        <v>0.201993384223377</v>
+        <v>0.209785592015584</v>
       </c>
       <c r="P254" s="5" t="n">
         <f aca="false">P253+$Z$186</f>
-        <v>0.414049890261037</v>
+        <v>0.410153786364935</v>
       </c>
       <c r="Q254" s="5" t="n">
         <f aca="false">Q253+$AA$186</f>
-        <v>0.251748933307791</v>
+        <v>0.247852829411688</v>
       </c>
       <c r="R254" s="5" t="n">
         <f aca="false">R253+$AB$186</f>
@@ -64273,15 +64273,15 @@
       </c>
       <c r="S254" s="5" t="n">
         <f aca="false">S253+$AC$186</f>
-        <v>0.213681695911688</v>
+        <v>0.221473903703896</v>
       </c>
       <c r="T254" s="5" t="n">
         <f aca="false">T253+$AD$186</f>
-        <v>0.507556383767533</v>
+        <v>0.50366027987143</v>
       </c>
       <c r="U254" s="5" t="n">
         <f aca="false">U253+$AE$186</f>
-        <v>0.204995686554545</v>
+        <v>0.201099582658442</v>
       </c>
       <c r="V254" s="5" t="n">
         <f aca="false">V253+$AF$186</f>
@@ -64289,7 +64289,7 @@
       </c>
       <c r="W254" s="5" t="n">
         <f aca="false">W253+$AG$186</f>
-        <v>0.190305072535065</v>
+        <v>0.198097280327273</v>
       </c>
       <c r="X254" s="5"/>
       <c r="Y254" s="5"/>
@@ -64361,7 +64361,7 @@
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="1" t="n">
         <f aca="false">K251-AP251</f>
-        <v>0.0987901500013008</v>
+        <v>0.0950888512999997</v>
       </c>
       <c r="E255" s="0" t="n">
         <f aca="false">E251+1</f>
@@ -64369,7 +64369,7 @@
       </c>
       <c r="K255" s="5" t="n">
         <f aca="false">K254+$Z$185</f>
-        <v>0.462231708442858</v>
+        <v>0.458270669481817</v>
       </c>
       <c r="L255" s="5" t="n">
         <f aca="false">L254+$AA$185</f>
@@ -64377,7 +64377,7 @@
       </c>
       <c r="M255" s="5" t="n">
         <f aca="false">M254+$AB$185</f>
-        <v>0.227852829411688</v>
+        <v>0.22389179045065</v>
       </c>
       <c r="N255" s="5" t="n">
         <f aca="false">N254+$AC$185</f>
@@ -64385,15 +64385,15 @@
       </c>
       <c r="O255" s="5" t="n">
         <f aca="false">O254+$AD$185</f>
-        <v>0.201603773833767</v>
+        <v>0.209525851755844</v>
       </c>
       <c r="P255" s="5" t="n">
         <f aca="false">P254+$Z$186</f>
-        <v>0.414699240910388</v>
+        <v>0.41073820194935</v>
       </c>
       <c r="Q255" s="5" t="n">
         <f aca="false">Q254+$AA$186</f>
-        <v>0.251619063177921</v>
+        <v>0.247658024216883</v>
       </c>
       <c r="R255" s="5" t="n">
         <f aca="false">R254+$AB$186</f>
@@ -64401,15 +64401,15 @@
       </c>
       <c r="S255" s="5" t="n">
         <f aca="false">S254+$AC$186</f>
-        <v>0.213486890716883</v>
+        <v>0.221408968638961</v>
       </c>
       <c r="T255" s="5" t="n">
         <f aca="false">T254+$AD$186</f>
-        <v>0.509764175975325</v>
+        <v>0.505803137014287</v>
       </c>
       <c r="U255" s="5" t="n">
         <f aca="false">U254+$AE$186</f>
-        <v>0.204086595645454</v>
+        <v>0.200125556684416</v>
       </c>
       <c r="V255" s="5" t="n">
         <f aca="false">V254+$AF$186</f>
@@ -64417,7 +64417,7 @@
       </c>
       <c r="W255" s="5" t="n">
         <f aca="false">W254+$AG$186</f>
-        <v>0.18972065695065</v>
+        <v>0.197642734872727</v>
       </c>
       <c r="X255" s="5"/>
       <c r="Y255" s="5"/>
@@ -64489,7 +64489,7 @@
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="1" t="n">
         <f aca="false">K252-AP252</f>
-        <v>0.0988550850662359</v>
+        <v>0.0950888513</v>
       </c>
       <c r="E256" s="0" t="n">
         <f aca="false">E252+1</f>
@@ -64497,7 +64497,7 @@
       </c>
       <c r="K256" s="5" t="n">
         <f aca="false">K255+$Z$185</f>
-        <v>0.46366027987143</v>
+        <v>0.459634305845453</v>
       </c>
       <c r="L256" s="5" t="n">
         <f aca="false">L255+$AA$185</f>
@@ -64505,7 +64505,7 @@
       </c>
       <c r="M256" s="5" t="n">
         <f aca="false">M255+$AB$185</f>
-        <v>0.227333348892207</v>
+        <v>0.223307374866234</v>
       </c>
       <c r="N256" s="5" t="n">
         <f aca="false">N255+$AC$185</f>
@@ -64513,15 +64513,15 @@
       </c>
       <c r="O256" s="5" t="n">
         <f aca="false">O255+$AD$185</f>
-        <v>0.201214163444156</v>
+        <v>0.209266111496104</v>
       </c>
       <c r="P256" s="5" t="n">
         <f aca="false">P255+$Z$186</f>
-        <v>0.415348591559739</v>
+        <v>0.411322617533766</v>
       </c>
       <c r="Q256" s="5" t="n">
         <f aca="false">Q255+$AA$186</f>
-        <v>0.251489193048051</v>
+        <v>0.247463219022078</v>
       </c>
       <c r="R256" s="5" t="n">
         <f aca="false">R255+$AB$186</f>
@@ -64529,15 +64529,15 @@
       </c>
       <c r="S256" s="5" t="n">
         <f aca="false">S255+$AC$186</f>
-        <v>0.213292085522078</v>
+        <v>0.221344033574025</v>
       </c>
       <c r="T256" s="5" t="n">
         <f aca="false">T255+$AD$186</f>
-        <v>0.511971968183117</v>
+        <v>0.507945994157144</v>
       </c>
       <c r="U256" s="5" t="n">
         <f aca="false">U255+$AE$186</f>
-        <v>0.203177504736363</v>
+        <v>0.19915153071039</v>
       </c>
       <c r="V256" s="5" t="n">
         <f aca="false">V255+$AF$186</f>
@@ -64545,7 +64545,7 @@
       </c>
       <c r="W256" s="5" t="n">
         <f aca="false">W255+$AG$186</f>
-        <v>0.189136241366234</v>
+        <v>0.197188189418182</v>
       </c>
       <c r="X256" s="5"/>
       <c r="Y256" s="5"/>
@@ -64617,7 +64617,7 @@
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="1" t="n">
         <f aca="false">K253-AP253</f>
-        <v>0.098920020131171</v>
+        <v>0.0950888513000003</v>
       </c>
       <c r="E257" s="0" t="n">
         <f aca="false">E253+1</f>
@@ -64625,7 +64625,7 @@
       </c>
       <c r="K257" s="5" t="n">
         <f aca="false">K256+$Z$185</f>
-        <v>0.465088851300001</v>
+        <v>0.46099794220909</v>
       </c>
       <c r="L257" s="5" t="n">
         <f aca="false">L256+$AA$185</f>
@@ -64633,7 +64633,7 @@
       </c>
       <c r="M257" s="5" t="n">
         <f aca="false">M256+$AB$185</f>
-        <v>0.226813868372726</v>
+        <v>0.222722959281819</v>
       </c>
       <c r="N257" s="5" t="n">
         <f aca="false">N256+$AC$185</f>
@@ -64641,15 +64641,15 @@
       </c>
       <c r="O257" s="5" t="n">
         <f aca="false">O256+$AD$185</f>
-        <v>0.200824553054546</v>
+        <v>0.209006371236363</v>
       </c>
       <c r="P257" s="5" t="n">
         <f aca="false">P256+$Z$186</f>
-        <v>0.415997942209089</v>
+        <v>0.411907033118181</v>
       </c>
       <c r="Q257" s="5" t="n">
         <f aca="false">Q256+$AA$186</f>
-        <v>0.251359322918181</v>
+        <v>0.247268413827273</v>
       </c>
       <c r="R257" s="5" t="n">
         <f aca="false">R256+$AB$186</f>
@@ -64657,15 +64657,15 @@
       </c>
       <c r="S257" s="5" t="n">
         <f aca="false">S256+$AC$186</f>
-        <v>0.213097280327273</v>
+        <v>0.22127909850909</v>
       </c>
       <c r="T257" s="5" t="n">
         <f aca="false">T256+$AD$186</f>
-        <v>0.51417976039091</v>
+        <v>0.510088851300001</v>
       </c>
       <c r="U257" s="5" t="n">
         <f aca="false">U256+$AE$186</f>
-        <v>0.202268413827272</v>
+        <v>0.198177504736364</v>
       </c>
       <c r="V257" s="5" t="n">
         <f aca="false">V256+$AF$186</f>
@@ -64673,7 +64673,7 @@
       </c>
       <c r="W257" s="5" t="n">
         <f aca="false">W256+$AG$186</f>
-        <v>0.188551825781819</v>
+        <v>0.196733643963636</v>
       </c>
       <c r="X257" s="5"/>
       <c r="Y257" s="5"/>
@@ -64745,7 +64745,7 @@
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="1" t="n">
         <f aca="false">K254-AP254</f>
-        <v>0.0989849551961061</v>
+        <v>0.0950888512999997</v>
       </c>
       <c r="E258" s="0" t="n">
         <f aca="false">E254+1</f>
@@ -64753,7 +64753,7 @@
       </c>
       <c r="K258" s="5" t="n">
         <f aca="false">K257+$Z$185</f>
-        <v>0.466517422728573</v>
+        <v>0.462361578572726</v>
       </c>
       <c r="L258" s="5" t="n">
         <f aca="false">L257+$AA$185</f>
@@ -64761,7 +64761,7 @@
       </c>
       <c r="M258" s="5" t="n">
         <f aca="false">M257+$AB$185</f>
-        <v>0.226294387853246</v>
+        <v>0.222138543697403</v>
       </c>
       <c r="N258" s="5" t="n">
         <f aca="false">N257+$AC$185</f>
@@ -64769,15 +64769,15 @@
       </c>
       <c r="O258" s="5" t="n">
         <f aca="false">O257+$AD$185</f>
-        <v>0.200434942664935</v>
+        <v>0.208746630976623</v>
       </c>
       <c r="P258" s="5" t="n">
         <f aca="false">P257+$Z$186</f>
-        <v>0.41664729285844</v>
+        <v>0.412491448702597</v>
       </c>
       <c r="Q258" s="5" t="n">
         <f aca="false">Q257+$AA$186</f>
-        <v>0.251229452788311</v>
+        <v>0.247073608632468</v>
       </c>
       <c r="R258" s="5" t="n">
         <f aca="false">R257+$AB$186</f>
@@ -64785,15 +64785,15 @@
       </c>
       <c r="S258" s="5" t="n">
         <f aca="false">S257+$AC$186</f>
-        <v>0.212902475132468</v>
+        <v>0.221214163444155</v>
       </c>
       <c r="T258" s="5" t="n">
         <f aca="false">T257+$AD$186</f>
-        <v>0.516387552598702</v>
+        <v>0.512231708442859</v>
       </c>
       <c r="U258" s="5" t="n">
         <f aca="false">U257+$AE$186</f>
-        <v>0.201359322918181</v>
+        <v>0.197203478762339</v>
       </c>
       <c r="V258" s="5" t="n">
         <f aca="false">V257+$AF$186</f>
@@ -64801,7 +64801,7 @@
       </c>
       <c r="W258" s="5" t="n">
         <f aca="false">W257+$AG$186</f>
-        <v>0.187967410197403</v>
+        <v>0.196279098509091</v>
       </c>
       <c r="X258" s="5"/>
       <c r="Y258" s="5"/>
@@ -64873,7 +64873,7 @@
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="1" t="n">
         <f aca="false">K255-AP255</f>
-        <v>0.0990498902610412</v>
+        <v>0.0950888513</v>
       </c>
       <c r="E259" s="0" t="n">
         <f aca="false">E255+1</f>
@@ -64881,7 +64881,7 @@
       </c>
       <c r="K259" s="5" t="n">
         <f aca="false">K258+$Z$185</f>
-        <v>0.467945994157144</v>
+        <v>0.463725214936362</v>
       </c>
       <c r="L259" s="5" t="n">
         <f aca="false">L258+$AA$185</f>
@@ -64889,7 +64889,7 @@
       </c>
       <c r="M259" s="5" t="n">
         <f aca="false">M258+$AB$185</f>
-        <v>0.225774907333765</v>
+        <v>0.221554128112987</v>
       </c>
       <c r="N259" s="5" t="n">
         <f aca="false">N258+$AC$185</f>
@@ -64897,15 +64897,15 @@
       </c>
       <c r="O259" s="5" t="n">
         <f aca="false">O258+$AD$185</f>
-        <v>0.200045332275325</v>
+        <v>0.208486890716883</v>
       </c>
       <c r="P259" s="5" t="n">
         <f aca="false">P258+$Z$186</f>
-        <v>0.41729664350779</v>
+        <v>0.413075864287012</v>
       </c>
       <c r="Q259" s="5" t="n">
         <f aca="false">Q258+$AA$186</f>
-        <v>0.25109958265844</v>
+        <v>0.246878803437662</v>
       </c>
       <c r="R259" s="5" t="n">
         <f aca="false">R258+$AB$186</f>
@@ -64913,15 +64913,15 @@
       </c>
       <c r="S259" s="5" t="n">
         <f aca="false">S258+$AC$186</f>
-        <v>0.212707669937663</v>
+        <v>0.22114922837922</v>
       </c>
       <c r="T259" s="5" t="n">
         <f aca="false">T258+$AD$186</f>
-        <v>0.518595344806494</v>
+        <v>0.514374565585716</v>
       </c>
       <c r="U259" s="5" t="n">
         <f aca="false">U258+$AE$186</f>
-        <v>0.20045023200909</v>
+        <v>0.196229452788313</v>
       </c>
       <c r="V259" s="5" t="n">
         <f aca="false">V258+$AF$186</f>
@@ -64929,7 +64929,7 @@
       </c>
       <c r="W259" s="5" t="n">
         <f aca="false">W258+$AG$186</f>
-        <v>0.187382994612988</v>
+        <v>0.195824553054545</v>
       </c>
       <c r="X259" s="5"/>
       <c r="Y259" s="5"/>
@@ -65001,7 +65001,7 @@
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="1" t="n">
         <f aca="false">K256-AP256</f>
-        <v>0.0991148253259763</v>
+        <v>0.0950888513000004</v>
       </c>
       <c r="E260" s="0" t="n">
         <f aca="false">E256+1</f>
@@ -65009,7 +65009,7 @@
       </c>
       <c r="K260" s="5" t="n">
         <f aca="false">K259+$Z$185</f>
-        <v>0.469374565585715</v>
+        <v>0.465088851299999</v>
       </c>
       <c r="L260" s="5" t="n">
         <f aca="false">L259+$AA$185</f>
@@ -65017,7 +65017,7 @@
       </c>
       <c r="M260" s="5" t="n">
         <f aca="false">M259+$AB$185</f>
-        <v>0.225255426814285</v>
+        <v>0.220969712528572</v>
       </c>
       <c r="N260" s="5" t="n">
         <f aca="false">N259+$AC$185</f>
@@ -65025,15 +65025,15 @@
       </c>
       <c r="O260" s="5" t="n">
         <f aca="false">O259+$AD$185</f>
-        <v>0.199655721885715</v>
+        <v>0.208227150457142</v>
       </c>
       <c r="P260" s="5" t="n">
         <f aca="false">P259+$Z$186</f>
-        <v>0.417945994157141</v>
+        <v>0.413660279871428</v>
       </c>
       <c r="Q260" s="5" t="n">
         <f aca="false">Q259+$AA$186</f>
-        <v>0.25096971252857</v>
+        <v>0.246683998242857</v>
       </c>
       <c r="R260" s="5" t="n">
         <f aca="false">R259+$AB$186</f>
@@ -65041,15 +65041,15 @@
       </c>
       <c r="S260" s="5" t="n">
         <f aca="false">S259+$AC$186</f>
-        <v>0.212512864742857</v>
+        <v>0.221084293314285</v>
       </c>
       <c r="T260" s="5" t="n">
         <f aca="false">T259+$AD$186</f>
-        <v>0.520803137014286</v>
+        <v>0.516517422728573</v>
       </c>
       <c r="U260" s="5" t="n">
         <f aca="false">U259+$AE$186</f>
-        <v>0.1995411411</v>
+        <v>0.195255426814287</v>
       </c>
       <c r="V260" s="5" t="n">
         <f aca="false">V259+$AF$186</f>
@@ -65057,7 +65057,7 @@
       </c>
       <c r="W260" s="5" t="n">
         <f aca="false">W259+$AG$186</f>
-        <v>0.186798579028572</v>
+        <v>0.1953700076</v>
       </c>
       <c r="X260" s="5"/>
       <c r="Y260" s="5"/>
@@ -65129,7 +65129,7 @@
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="1" t="n">
         <f aca="false">K257-AP257</f>
-        <v>0.0991797603909114</v>
+        <v>0.0950888512999997</v>
       </c>
       <c r="E261" s="0" t="n">
         <f aca="false">E257+1</f>
@@ -65137,7 +65137,7 @@
       </c>
       <c r="K261" s="5" t="n">
         <f aca="false">K260+$Z$185</f>
-        <v>0.470803137014287</v>
+        <v>0.466452487663635</v>
       </c>
       <c r="L261" s="5" t="n">
         <f aca="false">L260+$AA$185</f>
@@ -65145,7 +65145,7 @@
       </c>
       <c r="M261" s="5" t="n">
         <f aca="false">M260+$AB$185</f>
-        <v>0.224735946294804</v>
+        <v>0.220385296944156</v>
       </c>
       <c r="N261" s="5" t="n">
         <f aca="false">N260+$AC$185</f>
@@ -65153,15 +65153,15 @@
       </c>
       <c r="O261" s="5" t="n">
         <f aca="false">O260+$AD$185</f>
-        <v>0.199266111496104</v>
+        <v>0.207967410197402</v>
       </c>
       <c r="P261" s="5" t="n">
         <f aca="false">P260+$Z$186</f>
-        <v>0.418595344806492</v>
+        <v>0.414244695455844</v>
       </c>
       <c r="Q261" s="5" t="n">
         <f aca="false">Q260+$AA$186</f>
-        <v>0.2508398423987</v>
+        <v>0.246489193048052</v>
       </c>
       <c r="R261" s="5" t="n">
         <f aca="false">R260+$AB$186</f>
@@ -65169,15 +65169,15 @@
       </c>
       <c r="S261" s="5" t="n">
         <f aca="false">S260+$AC$186</f>
-        <v>0.212318059548052</v>
+        <v>0.22101935824935</v>
       </c>
       <c r="T261" s="5" t="n">
         <f aca="false">T260+$AD$186</f>
-        <v>0.523010929222078</v>
+        <v>0.51866027987143</v>
       </c>
       <c r="U261" s="5" t="n">
         <f aca="false">U260+$AE$186</f>
-        <v>0.198632050190909</v>
+        <v>0.194281400840261</v>
       </c>
       <c r="V261" s="5" t="n">
         <f aca="false">V260+$AF$186</f>
@@ -65185,7 +65185,7 @@
       </c>
       <c r="W261" s="5" t="n">
         <f aca="false">W260+$AG$186</f>
-        <v>0.186214163444156</v>
+        <v>0.194915462145454</v>
       </c>
       <c r="X261" s="5"/>
       <c r="Y261" s="5"/>
@@ -65257,7 +65257,7 @@
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="1" t="n">
         <f aca="false">K258-AP258</f>
-        <v>0.0992446954558465</v>
+        <v>0.0950888513000001</v>
       </c>
       <c r="E262" s="0" t="n">
         <f aca="false">E258+1</f>
@@ -65265,7 +65265,7 @@
       </c>
       <c r="K262" s="5" t="n">
         <f aca="false">K261+$Z$185</f>
-        <v>0.472231708442858</v>
+        <v>0.467816124027271</v>
       </c>
       <c r="L262" s="5" t="n">
         <f aca="false">L261+$AA$185</f>
@@ -65273,7 +65273,7 @@
       </c>
       <c r="M262" s="5" t="n">
         <f aca="false">M261+$AB$185</f>
-        <v>0.224216465775324</v>
+        <v>0.219800881359741</v>
       </c>
       <c r="N262" s="5" t="n">
         <f aca="false">N261+$AC$185</f>
@@ -65281,15 +65281,15 @@
       </c>
       <c r="O262" s="5" t="n">
         <f aca="false">O261+$AD$185</f>
-        <v>0.198876501106494</v>
+        <v>0.207707669937662</v>
       </c>
       <c r="P262" s="5" t="n">
         <f aca="false">P261+$Z$186</f>
-        <v>0.419244695455842</v>
+        <v>0.414829111040259</v>
       </c>
       <c r="Q262" s="5" t="n">
         <f aca="false">Q261+$AA$186</f>
-        <v>0.25070997226883</v>
+        <v>0.246294387853247</v>
       </c>
       <c r="R262" s="5" t="n">
         <f aca="false">R261+$AB$186</f>
@@ -65297,15 +65297,15 @@
       </c>
       <c r="S262" s="5" t="n">
         <f aca="false">S261+$AC$186</f>
-        <v>0.212123254353247</v>
+        <v>0.220954423184415</v>
       </c>
       <c r="T262" s="5" t="n">
         <f aca="false">T261+$AD$186</f>
-        <v>0.525218721429871</v>
+        <v>0.520803137014287</v>
       </c>
       <c r="U262" s="5" t="n">
         <f aca="false">U261+$AE$186</f>
-        <v>0.197722959281818</v>
+        <v>0.193307374866235</v>
       </c>
       <c r="V262" s="5" t="n">
         <f aca="false">V261+$AF$186</f>
@@ -65313,7 +65313,7 @@
       </c>
       <c r="W262" s="5" t="n">
         <f aca="false">W261+$AG$186</f>
-        <v>0.185629747859741</v>
+        <v>0.194460916690909</v>
       </c>
       <c r="X262" s="5"/>
       <c r="Y262" s="5"/>
@@ -65385,7 +65385,7 @@
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="1" t="n">
         <f aca="false">K259-AP259</f>
-        <v>0.0993096305207816</v>
+        <v>0.0950888513000004</v>
       </c>
       <c r="E263" s="0" t="n">
         <f aca="false">E259+1</f>
@@ -65393,7 +65393,7 @@
       </c>
       <c r="K263" s="5" t="n">
         <f aca="false">K262+$Z$185</f>
-        <v>0.47366027987143</v>
+        <v>0.469179760390908</v>
       </c>
       <c r="L263" s="5" t="n">
         <f aca="false">L262+$AA$185</f>
@@ -65401,7 +65401,7 @@
       </c>
       <c r="M263" s="5" t="n">
         <f aca="false">M262+$AB$185</f>
-        <v>0.223696985255843</v>
+        <v>0.219216465775325</v>
       </c>
       <c r="N263" s="5" t="n">
         <f aca="false">N262+$AC$185</f>
@@ -65409,15 +65409,15 @@
       </c>
       <c r="O263" s="5" t="n">
         <f aca="false">O262+$AD$185</f>
-        <v>0.198486890716883</v>
+        <v>0.207447929677922</v>
       </c>
       <c r="P263" s="5" t="n">
         <f aca="false">P262+$Z$186</f>
-        <v>0.419894046105193</v>
+        <v>0.415413526624675</v>
       </c>
       <c r="Q263" s="5" t="n">
         <f aca="false">Q262+$AA$186</f>
-        <v>0.25058010213896</v>
+        <v>0.246099582658442</v>
       </c>
       <c r="R263" s="5" t="n">
         <f aca="false">R262+$AB$186</f>
@@ -65425,15 +65425,15 @@
       </c>
       <c r="S263" s="5" t="n">
         <f aca="false">S262+$AC$186</f>
-        <v>0.211928449158442</v>
+        <v>0.22088948811948</v>
       </c>
       <c r="T263" s="5" t="n">
         <f aca="false">T262+$AD$186</f>
-        <v>0.527426513637663</v>
+        <v>0.522945994157144</v>
       </c>
       <c r="U263" s="5" t="n">
         <f aca="false">U262+$AE$186</f>
-        <v>0.196813868372727</v>
+        <v>0.192333348892209</v>
       </c>
       <c r="V263" s="5" t="n">
         <f aca="false">V262+$AF$186</f>
@@ -65441,7 +65441,7 @@
       </c>
       <c r="W263" s="5" t="n">
         <f aca="false">W262+$AG$186</f>
-        <v>0.185045332275325</v>
+        <v>0.194006371236363</v>
       </c>
       <c r="X263" s="5"/>
       <c r="Y263" s="5"/>
@@ -65513,7 +65513,7 @@
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="1" t="n">
         <f aca="false">K260-AP260</f>
-        <v>0.0993745655857167</v>
+        <v>0.0950888512999997</v>
       </c>
       <c r="E264" s="0" t="n">
         <f aca="false">E260+1</f>
@@ -65521,7 +65521,7 @@
       </c>
       <c r="K264" s="5" t="n">
         <f aca="false">K263+$Z$185</f>
-        <v>0.475088851300001</v>
+        <v>0.470543396754544</v>
       </c>
       <c r="L264" s="5" t="n">
         <f aca="false">L263+$AA$185</f>
@@ -65529,7 +65529,7 @@
       </c>
       <c r="M264" s="5" t="n">
         <f aca="false">M263+$AB$185</f>
-        <v>0.223177504736363</v>
+        <v>0.21863205019091</v>
       </c>
       <c r="N264" s="5" t="n">
         <f aca="false">N263+$AC$185</f>
@@ -65537,15 +65537,15 @@
       </c>
       <c r="O264" s="5" t="n">
         <f aca="false">O263+$AD$185</f>
-        <v>0.198097280327273</v>
+        <v>0.207188189418181</v>
       </c>
       <c r="P264" s="5" t="n">
         <f aca="false">P263+$Z$186</f>
-        <v>0.420543396754544</v>
+        <v>0.41599794220909</v>
       </c>
       <c r="Q264" s="5" t="n">
         <f aca="false">Q263+$AA$186</f>
-        <v>0.25045023200909</v>
+        <v>0.245904777463637</v>
       </c>
       <c r="R264" s="5" t="n">
         <f aca="false">R263+$AB$186</f>
@@ -65553,15 +65553,15 @@
       </c>
       <c r="S264" s="5" t="n">
         <f aca="false">S263+$AC$186</f>
-        <v>0.211733643963637</v>
+        <v>0.220824553054545</v>
       </c>
       <c r="T264" s="5" t="n">
         <f aca="false">T263+$AD$186</f>
-        <v>0.529634305845455</v>
+        <v>0.525088851300001</v>
       </c>
       <c r="U264" s="5" t="n">
         <f aca="false">U263+$AE$186</f>
-        <v>0.195904777463636</v>
+        <v>0.191359322918183</v>
       </c>
       <c r="V264" s="5" t="n">
         <f aca="false">V263+$AF$186</f>
@@ -65569,7 +65569,7 @@
       </c>
       <c r="W264" s="5" t="n">
         <f aca="false">W263+$AG$186</f>
-        <v>0.18446091669091</v>
+        <v>0.193551825781818</v>
       </c>
       <c r="X264" s="5"/>
       <c r="Y264" s="5"/>
@@ -65641,7 +65641,7 @@
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="1" t="n">
         <f aca="false">K261-AP261</f>
-        <v>0.0994395006506518</v>
+        <v>0.0950888513000001</v>
       </c>
       <c r="E265" s="0" t="n">
         <f aca="false">E261+1</f>
@@ -65649,7 +65649,7 @@
       </c>
       <c r="K265" s="5" t="n">
         <f aca="false">K264+$Z$185</f>
-        <v>0.476517422728573</v>
+        <v>0.471907033118181</v>
       </c>
       <c r="L265" s="5" t="n">
         <f aca="false">L264+$AA$185</f>
@@ -65657,7 +65657,7 @@
       </c>
       <c r="M265" s="5" t="n">
         <f aca="false">M264+$AB$185</f>
-        <v>0.222658024216882</v>
+        <v>0.218047634606494</v>
       </c>
       <c r="N265" s="5" t="n">
         <f aca="false">N264+$AC$185</f>
@@ -65665,15 +65665,15 @@
       </c>
       <c r="O265" s="5" t="n">
         <f aca="false">O264+$AD$185</f>
-        <v>0.197707669937663</v>
+        <v>0.206928449158441</v>
       </c>
       <c r="P265" s="5" t="n">
         <f aca="false">P264+$Z$186</f>
-        <v>0.421192747403894</v>
+        <v>0.416582357793506</v>
       </c>
       <c r="Q265" s="5" t="n">
         <f aca="false">Q264+$AA$186</f>
-        <v>0.250320361879219</v>
+        <v>0.245709972268831</v>
       </c>
       <c r="R265" s="5" t="n">
         <f aca="false">R264+$AB$186</f>
@@ -65681,15 +65681,15 @@
       </c>
       <c r="S265" s="5" t="n">
         <f aca="false">S264+$AC$186</f>
-        <v>0.211538838768831</v>
+        <v>0.22075961798961</v>
       </c>
       <c r="T265" s="5" t="n">
         <f aca="false">T264+$AD$186</f>
-        <v>0.531842098053247</v>
+        <v>0.527231708442858</v>
       </c>
       <c r="U265" s="5" t="n">
         <f aca="false">U264+$AE$186</f>
-        <v>0.194995686554545</v>
+        <v>0.190385296944157</v>
       </c>
       <c r="V265" s="5" t="n">
         <f aca="false">V264+$AF$186</f>
@@ -65697,7 +65697,7 @@
       </c>
       <c r="W265" s="5" t="n">
         <f aca="false">W264+$AG$186</f>
-        <v>0.183876501106494</v>
+        <v>0.193097280327273</v>
       </c>
       <c r="X265" s="5"/>
       <c r="Y265" s="5"/>
@@ -65769,7 +65769,7 @@
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="1" t="n">
         <f aca="false">K262-AP262</f>
-        <v>0.0995044357155869</v>
+        <v>0.0950888513000004</v>
       </c>
       <c r="E266" s="0" t="n">
         <f aca="false">E262+1</f>
@@ -65777,7 +65777,7 @@
       </c>
       <c r="K266" s="5" t="n">
         <f aca="false">K265+$Z$185</f>
-        <v>0.477945994157144</v>
+        <v>0.473270669481817</v>
       </c>
       <c r="L266" s="5" t="n">
         <f aca="false">L265+$AA$185</f>
@@ -65785,7 +65785,7 @@
       </c>
       <c r="M266" s="5" t="n">
         <f aca="false">M265+$AB$185</f>
-        <v>0.222138543697402</v>
+        <v>0.217463219022078</v>
       </c>
       <c r="N266" s="5" t="n">
         <f aca="false">N265+$AC$185</f>
@@ -65793,15 +65793,15 @@
       </c>
       <c r="O266" s="5" t="n">
         <f aca="false">O265+$AD$185</f>
-        <v>0.197318059548052</v>
+        <v>0.206668708898701</v>
       </c>
       <c r="P266" s="5" t="n">
         <f aca="false">P265+$Z$186</f>
-        <v>0.421842098053245</v>
+        <v>0.417166773377921</v>
       </c>
       <c r="Q266" s="5" t="n">
         <f aca="false">Q265+$AA$186</f>
-        <v>0.250190491749349</v>
+        <v>0.245515167074026</v>
       </c>
       <c r="R266" s="5" t="n">
         <f aca="false">R265+$AB$186</f>
@@ -65809,15 +65809,15 @@
       </c>
       <c r="S266" s="5" t="n">
         <f aca="false">S265+$AC$186</f>
-        <v>0.211344033574026</v>
+        <v>0.220694682924675</v>
       </c>
       <c r="T266" s="5" t="n">
         <f aca="false">T265+$AD$186</f>
-        <v>0.534049890261039</v>
+        <v>0.529374565585715</v>
       </c>
       <c r="U266" s="5" t="n">
         <f aca="false">U265+$AE$186</f>
-        <v>0.194086595645454</v>
+        <v>0.189411270970131</v>
       </c>
       <c r="V266" s="5" t="n">
         <f aca="false">V265+$AF$186</f>
@@ -65825,7 +65825,7 @@
       </c>
       <c r="W266" s="5" t="n">
         <f aca="false">W265+$AG$186</f>
-        <v>0.183292085522079</v>
+        <v>0.192642734872727</v>
       </c>
       <c r="X266" s="5"/>
       <c r="Y266" s="5"/>
@@ -65897,7 +65897,7 @@
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="1" t="n">
         <f aca="false">K263-AP263</f>
-        <v>0.099569370780522</v>
+        <v>0.0950888512999998</v>
       </c>
       <c r="E267" s="0" t="n">
         <f aca="false">E263+1</f>
@@ -65905,7 +65905,7 @@
       </c>
       <c r="K267" s="5" t="n">
         <f aca="false">K266+$Z$185</f>
-        <v>0.479374565585716</v>
+        <v>0.474634305845453</v>
       </c>
       <c r="L267" s="5" t="n">
         <f aca="false">L266+$AA$185</f>
@@ -65913,7 +65913,7 @@
       </c>
       <c r="M267" s="5" t="n">
         <f aca="false">M266+$AB$185</f>
-        <v>0.221619063177921</v>
+        <v>0.216878803437663</v>
       </c>
       <c r="N267" s="5" t="n">
         <f aca="false">N266+$AC$185</f>
@@ -65921,15 +65921,15 @@
       </c>
       <c r="O267" s="5" t="n">
         <f aca="false">O266+$AD$185</f>
-        <v>0.196928449158442</v>
+        <v>0.206408968638961</v>
       </c>
       <c r="P267" s="5" t="n">
         <f aca="false">P266+$Z$186</f>
-        <v>0.422491448702595</v>
+        <v>0.417751188962337</v>
       </c>
       <c r="Q267" s="5" t="n">
         <f aca="false">Q266+$AA$186</f>
-        <v>0.250060621619479</v>
+        <v>0.245320361879221</v>
       </c>
       <c r="R267" s="5" t="n">
         <f aca="false">R266+$AB$186</f>
@@ -65937,15 +65937,15 @@
       </c>
       <c r="S267" s="5" t="n">
         <f aca="false">S266+$AC$186</f>
-        <v>0.211149228379221</v>
+        <v>0.22062974785974</v>
       </c>
       <c r="T267" s="5" t="n">
         <f aca="false">T266+$AD$186</f>
-        <v>0.536257682468832</v>
+        <v>0.531517422728572</v>
       </c>
       <c r="U267" s="5" t="n">
         <f aca="false">U266+$AE$186</f>
-        <v>0.193177504736363</v>
+        <v>0.188437244996105</v>
       </c>
       <c r="V267" s="5" t="n">
         <f aca="false">V266+$AF$186</f>
@@ -65953,7 +65953,7 @@
       </c>
       <c r="W267" s="5" t="n">
         <f aca="false">W266+$AG$186</f>
-        <v>0.182707669937663</v>
+        <v>0.192188189418182</v>
       </c>
       <c r="X267" s="5"/>
       <c r="Y267" s="5"/>
@@ -66025,7 +66025,7 @@
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="1" t="n">
         <f aca="false">K264-AP264</f>
-        <v>0.0996343058454571</v>
+        <v>0.0950888513000001</v>
       </c>
       <c r="E268" s="0" t="n">
         <f aca="false">E264+1</f>
@@ -66033,7 +66033,7 @@
       </c>
       <c r="K268" s="5" t="n">
         <f aca="false">K267+$Z$185</f>
-        <v>0.480803137014287</v>
+        <v>0.47599794220909</v>
       </c>
       <c r="L268" s="5" t="n">
         <f aca="false">L267+$AA$185</f>
@@ -66041,7 +66041,7 @@
       </c>
       <c r="M268" s="5" t="n">
         <f aca="false">M267+$AB$185</f>
-        <v>0.221099582658441</v>
+        <v>0.216294387853247</v>
       </c>
       <c r="N268" s="5" t="n">
         <f aca="false">N267+$AC$185</f>
@@ -66049,15 +66049,15 @@
       </c>
       <c r="O268" s="5" t="n">
         <f aca="false">O267+$AD$185</f>
-        <v>0.196538838768832</v>
+        <v>0.20614922837922</v>
       </c>
       <c r="P268" s="5" t="n">
         <f aca="false">P267+$Z$186</f>
-        <v>0.423140799351946</v>
+        <v>0.418335604546753</v>
       </c>
       <c r="Q268" s="5" t="n">
         <f aca="false">Q267+$AA$186</f>
-        <v>0.249930751489609</v>
+        <v>0.245125556684416</v>
       </c>
       <c r="R268" s="5" t="n">
         <f aca="false">R267+$AB$186</f>
@@ -66065,15 +66065,15 @@
       </c>
       <c r="S268" s="5" t="n">
         <f aca="false">S267+$AC$186</f>
-        <v>0.210954423184416</v>
+        <v>0.220564812794805</v>
       </c>
       <c r="T268" s="5" t="n">
         <f aca="false">T267+$AD$186</f>
-        <v>0.538465474676624</v>
+        <v>0.53366027987143</v>
       </c>
       <c r="U268" s="5" t="n">
         <f aca="false">U267+$AE$186</f>
-        <v>0.192268413827272</v>
+        <v>0.187463219022079</v>
       </c>
       <c r="V268" s="5" t="n">
         <f aca="false">V267+$AF$186</f>
@@ -66081,7 +66081,7 @@
       </c>
       <c r="W268" s="5" t="n">
         <f aca="false">W267+$AG$186</f>
-        <v>0.182123254353247</v>
+        <v>0.191733643963636</v>
       </c>
       <c r="X268" s="5"/>
       <c r="Y268" s="5"/>
@@ -66153,7 +66153,7 @@
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="1" t="n">
         <f aca="false">K265-AP265</f>
-        <v>0.0996992409103922</v>
+        <v>0.0950888513000005</v>
       </c>
       <c r="E269" s="0" t="n">
         <f aca="false">E265+1</f>
@@ -66161,7 +66161,7 @@
       </c>
       <c r="K269" s="5" t="n">
         <f aca="false">K268+$Z$185</f>
-        <v>0.482231708442858</v>
+        <v>0.477361578572726</v>
       </c>
       <c r="L269" s="5" t="n">
         <f aca="false">L268+$AA$185</f>
@@ -66169,7 +66169,7 @@
       </c>
       <c r="M269" s="5" t="n">
         <f aca="false">M268+$AB$185</f>
-        <v>0.22058010213896</v>
+        <v>0.215709972268832</v>
       </c>
       <c r="N269" s="5" t="n">
         <f aca="false">N268+$AC$185</f>
@@ -66177,15 +66177,15 @@
       </c>
       <c r="O269" s="5" t="n">
         <f aca="false">O268+$AD$185</f>
-        <v>0.196149228379221</v>
+        <v>0.20588948811948</v>
       </c>
       <c r="P269" s="5" t="n">
         <f aca="false">P268+$Z$186</f>
-        <v>0.423790150001297</v>
+        <v>0.418920020131168</v>
       </c>
       <c r="Q269" s="5" t="n">
         <f aca="false">Q268+$AA$186</f>
-        <v>0.249800881359739</v>
+        <v>0.244930751489611</v>
       </c>
       <c r="R269" s="5" t="n">
         <f aca="false">R268+$AB$186</f>
@@ -66193,15 +66193,15 @@
       </c>
       <c r="S269" s="5" t="n">
         <f aca="false">S268+$AC$186</f>
-        <v>0.210759617989611</v>
+        <v>0.220499877729869</v>
       </c>
       <c r="T269" s="5" t="n">
         <f aca="false">T268+$AD$186</f>
-        <v>0.540673266884416</v>
+        <v>0.535803137014287</v>
       </c>
       <c r="U269" s="5" t="n">
         <f aca="false">U268+$AE$186</f>
-        <v>0.191359322918181</v>
+        <v>0.186489193048053</v>
       </c>
       <c r="V269" s="5" t="n">
         <f aca="false">V268+$AF$186</f>
@@ -66209,7 +66209,7 @@
       </c>
       <c r="W269" s="5" t="n">
         <f aca="false">W268+$AG$186</f>
-        <v>0.181538838768832</v>
+        <v>0.191279098509091</v>
       </c>
       <c r="X269" s="5"/>
       <c r="Y269" s="5"/>
@@ -66281,7 +66281,7 @@
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="1" t="n">
         <f aca="false">K266-AP266</f>
-        <v>0.0997641759753273</v>
+        <v>0.0950888512999998</v>
       </c>
       <c r="E270" s="0" t="n">
         <f aca="false">E266+1</f>
@@ -66289,7 +66289,7 @@
       </c>
       <c r="K270" s="5" t="n">
         <f aca="false">K269+$Z$185</f>
-        <v>0.48366027987143</v>
+        <v>0.478725214936362</v>
       </c>
       <c r="L270" s="5" t="n">
         <f aca="false">L269+$AA$185</f>
@@ -66297,7 +66297,7 @@
       </c>
       <c r="M270" s="5" t="n">
         <f aca="false">M269+$AB$185</f>
-        <v>0.22006062161948</v>
+        <v>0.215125556684416</v>
       </c>
       <c r="N270" s="5" t="n">
         <f aca="false">N269+$AC$185</f>
@@ -66305,15 +66305,15 @@
       </c>
       <c r="O270" s="5" t="n">
         <f aca="false">O269+$AD$185</f>
-        <v>0.195759617989611</v>
+        <v>0.20562974785974</v>
       </c>
       <c r="P270" s="5" t="n">
         <f aca="false">P269+$Z$186</f>
-        <v>0.424439500650647</v>
+        <v>0.419504435715584</v>
       </c>
       <c r="Q270" s="5" t="n">
         <f aca="false">Q269+$AA$186</f>
-        <v>0.249671011229869</v>
+        <v>0.244735946294805</v>
       </c>
       <c r="R270" s="5" t="n">
         <f aca="false">R269+$AB$186</f>
@@ -66321,15 +66321,15 @@
       </c>
       <c r="S270" s="5" t="n">
         <f aca="false">S269+$AC$186</f>
-        <v>0.210564812794805</v>
+        <v>0.220434942664934</v>
       </c>
       <c r="T270" s="5" t="n">
         <f aca="false">T269+$AD$186</f>
-        <v>0.542881059092208</v>
+        <v>0.537945994157144</v>
       </c>
       <c r="U270" s="5" t="n">
         <f aca="false">U269+$AE$186</f>
-        <v>0.19045023200909</v>
+        <v>0.185515167074027</v>
       </c>
       <c r="V270" s="5" t="n">
         <f aca="false">V269+$AF$186</f>
@@ -66337,7 +66337,7 @@
       </c>
       <c r="W270" s="5" t="n">
         <f aca="false">W269+$AG$186</f>
-        <v>0.180954423184416</v>
+        <v>0.190824553054545</v>
       </c>
       <c r="X270" s="5"/>
       <c r="Y270" s="5"/>
@@ -66409,67 +66409,67 @@
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
         <f aca="false">(B271-B176)/B176</f>
-        <v>-0.0198186933843439</v>
+        <v>-0.0687842521795849</v>
       </c>
       <c r="B271" s="1" t="n">
         <f aca="false">K271-AP271</f>
-        <v>0.1000888513</v>
+        <v>0.0950888513</v>
       </c>
       <c r="E271" s="0" t="n">
         <f aca="false">E267+1</f>
         <v>2040</v>
       </c>
       <c r="K271" s="8" t="n">
-        <f aca="false">K194+0.11</f>
-        <v>0.4850888513</v>
+        <f aca="false">K194+0.105</f>
+        <v>0.4800888513</v>
       </c>
       <c r="L271" s="8" t="n">
         <f aca="false">L194</f>
         <v>0.065</v>
       </c>
       <c r="M271" s="8" t="n">
-        <f aca="false">M194-0.04</f>
-        <v>0.2195411411</v>
+        <f aca="false">M194-0.045</f>
+        <v>0.2145411411</v>
       </c>
       <c r="N271" s="8" t="n">
         <f aca="false">N194-0.04</f>
         <v>0.035</v>
       </c>
       <c r="O271" s="8" t="n">
-        <f aca="false">O194-0.03</f>
-        <v>0.1953700076</v>
+        <f aca="false">O194-0.02</f>
+        <v>0.2053700076</v>
       </c>
       <c r="P271" s="8" t="n">
-        <f aca="false">P194+0.05</f>
-        <v>0.4250888513</v>
+        <f aca="false">P194+0.045</f>
+        <v>0.4200888513</v>
       </c>
       <c r="Q271" s="8" t="n">
-        <f aca="false">Q194-0.01</f>
-        <v>0.2495411411</v>
+        <f aca="false">Q194-0.015</f>
+        <v>0.2445411411</v>
       </c>
       <c r="R271" s="8" t="n">
         <f aca="false">R194-0.025</f>
         <v>0.05</v>
       </c>
       <c r="S271" s="8" t="n">
-        <f aca="false">S194-0.015</f>
-        <v>0.2103700076</v>
+        <f aca="false">S194-0.005</f>
+        <v>0.2203700076</v>
       </c>
       <c r="T271" s="8" t="n">
-        <f aca="false">T194+0.17</f>
-        <v>0.5450888513</v>
+        <f aca="false">T194+0.165</f>
+        <v>0.5400888513</v>
       </c>
       <c r="U271" s="8" t="n">
-        <f aca="false">U194-0.07</f>
-        <v>0.1895411411</v>
+        <f aca="false">U194-0.075</f>
+        <v>0.1845411411</v>
       </c>
       <c r="V271" s="8" t="n">
         <f aca="false">V194-0.055</f>
         <v>0.02</v>
       </c>
       <c r="W271" s="8" t="n">
-        <f aca="false">W194-0.045</f>
-        <v>0.1803700076</v>
+        <f aca="false">W194-0.035</f>
+        <v>0.1903700076</v>
       </c>
       <c r="X271" s="5"/>
       <c r="Y271" s="5"/>
@@ -66684,7 +66684,7 @@
       </c>
       <c r="G284" s="1" t="n">
         <f aca="false">M271/SUM(K271:N271)</f>
-        <v>0.272847325073188</v>
+        <v>0.269988728278462</v>
       </c>
       <c r="H284" s="1" t="n">
         <f aca="false">AR271/SUM(AP271:AS271)</f>

--- a/Excel_files_for_MISSAR/Prospective_scenarios/2014_q4_start/Historical_graphs_ages_16_69/Economic_scenarios_representation_nov_2020.xlsx
+++ b/Excel_files_for_MISSAR/Prospective_scenarios/2014_q4_start/Historical_graphs_ages_16_69/Economic_scenarios_representation_nov_2020.xlsx
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="210">
   <si>
     <t xml:space="preserve">MEN</t>
   </si>
   <si>
     <t xml:space="preserve">WOMEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">period2</t>
   </si>
   <si>
     <t xml:space="preserve">Formal wage-earners</t>
@@ -86,6 +80,51 @@
   </si>
   <si>
     <t xml:space="preserve">Inactive, high scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">period2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asalariados formales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajadores independientes del sector formal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajadores no registrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desempleados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inactivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escenario central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escenario pesimista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escenario optimista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asalariadas formales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajadoras independientes del sector formal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajadoras no registradas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desempleadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inactivas</t>
   </si>
   <si>
     <t xml:space="preserve">1974_4</t>
@@ -796,7 +835,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCC1DA"/>
       <rgbColor rgb="FF878787"/>
-      <rgbColor rgb="FF95B3D7"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF9D3E3B"/>
       <rgbColor rgb="FFFDEADA"/>
       <rgbColor rgb="FFD9D9D9"/>
@@ -816,8 +855,8 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFD7E4BD"/>
       <rgbColor rgb="FFC3D69B"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FF95B3D7"/>
+      <rgbColor rgb="FFFF99FF"/>
       <rgbColor rgb="FFB3A2C7"/>
       <rgbColor rgb="FFFCD5B5"/>
       <rgbColor rgb="FF4F81BD"/>
@@ -841,7 +880,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -852,10 +891,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.052481603256615"/>
-          <c:y val="0.02028763055157"/>
-          <c:w val="0.917300767183341"/>
-          <c:h val="0.625446294504321"/>
+          <c:x val="0.0524706324005569"/>
+          <c:y val="0.0202889845496713"/>
+          <c:w val="0.917285823778761"/>
+          <c:h val="0.758367537624721"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -870,7 +909,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Formal wage-earners</c:v>
+                  <c:v>Asalariados formales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -885,7 +924,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="5"/>
+            <c:size val="13"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="4f81bd"/>
@@ -893,7 +932,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -2058,7 +2097,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Formal wage-earners, low scenario</c:v>
+                  <c:v>Escenario pesimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3147,7 +3186,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Formal wage-earners, central scenario</c:v>
+                  <c:v>Escenario central</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4248,7 +4287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Formal wage-earners, high scenario</c:v>
+                  <c:v>Escenario optimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5337,7 +5376,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Independent workers of the formal sector</c:v>
+                  <c:v>Trabajadores independientes del sector formal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5347,15 +5386,12 @@
               <a:srgbClr val="9d3e3b"/>
             </a:solidFill>
             <a:ln w="47520">
-              <a:solidFill>
-                <a:srgbClr val="9d3e3b"/>
-              </a:solidFill>
-              <a:round/>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="13"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="9d3e3b"/>
@@ -5363,7 +5399,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -6528,7 +6564,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Independent workers of the formal sector, central scenario</c:v>
+                  <c:v>Escenario central</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7629,7 +7665,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Informal sector workers</c:v>
+                  <c:v>Trabajadores no registrados</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7644,7 +7680,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="5"/>
+            <c:size val="13"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="9bbb59"/>
@@ -7652,7 +7688,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -8817,7 +8853,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Informal sector workers, low scenario</c:v>
+                  <c:v>Escenario pesimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9906,7 +9942,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Informal sector workers, central scenario</c:v>
+                  <c:v>Escenario central</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11007,7 +11043,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Informal sector workers, high scenario</c:v>
+                  <c:v>Escenario optimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12096,30 +12132,30 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unemployed</c:v>
+                  <c:v>Desempleados</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="99ccff"/>
+              <a:srgbClr val="ff99ff"/>
             </a:solidFill>
             <a:ln w="47520">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="99ccff"/>
+                <a:srgbClr val="ff99ff"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -13284,7 +13320,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unemployed, low scenario</c:v>
+                  <c:v>Escenario pesimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14377,7 +14413,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unemployed, central scenario</c:v>
+                  <c:v>Escenario central</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15482,7 +15518,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unemployed, high scenario</c:v>
+                  <c:v>Escenario optimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16571,7 +16607,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inactive</c:v>
+                  <c:v>Inactivos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16586,15 +16622,52 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="9"/>
+            <c:size val="13"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="fdeada"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="50"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="13"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="fdeada"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
+            <c:dLbl>
+              <c:idx val="50"/>
+              <c:numFmt formatCode="0%" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="es-AR" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -17771,7 +17844,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inactive, low scenario</c:v>
+                  <c:v>Escenario pesimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18860,7 +18933,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inactive, central scenario</c:v>
+                  <c:v>Escenario central</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19961,7 +20034,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inactive, high scenario</c:v>
+                  <c:v>Escenario optimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -21049,11 +21122,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="14620874"/>
-        <c:axId val="88312981"/>
+        <c:axId val="23215648"/>
+        <c:axId val="20763351"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="14620874"/>
+        <c:axId val="23215648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21085,17 +21158,17 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88312981"/>
+        <c:crossAx val="20763351"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88312981"/>
+        <c:axId val="20763351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.8"/>
+          <c:max val="0.6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -21135,7 +21208,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14620874"/>
+        <c:crossAx val="23215648"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21149,18 +21222,16 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0180967358882653"/>
-          <c:y val="0.708526821158031"/>
-          <c:w val="0.969007669495858"/>
-          <c:h val="0.282777481996245"/>
+          <c:x val="0.0180819946504825"/>
+          <c:y val="0.786865552107318"/>
+          <c:w val="0.969013467644805"/>
+          <c:h val="0.204458237394467"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -21199,7 +21270,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -21210,10 +21281,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0465087086144673"/>
-          <c:y val="0.0268279677397854"/>
-          <c:w val="0.940718656833516"/>
-          <c:h val="0.590881823635273"/>
+          <c:x val="0.0465098051510354"/>
+          <c:y val="0.026829756032529"/>
+          <c:w val="0.940698822754848"/>
+          <c:h val="0.721903746167178"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -21228,7 +21299,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Formal wage-earners</c:v>
+                  <c:v>Asalariadas formales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -21246,7 +21317,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="9"/>
+            <c:size val="13"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="3d679a"/>
@@ -21254,7 +21325,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -22419,7 +22490,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Formal wage-earners, low scenario</c:v>
+                  <c:v>Escenario pesimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -23511,7 +23582,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Formal wage-earners, central scenario</c:v>
+                  <c:v>Escenario central</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -24615,7 +24686,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Formal wage-earners, high scenario</c:v>
+                  <c:v>Escenario optimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -25707,7 +25778,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Independent workers of the formal sector</c:v>
+                  <c:v>Trabajadoras independientes del sector formal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -25717,15 +25788,12 @@
               <a:srgbClr val="9d3e3b"/>
             </a:solidFill>
             <a:ln w="12600">
-              <a:solidFill>
-                <a:srgbClr val="9d3e3b"/>
-              </a:solidFill>
-              <a:round/>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="9"/>
+            <c:symbol val="x"/>
+            <c:size val="13"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="9d3e3b"/>
@@ -25733,7 +25801,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -26898,7 +26966,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Independent workers of the formal sector, central scenario</c:v>
+                  <c:v>Escenario central</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -28002,7 +28070,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Informal sector workers</c:v>
+                  <c:v>Trabajadoras no registradas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -28016,8 +28084,8 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="9"/>
+            <c:symbol val="square"/>
+            <c:size val="13"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="c3d69b"/>
@@ -28025,7 +28093,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -29190,7 +29258,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Informal sector workers, low scenario</c:v>
+                  <c:v>Escenario pesimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -30282,7 +30350,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Informal sector workers, central scenario</c:v>
+                  <c:v>Escenario central</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -31386,7 +31454,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Informal sector workers, high scenario</c:v>
+                  <c:v>Escenario optimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -32478,30 +32546,30 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unemployed</c:v>
+                  <c:v>Desempleadas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="99ccff"/>
+              <a:srgbClr val="ff99ff"/>
             </a:solidFill>
             <a:ln w="12600">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="9"/>
+            <c:symbol val="triangle"/>
+            <c:size val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="99ccff"/>
+                <a:srgbClr val="ff99ff"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -33666,7 +33734,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unemployed, low scenario</c:v>
+                  <c:v>Escenario pesimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -34758,7 +34826,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unemployed, central scenario</c:v>
+                  <c:v>Escenario central</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -35862,7 +35930,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unemployed, high scenario</c:v>
+                  <c:v>Escenario optimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -36954,7 +37022,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inactive</c:v>
+                  <c:v>Inactivas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -36969,7 +37037,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="9"/>
+            <c:size val="13"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="fdeada"/>
@@ -36977,7 +37045,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -38157,7 +38225,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inactive, low scenario</c:v>
+                  <c:v>Escenario pesimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -39249,7 +39317,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inactive, central scenario</c:v>
+                  <c:v>Escenario central</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -40353,7 +40421,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inactive, high scenario</c:v>
+                  <c:v>Escenario optimista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -41444,11 +41512,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="78007631"/>
-        <c:axId val="22887806"/>
+        <c:axId val="14044509"/>
+        <c:axId val="59284396"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78007631"/>
+        <c:axId val="14044509"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41480,14 +41548,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22887806"/>
+        <c:crossAx val="59284396"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22887806"/>
+        <c:axId val="59284396"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -41531,7 +41599,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78007631"/>
+        <c:crossAx val="14044509"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -41545,18 +41613,16 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.00735268078713329"/>
-          <c:y val="0.685606094450959"/>
-          <c:w val="0.977329608713732"/>
-          <c:h val="0.303030286107854"/>
+          <c:x val="0.00735190381389808"/>
+          <c:y val="0.782928942807626"/>
+          <c:w val="0.977332936215572"/>
+          <c:h val="0.205705905879216"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -41600,15 +41666,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>385920</xdr:colOff>
+      <xdr:colOff>411840</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>473040</xdr:colOff>
+      <xdr:colOff>498600</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -41616,8 +41682,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="41046840" y="0"/>
-        <a:ext cx="22992840" cy="10788480"/>
+        <a:off x="41112720" y="0"/>
+        <a:ext cx="23015160" cy="10788120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -41630,15 +41696,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>628560</xdr:colOff>
+      <xdr:colOff>628920</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>83</xdr:col>
       <xdr:colOff>28800</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -41646,8 +41712,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="29836440" y="12911400"/>
-        <a:ext cx="22942440" cy="10801800"/>
+        <a:off x="29865240" y="12942000"/>
+        <a:ext cx="22965480" cy="10801440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -41662,11 +41728,11 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>298800</xdr:colOff>
+      <xdr:colOff>298440</xdr:colOff>
       <xdr:row>182</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -41679,8 +41745,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15210000" y="27656280"/>
-          <a:ext cx="298800" cy="298800"/>
+          <a:off x="15224760" y="27687240"/>
+          <a:ext cx="298440" cy="298440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41704,11 +41770,11 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>317520</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>616320</xdr:colOff>
+      <xdr:colOff>615960</xdr:colOff>
       <xdr:row>182</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -41721,8 +41787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15527520" y="27656280"/>
-          <a:ext cx="298800" cy="298800"/>
+          <a:off x="15542280" y="27687240"/>
+          <a:ext cx="298440" cy="298440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41746,11 +41812,11 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>12600</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>261000</xdr:colOff>
+      <xdr:colOff>260640</xdr:colOff>
       <xdr:row>182</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -41763,8 +41829,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15858720" y="27656280"/>
-          <a:ext cx="248400" cy="298800"/>
+          <a:off x="15874200" y="27687240"/>
+          <a:ext cx="248040" cy="298440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41793,11 +41859,11 @@
   </sheetPr>
   <dimension ref="A1:BL284"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AT234" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BD276" activeCellId="0" sqref="BD276"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO71" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BQ168" activeCellId="0" sqref="BQ168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.16"/>
   </cols>
@@ -41812,128 +41878,236 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="V6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="0" t="s">
+      <c r="AI6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AH6" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI6" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="AK6" s="0" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="AL6" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="AM6" s="0" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="AN6" s="0" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="AO6" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="AP6" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="AQ6" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AR6" s="0" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AS6" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AT6" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AU6" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AV6" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AW6" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AX6" s="0" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AY6" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AZ6" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="BA6" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="BB6" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41942,7 +42116,7 @@
         <v>0.2843990218</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
@@ -41985,7 +42159,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AH7" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="AI7" s="0" t="n">
         <v>0</v>
@@ -42025,7 +42199,7 @@
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -42058,7 +42232,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AH8" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AI8" s="0" t="n">
         <v>1</v>
@@ -42088,7 +42262,7 @@
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>2</v>
@@ -42121,7 +42295,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AH9" s="0" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="AI9" s="0" t="n">
         <v>2</v>
@@ -42151,7 +42325,7 @@
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>3</v>
@@ -42184,7 +42358,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AH10" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AI10" s="0" t="n">
         <v>3</v>
@@ -42214,7 +42388,7 @@
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -42247,7 +42421,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AH11" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="AI11" s="0" t="n">
         <v>4</v>
@@ -42277,7 +42451,7 @@
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>5</v>
@@ -42310,7 +42484,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AH12" s="0" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AI12" s="0" t="n">
         <v>5</v>
@@ -42340,7 +42514,7 @@
     </row>
     <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>6</v>
@@ -42373,7 +42547,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AH13" s="0" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AI13" s="0" t="n">
         <v>6</v>
@@ -42403,7 +42577,7 @@
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>7</v>
@@ -42436,7 +42610,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AH14" s="0" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AI14" s="0" t="n">
         <v>7</v>
@@ -42466,7 +42640,7 @@
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>8</v>
@@ -42499,7 +42673,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AH15" s="0" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="AI15" s="0" t="n">
         <v>8</v>
@@ -42529,7 +42703,7 @@
     </row>
     <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>9</v>
@@ -42562,7 +42736,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AH16" s="0" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AI16" s="0" t="n">
         <v>9</v>
@@ -42592,7 +42766,7 @@
     </row>
     <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>10</v>
@@ -42625,7 +42799,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AH17" s="0" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AI17" s="0" t="n">
         <v>10</v>
@@ -42655,7 +42829,7 @@
     </row>
     <row r="18" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>11</v>
@@ -42688,7 +42862,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AH18" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="AI18" s="0" t="n">
         <v>11</v>
@@ -42718,7 +42892,7 @@
     </row>
     <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>12</v>
@@ -42751,7 +42925,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AH19" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="AI19" s="0" t="n">
         <v>12</v>
@@ -42781,7 +42955,7 @@
     </row>
     <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>13</v>
@@ -42814,7 +42988,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AH20" s="0" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="AI20" s="0" t="n">
         <v>13</v>
@@ -42844,7 +43018,7 @@
     </row>
     <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>14</v>
@@ -42877,7 +43051,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AH21" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AI21" s="0" t="n">
         <v>14</v>
@@ -42907,7 +43081,7 @@
     </row>
     <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>15</v>
@@ -42940,7 +43114,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AH22" s="0" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AI22" s="0" t="n">
         <v>15</v>
@@ -42970,7 +43144,7 @@
     </row>
     <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>16</v>
@@ -43003,7 +43177,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AH23" s="0" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AI23" s="0" t="n">
         <v>16</v>
@@ -43033,7 +43207,7 @@
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>17</v>
@@ -43066,7 +43240,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AH24" s="0" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AI24" s="0" t="n">
         <v>17</v>
@@ -43096,7 +43270,7 @@
     </row>
     <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>18</v>
@@ -43129,7 +43303,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AH25" s="0" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="AI25" s="0" t="n">
         <v>18</v>
@@ -43159,7 +43333,7 @@
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>19</v>
@@ -43192,7 +43366,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AH26" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="AI26" s="0" t="n">
         <v>19</v>
@@ -43222,7 +43396,7 @@
     </row>
     <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>20</v>
@@ -43255,7 +43429,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AH27" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AI27" s="0" t="n">
         <v>20</v>
@@ -43285,7 +43459,7 @@
     </row>
     <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>21</v>
@@ -43318,7 +43492,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AH28" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AI28" s="0" t="n">
         <v>21</v>
@@ -43348,7 +43522,7 @@
     </row>
     <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>22</v>
@@ -43381,7 +43555,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AH29" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AI29" s="0" t="n">
         <v>22</v>
@@ -43411,7 +43585,7 @@
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>23</v>
@@ -43444,7 +43618,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AH30" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="AI30" s="0" t="n">
         <v>23</v>
@@ -43478,7 +43652,7 @@
         <v>0.221750072</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>24</v>
@@ -43521,7 +43695,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AH31" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AI31" s="0" t="n">
         <v>24</v>
@@ -43561,7 +43735,7 @@
     </row>
     <row r="32" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>25</v>
@@ -43594,7 +43768,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AH32" s="0" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="AI32" s="0" t="n">
         <v>25</v>
@@ -43624,7 +43798,7 @@
     </row>
     <row r="33" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>26</v>
@@ -43657,7 +43831,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AH33" s="0" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="AI33" s="0" t="n">
         <v>26</v>
@@ -43687,7 +43861,7 @@
     </row>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>27</v>
@@ -43720,7 +43894,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AH34" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AI34" s="0" t="n">
         <v>27</v>
@@ -43754,7 +43928,7 @@
         <v>0.2160148082</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>28</v>
@@ -43797,7 +43971,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AH35" s="0" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="AI35" s="0" t="n">
         <v>28</v>
@@ -43837,7 +44011,7 @@
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>29</v>
@@ -43870,7 +44044,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AH36" s="0" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="AI36" s="0" t="n">
         <v>29</v>
@@ -43900,7 +44074,7 @@
     </row>
     <row r="37" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>30</v>
@@ -43933,7 +44107,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AH37" s="0" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AI37" s="0" t="n">
         <v>30</v>
@@ -43963,7 +44137,7 @@
     </row>
     <row r="38" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>31</v>
@@ -43996,7 +44170,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AH38" s="0" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AI38" s="0" t="n">
         <v>31</v>
@@ -44030,7 +44204,7 @@
         <v>0.2147149501</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>32</v>
@@ -44073,7 +44247,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AH39" s="0" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="AI39" s="0" t="n">
         <v>32</v>
@@ -44113,7 +44287,7 @@
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>33</v>
@@ -44146,7 +44320,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AH40" s="0" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="AI40" s="0" t="n">
         <v>33</v>
@@ -44176,7 +44350,7 @@
     </row>
     <row r="41" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>34</v>
@@ -44209,7 +44383,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AH41" s="0" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="AI41" s="0" t="n">
         <v>34</v>
@@ -44239,7 +44413,7 @@
     </row>
     <row r="42" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>35</v>
@@ -44272,7 +44446,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AH42" s="0" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="AI42" s="0" t="n">
         <v>35</v>
@@ -44302,7 +44476,7 @@
     </row>
     <row r="43" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>36</v>
@@ -44335,7 +44509,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AH43" s="0" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="AI43" s="0" t="n">
         <v>36</v>
@@ -44365,7 +44539,7 @@
     </row>
     <row r="44" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>37</v>
@@ -44398,7 +44572,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AH44" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="AI44" s="0" t="n">
         <v>37</v>
@@ -44428,7 +44602,7 @@
     </row>
     <row r="45" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>38</v>
@@ -44461,7 +44635,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AH45" s="0" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AI45" s="0" t="n">
         <v>38</v>
@@ -44491,7 +44665,7 @@
     </row>
     <row r="46" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>39</v>
@@ -44524,7 +44698,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AH46" s="0" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="AI46" s="0" t="n">
         <v>39</v>
@@ -44554,7 +44728,7 @@
     </row>
     <row r="47" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>40</v>
@@ -44587,7 +44761,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AH47" s="0" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="AI47" s="0" t="n">
         <v>40</v>
@@ -44617,7 +44791,7 @@
     </row>
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>41</v>
@@ -44650,7 +44824,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AH48" s="0" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AI48" s="0" t="n">
         <v>41</v>
@@ -44680,7 +44854,7 @@
     </row>
     <row r="49" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>42</v>
@@ -44713,7 +44887,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AH49" s="0" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AI49" s="0" t="n">
         <v>42</v>
@@ -44743,7 +44917,7 @@
     </row>
     <row r="50" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>43</v>
@@ -44776,7 +44950,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AH50" s="0" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AI50" s="0" t="n">
         <v>43</v>
@@ -44810,7 +44984,7 @@
         <v>0.2023154242</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>44</v>
@@ -44853,7 +45027,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AH51" s="0" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AI51" s="0" t="n">
         <v>44</v>
@@ -44897,7 +45071,7 @@
         <v>0.1930045604</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>45</v>
@@ -44940,7 +45114,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AH52" s="0" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AI52" s="0" t="n">
         <v>45</v>
@@ -44984,7 +45158,7 @@
         <v>0.1930045604</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>46</v>
@@ -45027,7 +45201,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AH53" s="0" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="AI53" s="0" t="n">
         <v>46</v>
@@ -45067,7 +45241,7 @@
     </row>
     <row r="54" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>47</v>
@@ -45100,7 +45274,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AH54" s="0" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="AI54" s="0" t="n">
         <v>47</v>
@@ -45134,7 +45308,7 @@
         <v>0.1930045604</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>48</v>
@@ -45177,7 +45351,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AH55" s="0" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="AI55" s="0" t="n">
         <v>48</v>
@@ -45217,7 +45391,7 @@
     </row>
     <row r="56" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>49</v>
@@ -45250,7 +45424,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AH56" s="0" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="AI56" s="0" t="n">
         <v>49</v>
@@ -45284,7 +45458,7 @@
         <v>0.1885730096</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>50</v>
@@ -45327,7 +45501,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AH57" s="0" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AI57" s="0" t="n">
         <v>50</v>
@@ -45368,7 +45542,7 @@
     <row r="58" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1"/>
       <c r="C58" s="0" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>51</v>
@@ -45401,7 +45575,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AH58" s="0" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AI58" s="0" t="n">
         <v>51</v>
@@ -45435,7 +45609,7 @@
         <v>0.1926977049</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>52</v>
@@ -45478,7 +45652,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AH59" s="0" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="AI59" s="0" t="n">
         <v>52</v>
@@ -45519,7 +45693,7 @@
     <row r="60" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1"/>
       <c r="C60" s="0" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>53</v>
@@ -45552,7 +45726,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AH60" s="0" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="AI60" s="0" t="n">
         <v>53</v>
@@ -45586,7 +45760,7 @@
         <v>0.2046257168</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>54</v>
@@ -45629,7 +45803,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AH61" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AI61" s="0" t="n">
         <v>54</v>
@@ -45670,7 +45844,7 @@
     <row r="62" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1"/>
       <c r="C62" s="0" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>55</v>
@@ -45703,7 +45877,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AH62" s="0" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AI62" s="0" t="n">
         <v>55</v>
@@ -45737,7 +45911,7 @@
         <v>0.2062431092</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>56</v>
@@ -45780,7 +45954,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AH63" s="0" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AI63" s="0" t="n">
         <v>56</v>
@@ -45821,7 +45995,7 @@
     <row r="64" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1"/>
       <c r="C64" s="0" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>57</v>
@@ -45854,7 +46028,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AH64" s="0" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AI64" s="0" t="n">
         <v>57</v>
@@ -45888,7 +46062,7 @@
         <v>0.1953480597</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>58</v>
@@ -45931,7 +46105,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AH65" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AI65" s="0" t="n">
         <v>58</v>
@@ -45972,7 +46146,7 @@
     <row r="66" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1"/>
       <c r="C66" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>59</v>
@@ -46005,7 +46179,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AH66" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AI66" s="0" t="n">
         <v>59</v>
@@ -46039,7 +46213,7 @@
         <v>0.205824674</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>60</v>
@@ -46082,7 +46256,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
       <c r="AH67" s="0" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI67" s="0" t="n">
         <v>60</v>
@@ -46123,7 +46297,7 @@
     <row r="68" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1"/>
       <c r="C68" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>61</v>
@@ -46156,7 +46330,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AH68" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="AI68" s="0" t="n">
         <v>61</v>
@@ -46190,7 +46364,7 @@
         <v>0.1953594758</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>62</v>
@@ -46233,7 +46407,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AH69" s="0" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="AI69" s="0" t="n">
         <v>62</v>
@@ -46274,7 +46448,7 @@
     <row r="70" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1"/>
       <c r="C70" s="0" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>63</v>
@@ -46307,7 +46481,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AH70" s="0" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="AI70" s="0" t="n">
         <v>63</v>
@@ -46341,7 +46515,7 @@
         <v>0.1981950534</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>64</v>
@@ -46384,7 +46558,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AH71" s="0" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="AI71" s="0" t="n">
         <v>64</v>
@@ -46425,7 +46599,7 @@
     <row r="72" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1"/>
       <c r="C72" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>65</v>
@@ -46458,7 +46632,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AH72" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="AI72" s="0" t="n">
         <v>65</v>
@@ -46492,7 +46666,7 @@
         <v>0.1899033235</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>66</v>
@@ -46535,7 +46709,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AH73" s="0" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="AI73" s="0" t="n">
         <v>66</v>
@@ -46576,7 +46750,7 @@
     <row r="74" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1"/>
       <c r="C74" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>67</v>
@@ -46609,7 +46783,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AH74" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="AI74" s="0" t="n">
         <v>67</v>
@@ -46643,7 +46817,7 @@
         <v>0.1892407115</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>68</v>
@@ -46686,7 +46860,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AH75" s="0" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="AI75" s="0" t="n">
         <v>68</v>
@@ -46727,7 +46901,7 @@
     <row r="76" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1"/>
       <c r="C76" s="0" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>69</v>
@@ -46760,7 +46934,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AH76" s="0" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="AI76" s="0" t="n">
         <v>69</v>
@@ -46794,7 +46968,7 @@
         <v>0.1932947954</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>70</v>
@@ -46837,7 +47011,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AH77" s="0" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="AI77" s="0" t="n">
         <v>70</v>
@@ -46878,7 +47052,7 @@
     <row r="78" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1"/>
       <c r="C78" s="0" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>71</v>
@@ -46911,7 +47085,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AH78" s="0" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="AI78" s="0" t="n">
         <v>71</v>
@@ -46945,7 +47119,7 @@
         <v>0.1783317932</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>72</v>
@@ -46988,7 +47162,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AH79" s="0" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="AI79" s="0" t="n">
         <v>72</v>
@@ -47029,7 +47203,7 @@
     <row r="80" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1"/>
       <c r="C80" s="0" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>73</v>
@@ -47062,7 +47236,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AH80" s="0" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="AI80" s="0" t="n">
         <v>73</v>
@@ -47096,7 +47270,7 @@
         <v>0.1735853086</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>74</v>
@@ -47139,7 +47313,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
       <c r="AH81" s="0" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="AI81" s="0" t="n">
         <v>74</v>
@@ -47180,7 +47354,7 @@
     <row r="82" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1"/>
       <c r="C82" s="0" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>75</v>
@@ -47213,7 +47387,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
       <c r="AH82" s="0" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="AI82" s="0" t="n">
         <v>75</v>
@@ -47247,7 +47421,7 @@
         <v>0.1694606393</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>76</v>
@@ -47290,7 +47464,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
       <c r="AH83" s="0" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="AI83" s="0" t="n">
         <v>76</v>
@@ -47331,7 +47505,7 @@
     <row r="84" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1"/>
       <c r="C84" s="0" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>77</v>
@@ -47364,7 +47538,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
       <c r="AH84" s="0" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="AI84" s="0" t="n">
         <v>77</v>
@@ -47398,7 +47572,7 @@
         <v>0.1646670672</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>78</v>
@@ -47441,7 +47615,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
       <c r="AH85" s="0" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="AI85" s="0" t="n">
         <v>78</v>
@@ -47482,7 +47656,7 @@
     <row r="86" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1"/>
       <c r="C86" s="0" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>79</v>
@@ -47515,7 +47689,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
       <c r="AH86" s="0" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="AI86" s="0" t="n">
         <v>79</v>
@@ -47549,7 +47723,7 @@
         <v>0.1661993112</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>80</v>
@@ -47592,7 +47766,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
       <c r="AH87" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="AI87" s="0" t="n">
         <v>80</v>
@@ -47633,7 +47807,7 @@
     <row r="88" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1"/>
       <c r="C88" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>81</v>
@@ -47666,7 +47840,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
       <c r="AH88" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="AI88" s="0" t="n">
         <v>81</v>
@@ -47700,7 +47874,7 @@
         <v>0.1574391095</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>82</v>
@@ -47743,7 +47917,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
       <c r="AH89" s="0" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="AI89" s="0" t="n">
         <v>82</v>
@@ -47784,7 +47958,7 @@
     <row r="90" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1"/>
       <c r="C90" s="0" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>83</v>
@@ -47817,7 +47991,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
       <c r="AH90" s="0" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="AI90" s="0" t="n">
         <v>83</v>
@@ -47851,7 +48025,7 @@
         <v>0.1447698886</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>84</v>
@@ -47894,7 +48068,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
       <c r="AH91" s="0" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="AI91" s="0" t="n">
         <v>84</v>
@@ -47935,7 +48109,7 @@
     <row r="92" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1"/>
       <c r="C92" s="0" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>85</v>
@@ -47968,7 +48142,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
       <c r="AH92" s="0" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="AI92" s="0" t="n">
         <v>85</v>
@@ -48002,7 +48176,7 @@
         <v>0.1417102259</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>86</v>
@@ -48045,7 +48219,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
       <c r="AH93" s="0" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="AI93" s="0" t="n">
         <v>86</v>
@@ -48086,7 +48260,7 @@
     <row r="94" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1"/>
       <c r="C94" s="0" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>87</v>
@@ -48119,7 +48293,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
       <c r="AH94" s="0" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AI94" s="0" t="n">
         <v>87</v>
@@ -48153,7 +48327,7 @@
         <v>0.1451474275</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>88</v>
@@ -48196,7 +48370,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
       <c r="AH95" s="0" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AI95" s="0" t="n">
         <v>88</v>
@@ -48237,7 +48411,7 @@
     <row r="96" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1"/>
       <c r="C96" s="0" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>89</v>
@@ -48270,7 +48444,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
       <c r="AH96" s="0" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="AI96" s="0" t="n">
         <v>89</v>
@@ -48304,7 +48478,7 @@
         <v>0.1376667795</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>90</v>
@@ -48347,7 +48521,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
       <c r="AH97" s="0" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="AI97" s="0" t="n">
         <v>90</v>
@@ -48388,7 +48562,7 @@
     <row r="98" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1"/>
       <c r="C98" s="0" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>91</v>
@@ -48421,7 +48595,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
       <c r="AH98" s="0" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="AI98" s="0" t="n">
         <v>91</v>
@@ -48455,7 +48629,7 @@
         <v>0.1431920159</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>92</v>
@@ -48498,7 +48672,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
       <c r="AH99" s="0" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="AI99" s="0" t="n">
         <v>92</v>
@@ -48539,7 +48713,7 @@
     <row r="100" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1"/>
       <c r="C100" s="0" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>93</v>
@@ -48572,7 +48746,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
       <c r="AH100" s="0" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="AI100" s="0" t="n">
         <v>93</v>
@@ -48606,7 +48780,7 @@
         <v>0.1412140829</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>94</v>
@@ -48649,7 +48823,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
       <c r="AH101" s="0" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="AI101" s="0" t="n">
         <v>94</v>
@@ -48690,7 +48864,7 @@
     <row r="102" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1"/>
       <c r="C102" s="0" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>95</v>
@@ -48723,7 +48897,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
       <c r="AH102" s="0" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="AI102" s="0" t="n">
         <v>95</v>
@@ -48757,7 +48931,7 @@
         <v>0.1407937251</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>96</v>
@@ -48800,7 +48974,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
       <c r="AH103" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="AI103" s="0" t="n">
         <v>96</v>
@@ -48841,7 +49015,7 @@
     <row r="104" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="1"/>
       <c r="C104" s="0" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>97</v>
@@ -48874,7 +49048,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
       <c r="AH104" s="0" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="AI104" s="0" t="n">
         <v>97</v>
@@ -48908,7 +49082,7 @@
         <v>0.1262047252</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>98</v>
@@ -48951,7 +49125,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
       <c r="AH105" s="0" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="AI105" s="0" t="n">
         <v>98</v>
@@ -48992,7 +49166,7 @@
     <row r="106" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1"/>
       <c r="C106" s="0" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>99</v>
@@ -49025,7 +49199,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
       <c r="AH106" s="0" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="AI106" s="0" t="n">
         <v>99</v>
@@ -49059,7 +49233,7 @@
         <v>0.1285626353</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>100</v>
@@ -49102,7 +49276,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
       <c r="AH107" s="0" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="AI107" s="0" t="n">
         <v>100</v>
@@ -49143,7 +49317,7 @@
     <row r="108" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1"/>
       <c r="C108" s="0" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>101</v>
@@ -49176,7 +49350,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
       <c r="AH108" s="0" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="AI108" s="0" t="n">
         <v>101</v>
@@ -49210,7 +49384,7 @@
         <v>0.124128982</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>102</v>
@@ -49253,7 +49427,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
       <c r="AH109" s="0" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="AI109" s="0" t="n">
         <v>102</v>
@@ -49294,7 +49468,7 @@
     <row r="110" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1"/>
       <c r="C110" s="0" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>103</v>
@@ -49327,7 +49501,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
       <c r="AH110" s="0" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="AI110" s="0" t="n">
         <v>103</v>
@@ -49361,7 +49535,7 @@
         <v>0.1257338189</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>104</v>
@@ -49404,7 +49578,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
       <c r="AH111" s="0" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="AI111" s="0" t="n">
         <v>104</v>
@@ -49445,7 +49619,7 @@
     <row r="112" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1"/>
       <c r="C112" s="0" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>105</v>
@@ -49478,7 +49652,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
       <c r="AH112" s="0" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AI112" s="0" t="n">
         <v>105</v>
@@ -49512,7 +49686,7 @@
         <v>0.1216132758</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>106</v>
@@ -49555,7 +49729,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
       <c r="AH113" s="0" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="AI113" s="0" t="n">
         <v>106</v>
@@ -49596,7 +49770,7 @@
     <row r="114" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="1"/>
       <c r="C114" s="0" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>107</v>
@@ -49629,7 +49803,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
       <c r="AH114" s="0" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="AI114" s="0" t="n">
         <v>107</v>
@@ -49663,7 +49837,7 @@
         <v>0.1074732992</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>108</v>
@@ -49706,7 +49880,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
       <c r="AH115" s="0" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="AI115" s="0" t="n">
         <v>108</v>
@@ -49747,7 +49921,7 @@
     <row r="116" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="1"/>
       <c r="C116" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>109</v>
@@ -49780,7 +49954,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
       <c r="AH116" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="AI116" s="0" t="n">
         <v>109</v>
@@ -49814,7 +49988,7 @@
         <v>0.0899775179</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>110</v>
@@ -49857,7 +50031,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
       <c r="AH117" s="0" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="AI117" s="0" t="n">
         <v>110</v>
@@ -49898,7 +50072,7 @@
     <row r="118" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="1"/>
       <c r="C118" s="0" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>111</v>
@@ -49931,7 +50105,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
       <c r="AH118" s="0" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="AI118" s="0" t="n">
         <v>111</v>
@@ -49965,7 +50139,7 @@
         <v>0.0801653696</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>112</v>
@@ -50008,7 +50182,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
       <c r="AH119" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="AI119" s="0" t="n">
         <v>112</v>
@@ -50049,7 +50223,7 @@
     <row r="120" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="1"/>
       <c r="C120" s="0" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>113</v>
@@ -50082,7 +50256,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
       <c r="AH120" s="0" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="AI120" s="0" t="n">
         <v>113</v>
@@ -50116,7 +50290,7 @@
         <v>0.0788367316</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>114</v>
@@ -50159,7 +50333,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
       <c r="AH121" s="0" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="AI121" s="0" t="n">
         <v>114</v>
@@ -50203,7 +50377,7 @@
         <v>0.0985742349</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>115</v>
@@ -50246,7 +50420,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
       <c r="AH122" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AI122" s="0" t="n">
         <v>115</v>
@@ -50290,7 +50464,7 @@
         <v>0.1192286447</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>116</v>
@@ -50333,7 +50507,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
       <c r="AH123" s="0" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="AI123" s="0" t="n">
         <v>116</v>
@@ -50377,7 +50551,7 @@
         <v>0.1202145345</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>117</v>
@@ -50420,7 +50594,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
       <c r="AH124" s="0" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="AI124" s="0" t="n">
         <v>117</v>
@@ -50464,7 +50638,7 @@
         <v>0.1205344478</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>118</v>
@@ -50507,7 +50681,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
       <c r="AH125" s="0" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="AI125" s="0" t="n">
         <v>118</v>
@@ -50551,7 +50725,7 @@
         <v>0.1194938208</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>119</v>
@@ -50594,7 +50768,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
       <c r="AH126" s="0" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AI126" s="0" t="n">
         <v>119</v>
@@ -50638,7 +50812,7 @@
         <v>0.1303682252</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>120</v>
@@ -50681,7 +50855,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
       <c r="AH127" s="0" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="AI127" s="0" t="n">
         <v>120</v>
@@ -50725,7 +50899,7 @@
         <v>0.1348205942</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>121</v>
@@ -50768,7 +50942,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
       <c r="AH128" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="AI128" s="0" t="n">
         <v>121</v>
@@ -50812,7 +50986,7 @@
         <v>0.1373907125</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>122</v>
@@ -50855,7 +51029,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
       <c r="AH129" s="0" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="AI129" s="0" t="n">
         <v>122</v>
@@ -50899,7 +51073,7 @@
         <v>0.1279769945</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>123</v>
@@ -50942,7 +51116,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
       <c r="AH130" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="AI130" s="0" t="n">
         <v>123</v>
@@ -50986,7 +51160,7 @@
         <v>0.1219682845</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>124</v>
@@ -51029,7 +51203,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
       <c r="AH131" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="AI131" s="0" t="n">
         <v>124</v>
@@ -51073,7 +51247,7 @@
         <v>0.1430198679</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>125</v>
@@ -51116,7 +51290,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
       <c r="AH132" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="AI132" s="0" t="n">
         <v>125</v>
@@ -51160,7 +51334,7 @@
         <v>0.1343898815</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>126</v>
@@ -51203,7 +51377,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
       <c r="AH133" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="AI133" s="0" t="n">
         <v>126</v>
@@ -51247,7 +51421,7 @@
         <v>0.137221854</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>127</v>
@@ -51290,7 +51464,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
       <c r="AH134" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="AI134" s="0" t="n">
         <v>127</v>
@@ -51334,7 +51508,7 @@
         <v>0.1360900758</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>128</v>
@@ -51377,7 +51551,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
       <c r="AH135" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="AI135" s="0" t="n">
         <v>128</v>
@@ -51421,7 +51595,7 @@
         <v>0.1497488399</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>129</v>
@@ -51464,7 +51638,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
       <c r="AH136" s="0" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="AI136" s="0" t="n">
         <v>129</v>
@@ -51508,7 +51682,7 @@
         <v>0.1468165257</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>130</v>
@@ -51551,7 +51725,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
       <c r="AH137" s="0" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="AI137" s="0" t="n">
         <v>130</v>
@@ -51592,7 +51766,7 @@
     <row r="138" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="1"/>
       <c r="C138" s="0" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>131</v>
@@ -51625,7 +51799,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
       <c r="AH138" s="0" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="AI138" s="0" t="n">
         <v>131</v>
@@ -51659,7 +51833,7 @@
         <v>0.1567389734</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>132</v>
@@ -51702,7 +51876,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
       <c r="AH139" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="AI139" s="0" t="n">
         <v>132</v>
@@ -51746,7 +51920,7 @@
         <v>0.1396718689</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>133</v>
@@ -51789,7 +51963,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
       <c r="AH140" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="AI140" s="0" t="n">
         <v>133</v>
@@ -51833,7 +52007,7 @@
         <v>0.1464966508</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>134</v>
@@ -51876,7 +52050,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
       <c r="AH141" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="AI141" s="0" t="n">
         <v>134</v>
@@ -51920,7 +52094,7 @@
         <v>0.1511412362</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>135</v>
@@ -51963,7 +52137,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
       <c r="AH142" s="0" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="AI142" s="0" t="n">
         <v>135</v>
@@ -52007,7 +52181,7 @@
         <v>0.142844428</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>136</v>
@@ -52050,7 +52224,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
       <c r="AH143" s="0" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="AI143" s="0" t="n">
         <v>136</v>
@@ -52094,7 +52268,7 @@
         <v>0.1355907701</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>137</v>
@@ -52137,7 +52311,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
       <c r="AH144" s="0" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="AI144" s="0" t="n">
         <v>137</v>
@@ -52181,7 +52355,7 @@
         <v>0.1323540236</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>138</v>
@@ -52224,7 +52398,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
       <c r="AH145" s="0" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AI145" s="0" t="n">
         <v>138</v>
@@ -52268,7 +52442,7 @@
         <v>0.1285650329</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>139</v>
@@ -52311,7 +52485,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
       <c r="AH146" s="0" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AI146" s="0" t="n">
         <v>139</v>
@@ -52355,7 +52529,7 @@
         <v>0.1145466074</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>140</v>
@@ -52398,7 +52572,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
       <c r="AH147" s="0" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="AI147" s="0" t="n">
         <v>140</v>
@@ -52442,7 +52616,7 @@
         <v>0.1316293675</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>141</v>
@@ -52485,7 +52659,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
       <c r="AH148" s="0" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="AI148" s="0" t="n">
         <v>141</v>
@@ -52529,7 +52703,7 @@
         <v>0.1389852344</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>142</v>
@@ -52572,7 +52746,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
       <c r="AH149" s="0" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="AI149" s="0" t="n">
         <v>142</v>
@@ -52616,7 +52790,7 @@
         <v>0.1433559766</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>143</v>
@@ -52659,7 +52833,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
       <c r="AH150" s="0" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="AI150" s="0" t="n">
         <v>143</v>
@@ -52703,7 +52877,7 @@
         <v>0.1378898272</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>144</v>
@@ -52746,7 +52920,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
       <c r="AH151" s="0" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="AI151" s="0" t="n">
         <v>144</v>
@@ -52790,7 +52964,7 @@
         <v>0.1340250847</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>145</v>
@@ -52833,7 +53007,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
       <c r="AH152" s="0" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="AI152" s="0" t="n">
         <v>145</v>
@@ -52877,7 +53051,7 @@
         <v>0.1396290821</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>146</v>
@@ -52920,7 +53094,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
       <c r="AH153" s="0" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="AI153" s="0" t="n">
         <v>146</v>
@@ -52964,7 +53138,7 @@
         <v>0.1454228549</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>147</v>
@@ -53007,7 +53181,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
       <c r="AH154" s="0" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="AI154" s="0" t="n">
         <v>147</v>
@@ -53051,7 +53225,7 @@
         <v>0.141814718</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>148</v>
@@ -53094,7 +53268,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
       <c r="AH155" s="0" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AI155" s="0" t="n">
         <v>148</v>
@@ -53138,7 +53312,7 @@
         <v>0.1329188961</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>149</v>
@@ -53181,7 +53355,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
       <c r="AH156" s="0" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AI156" s="0" t="n">
         <v>149</v>
@@ -53225,7 +53399,7 @@
         <v>0.1236320225</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>150</v>
@@ -53268,7 +53442,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
       <c r="AH157" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="AI157" s="0" t="n">
         <v>150</v>
@@ -53312,7 +53486,7 @@
         <v>0.1362855228</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>151</v>
@@ -53355,7 +53529,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
       <c r="AH158" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="AI158" s="0" t="n">
         <v>151</v>
@@ -53399,7 +53573,7 @@
         <v>0.139175282</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>152</v>
@@ -53442,7 +53616,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
       <c r="AH159" s="0" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="AI159" s="0" t="n">
         <v>152</v>
@@ -53486,7 +53660,7 @@
         <v>0.1366378981</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>153</v>
@@ -53529,7 +53703,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
       <c r="AH160" s="0" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AI160" s="0" t="n">
         <v>153</v>
@@ -53573,7 +53747,7 @@
         <v>0.1179233816</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>154</v>
@@ -53616,7 +53790,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
       <c r="AH161" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AI161" s="0" t="n">
         <v>154</v>
@@ -53660,7 +53834,7 @@
         <v>0.113989806</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>155</v>
@@ -53703,7 +53877,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
       <c r="AH162" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="AI162" s="0" t="n">
         <v>155</v>
@@ -53747,7 +53921,7 @@
         <v>0.1111436188</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>156</v>
@@ -53790,7 +53964,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
       <c r="AH163" s="0" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="AI163" s="0" t="n">
         <v>156</v>
@@ -53834,7 +54008,7 @@
         <v>0.1292437922</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>157</v>
@@ -53877,7 +54051,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
       <c r="AH164" s="0" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AI164" s="0" t="n">
         <v>157</v>
@@ -53921,7 +54095,7 @@
         <v>0.1310061393</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>158</v>
@@ -53964,7 +54138,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
       <c r="AH165" s="0" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="AI165" s="0" t="n">
         <v>158</v>
@@ -54008,7 +54182,7 @@
         <v>0.1194103348</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>159</v>
@@ -54051,7 +54225,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
       <c r="AH166" s="0" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="AI166" s="0" t="n">
         <v>159</v>
@@ -54095,7 +54269,7 @@
         <v>0.1103959014</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>160</v>
@@ -54138,7 +54312,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
       <c r="AH167" s="0" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="AI167" s="0" t="n">
         <v>160</v>
@@ -54182,7 +54356,7 @@
         <v>0.1169026145</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>161</v>
@@ -54225,7 +54399,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
       <c r="AH168" s="0" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="AI168" s="0" t="n">
         <v>161</v>
@@ -54269,7 +54443,7 @@
         <v>0.1232194249</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>162</v>
@@ -54312,7 +54486,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
       <c r="AH169" s="0" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="AI169" s="0" t="n">
         <v>162</v>
@@ -54353,7 +54527,7 @@
     <row r="170" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="1"/>
       <c r="C170" s="0" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>163</v>
@@ -54386,7 +54560,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
       <c r="AH170" s="0" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="AI170" s="0" t="n">
         <v>163</v>
@@ -54417,7 +54591,7 @@
     <row r="171" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="1"/>
       <c r="C171" s="0" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>164</v>
@@ -54450,7 +54624,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
       <c r="AH171" s="0" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="AI171" s="0" t="n">
         <v>164</v>
@@ -54481,7 +54655,7 @@
     <row r="172" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="1"/>
       <c r="C172" s="0" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>165</v>
@@ -54514,7 +54688,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
       <c r="AH172" s="0" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="AI172" s="0" t="n">
         <v>165</v>
@@ -54548,7 +54722,7 @@
         <v>0.1051070485</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>166</v>
@@ -54590,7 +54764,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
       <c r="AH173" s="0" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="AI173" s="0" t="n">
         <v>166</v>
@@ -54633,7 +54807,7 @@
         <v>0.1096864667</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>167</v>
@@ -54675,7 +54849,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
       <c r="AH174" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="AI174" s="0" t="n">
         <v>167</v>
@@ -54718,7 +54892,7 @@
         <v>0.103301065</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>168</v>
@@ -54777,7 +54951,7 @@
         <v>0.01276852714</v>
       </c>
       <c r="AH175" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="AI175" s="0" t="n">
         <v>168</v>
@@ -54846,7 +55020,7 @@
         <v>0.1021125894</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>169</v>
@@ -54883,7 +55057,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
       <c r="AH176" s="0" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="AI176" s="0" t="n">
         <v>169</v>
@@ -56799,7 +56973,7 @@
         <v>0.417307752531169</v>
       </c>
       <c r="BC195" s="5" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="BD195" s="5"/>
       <c r="BE195" s="5"/>
@@ -66656,15 +66830,15 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G282" s="0" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="H282" s="0" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C283" s="0" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="F283" s="0" t="n">
         <v>2020</v>
@@ -66691,7 +66865,7 @@
         <v>0.275162857371758</v>
       </c>
       <c r="J284" s="0" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
